--- a/FinalReport/key_tables.xlsx
+++ b/FinalReport/key_tables.xlsx
@@ -1,22 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\g_gna\Documents\TCD\Modules\CS7CS5_Dissertation\FinalReport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{304A83B6-AD65-44DE-BACE-1094F0BB4AD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF9355CB-6CBE-4FAA-8FAC-4E3163E31E1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="9463" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="9463" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="env_vars" sheetId="1" r:id="rId1"/>
     <sheet name="ui_components" sheetId="2" r:id="rId2"/>
     <sheet name="data" sheetId="3" r:id="rId3"/>
     <sheet name="sim mw games key ideas" sheetId="4" r:id="rId4"/>
+    <sheet name="pedagogy best practices" sheetId="5" r:id="rId5"/>
+    <sheet name="challenges" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="151">
   <si>
     <t>Carbon Dynamics</t>
   </si>
@@ -367,6 +369,199 @@
   </si>
   <si>
     <t>Graphical feedback accompanied by short, embedded multimedia explanations result in better understanding of ideas by students compared to when only graphical or textual feedback was provided instead.</t>
+  </si>
+  <si>
+    <t>Good Practices</t>
+  </si>
+  <si>
+    <t>Piagetian Learning Theory</t>
+  </si>
+  <si>
+    <t>Flow Theory</t>
+  </si>
+  <si>
+    <t>(i) Epistemic conflict.</t>
+  </si>
+  <si>
+    <t>(ii) Self-reflection.</t>
+  </si>
+  <si>
+    <t>(iii) Self-regulation.</t>
+  </si>
+  <si>
+    <t>(iii) Clear goals.</t>
+  </si>
+  <si>
+    <t>(iv) Clear feedback.</t>
+  </si>
+  <si>
+    <t>(vi) Sense of control.</t>
+  </si>
+  <si>
+    <t>(i) Structure learning activities around challenges to introduce gamification.</t>
+  </si>
+  <si>
+    <t>(ii) Having multiple challenges at varying levels of difficulty increases the likelihood of learners finding a challenge optimal.</t>
+  </si>
+  <si>
+    <t>(iii) Model progression is beneficial.</t>
+  </si>
+  <si>
+    <t>(iv) Good UX is key to avoiding learner frustration.</t>
+  </si>
+  <si>
+    <t>(v) Graphical feedback accompanied by short, embedded multimedia explanations boosts understanding and reduces frustration.</t>
+  </si>
+  <si>
+    <t>(vi) Guidance during interaction with the tool improves learning.</t>
+  </si>
+  <si>
+    <t>(vii) Ensure students explore the microworld within the context of a structured activity to ensure learning.</t>
+  </si>
+  <si>
+    <t>(viii) Topic related discussions boost understanding.</t>
+  </si>
+  <si>
+    <t>(ix) Students find a storyline, an important motivator and construct using which to mentally relate to the tool.</t>
+  </si>
+  <si>
+    <t>(i) Optimized challenge level.</t>
+  </si>
+  <si>
+    <t>(viii) Hastened sense of time.</t>
+  </si>
+  <si>
+    <t>(v) Absorbing experience.</t>
+  </si>
+  <si>
+    <t>(vii) Frees learner of self-consciousness.</t>
+  </si>
+  <si>
+    <t>(ii) Holds attention.</t>
+  </si>
+  <si>
+    <t>Goal</t>
+  </si>
+  <si>
+    <t>Active Features</t>
+  </si>
+  <si>
+    <t>Maximize income from the forest.</t>
+  </si>
+  <si>
+    <t>Maximize income while trying to keep CO2 concentration ideal.</t>
+  </si>
+  <si>
+    <t>How long before fossil fuel usage leads to critical CO2 levels (red) or complete forest death in the microworld? How to increase this time?</t>
+  </si>
+  <si>
+    <t>How helpful is diversifying income from forests?</t>
+  </si>
+  <si>
+    <t>Expected Learner Activity</t>
+  </si>
+  <si>
+    <t>Challenge 1 Features
++ CO2 Target Setter
++ CO2 Scale
+- Money Viewer</t>
+  </si>
+  <si>
+    <t>Challenge 2 Features
++ Money Viewer</t>
+  </si>
+  <si>
+    <t>Timeline
+Land
+Money Viewer
+Plan Viewer
+Planner
+Timber Income Stream</t>
+  </si>
+  <si>
+    <t>Challenge 4 Features
++ NTFP Income Stream
++ Recreation Income Stream</t>
+  </si>
+  <si>
+    <t>Possible Learnings</t>
+  </si>
+  <si>
+    <t># It is impossible to keep CO2 levels in a safe range without lowering profit margins.</t>
+  </si>
+  <si>
+    <t># Forests are crucial to keeping CO2 levels in check as they sequester CO2. 
+# Mature and older trees are needed to keep atmospheric CO2 levels low. 
+# Mature trees absorb more carbon as they grow. But older trees store more CO2. 
+# Chopping an older tree releases more CO2 at once than chopping a mature tree. 
+# Clear felling is the worst strategy. 
+# Thinning is a better idea.
+# No management is the best strategy.</t>
+  </si>
+  <si>
+    <t># Activate CO2 target.
+# Try best plan from challenge 1. Note highest CO2 concentration figure across 300 years.
+# Set a slightly lower concentration value as target.
+# Tweak management plan.
+# Try to hit lower CO2 target.
+# Repeat last 3 steps.</t>
+  </si>
+  <si>
+    <t>Challenge 3 Features
++ Fossil Fuel Usage Panel
++ Carbon Distribution Panel
++ Biodiversity Score &amp; Land Class</t>
+  </si>
+  <si>
+    <t># Set both CO2 target and income target.
+# Tweak plan and see if targets are achieved. 
+# Report lowest CO2 + highest Income target combination achieved.</t>
+  </si>
+  <si>
+    <t># Set fossil fuel usage emission to current global level of 10 GtC and observe how many years pass before CO2 levels reach critical levels and the entire forest dies out.
+# Tweak plans to see if some management strategy can keep carbon levels in check.
+# Realize that this is not possible. Only way to reduce atmospheric CO2 concentration is to reduce emissions.</t>
+  </si>
+  <si>
+    <t># Activate other income streams.
+# Compare per year, per rotation, and overall income and expenses of these other streams with that of the default timber stream.</t>
+  </si>
+  <si>
+    <t># Timber is profitable resource. This motivates deforestation.
+# Generally, forest management activities are performed in rounds.</t>
+  </si>
+  <si>
+    <t># Create management plans that chop as many trees as possible.
+# Note down income.
+# Edit plan. Try changing rotation period.
+# Coniferous trees are more profitable. Try planting only coniferous trees.</t>
+  </si>
+  <si>
+    <t>Keep atmospheric CO2 concentration at as desirable a value  as possible.</t>
+  </si>
+  <si>
+    <t># Only way to improve CO2 concentration in the air is to significantly cut down fossil fuel emissions. No silver bullet.
+# There is more carbon trapped within earth as fossil fuels than there is in the air and vegetation.</t>
+  </si>
+  <si>
+    <t># Other income streams are not very profitable. Neither are they as reliable as timber. 
+# There is a need to research more ways of earning from a forest that does not involve chopping down trees.
+# Means of earning from forests such as forest recreation that involves building infrastructure requires large upfront investment.</t>
+  </si>
+  <si>
+    <t>Challenge 1</t>
+  </si>
+  <si>
+    <t>Challenge 2</t>
+  </si>
+  <si>
+    <t>Challenge 3</t>
+  </si>
+  <si>
+    <t>Challenge 4</t>
+  </si>
+  <si>
+    <t>Challenge 5</t>
   </si>
 </sst>
 </file>
@@ -429,7 +624,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -523,6 +718,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFDDDD"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -662,7 +863,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -739,6 +940,22 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -775,39 +992,89 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -819,6 +1086,8 @@
   </tableStyles>
   <colors>
     <mruColors>
+      <color rgb="FFFFDDDD"/>
+      <color rgb="FFFFCCCC"/>
       <color rgb="FFFFEBFF"/>
       <color rgb="FFE1FFFF"/>
       <color rgb="FFEEDDFF"/>
@@ -1118,19 +1387,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="27"/>
+      <c r="B1" s="33"/>
       <c r="C1" s="12" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="84.9" x14ac:dyDescent="0.4">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="29"/>
+      <c r="B2" s="35"/>
       <c r="C2" s="13" t="s">
         <v>13</v>
       </c>
@@ -1138,8 +1407,8 @@
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A3" s="28"/>
-      <c r="B3" s="29"/>
+      <c r="A3" s="34"/>
+      <c r="B3" s="35"/>
       <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
@@ -1147,8 +1416,8 @@
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" ht="118.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="30"/>
-      <c r="B4" s="31"/>
+      <c r="A4" s="36"/>
+      <c r="B4" s="37"/>
       <c r="C4" s="3" t="s">
         <v>11</v>
       </c>
@@ -1176,19 +1445,19 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="33"/>
+      <c r="B7" s="39"/>
       <c r="C7" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="42.45" x14ac:dyDescent="0.4">
-      <c r="A8" s="34" t="s">
+      <c r="A8" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="35"/>
+      <c r="B8" s="41"/>
       <c r="C8" s="5" t="s">
         <v>4</v>
       </c>
@@ -1403,12 +1672,12 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A4" s="36"/>
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
+      <c r="A4" s="42"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
       <c r="G4" s="25"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
@@ -1472,12 +1741,12 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A8" s="36"/>
-      <c r="B8" s="36"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
+      <c r="A8" s="42"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
       <c r="G8" s="25"/>
     </row>
     <row r="9" spans="1:7" ht="23.15" x14ac:dyDescent="0.4">
@@ -1541,12 +1810,12 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A12" s="37"/>
-      <c r="B12" s="37"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="37"/>
+      <c r="A12" s="43"/>
+      <c r="B12" s="43"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="43"/>
     </row>
     <row r="13" spans="1:7" ht="23.15" x14ac:dyDescent="0.4">
       <c r="A13" s="22" t="s">
@@ -1623,70 +1892,70 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F247DBC2-86D7-40D9-BBB1-B4B3735D2E61}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.69140625" style="38" customWidth="1"/>
-    <col min="2" max="2" width="50.69140625" style="39" customWidth="1"/>
-    <col min="3" max="3" width="30.69140625" style="39" customWidth="1"/>
-    <col min="4" max="4" width="3.69140625" style="39" customWidth="1"/>
-    <col min="5" max="16384" width="9.23046875" style="38"/>
+    <col min="1" max="1" width="3.69140625" style="26" customWidth="1"/>
+    <col min="2" max="2" width="50.69140625" style="27" customWidth="1"/>
+    <col min="3" max="3" width="30.69140625" style="27" customWidth="1"/>
+    <col min="4" max="4" width="3.69140625" style="27" customWidth="1"/>
+    <col min="5" max="16384" width="9.23046875" style="26"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="56.6" x14ac:dyDescent="0.35">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="46" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="28" t="s">
         <v>98</v>
       </c>
-      <c r="C1" s="42" t="s">
+      <c r="C1" s="45" t="s">
         <v>95</v>
       </c>
-      <c r="D1" s="43" t="s">
+      <c r="D1" s="48" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="70.75" x14ac:dyDescent="0.35">
-      <c r="A2" s="44"/>
-      <c r="B2" s="41" t="s">
+      <c r="A2" s="47"/>
+      <c r="B2" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="49"/>
     </row>
     <row r="3" spans="1:4" ht="42.45" x14ac:dyDescent="0.35">
-      <c r="A3" s="44"/>
-      <c r="B3" s="41" t="s">
+      <c r="A3" s="47"/>
+      <c r="B3" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="C3" s="46" t="s">
+      <c r="C3" s="30" t="s">
         <v>96</v>
       </c>
-      <c r="D3" s="47" t="s">
+      <c r="D3" s="50" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="70.75" x14ac:dyDescent="0.35">
-      <c r="A4" s="44"/>
-      <c r="B4" s="41" t="s">
+      <c r="A4" s="47"/>
+      <c r="B4" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="C4" s="49" t="s">
+      <c r="C4" s="44" t="s">
         <v>97</v>
       </c>
-      <c r="D4" s="48"/>
+      <c r="D4" s="51"/>
     </row>
     <row r="5" spans="1:4" ht="70.75" x14ac:dyDescent="0.35">
-      <c r="A5" s="44"/>
-      <c r="B5" s="41" t="s">
+      <c r="A5" s="47"/>
+      <c r="B5" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="C5" s="49"/>
-      <c r="D5" s="48"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1699,4 +1968,247 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8FE6774-1E3A-4B01-9F79-0CE882F43062}">
+  <dimension ref="A1:B13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="35.84375" style="27" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="70.69140625" style="27" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A1" s="52" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1" s="53" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A2" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="28.3" x14ac:dyDescent="0.4">
+      <c r="A3" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A4" s="31" t="s">
+        <v>104</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A5" s="54" t="s">
+        <v>101</v>
+      </c>
+      <c r="B5" s="28" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A6" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="B6" s="55" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A7" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="B7" s="55"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A8" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="B8" s="28" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A9" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="B9" s="55" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A10" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="B10" s="55"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A11" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="B11" s="28" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A12" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="B12" s="55" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A13" s="29" t="s">
+        <v>118</v>
+      </c>
+      <c r="B13" s="55"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B6:B7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D47BAC5F-10D1-4E9A-81F4-B6DA49B47F0B}">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="3.3046875" style="60" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="30.69140625" style="27" customWidth="1"/>
+    <col min="5" max="5" width="30.69140625" style="56" customWidth="1"/>
+    <col min="6" max="16384" width="9.23046875" style="56"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A1" s="59"/>
+      <c r="B1" s="57" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1" s="57" t="s">
+        <v>123</v>
+      </c>
+      <c r="D1" s="57" t="s">
+        <v>133</v>
+      </c>
+      <c r="E1" s="58" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="113.15" x14ac:dyDescent="0.4">
+      <c r="A2" s="71" t="s">
+        <v>146</v>
+      </c>
+      <c r="B2" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>131</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="E2" s="29" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="240.45" x14ac:dyDescent="0.4">
+      <c r="A3" s="70" t="s">
+        <v>147</v>
+      </c>
+      <c r="B3" s="31" t="s">
+        <v>143</v>
+      </c>
+      <c r="C3" s="64" t="s">
+        <v>129</v>
+      </c>
+      <c r="D3" s="31" t="s">
+        <v>135</v>
+      </c>
+      <c r="E3" s="31" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="99" x14ac:dyDescent="0.4">
+      <c r="A4" s="69" t="s">
+        <v>148</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="C4" s="61" t="s">
+        <v>130</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="183.9" x14ac:dyDescent="0.4">
+      <c r="A5" s="68" t="s">
+        <v>149</v>
+      </c>
+      <c r="B5" s="62" t="s">
+        <v>126</v>
+      </c>
+      <c r="C5" s="63" t="s">
+        <v>137</v>
+      </c>
+      <c r="D5" s="62" t="s">
+        <v>144</v>
+      </c>
+      <c r="E5" s="62" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="169.75" x14ac:dyDescent="0.4">
+      <c r="A6" s="67" t="s">
+        <v>150</v>
+      </c>
+      <c r="B6" s="65" t="s">
+        <v>127</v>
+      </c>
+      <c r="C6" s="66" t="s">
+        <v>132</v>
+      </c>
+      <c r="D6" s="65" t="s">
+        <v>145</v>
+      </c>
+      <c r="E6" s="65" t="s">
+        <v>140</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/FinalReport/key_tables.xlsx
+++ b/FinalReport/key_tables.xlsx
@@ -8,17 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\g_gna\Documents\TCD\Modules\CS7CS5_Dissertation\FinalReport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF9355CB-6CBE-4FAA-8FAC-4E3163E31E1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D2D95B9-91C3-4401-9512-813ECC6B5AF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="9463" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="9463" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="env_vars" sheetId="1" r:id="rId1"/>
-    <sheet name="ui_components" sheetId="2" r:id="rId2"/>
-    <sheet name="data" sheetId="3" r:id="rId3"/>
-    <sheet name="sim mw games key ideas" sheetId="4" r:id="rId4"/>
-    <sheet name="pedagogy best practices" sheetId="5" r:id="rId5"/>
-    <sheet name="challenges" sheetId="6" r:id="rId6"/>
+    <sheet name="tool_critique" sheetId="8" r:id="rId1"/>
+    <sheet name="env_vars" sheetId="1" r:id="rId2"/>
+    <sheet name="ui_components" sheetId="2" r:id="rId3"/>
+    <sheet name="data" sheetId="3" r:id="rId4"/>
+    <sheet name="sim mw games key ideas" sheetId="4" r:id="rId5"/>
+    <sheet name="pedagogy best practices" sheetId="5" r:id="rId6"/>
+    <sheet name="challenges" sheetId="6" r:id="rId7"/>
+    <sheet name="tool_pros_cons" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="230">
   <si>
     <t>Carbon Dynamics</t>
   </si>
@@ -563,12 +565,337 @@
   <si>
     <t>Challenge 5</t>
   </si>
+  <si>
+    <t>Pros</t>
+  </si>
+  <si>
+    <t>Cons</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Tool is very </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>flexible</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> and supports a rich variety of scenarios. Participants can come up with creative strategies not severely limited by tool capabilities.</t>
+    </r>
+  </si>
+  <si>
+    <t>Participants enjoyed the ComMod wherein decisions followed group discussions.</t>
+  </si>
+  <si>
+    <t>Participants found the UI too mathematical and hard to relate to.</t>
+  </si>
+  <si>
+    <t>Participants cannot interact with the tool directly. They must rely on the facilitator.</t>
+  </si>
+  <si>
+    <t>Tool requires extensive introductory training and user guides.</t>
+  </si>
+  <si>
+    <t>Tool use instructional material (2 usage videos, 6 booklets one for each role + facilitator) provided was overwhelming for some participants. Thus, learning curve is very high.</t>
+  </si>
+  <si>
+    <t>This tool requires an elaborate set up with 2 projectors and a facilitator. It was built using software that needs to be downloaded and installed along with associated user guide materials. This makes this tool less accessible.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Tool is </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>realistic</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> with well a designed ABM.</t>
+    </r>
+  </si>
+  <si>
+    <t>Foster Forest</t>
+  </si>
+  <si>
+    <t>Participants must be familiar with the domain. Not for the lay man.</t>
+  </si>
+  <si>
+    <t>Participants appreciated being able to test strategies in a risk-free environment.</t>
+  </si>
+  <si>
+    <t>Mine Set</t>
+  </si>
+  <si>
+    <t>ComMod.</t>
+  </si>
+  <si>
+    <t>Models a rich variety of land use change drivers.</t>
+  </si>
+  <si>
+    <t>Allegorical model is less scientifically accurate.</t>
+  </si>
+  <si>
+    <t>Significant set up required.</t>
+  </si>
+  <si>
+    <t>Engaging and immersive.</t>
+  </si>
+  <si>
+    <t>No explicit mention of climate change.</t>
+  </si>
+  <si>
+    <t>Incorporates model progression to gradually reveal game complexity.</t>
+  </si>
+  <si>
+    <t>Caters to a wide audience, particularly forest stakeholders. However, non-expert audiences can also enjoy and learn from it.</t>
+  </si>
+  <si>
+    <t>The physical mine set board game is a more holistic visceral experince that is more likely to be remembered given close in-person interaction with peers and physical interaction with game pieces.</t>
+  </si>
+  <si>
+    <t>The physical nature of the game requires in-person attendance. This makes it less widely accessible unless online collaborative tools (like zoom, google meet, etc.) are incorporated and a third party coordinates and communicates all player moves. This is tedious.</t>
+  </si>
+  <si>
+    <t>About That Forest</t>
+  </si>
+  <si>
+    <t>Engaging.</t>
+  </si>
+  <si>
+    <t>Competition in addition to cooperation.</t>
+  </si>
+  <si>
+    <t>Widely accessible.</t>
+  </si>
+  <si>
+    <t>Appeals to a wide age group and range of starting knowledge levels.</t>
+  </si>
+  <si>
+    <t>Underlying model and research not openly available.</t>
+  </si>
+  <si>
+    <t>Atmospheric CO2 levels is not a modelled indcator.</t>
+  </si>
+  <si>
+    <t>No big cons.</t>
+  </si>
+  <si>
+    <t>Multiple economic drivers of exploitation.</t>
+  </si>
+  <si>
+    <t>Underlying code allows for easily modifiable settings.</t>
+  </si>
+  <si>
+    <t>Forest Kids</t>
+  </si>
+  <si>
+    <t>Motivating mini-games.</t>
+  </si>
+  <si>
+    <t>Visually very attractive.</t>
+  </si>
+  <si>
+    <t>In-app help is well placed and provided in small, easy to absorb chunks.</t>
+  </si>
+  <si>
+    <t>Great user experience with smooth interactions.</t>
+  </si>
+  <si>
+    <t>Very informative and covers different topics related to forest biodiversity and Earth's climate.</t>
+  </si>
+  <si>
+    <t>Text in the game is supported by audio readouts to make it easier to absorb for children.</t>
+  </si>
+  <si>
+    <t>Facts are repeated from time to time but not too frequently.  This may promote information persistence in memory.</t>
+  </si>
+  <si>
+    <t>Age appropriate for children.</t>
+  </si>
+  <si>
+    <t>Facts presented during matching and memory  games are random and lack connection. This can make them hard to learn.</t>
+  </si>
+  <si>
+    <t>No learning through making.</t>
+  </si>
+  <si>
+    <t>Games are very engaging. The timing element adds a sense of urgency. As pointed out by [], games that are very competative or engaging, often with a scoring mechanism, especially in the absence of constructionist mechanisms, can significantly effect learning negatively. Users tend to enter a "twitch" mode where they are hyperfocused on improving score and learning suffers. This is a real threat in this game. Personally, when trying the memory game, I soon found myself ignoring the facts as I focused more on memorizing tile symbols to get the matches right before the timer runs out to score maximum points.</t>
+  </si>
+  <si>
+    <t>SimForest</t>
+  </si>
+  <si>
+    <t>Rich set of manipulatable controls.</t>
+  </si>
+  <si>
+    <t>Allows moving through times at various speeds.</t>
+  </si>
+  <si>
+    <t>Good data visualization.</t>
+  </si>
+  <si>
+    <t>Does not consider atmospheric CO2 levels.</t>
+  </si>
+  <si>
+    <t>Only available on PC and requires download and possibly some set up (OS, Java, or Swing related compatibility issues possible).</t>
+  </si>
+  <si>
+    <t>Can be adapted to teach a range of age groups and expertise levels (school grade 4 all the way up to university graduate students and forestry professionals).</t>
+  </si>
+  <si>
+    <t>General forest growth simulation around which multiple learning scenarios may be developed.</t>
+  </si>
+  <si>
+    <t>Facilitates  inquiry-based  constructivist learning comprising multiple iterative inquiry cycles with steps (i) ask question or form hypothesis, (ii) plan to answer or test hypothesis (iii) note observations, (iv) analyze data gathered, (v) communicate learnings.</t>
+  </si>
+  <si>
+    <t>Clean user-friendly UI.</t>
+  </si>
+  <si>
+    <t>Allows multi-level control (high-level or black box, as well as low-level or glass box).</t>
+  </si>
+  <si>
+    <t>Does not consider economic value of forests.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">INFORMATIVE </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TOOL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> →
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>QUALITY</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ↓</t>
+    </r>
+  </si>
+  <si>
+    <t>FOSTER FOREST</t>
+  </si>
+  <si>
+    <t>MINE SET</t>
+  </si>
+  <si>
+    <t>ABOUT 
+THAT FOREST</t>
+  </si>
+  <si>
+    <t>FOREST KIDS</t>
+  </si>
+  <si>
+    <t>MYCROFOREST</t>
+  </si>
+  <si>
+    <t>ENGAGING</t>
+  </si>
+  <si>
+    <t>EASILY ACCESSIBLE</t>
+  </si>
+  <si>
+    <t>FOR YOUTH</t>
+  </si>
+  <si>
+    <t>TEAM</t>
+  </si>
+  <si>
+    <t>SOLO</t>
+  </si>
+  <si>
+    <t>FOCUSED AIM</t>
+  </si>
+  <si>
+    <t>FOREST MANAGEMENT</t>
+  </si>
+  <si>
+    <t>FOREST AS CARBON SINK</t>
+  </si>
+  <si>
+    <t>FINANCIAL MOTIVE</t>
+  </si>
+  <si>
+    <t>LOW ENTRY THRESHOLD</t>
+  </si>
+  <si>
+    <t>EASY TO USE UI</t>
+  </si>
+  <si>
+    <t>SUFFICIENT BUILT IN HELP</t>
+  </si>
+  <si>
+    <t>SIMFOREST</t>
+  </si>
+  <si>
+    <t>⚫</t>
+  </si>
+  <si>
+    <t>REALISTIC</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -623,8 +950,45 @@
       <name val="Cambria"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFC000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="18">
+  <fills count="22">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -727,8 +1091,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFE1E1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -859,11 +1247,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -956,6 +1355,81 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1016,65 +1490,47 @@
     <xf numFmtId="0" fontId="1" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1369,6 +1825,347 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9079DD0-448F-48EB-B592-370B7EA5A551}">
+  <dimension ref="A1:G14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="23.921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="7" width="13.69140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A1" s="90" t="s">
+        <v>209</v>
+      </c>
+      <c r="B1" s="88" t="s">
+        <v>210</v>
+      </c>
+      <c r="C1" s="88" t="s">
+        <v>211</v>
+      </c>
+      <c r="D1" s="88" t="s">
+        <v>212</v>
+      </c>
+      <c r="E1" s="88" t="s">
+        <v>213</v>
+      </c>
+      <c r="F1" s="88" t="s">
+        <v>227</v>
+      </c>
+      <c r="G1" s="84" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A2" s="88" t="s">
+        <v>229</v>
+      </c>
+      <c r="B2" s="86" t="s">
+        <v>228</v>
+      </c>
+      <c r="C2" s="87" t="s">
+        <v>228</v>
+      </c>
+      <c r="D2" s="87" t="s">
+        <v>228</v>
+      </c>
+      <c r="E2" s="86" t="s">
+        <v>228</v>
+      </c>
+      <c r="F2" s="86" t="s">
+        <v>228</v>
+      </c>
+      <c r="G2" s="87" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A3" s="89" t="s">
+        <v>215</v>
+      </c>
+      <c r="B3" s="86" t="s">
+        <v>228</v>
+      </c>
+      <c r="C3" s="86" t="s">
+        <v>228</v>
+      </c>
+      <c r="D3" s="86" t="s">
+        <v>228</v>
+      </c>
+      <c r="E3" s="86" t="s">
+        <v>228</v>
+      </c>
+      <c r="F3" s="86" t="s">
+        <v>228</v>
+      </c>
+      <c r="G3" s="86" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A4" s="88" t="s">
+        <v>216</v>
+      </c>
+      <c r="B4" s="85" t="s">
+        <v>228</v>
+      </c>
+      <c r="C4" s="85" t="s">
+        <v>228</v>
+      </c>
+      <c r="D4" s="86" t="s">
+        <v>228</v>
+      </c>
+      <c r="E4" s="86" t="s">
+        <v>228</v>
+      </c>
+      <c r="F4" s="85" t="s">
+        <v>228</v>
+      </c>
+      <c r="G4" s="86" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A5" s="88" t="s">
+        <v>217</v>
+      </c>
+      <c r="B5" s="85" t="s">
+        <v>228</v>
+      </c>
+      <c r="C5" s="86" t="s">
+        <v>228</v>
+      </c>
+      <c r="D5" s="86" t="s">
+        <v>228</v>
+      </c>
+      <c r="E5" s="85" t="s">
+        <v>228</v>
+      </c>
+      <c r="F5" s="86" t="s">
+        <v>228</v>
+      </c>
+      <c r="G5" s="86" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A6" s="88" t="s">
+        <v>218</v>
+      </c>
+      <c r="B6" s="86" t="s">
+        <v>228</v>
+      </c>
+      <c r="C6" s="86" t="s">
+        <v>228</v>
+      </c>
+      <c r="D6" s="86" t="s">
+        <v>228</v>
+      </c>
+      <c r="E6" s="86" t="s">
+        <v>228</v>
+      </c>
+      <c r="F6" s="87" t="s">
+        <v>228</v>
+      </c>
+      <c r="G6" s="87" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A7" s="88" t="s">
+        <v>219</v>
+      </c>
+      <c r="B7" s="85" t="s">
+        <v>228</v>
+      </c>
+      <c r="C7" s="85" t="s">
+        <v>228</v>
+      </c>
+      <c r="D7" s="85" t="s">
+        <v>228</v>
+      </c>
+      <c r="E7" s="86" t="s">
+        <v>228</v>
+      </c>
+      <c r="F7" s="86" t="s">
+        <v>228</v>
+      </c>
+      <c r="G7" s="86" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A8" s="88" t="s">
+        <v>220</v>
+      </c>
+      <c r="B8" s="85" t="s">
+        <v>228</v>
+      </c>
+      <c r="C8" s="85" t="s">
+        <v>228</v>
+      </c>
+      <c r="D8" s="86" t="s">
+        <v>228</v>
+      </c>
+      <c r="E8" s="86" t="s">
+        <v>228</v>
+      </c>
+      <c r="F8" s="85" t="s">
+        <v>228</v>
+      </c>
+      <c r="G8" s="86" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A9" s="88" t="s">
+        <v>221</v>
+      </c>
+      <c r="B9" s="86" t="s">
+        <v>228</v>
+      </c>
+      <c r="C9" s="86" t="s">
+        <v>228</v>
+      </c>
+      <c r="D9" s="86" t="s">
+        <v>228</v>
+      </c>
+      <c r="E9" s="85" t="s">
+        <v>228</v>
+      </c>
+      <c r="F9" s="85" t="s">
+        <v>228</v>
+      </c>
+      <c r="G9" s="86" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A10" s="88" t="s">
+        <v>222</v>
+      </c>
+      <c r="B10" s="86" t="s">
+        <v>228</v>
+      </c>
+      <c r="C10" s="85" t="s">
+        <v>228</v>
+      </c>
+      <c r="D10" s="85" t="s">
+        <v>228</v>
+      </c>
+      <c r="E10" s="85" t="s">
+        <v>228</v>
+      </c>
+      <c r="F10" s="85" t="s">
+        <v>228</v>
+      </c>
+      <c r="G10" s="86" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A11" s="88" t="s">
+        <v>223</v>
+      </c>
+      <c r="B11" s="86" t="s">
+        <v>228</v>
+      </c>
+      <c r="C11" s="86" t="s">
+        <v>228</v>
+      </c>
+      <c r="D11" s="86" t="s">
+        <v>228</v>
+      </c>
+      <c r="E11" s="85" t="s">
+        <v>228</v>
+      </c>
+      <c r="F11" s="85" t="s">
+        <v>228</v>
+      </c>
+      <c r="G11" s="86" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A12" s="88" t="s">
+        <v>224</v>
+      </c>
+      <c r="B12" s="85" t="s">
+        <v>228</v>
+      </c>
+      <c r="C12" s="85" t="s">
+        <v>228</v>
+      </c>
+      <c r="D12" s="86" t="s">
+        <v>228</v>
+      </c>
+      <c r="E12" s="86" t="s">
+        <v>228</v>
+      </c>
+      <c r="F12" s="86" t="s">
+        <v>228</v>
+      </c>
+      <c r="G12" s="86" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A13" s="88" t="s">
+        <v>225</v>
+      </c>
+      <c r="B13" s="85" t="s">
+        <v>228</v>
+      </c>
+      <c r="C13" s="86" t="s">
+        <v>228</v>
+      </c>
+      <c r="D13" s="86" t="s">
+        <v>228</v>
+      </c>
+      <c r="E13" s="86" t="s">
+        <v>228</v>
+      </c>
+      <c r="F13" s="86" t="s">
+        <v>228</v>
+      </c>
+      <c r="G13" s="86" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A14" s="88" t="s">
+        <v>226</v>
+      </c>
+      <c r="B14" s="85" t="s">
+        <v>228</v>
+      </c>
+      <c r="C14" s="85" t="s">
+        <v>228</v>
+      </c>
+      <c r="D14" s="86" t="s">
+        <v>228</v>
+      </c>
+      <c r="E14" s="86" t="s">
+        <v>228</v>
+      </c>
+      <c r="F14" s="85" t="s">
+        <v>228</v>
+      </c>
+      <c r="G14" s="86" t="s">
+        <v>228</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I8"/>
   <sheetViews>
@@ -1387,19 +2184,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="33"/>
+      <c r="B1" s="58"/>
       <c r="C1" s="12" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="84.9" x14ac:dyDescent="0.4">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="35"/>
+      <c r="B2" s="60"/>
       <c r="C2" s="13" t="s">
         <v>13</v>
       </c>
@@ -1407,8 +2204,8 @@
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A3" s="34"/>
-      <c r="B3" s="35"/>
+      <c r="A3" s="59"/>
+      <c r="B3" s="60"/>
       <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
@@ -1416,8 +2213,8 @@
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" ht="118.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="36"/>
-      <c r="B4" s="37"/>
+      <c r="A4" s="61"/>
+      <c r="B4" s="62"/>
       <c r="C4" s="3" t="s">
         <v>11</v>
       </c>
@@ -1445,19 +2242,19 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A7" s="38" t="s">
+      <c r="A7" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="39"/>
+      <c r="B7" s="64"/>
       <c r="C7" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="42.45" x14ac:dyDescent="0.4">
-      <c r="A8" s="40" t="s">
+      <c r="A8" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="41"/>
+      <c r="B8" s="66"/>
       <c r="C8" s="5" t="s">
         <v>4</v>
       </c>
@@ -1474,7 +2271,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F60BA77A-0FF7-4A09-AAA8-E53725F430B2}">
   <dimension ref="A1:C11"/>
   <sheetViews>
@@ -1596,7 +2393,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5009B86D-BF46-461E-BF16-B020EE8D75CF}">
   <dimension ref="A1:S15"/>
   <sheetViews>
@@ -1672,12 +2469,12 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A4" s="42"/>
-      <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
+      <c r="A4" s="67"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
       <c r="G4" s="25"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
@@ -1741,12 +2538,12 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A8" s="42"/>
-      <c r="B8" s="42"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
+      <c r="A8" s="67"/>
+      <c r="B8" s="67"/>
+      <c r="C8" s="67"/>
+      <c r="D8" s="67"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="67"/>
       <c r="G8" s="25"/>
     </row>
     <row r="9" spans="1:7" ht="23.15" x14ac:dyDescent="0.4">
@@ -1810,12 +2607,12 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A12" s="43"/>
-      <c r="B12" s="43"/>
-      <c r="C12" s="43"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="43"/>
+      <c r="A12" s="68"/>
+      <c r="B12" s="68"/>
+      <c r="C12" s="68"/>
+      <c r="D12" s="68"/>
+      <c r="E12" s="68"/>
+      <c r="F12" s="68"/>
     </row>
     <row r="13" spans="1:7" ht="23.15" x14ac:dyDescent="0.4">
       <c r="A13" s="22" t="s">
@@ -1888,7 +2685,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F247DBC2-86D7-40D9-BBB1-B4B3735D2E61}">
   <dimension ref="A1:D5"/>
   <sheetViews>
@@ -1906,56 +2703,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="56.6" x14ac:dyDescent="0.35">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="71" t="s">
         <v>88</v>
       </c>
       <c r="B1" s="28" t="s">
         <v>98</v>
       </c>
-      <c r="C1" s="45" t="s">
+      <c r="C1" s="70" t="s">
         <v>95</v>
       </c>
-      <c r="D1" s="48" t="s">
+      <c r="D1" s="73" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="70.75" x14ac:dyDescent="0.35">
-      <c r="A2" s="47"/>
+      <c r="A2" s="72"/>
       <c r="B2" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="C2" s="45"/>
-      <c r="D2" s="49"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="74"/>
     </row>
     <row r="3" spans="1:4" ht="42.45" x14ac:dyDescent="0.35">
-      <c r="A3" s="47"/>
+      <c r="A3" s="72"/>
       <c r="B3" s="28" t="s">
         <v>92</v>
       </c>
       <c r="C3" s="30" t="s">
         <v>96</v>
       </c>
-      <c r="D3" s="50" t="s">
+      <c r="D3" s="75" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="70.75" x14ac:dyDescent="0.35">
-      <c r="A4" s="47"/>
+      <c r="A4" s="72"/>
       <c r="B4" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="C4" s="44" t="s">
+      <c r="C4" s="69" t="s">
         <v>97</v>
       </c>
-      <c r="D4" s="51"/>
+      <c r="D4" s="76"/>
     </row>
     <row r="5" spans="1:4" ht="70.75" x14ac:dyDescent="0.35">
-      <c r="A5" s="47"/>
+      <c r="A5" s="72"/>
       <c r="B5" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="C5" s="44"/>
-      <c r="D5" s="51"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="76"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1970,7 +2767,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8FE6774-1E3A-4B01-9F79-0CE882F43062}">
   <dimension ref="A1:B13"/>
   <sheetViews>
@@ -1985,10 +2782,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="32" t="s">
         <v>100</v>
       </c>
-      <c r="B1" s="53" t="s">
+      <c r="B1" s="33" t="s">
         <v>99</v>
       </c>
     </row>
@@ -2017,7 +2814,7 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A5" s="54" t="s">
+      <c r="A5" s="34" t="s">
         <v>101</v>
       </c>
       <c r="B5" s="28" t="s">
@@ -2028,7 +2825,7 @@
       <c r="A6" s="29" t="s">
         <v>117</v>
       </c>
-      <c r="B6" s="55" t="s">
+      <c r="B6" s="77" t="s">
         <v>112</v>
       </c>
     </row>
@@ -2036,7 +2833,7 @@
       <c r="A7" s="29" t="s">
         <v>121</v>
       </c>
-      <c r="B7" s="55"/>
+      <c r="B7" s="77"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8" s="29" t="s">
@@ -2050,7 +2847,7 @@
       <c r="A9" s="29" t="s">
         <v>106</v>
       </c>
-      <c r="B9" s="55" t="s">
+      <c r="B9" s="77" t="s">
         <v>114</v>
       </c>
     </row>
@@ -2058,7 +2855,7 @@
       <c r="A10" s="29" t="s">
         <v>119</v>
       </c>
-      <c r="B10" s="55"/>
+      <c r="B10" s="77"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A11" s="29" t="s">
@@ -2072,7 +2869,7 @@
       <c r="A12" s="29" t="s">
         <v>120</v>
       </c>
-      <c r="B12" s="55" t="s">
+      <c r="B12" s="77" t="s">
         <v>116</v>
       </c>
     </row>
@@ -2080,7 +2877,7 @@
       <c r="A13" s="29" t="s">
         <v>118</v>
       </c>
-      <c r="B13" s="55"/>
+      <c r="B13" s="77"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2092,39 +2889,39 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D47BAC5F-10D1-4E9A-81F4-B6DA49B47F0B}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="3.3046875" style="60" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.3046875" style="39" bestFit="1" customWidth="1"/>
     <col min="2" max="4" width="30.69140625" style="27" customWidth="1"/>
-    <col min="5" max="5" width="30.69140625" style="56" customWidth="1"/>
-    <col min="6" max="16384" width="9.23046875" style="56"/>
+    <col min="5" max="5" width="30.69140625" style="35" customWidth="1"/>
+    <col min="6" max="16384" width="9.23046875" style="35"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A1" s="59"/>
-      <c r="B1" s="57" t="s">
+      <c r="A1" s="38"/>
+      <c r="B1" s="36" t="s">
         <v>122</v>
       </c>
-      <c r="C1" s="57" t="s">
+      <c r="C1" s="36" t="s">
         <v>123</v>
       </c>
-      <c r="D1" s="57" t="s">
+      <c r="D1" s="36" t="s">
         <v>133</v>
       </c>
-      <c r="E1" s="58" t="s">
+      <c r="E1" s="37" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="113.15" x14ac:dyDescent="0.4">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="50" t="s">
         <v>146</v>
       </c>
       <c r="B2" s="29" t="s">
@@ -2141,13 +2938,13 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="240.45" x14ac:dyDescent="0.4">
-      <c r="A3" s="70" t="s">
+      <c r="A3" s="49" t="s">
         <v>147</v>
       </c>
       <c r="B3" s="31" t="s">
         <v>143</v>
       </c>
-      <c r="C3" s="64" t="s">
+      <c r="C3" s="43" t="s">
         <v>129</v>
       </c>
       <c r="D3" s="31" t="s">
@@ -2158,13 +2955,13 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="99" x14ac:dyDescent="0.4">
-      <c r="A4" s="69" t="s">
+      <c r="A4" s="48" t="s">
         <v>148</v>
       </c>
       <c r="B4" s="28" t="s">
         <v>125</v>
       </c>
-      <c r="C4" s="61" t="s">
+      <c r="C4" s="40" t="s">
         <v>130</v>
       </c>
       <c r="D4" s="28" t="s">
@@ -2175,40 +2972,405 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="183.9" x14ac:dyDescent="0.4">
-      <c r="A5" s="68" t="s">
+      <c r="A5" s="47" t="s">
         <v>149</v>
       </c>
-      <c r="B5" s="62" t="s">
+      <c r="B5" s="41" t="s">
         <v>126</v>
       </c>
-      <c r="C5" s="63" t="s">
+      <c r="C5" s="42" t="s">
         <v>137</v>
       </c>
-      <c r="D5" s="62" t="s">
+      <c r="D5" s="41" t="s">
         <v>144</v>
       </c>
-      <c r="E5" s="62" t="s">
+      <c r="E5" s="41" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="169.75" x14ac:dyDescent="0.4">
-      <c r="A6" s="67" t="s">
+      <c r="A6" s="46" t="s">
         <v>150</v>
       </c>
-      <c r="B6" s="65" t="s">
+      <c r="B6" s="44" t="s">
         <v>127</v>
       </c>
-      <c r="C6" s="66" t="s">
+      <c r="C6" s="45" t="s">
         <v>132</v>
       </c>
-      <c r="D6" s="65" t="s">
+      <c r="D6" s="44" t="s">
         <v>145</v>
       </c>
-      <c r="E6" s="65" t="s">
+      <c r="E6" s="44" t="s">
         <v>140</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16E372F1-BAA7-4FDD-A770-A93F85875E6A}">
+  <dimension ref="A1:N45"/>
+  <sheetViews>
+    <sheetView topLeftCell="M40" workbookViewId="0">
+      <selection activeCell="N43" sqref="N43:N45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="25.69140625" style="51" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="45.69140625" style="51" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="2.69140625" style="26" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="40.69140625" style="56" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="30.69140625" style="56" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="2.69140625" style="26" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="50.69140625" style="56" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="20.69140625" style="56" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="2.69140625" style="26" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="30.69140625" style="56" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="40.69140625" style="56" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="2.69140625" style="26" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="50.69140625" style="56" customWidth="1"/>
+    <col min="14" max="14" width="20.69140625" style="56" customWidth="1"/>
+    <col min="15" max="16384" width="9.23046875" style="26"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="81" t="s">
+        <v>161</v>
+      </c>
+      <c r="B1" s="83"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="53" t="s">
+        <v>151</v>
+      </c>
+      <c r="B2" s="54" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="28.3" x14ac:dyDescent="0.35">
+      <c r="A3" s="82" t="s">
+        <v>153</v>
+      </c>
+      <c r="B3" s="55" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="28.3" x14ac:dyDescent="0.35">
+      <c r="A4" s="82"/>
+      <c r="B4" s="55" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="28.3" x14ac:dyDescent="0.35">
+      <c r="A5" s="82"/>
+      <c r="B5" s="55" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="28.3" x14ac:dyDescent="0.35">
+      <c r="A6" s="52" t="s">
+        <v>160</v>
+      </c>
+      <c r="B6" s="55" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="56.6" x14ac:dyDescent="0.35">
+      <c r="A7" s="52" t="s">
+        <v>163</v>
+      </c>
+      <c r="B7" s="55" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="70.75" x14ac:dyDescent="0.35">
+      <c r="A8" s="52" t="s">
+        <v>154</v>
+      </c>
+      <c r="B8" s="55" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D9" s="81" t="s">
+        <v>164</v>
+      </c>
+      <c r="E9" s="83"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D10" s="53" t="s">
+        <v>151</v>
+      </c>
+      <c r="E10" s="54" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D11" s="55" t="s">
+        <v>165</v>
+      </c>
+      <c r="E11" s="82" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D12" s="55" t="s">
+        <v>169</v>
+      </c>
+      <c r="E12" s="82"/>
+    </row>
+    <row r="13" spans="1:5" ht="28.3" x14ac:dyDescent="0.35">
+      <c r="D13" s="55" t="s">
+        <v>166</v>
+      </c>
+      <c r="E13" s="55" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="28.3" x14ac:dyDescent="0.35">
+      <c r="D14" s="55" t="s">
+        <v>171</v>
+      </c>
+      <c r="E14" s="55" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="42.45" x14ac:dyDescent="0.35">
+      <c r="D15" s="55" t="s">
+        <v>172</v>
+      </c>
+      <c r="E15" s="82" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="70.75" x14ac:dyDescent="0.35">
+      <c r="D16" s="55" t="s">
+        <v>173</v>
+      </c>
+      <c r="E16" s="82"/>
+    </row>
+    <row r="17" spans="7:11" x14ac:dyDescent="0.35">
+      <c r="G17" s="81" t="s">
+        <v>175</v>
+      </c>
+      <c r="H17" s="81"/>
+    </row>
+    <row r="18" spans="7:11" x14ac:dyDescent="0.35">
+      <c r="G18" s="53" t="s">
+        <v>151</v>
+      </c>
+      <c r="H18" s="54" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="19" spans="7:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G19" s="55" t="s">
+        <v>184</v>
+      </c>
+      <c r="H19" s="55" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="20" spans="7:11" x14ac:dyDescent="0.35">
+      <c r="G20" s="55" t="s">
+        <v>165</v>
+      </c>
+      <c r="H20" s="82" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="21" spans="7:11" x14ac:dyDescent="0.35">
+      <c r="G21" s="55" t="s">
+        <v>176</v>
+      </c>
+      <c r="H21" s="82"/>
+    </row>
+    <row r="22" spans="7:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G22" s="55" t="s">
+        <v>177</v>
+      </c>
+      <c r="H22" s="82"/>
+    </row>
+    <row r="23" spans="7:11" x14ac:dyDescent="0.35">
+      <c r="G23" s="55" t="s">
+        <v>183</v>
+      </c>
+      <c r="H23" s="82" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="24" spans="7:11" x14ac:dyDescent="0.35">
+      <c r="G24" s="55" t="s">
+        <v>178</v>
+      </c>
+      <c r="H24" s="82"/>
+    </row>
+    <row r="25" spans="7:11" ht="28.3" x14ac:dyDescent="0.35">
+      <c r="G25" s="55" t="s">
+        <v>179</v>
+      </c>
+      <c r="H25" s="82"/>
+    </row>
+    <row r="26" spans="7:11" x14ac:dyDescent="0.35">
+      <c r="J26" s="81" t="s">
+        <v>185</v>
+      </c>
+      <c r="K26" s="81"/>
+    </row>
+    <row r="27" spans="7:11" x14ac:dyDescent="0.35">
+      <c r="J27" s="53" t="s">
+        <v>151</v>
+      </c>
+      <c r="K27" s="54" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="28" spans="7:11" x14ac:dyDescent="0.35">
+      <c r="J28" s="55" t="s">
+        <v>193</v>
+      </c>
+      <c r="K28" s="55" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="29" spans="7:11" x14ac:dyDescent="0.35">
+      <c r="J29" s="55" t="s">
+        <v>187</v>
+      </c>
+      <c r="K29" s="82" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="30" spans="7:11" ht="28.3" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J30" s="55" t="s">
+        <v>189</v>
+      </c>
+      <c r="K30" s="82"/>
+    </row>
+    <row r="31" spans="7:11" x14ac:dyDescent="0.35">
+      <c r="J31" s="55" t="s">
+        <v>186</v>
+      </c>
+      <c r="K31" s="82" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="32" spans="7:11" ht="42.45" x14ac:dyDescent="0.35">
+      <c r="J32" s="55" t="s">
+        <v>190</v>
+      </c>
+      <c r="K32" s="82"/>
+    </row>
+    <row r="33" spans="10:14" ht="42.45" x14ac:dyDescent="0.35">
+      <c r="J33" s="55" t="s">
+        <v>188</v>
+      </c>
+      <c r="K33" s="82"/>
+    </row>
+    <row r="34" spans="10:14" ht="42.45" x14ac:dyDescent="0.35">
+      <c r="J34" s="55" t="s">
+        <v>191</v>
+      </c>
+      <c r="K34" s="82"/>
+    </row>
+    <row r="35" spans="10:14" ht="56.6" x14ac:dyDescent="0.35">
+      <c r="J35" s="55" t="s">
+        <v>192</v>
+      </c>
+      <c r="K35" s="82"/>
+    </row>
+    <row r="36" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="M36" s="81" t="s">
+        <v>197</v>
+      </c>
+      <c r="N36" s="81"/>
+    </row>
+    <row r="37" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="M37" s="53" t="s">
+        <v>151</v>
+      </c>
+      <c r="N37" s="54" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="38" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="M38" s="55" t="s">
+        <v>198</v>
+      </c>
+      <c r="N38" s="55" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="39" spans="10:14" ht="28.3" x14ac:dyDescent="0.35">
+      <c r="M39" s="55" t="s">
+        <v>204</v>
+      </c>
+      <c r="N39" s="82" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="40" spans="10:14" ht="42.45" x14ac:dyDescent="0.35">
+      <c r="M40" s="55" t="s">
+        <v>203</v>
+      </c>
+      <c r="N40" s="82"/>
+    </row>
+    <row r="41" spans="10:14" ht="70.75" x14ac:dyDescent="0.35">
+      <c r="M41" s="55" t="s">
+        <v>205</v>
+      </c>
+      <c r="N41" s="82" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="42" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="M42" s="55" t="s">
+        <v>206</v>
+      </c>
+      <c r="N42" s="82"/>
+    </row>
+    <row r="43" spans="10:14" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M43" s="55" t="s">
+        <v>199</v>
+      </c>
+      <c r="N43" s="78" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="44" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="M44" s="55" t="s">
+        <v>200</v>
+      </c>
+      <c r="N44" s="79"/>
+    </row>
+    <row r="45" spans="10:14" ht="28.3" x14ac:dyDescent="0.35">
+      <c r="M45" s="55" t="s">
+        <v>207</v>
+      </c>
+      <c r="N45" s="80"/>
+    </row>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="H23:H25"/>
+    <mergeCell ref="H20:H22"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="N43:N45"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="N39:N40"/>
+    <mergeCell ref="N41:N42"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="K31:K35"/>
+    <mergeCell ref="K29:K30"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/FinalReport/key_tables.xlsx
+++ b/FinalReport/key_tables.xlsx
@@ -8,19 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\g_gna\Documents\TCD\Modules\CS7CS5_Dissertation\FinalReport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D2D95B9-91C3-4401-9512-813ECC6B5AF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D998090-63C1-480B-809E-FF0EC1EA21A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="9463" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="9463" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tool_critique" sheetId="8" r:id="rId1"/>
-    <sheet name="env_vars" sheetId="1" r:id="rId2"/>
-    <sheet name="ui_components" sheetId="2" r:id="rId3"/>
-    <sheet name="data" sheetId="3" r:id="rId4"/>
-    <sheet name="sim mw games key ideas" sheetId="4" r:id="rId5"/>
-    <sheet name="pedagogy best practices" sheetId="5" r:id="rId6"/>
-    <sheet name="challenges" sheetId="6" r:id="rId7"/>
-    <sheet name="tool_pros_cons" sheetId="7" r:id="rId8"/>
+    <sheet name="improvements" sheetId="9" r:id="rId2"/>
+    <sheet name="avoiding_bad_design" sheetId="10" r:id="rId3"/>
+    <sheet name="MVC" sheetId="11" r:id="rId4"/>
+    <sheet name="env_vars" sheetId="1" r:id="rId5"/>
+    <sheet name="ui_components" sheetId="2" r:id="rId6"/>
+    <sheet name="data" sheetId="3" r:id="rId7"/>
+    <sheet name="sim mw games key ideas" sheetId="4" r:id="rId8"/>
+    <sheet name="pedagogy best practices" sheetId="5" r:id="rId9"/>
+    <sheet name="challenges" sheetId="6" r:id="rId10"/>
+    <sheet name="tool_pros_cons" sheetId="7" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="276">
   <si>
     <t>Carbon Dynamics</t>
   </si>
@@ -889,6 +892,144 @@
   </si>
   <si>
     <t>REALISTIC</t>
+  </si>
+  <si>
+    <t>Previously</t>
+  </si>
+  <si>
+    <t>Now</t>
+  </si>
+  <si>
+    <t>Reason</t>
+  </si>
+  <si>
+    <t>Simulation model and UI components in a single file.</t>
+  </si>
+  <si>
+    <t>Simluation model components clearly separated from UI components and pages.</t>
+  </si>
+  <si>
+    <t>Modularity. Maleability.</t>
+  </si>
+  <si>
+    <t>Functions defined within constructor.</t>
+  </si>
+  <si>
+    <t>All functions added to prototype outside constructor.</t>
+  </si>
+  <si>
+    <t>Memory efficient.</t>
+  </si>
+  <si>
+    <t>Future</t>
+  </si>
+  <si>
+    <t>Most planner page UI elements in single ActionManager component.</t>
+  </si>
+  <si>
+    <t>Split up into smaller components.</t>
+  </si>
+  <si>
+    <t>Modularity. Flexibility.</t>
+  </si>
+  <si>
+    <t>PROBLEM</t>
+  </si>
+  <si>
+    <t>COUNTER MEASURES TAKEN</t>
+  </si>
+  <si>
+    <t>RIGIDITY</t>
+  </si>
+  <si>
+    <t>Difficult to change.</t>
+  </si>
+  <si>
+    <t>FRAGILITY</t>
+  </si>
+  <si>
+    <t>Prone to breaking.</t>
+  </si>
+  <si>
+    <t>Modular testing (app and specific components tested immediately after implementation of each new feature). GitHub for version control. Lessen rigidity.</t>
+  </si>
+  <si>
+    <t>IMMOBILITY</t>
+  </si>
+  <si>
+    <t>Difficult to reuse.</t>
+  </si>
+  <si>
+    <t>Choice to use ReactJS allows for creation of reusable components. Example: &lt;Button/&gt;, &lt;Switch/&gt;, &lt;Card/&gt;, &lt;Veil/&gt;, etc.</t>
+  </si>
+  <si>
+    <t>VISCOSITY</t>
+  </si>
+  <si>
+    <t>Hacks over the right thing.</t>
+  </si>
+  <si>
+    <t>Temporary fixes were avoided or immediately replaced as soon as correct solution was identified. Example: Decision to change structure of code early on and start afresh instead of continuing work on initial prototype code.</t>
+  </si>
+  <si>
+    <t>Separation of concerns by sticking to the Model View Controller design pattern. Underlying model is separate from React components and is organized into classes in an Object Oriented Fashion.</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>View</t>
+  </si>
+  <si>
+    <t>Controller</t>
+  </si>
+  <si>
+    <t>Handles bussiness logic.</t>
+  </si>
+  <si>
+    <t>Handles data.</t>
+  </si>
+  <si>
+    <t>Processes data.</t>
+  </si>
+  <si>
+    <t>Responds to information requests.</t>
+  </si>
+  <si>
+    <t>Displays data to users.</t>
+  </si>
+  <si>
+    <t>Passes user input to controller.</t>
+  </si>
+  <si>
+    <t>Handles user input.</t>
+  </si>
+  <si>
+    <t>Updates model.</t>
+  </si>
+  <si>
+    <t>Ensures view reflects changes.</t>
+  </si>
+  <si>
+    <t>Bridge between Model and View.</t>
+  </si>
+  <si>
+    <t>Temperature and water were considered as factors.</t>
+  </si>
+  <si>
+    <t>Only CO2 is considered as a changing growth factor. Others assumed to be at ideal level.</t>
+  </si>
+  <si>
+    <t>Modelling all factors out of scope so picked on most relavent to the Climate Change awareness objective of the tool. Also, temperature rises on global scale seem insignificant because it is the average of multiple extreme local temperature. A global rise in temperature of just 3 degrees can have disastrous climate consequences locally. Thus, showing global average temperatures may be misleading.</t>
+  </si>
+  <si>
+    <t>Time unit was month.</t>
+  </si>
+  <si>
+    <t>Time unit is year.</t>
+  </si>
+  <si>
+    <t>Monthly changes negligible and takes too long to simluate.</t>
   </si>
 </sst>
 </file>
@@ -988,7 +1129,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="22">
+  <fills count="24">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1112,6 +1253,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFE5E5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCCCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1262,7 +1415,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1430,6 +1583,33 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1511,26 +1691,26 @@
     <xf numFmtId="0" fontId="1" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1542,8 +1722,9 @@
   </tableStyles>
   <colors>
     <mruColors>
+      <color rgb="FFFFCCCC"/>
+      <color rgb="FFFFE5E5"/>
       <color rgb="FFFFDDDD"/>
-      <color rgb="FFFFCCCC"/>
       <color rgb="FFFFEBFF"/>
       <color rgb="FFE1FFFF"/>
       <color rgb="FFEEDDFF"/>
@@ -1828,7 +2009,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9079DD0-448F-48EB-B592-370B7EA5A551}">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -1839,324 +2020,324 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A1" s="90" t="s">
+      <c r="A1" s="63" t="s">
         <v>209</v>
       </c>
-      <c r="B1" s="88" t="s">
+      <c r="B1" s="61" t="s">
         <v>210</v>
       </c>
-      <c r="C1" s="88" t="s">
+      <c r="C1" s="61" t="s">
         <v>211</v>
       </c>
-      <c r="D1" s="88" t="s">
+      <c r="D1" s="61" t="s">
         <v>212</v>
       </c>
-      <c r="E1" s="88" t="s">
+      <c r="E1" s="61" t="s">
         <v>213</v>
       </c>
-      <c r="F1" s="88" t="s">
+      <c r="F1" s="61" t="s">
         <v>227</v>
       </c>
-      <c r="G1" s="84" t="s">
+      <c r="G1" s="57" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="61" t="s">
         <v>229</v>
       </c>
-      <c r="B2" s="86" t="s">
-        <v>228</v>
-      </c>
-      <c r="C2" s="87" t="s">
-        <v>228</v>
-      </c>
-      <c r="D2" s="87" t="s">
-        <v>228</v>
-      </c>
-      <c r="E2" s="86" t="s">
-        <v>228</v>
-      </c>
-      <c r="F2" s="86" t="s">
-        <v>228</v>
-      </c>
-      <c r="G2" s="87" t="s">
+      <c r="B2" s="59" t="s">
+        <v>228</v>
+      </c>
+      <c r="C2" s="60" t="s">
+        <v>228</v>
+      </c>
+      <c r="D2" s="60" t="s">
+        <v>228</v>
+      </c>
+      <c r="E2" s="59" t="s">
+        <v>228</v>
+      </c>
+      <c r="F2" s="59" t="s">
+        <v>228</v>
+      </c>
+      <c r="G2" s="60" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A3" s="89" t="s">
+      <c r="A3" s="62" t="s">
         <v>215</v>
       </c>
-      <c r="B3" s="86" t="s">
-        <v>228</v>
-      </c>
-      <c r="C3" s="86" t="s">
-        <v>228</v>
-      </c>
-      <c r="D3" s="86" t="s">
-        <v>228</v>
-      </c>
-      <c r="E3" s="86" t="s">
-        <v>228</v>
-      </c>
-      <c r="F3" s="86" t="s">
-        <v>228</v>
-      </c>
-      <c r="G3" s="86" t="s">
+      <c r="B3" s="59" t="s">
+        <v>228</v>
+      </c>
+      <c r="C3" s="59" t="s">
+        <v>228</v>
+      </c>
+      <c r="D3" s="59" t="s">
+        <v>228</v>
+      </c>
+      <c r="E3" s="59" t="s">
+        <v>228</v>
+      </c>
+      <c r="F3" s="59" t="s">
+        <v>228</v>
+      </c>
+      <c r="G3" s="59" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A4" s="88" t="s">
+      <c r="A4" s="61" t="s">
         <v>216</v>
       </c>
-      <c r="B4" s="85" t="s">
-        <v>228</v>
-      </c>
-      <c r="C4" s="85" t="s">
-        <v>228</v>
-      </c>
-      <c r="D4" s="86" t="s">
-        <v>228</v>
-      </c>
-      <c r="E4" s="86" t="s">
-        <v>228</v>
-      </c>
-      <c r="F4" s="85" t="s">
-        <v>228</v>
-      </c>
-      <c r="G4" s="86" t="s">
+      <c r="B4" s="58" t="s">
+        <v>228</v>
+      </c>
+      <c r="C4" s="58" t="s">
+        <v>228</v>
+      </c>
+      <c r="D4" s="59" t="s">
+        <v>228</v>
+      </c>
+      <c r="E4" s="59" t="s">
+        <v>228</v>
+      </c>
+      <c r="F4" s="58" t="s">
+        <v>228</v>
+      </c>
+      <c r="G4" s="59" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A5" s="88" t="s">
+      <c r="A5" s="61" t="s">
         <v>217</v>
       </c>
-      <c r="B5" s="85" t="s">
-        <v>228</v>
-      </c>
-      <c r="C5" s="86" t="s">
-        <v>228</v>
-      </c>
-      <c r="D5" s="86" t="s">
-        <v>228</v>
-      </c>
-      <c r="E5" s="85" t="s">
-        <v>228</v>
-      </c>
-      <c r="F5" s="86" t="s">
-        <v>228</v>
-      </c>
-      <c r="G5" s="86" t="s">
+      <c r="B5" s="58" t="s">
+        <v>228</v>
+      </c>
+      <c r="C5" s="59" t="s">
+        <v>228</v>
+      </c>
+      <c r="D5" s="59" t="s">
+        <v>228</v>
+      </c>
+      <c r="E5" s="58" t="s">
+        <v>228</v>
+      </c>
+      <c r="F5" s="59" t="s">
+        <v>228</v>
+      </c>
+      <c r="G5" s="59" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A6" s="88" t="s">
+      <c r="A6" s="61" t="s">
         <v>218</v>
       </c>
-      <c r="B6" s="86" t="s">
-        <v>228</v>
-      </c>
-      <c r="C6" s="86" t="s">
-        <v>228</v>
-      </c>
-      <c r="D6" s="86" t="s">
-        <v>228</v>
-      </c>
-      <c r="E6" s="86" t="s">
-        <v>228</v>
-      </c>
-      <c r="F6" s="87" t="s">
-        <v>228</v>
-      </c>
-      <c r="G6" s="87" t="s">
+      <c r="B6" s="59" t="s">
+        <v>228</v>
+      </c>
+      <c r="C6" s="59" t="s">
+        <v>228</v>
+      </c>
+      <c r="D6" s="59" t="s">
+        <v>228</v>
+      </c>
+      <c r="E6" s="59" t="s">
+        <v>228</v>
+      </c>
+      <c r="F6" s="60" t="s">
+        <v>228</v>
+      </c>
+      <c r="G6" s="60" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A7" s="88" t="s">
+      <c r="A7" s="61" t="s">
         <v>219</v>
       </c>
-      <c r="B7" s="85" t="s">
-        <v>228</v>
-      </c>
-      <c r="C7" s="85" t="s">
-        <v>228</v>
-      </c>
-      <c r="D7" s="85" t="s">
-        <v>228</v>
-      </c>
-      <c r="E7" s="86" t="s">
-        <v>228</v>
-      </c>
-      <c r="F7" s="86" t="s">
-        <v>228</v>
-      </c>
-      <c r="G7" s="86" t="s">
+      <c r="B7" s="58" t="s">
+        <v>228</v>
+      </c>
+      <c r="C7" s="58" t="s">
+        <v>228</v>
+      </c>
+      <c r="D7" s="58" t="s">
+        <v>228</v>
+      </c>
+      <c r="E7" s="59" t="s">
+        <v>228</v>
+      </c>
+      <c r="F7" s="59" t="s">
+        <v>228</v>
+      </c>
+      <c r="G7" s="59" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A8" s="88" t="s">
+      <c r="A8" s="61" t="s">
         <v>220</v>
       </c>
-      <c r="B8" s="85" t="s">
-        <v>228</v>
-      </c>
-      <c r="C8" s="85" t="s">
-        <v>228</v>
-      </c>
-      <c r="D8" s="86" t="s">
-        <v>228</v>
-      </c>
-      <c r="E8" s="86" t="s">
-        <v>228</v>
-      </c>
-      <c r="F8" s="85" t="s">
-        <v>228</v>
-      </c>
-      <c r="G8" s="86" t="s">
+      <c r="B8" s="58" t="s">
+        <v>228</v>
+      </c>
+      <c r="C8" s="58" t="s">
+        <v>228</v>
+      </c>
+      <c r="D8" s="59" t="s">
+        <v>228</v>
+      </c>
+      <c r="E8" s="59" t="s">
+        <v>228</v>
+      </c>
+      <c r="F8" s="58" t="s">
+        <v>228</v>
+      </c>
+      <c r="G8" s="59" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A9" s="88" t="s">
+      <c r="A9" s="61" t="s">
         <v>221</v>
       </c>
-      <c r="B9" s="86" t="s">
-        <v>228</v>
-      </c>
-      <c r="C9" s="86" t="s">
-        <v>228</v>
-      </c>
-      <c r="D9" s="86" t="s">
-        <v>228</v>
-      </c>
-      <c r="E9" s="85" t="s">
-        <v>228</v>
-      </c>
-      <c r="F9" s="85" t="s">
-        <v>228</v>
-      </c>
-      <c r="G9" s="86" t="s">
+      <c r="B9" s="59" t="s">
+        <v>228</v>
+      </c>
+      <c r="C9" s="59" t="s">
+        <v>228</v>
+      </c>
+      <c r="D9" s="59" t="s">
+        <v>228</v>
+      </c>
+      <c r="E9" s="58" t="s">
+        <v>228</v>
+      </c>
+      <c r="F9" s="58" t="s">
+        <v>228</v>
+      </c>
+      <c r="G9" s="59" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A10" s="88" t="s">
+      <c r="A10" s="61" t="s">
         <v>222</v>
       </c>
-      <c r="B10" s="86" t="s">
-        <v>228</v>
-      </c>
-      <c r="C10" s="85" t="s">
-        <v>228</v>
-      </c>
-      <c r="D10" s="85" t="s">
-        <v>228</v>
-      </c>
-      <c r="E10" s="85" t="s">
-        <v>228</v>
-      </c>
-      <c r="F10" s="85" t="s">
-        <v>228</v>
-      </c>
-      <c r="G10" s="86" t="s">
+      <c r="B10" s="59" t="s">
+        <v>228</v>
+      </c>
+      <c r="C10" s="58" t="s">
+        <v>228</v>
+      </c>
+      <c r="D10" s="58" t="s">
+        <v>228</v>
+      </c>
+      <c r="E10" s="58" t="s">
+        <v>228</v>
+      </c>
+      <c r="F10" s="58" t="s">
+        <v>228</v>
+      </c>
+      <c r="G10" s="59" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A11" s="88" t="s">
+      <c r="A11" s="61" t="s">
         <v>223</v>
       </c>
-      <c r="B11" s="86" t="s">
-        <v>228</v>
-      </c>
-      <c r="C11" s="86" t="s">
-        <v>228</v>
-      </c>
-      <c r="D11" s="86" t="s">
-        <v>228</v>
-      </c>
-      <c r="E11" s="85" t="s">
-        <v>228</v>
-      </c>
-      <c r="F11" s="85" t="s">
-        <v>228</v>
-      </c>
-      <c r="G11" s="86" t="s">
+      <c r="B11" s="59" t="s">
+        <v>228</v>
+      </c>
+      <c r="C11" s="59" t="s">
+        <v>228</v>
+      </c>
+      <c r="D11" s="59" t="s">
+        <v>228</v>
+      </c>
+      <c r="E11" s="58" t="s">
+        <v>228</v>
+      </c>
+      <c r="F11" s="58" t="s">
+        <v>228</v>
+      </c>
+      <c r="G11" s="59" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A12" s="88" t="s">
+      <c r="A12" s="61" t="s">
         <v>224</v>
       </c>
-      <c r="B12" s="85" t="s">
-        <v>228</v>
-      </c>
-      <c r="C12" s="85" t="s">
-        <v>228</v>
-      </c>
-      <c r="D12" s="86" t="s">
-        <v>228</v>
-      </c>
-      <c r="E12" s="86" t="s">
-        <v>228</v>
-      </c>
-      <c r="F12" s="86" t="s">
-        <v>228</v>
-      </c>
-      <c r="G12" s="86" t="s">
+      <c r="B12" s="58" t="s">
+        <v>228</v>
+      </c>
+      <c r="C12" s="58" t="s">
+        <v>228</v>
+      </c>
+      <c r="D12" s="59" t="s">
+        <v>228</v>
+      </c>
+      <c r="E12" s="59" t="s">
+        <v>228</v>
+      </c>
+      <c r="F12" s="59" t="s">
+        <v>228</v>
+      </c>
+      <c r="G12" s="59" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A13" s="88" t="s">
+      <c r="A13" s="61" t="s">
         <v>225</v>
       </c>
-      <c r="B13" s="85" t="s">
-        <v>228</v>
-      </c>
-      <c r="C13" s="86" t="s">
-        <v>228</v>
-      </c>
-      <c r="D13" s="86" t="s">
-        <v>228</v>
-      </c>
-      <c r="E13" s="86" t="s">
-        <v>228</v>
-      </c>
-      <c r="F13" s="86" t="s">
-        <v>228</v>
-      </c>
-      <c r="G13" s="86" t="s">
+      <c r="B13" s="58" t="s">
+        <v>228</v>
+      </c>
+      <c r="C13" s="59" t="s">
+        <v>228</v>
+      </c>
+      <c r="D13" s="59" t="s">
+        <v>228</v>
+      </c>
+      <c r="E13" s="59" t="s">
+        <v>228</v>
+      </c>
+      <c r="F13" s="59" t="s">
+        <v>228</v>
+      </c>
+      <c r="G13" s="59" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A14" s="88" t="s">
+      <c r="A14" s="61" t="s">
         <v>226</v>
       </c>
-      <c r="B14" s="85" t="s">
-        <v>228</v>
-      </c>
-      <c r="C14" s="85" t="s">
-        <v>228</v>
-      </c>
-      <c r="D14" s="86" t="s">
-        <v>228</v>
-      </c>
-      <c r="E14" s="86" t="s">
-        <v>228</v>
-      </c>
-      <c r="F14" s="85" t="s">
-        <v>228</v>
-      </c>
-      <c r="G14" s="86" t="s">
+      <c r="B14" s="58" t="s">
+        <v>228</v>
+      </c>
+      <c r="C14" s="58" t="s">
+        <v>228</v>
+      </c>
+      <c r="D14" s="59" t="s">
+        <v>228</v>
+      </c>
+      <c r="E14" s="59" t="s">
+        <v>228</v>
+      </c>
+      <c r="F14" s="58" t="s">
+        <v>228</v>
+      </c>
+      <c r="G14" s="59" t="s">
         <v>228</v>
       </c>
     </row>
@@ -2165,731 +2346,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="1" width="21.53515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="41.61328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="15.69140625" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A1" s="57" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="12" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="84.9" x14ac:dyDescent="0.4">
-      <c r="A2" s="59" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="60"/>
-      <c r="C2" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A3" s="59"/>
-      <c r="B3" s="60"/>
-      <c r="C3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="1:9" ht="118.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="61"/>
-      <c r="B4" s="62"/>
-      <c r="C4" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A5" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="42.45" x14ac:dyDescent="0.4">
-      <c r="A6" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A7" s="63" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="64"/>
-      <c r="C7" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="42.45" x14ac:dyDescent="0.4">
-      <c r="A8" s="65" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="66"/>
-      <c r="C8" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B4"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F60BA77A-0FF7-4A09-AAA8-E53725F430B2}">
-  <dimension ref="A1:C11"/>
-  <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="1" width="30.4609375" style="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="40.69140625" style="14" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" s="18" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="28.3" x14ac:dyDescent="0.4">
-      <c r="A2" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="28.3" x14ac:dyDescent="0.4">
-      <c r="A3" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="19" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="28.3" x14ac:dyDescent="0.4">
-      <c r="A4" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="28.3" x14ac:dyDescent="0.4">
-      <c r="A5" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" s="19" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A6" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="19"/>
-      <c r="C6" s="19" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A7" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="19"/>
-      <c r="C7" s="19" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A8" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="19"/>
-      <c r="C8" s="19" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A9" s="19"/>
-      <c r="B9" s="19"/>
-      <c r="C9" s="19" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A10" s="19"/>
-      <c r="B10" s="19"/>
-      <c r="C10" s="19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A11" s="19"/>
-      <c r="B11" s="19"/>
-      <c r="C11" s="19" t="s">
-        <v>32</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5009B86D-BF46-461E-BF16-B020EE8D75CF}">
-  <dimension ref="A1:S15"/>
-  <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="1" width="12.69140625" style="21" customWidth="1"/>
-    <col min="2" max="8" width="12.69140625" style="20" customWidth="1"/>
-    <col min="9" max="19" width="20.69140625" style="20" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A1" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="B1" s="23" t="s">
-        <v>78</v>
-      </c>
-      <c r="C1" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="D1" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="E1" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="F1" s="23" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="23.15" x14ac:dyDescent="0.4">
-      <c r="A2" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="B2" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="C2" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="D2" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="F2" s="23" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="23.15" x14ac:dyDescent="0.4">
-      <c r="A3" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="B3" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="C3" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="D3" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="E3" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="F3" s="23" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A4" s="67"/>
-      <c r="B4" s="67"/>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="25"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A5" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="B5" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="C5" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="D5" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="E5" s="23" t="s">
-        <v>81</v>
-      </c>
-      <c r="F5" s="23" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="46.3" x14ac:dyDescent="0.4">
-      <c r="A6" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="B6" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="C6" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="D6" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="E6" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="F6" s="23" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="23.15" x14ac:dyDescent="0.4">
-      <c r="A7" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="B7" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="C7" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="D7" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="E7" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="F7" s="23" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A8" s="67"/>
-      <c r="B8" s="67"/>
-      <c r="C8" s="67"/>
-      <c r="D8" s="67"/>
-      <c r="E8" s="67"/>
-      <c r="F8" s="67"/>
-      <c r="G8" s="25"/>
-    </row>
-    <row r="9" spans="1:7" ht="23.15" x14ac:dyDescent="0.4">
-      <c r="A9" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="B9" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="C9" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="D9" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="E9" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="F9" s="23" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="46.3" x14ac:dyDescent="0.4">
-      <c r="A10" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="B10" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="C10" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="D10" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="E10" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="F10" s="23" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="23.15" x14ac:dyDescent="0.4">
-      <c r="A11" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="B11" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="C11" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="D11" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="E11" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="F11" s="23" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A12" s="68"/>
-      <c r="B12" s="68"/>
-      <c r="C12" s="68"/>
-      <c r="D12" s="68"/>
-      <c r="E12" s="68"/>
-      <c r="F12" s="68"/>
-    </row>
-    <row r="13" spans="1:7" ht="23.15" x14ac:dyDescent="0.4">
-      <c r="A13" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="B13" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="C13" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="D13" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="E13" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="F13" s="23" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="46.3" x14ac:dyDescent="0.4">
-      <c r="A14" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="B14" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="C14" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="D14" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="E14" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="F14" s="23" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="23.15" x14ac:dyDescent="0.4">
-      <c r="A15" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="B15" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="C15" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="D15" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="E15" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="F15" s="23" t="s">
-        <v>76</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="A8:F8"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F247DBC2-86D7-40D9-BBB1-B4B3735D2E61}">
-  <dimension ref="A1:D5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="3.69140625" style="26" customWidth="1"/>
-    <col min="2" max="2" width="50.69140625" style="27" customWidth="1"/>
-    <col min="3" max="3" width="30.69140625" style="27" customWidth="1"/>
-    <col min="4" max="4" width="3.69140625" style="27" customWidth="1"/>
-    <col min="5" max="16384" width="9.23046875" style="26"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="56.6" x14ac:dyDescent="0.35">
-      <c r="A1" s="71" t="s">
-        <v>88</v>
-      </c>
-      <c r="B1" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="C1" s="70" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1" s="73" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="70.75" x14ac:dyDescent="0.35">
-      <c r="A2" s="72"/>
-      <c r="B2" s="28" t="s">
-        <v>91</v>
-      </c>
-      <c r="C2" s="70"/>
-      <c r="D2" s="74"/>
-    </row>
-    <row r="3" spans="1:4" ht="42.45" x14ac:dyDescent="0.35">
-      <c r="A3" s="72"/>
-      <c r="B3" s="28" t="s">
-        <v>92</v>
-      </c>
-      <c r="C3" s="30" t="s">
-        <v>96</v>
-      </c>
-      <c r="D3" s="75" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="70.75" x14ac:dyDescent="0.35">
-      <c r="A4" s="72"/>
-      <c r="B4" s="28" t="s">
-        <v>93</v>
-      </c>
-      <c r="C4" s="69" t="s">
-        <v>97</v>
-      </c>
-      <c r="D4" s="76"/>
-    </row>
-    <row r="5" spans="1:4" ht="70.75" x14ac:dyDescent="0.35">
-      <c r="A5" s="72"/>
-      <c r="B5" s="28" t="s">
-        <v>94</v>
-      </c>
-      <c r="C5" s="69"/>
-      <c r="D5" s="76"/>
-    </row>
-  </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="A1:A5"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="D3:D5"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8FE6774-1E3A-4B01-9F79-0CE882F43062}">
-  <dimension ref="A1:B13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="1" width="35.84375" style="27" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="70.69140625" style="27" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A1" s="32" t="s">
-        <v>100</v>
-      </c>
-      <c r="B1" s="33" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A2" s="31" t="s">
-        <v>102</v>
-      </c>
-      <c r="B2" s="28" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="28.3" x14ac:dyDescent="0.4">
-      <c r="A3" s="31" t="s">
-        <v>103</v>
-      </c>
-      <c r="B3" s="28" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A4" s="31" t="s">
-        <v>104</v>
-      </c>
-      <c r="B4" s="28" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A5" s="34" t="s">
-        <v>101</v>
-      </c>
-      <c r="B5" s="28" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A6" s="29" t="s">
-        <v>117</v>
-      </c>
-      <c r="B6" s="77" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A7" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="B7" s="77"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A8" s="29" t="s">
-        <v>105</v>
-      </c>
-      <c r="B8" s="28" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A9" s="29" t="s">
-        <v>106</v>
-      </c>
-      <c r="B9" s="77" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A10" s="29" t="s">
-        <v>119</v>
-      </c>
-      <c r="B10" s="77"/>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A11" s="29" t="s">
-        <v>107</v>
-      </c>
-      <c r="B11" s="28" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A12" s="29" t="s">
-        <v>120</v>
-      </c>
-      <c r="B12" s="77" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A13" s="29" t="s">
-        <v>118</v>
-      </c>
-      <c r="B13" s="77"/>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B6:B7"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D47BAC5F-10D1-4E9A-81F4-B6DA49B47F0B}">
   <dimension ref="A1:E6"/>
   <sheetViews>
@@ -3010,7 +2467,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16E372F1-BAA7-4FDD-A770-A93F85875E6A}">
   <dimension ref="A1:N45"/>
   <sheetViews>
@@ -3038,10 +2495,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="90" t="s">
         <v>161</v>
       </c>
-      <c r="B1" s="83"/>
+      <c r="B1" s="92"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="53" t="s">
@@ -3052,7 +2509,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="28.3" x14ac:dyDescent="0.35">
-      <c r="A3" s="82" t="s">
+      <c r="A3" s="91" t="s">
         <v>153</v>
       </c>
       <c r="B3" s="55" t="s">
@@ -3060,13 +2517,13 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="28.3" x14ac:dyDescent="0.35">
-      <c r="A4" s="82"/>
+      <c r="A4" s="91"/>
       <c r="B4" s="55" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="28.3" x14ac:dyDescent="0.35">
-      <c r="A5" s="82"/>
+      <c r="A5" s="91"/>
       <c r="B5" s="55" t="s">
         <v>156</v>
       </c>
@@ -3096,10 +2553,10 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="D9" s="81" t="s">
+      <c r="D9" s="90" t="s">
         <v>164</v>
       </c>
-      <c r="E9" s="83"/>
+      <c r="E9" s="92"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D10" s="53" t="s">
@@ -3113,7 +2570,7 @@
       <c r="D11" s="55" t="s">
         <v>165</v>
       </c>
-      <c r="E11" s="82" t="s">
+      <c r="E11" s="91" t="s">
         <v>167</v>
       </c>
     </row>
@@ -3121,7 +2578,7 @@
       <c r="D12" s="55" t="s">
         <v>169</v>
       </c>
-      <c r="E12" s="82"/>
+      <c r="E12" s="91"/>
     </row>
     <row r="13" spans="1:5" ht="28.3" x14ac:dyDescent="0.35">
       <c r="D13" s="55" t="s">
@@ -3143,7 +2600,7 @@
       <c r="D15" s="55" t="s">
         <v>172</v>
       </c>
-      <c r="E15" s="82" t="s">
+      <c r="E15" s="91" t="s">
         <v>174</v>
       </c>
     </row>
@@ -3151,13 +2608,13 @@
       <c r="D16" s="55" t="s">
         <v>173</v>
       </c>
-      <c r="E16" s="82"/>
+      <c r="E16" s="91"/>
     </row>
     <row r="17" spans="7:11" x14ac:dyDescent="0.35">
-      <c r="G17" s="81" t="s">
+      <c r="G17" s="90" t="s">
         <v>175</v>
       </c>
-      <c r="H17" s="81"/>
+      <c r="H17" s="90"/>
     </row>
     <row r="18" spans="7:11" x14ac:dyDescent="0.35">
       <c r="G18" s="53" t="s">
@@ -3179,7 +2636,7 @@
       <c r="G20" s="55" t="s">
         <v>165</v>
       </c>
-      <c r="H20" s="82" t="s">
+      <c r="H20" s="91" t="s">
         <v>180</v>
       </c>
     </row>
@@ -3187,19 +2644,19 @@
       <c r="G21" s="55" t="s">
         <v>176</v>
       </c>
-      <c r="H21" s="82"/>
+      <c r="H21" s="91"/>
     </row>
     <row r="22" spans="7:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="G22" s="55" t="s">
         <v>177</v>
       </c>
-      <c r="H22" s="82"/>
+      <c r="H22" s="91"/>
     </row>
     <row r="23" spans="7:11" x14ac:dyDescent="0.35">
       <c r="G23" s="55" t="s">
         <v>183</v>
       </c>
-      <c r="H23" s="82" t="s">
+      <c r="H23" s="91" t="s">
         <v>181</v>
       </c>
     </row>
@@ -3207,19 +2664,19 @@
       <c r="G24" s="55" t="s">
         <v>178</v>
       </c>
-      <c r="H24" s="82"/>
+      <c r="H24" s="91"/>
     </row>
     <row r="25" spans="7:11" ht="28.3" x14ac:dyDescent="0.35">
       <c r="G25" s="55" t="s">
         <v>179</v>
       </c>
-      <c r="H25" s="82"/>
+      <c r="H25" s="91"/>
     </row>
     <row r="26" spans="7:11" x14ac:dyDescent="0.35">
-      <c r="J26" s="81" t="s">
+      <c r="J26" s="90" t="s">
         <v>185</v>
       </c>
-      <c r="K26" s="81"/>
+      <c r="K26" s="90"/>
     </row>
     <row r="27" spans="7:11" x14ac:dyDescent="0.35">
       <c r="J27" s="53" t="s">
@@ -3241,7 +2698,7 @@
       <c r="J29" s="55" t="s">
         <v>187</v>
       </c>
-      <c r="K29" s="82" t="s">
+      <c r="K29" s="91" t="s">
         <v>194</v>
       </c>
     </row>
@@ -3249,13 +2706,13 @@
       <c r="J30" s="55" t="s">
         <v>189</v>
       </c>
-      <c r="K30" s="82"/>
+      <c r="K30" s="91"/>
     </row>
     <row r="31" spans="7:11" x14ac:dyDescent="0.35">
       <c r="J31" s="55" t="s">
         <v>186</v>
       </c>
-      <c r="K31" s="82" t="s">
+      <c r="K31" s="91" t="s">
         <v>196</v>
       </c>
     </row>
@@ -3263,31 +2720,31 @@
       <c r="J32" s="55" t="s">
         <v>190</v>
       </c>
-      <c r="K32" s="82"/>
+      <c r="K32" s="91"/>
     </row>
     <row r="33" spans="10:14" ht="42.45" x14ac:dyDescent="0.35">
       <c r="J33" s="55" t="s">
         <v>188</v>
       </c>
-      <c r="K33" s="82"/>
+      <c r="K33" s="91"/>
     </row>
     <row r="34" spans="10:14" ht="42.45" x14ac:dyDescent="0.35">
       <c r="J34" s="55" t="s">
         <v>191</v>
       </c>
-      <c r="K34" s="82"/>
+      <c r="K34" s="91"/>
     </row>
     <row r="35" spans="10:14" ht="56.6" x14ac:dyDescent="0.35">
       <c r="J35" s="55" t="s">
         <v>192</v>
       </c>
-      <c r="K35" s="82"/>
+      <c r="K35" s="91"/>
     </row>
     <row r="36" spans="10:14" x14ac:dyDescent="0.35">
-      <c r="M36" s="81" t="s">
+      <c r="M36" s="90" t="s">
         <v>197</v>
       </c>
-      <c r="N36" s="81"/>
+      <c r="N36" s="90"/>
     </row>
     <row r="37" spans="10:14" x14ac:dyDescent="0.35">
       <c r="M37" s="53" t="s">
@@ -3309,7 +2766,7 @@
       <c r="M39" s="55" t="s">
         <v>204</v>
       </c>
-      <c r="N39" s="82" t="s">
+      <c r="N39" s="91" t="s">
         <v>201</v>
       </c>
     </row>
@@ -3317,13 +2774,13 @@
       <c r="M40" s="55" t="s">
         <v>203</v>
       </c>
-      <c r="N40" s="82"/>
+      <c r="N40" s="91"/>
     </row>
     <row r="41" spans="10:14" ht="70.75" x14ac:dyDescent="0.35">
       <c r="M41" s="55" t="s">
         <v>205</v>
       </c>
-      <c r="N41" s="82" t="s">
+      <c r="N41" s="91" t="s">
         <v>202</v>
       </c>
     </row>
@@ -3331,13 +2788,13 @@
       <c r="M42" s="55" t="s">
         <v>206</v>
       </c>
-      <c r="N42" s="82"/>
+      <c r="N42" s="91"/>
     </row>
     <row r="43" spans="10:14" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="M43" s="55" t="s">
         <v>199</v>
       </c>
-      <c r="N43" s="78" t="s">
+      <c r="N43" s="87" t="s">
         <v>208</v>
       </c>
     </row>
@@ -3345,13 +2802,13 @@
       <c r="M44" s="55" t="s">
         <v>200</v>
       </c>
-      <c r="N44" s="79"/>
+      <c r="N44" s="88"/>
     </row>
     <row r="45" spans="10:14" ht="28.3" x14ac:dyDescent="0.35">
       <c r="M45" s="55" t="s">
         <v>207</v>
       </c>
-      <c r="N45" s="80"/>
+      <c r="N45" s="89"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -3373,4 +2830,967 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC5DB068-8AA7-4FE8-8963-0826FF0DCDF5}">
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C1" t="s">
+        <v>232</v>
+      </c>
+      <c r="F1" t="s">
+        <v>231</v>
+      </c>
+      <c r="G1" t="s">
+        <v>239</v>
+      </c>
+      <c r="H1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>233</v>
+      </c>
+      <c r="B2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C2" t="s">
+        <v>235</v>
+      </c>
+      <c r="F2" t="s">
+        <v>240</v>
+      </c>
+      <c r="G2" t="s">
+        <v>241</v>
+      </c>
+      <c r="H2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>236</v>
+      </c>
+      <c r="B3" t="s">
+        <v>237</v>
+      </c>
+      <c r="C3" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>270</v>
+      </c>
+      <c r="B4" t="s">
+        <v>271</v>
+      </c>
+      <c r="C4" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>273</v>
+      </c>
+      <c r="B5" t="s">
+        <v>274</v>
+      </c>
+      <c r="C5" t="s">
+        <v>275</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54A282B8-5F70-4443-94ED-DE00DED0E1C7}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="11.84375" style="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.765625" style="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="73" style="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1" s="93" t="s">
+        <v>243</v>
+      </c>
+      <c r="B1" s="93"/>
+      <c r="C1" s="94" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="42.45" x14ac:dyDescent="0.4">
+      <c r="A2" s="95" t="s">
+        <v>245</v>
+      </c>
+      <c r="B2" s="96" t="s">
+        <v>246</v>
+      </c>
+      <c r="C2" s="97" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="28.3" x14ac:dyDescent="0.4">
+      <c r="A3" s="95" t="s">
+        <v>247</v>
+      </c>
+      <c r="B3" s="96" t="s">
+        <v>248</v>
+      </c>
+      <c r="C3" s="97" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="28.3" x14ac:dyDescent="0.4">
+      <c r="A4" s="95" t="s">
+        <v>250</v>
+      </c>
+      <c r="B4" s="96" t="s">
+        <v>251</v>
+      </c>
+      <c r="C4" s="97" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="42.45" x14ac:dyDescent="0.4">
+      <c r="A5" s="95" t="s">
+        <v>253</v>
+      </c>
+      <c r="B5" s="96" t="s">
+        <v>254</v>
+      </c>
+      <c r="C5" s="97" t="s">
+        <v>255</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFEDE31C-5D73-499B-9C3D-AD3FA55FC42C}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="30.69140625" style="20" customWidth="1"/>
+    <col min="2" max="2" width="16.84375" style="20" customWidth="1"/>
+    <col min="3" max="3" width="30.69140625" style="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1" s="34" t="s">
+        <v>257</v>
+      </c>
+      <c r="B1" s="98" t="s">
+        <v>258</v>
+      </c>
+      <c r="C1" s="32" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2" s="65" t="s">
+        <v>261</v>
+      </c>
+      <c r="B2" s="99" t="s">
+        <v>264</v>
+      </c>
+      <c r="C2" s="64" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3" s="65" t="s">
+        <v>260</v>
+      </c>
+      <c r="B3" s="99"/>
+      <c r="C3" s="64" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4" s="65" t="s">
+        <v>262</v>
+      </c>
+      <c r="B4" s="99" t="s">
+        <v>265</v>
+      </c>
+      <c r="C4" s="64" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="28.3" x14ac:dyDescent="0.4">
+      <c r="A5" s="65" t="s">
+        <v>263</v>
+      </c>
+      <c r="B5" s="99"/>
+      <c r="C5" s="64" t="s">
+        <v>268</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B2:B3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="21.53515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41.61328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="15.69140625" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A1" s="66" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="67"/>
+      <c r="C1" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="84.9" x14ac:dyDescent="0.4">
+      <c r="A2" s="68" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="69"/>
+      <c r="C2" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A3" s="68"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="1:9" ht="118.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="70"/>
+      <c r="B4" s="71"/>
+      <c r="C4" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="42.45" x14ac:dyDescent="0.4">
+      <c r="A6" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A7" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="73"/>
+      <c r="C7" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="42.45" x14ac:dyDescent="0.4">
+      <c r="A8" s="74" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="75"/>
+      <c r="C8" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B4"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F60BA77A-0FF7-4A09-AAA8-E53725F430B2}">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="30.4609375" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="40.69140625" style="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="28.3" x14ac:dyDescent="0.4">
+      <c r="A2" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="28.3" x14ac:dyDescent="0.4">
+      <c r="A3" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="28.3" x14ac:dyDescent="0.4">
+      <c r="A4" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="28.3" x14ac:dyDescent="0.4">
+      <c r="A5" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A6" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="19"/>
+      <c r="C6" s="19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A7" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="19"/>
+      <c r="C7" s="19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A8" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A9" s="19"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A10" s="19"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A11" s="19"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5009B86D-BF46-461E-BF16-B020EE8D75CF}">
+  <dimension ref="A1:S15"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="12.69140625" style="21" customWidth="1"/>
+    <col min="2" max="8" width="12.69140625" style="20" customWidth="1"/>
+    <col min="9" max="19" width="20.69140625" style="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A1" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" s="23" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="23.15" x14ac:dyDescent="0.4">
+      <c r="A2" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="F2" s="23" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="23.15" x14ac:dyDescent="0.4">
+      <c r="A3" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3" s="23" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A4" s="76"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="25"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A5" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="D5" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="E5" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="F5" s="23" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="46.3" x14ac:dyDescent="0.4">
+      <c r="A6" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="D6" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="E6" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="F6" s="23" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="23.15" x14ac:dyDescent="0.4">
+      <c r="A7" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="F7" s="23" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A8" s="76"/>
+      <c r="B8" s="76"/>
+      <c r="C8" s="76"/>
+      <c r="D8" s="76"/>
+      <c r="E8" s="76"/>
+      <c r="F8" s="76"/>
+      <c r="G8" s="25"/>
+    </row>
+    <row r="9" spans="1:7" ht="23.15" x14ac:dyDescent="0.4">
+      <c r="A9" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="F9" s="23" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="46.3" x14ac:dyDescent="0.4">
+      <c r="A10" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="E10" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="F10" s="23" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="23.15" x14ac:dyDescent="0.4">
+      <c r="A11" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="F11" s="23" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A12" s="77"/>
+      <c r="B12" s="77"/>
+      <c r="C12" s="77"/>
+      <c r="D12" s="77"/>
+      <c r="E12" s="77"/>
+      <c r="F12" s="77"/>
+    </row>
+    <row r="13" spans="1:7" ht="23.15" x14ac:dyDescent="0.4">
+      <c r="A13" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="F13" s="23" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="46.3" x14ac:dyDescent="0.4">
+      <c r="A14" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="B14" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="D14" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="E14" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="F14" s="23" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="23.15" x14ac:dyDescent="0.4">
+      <c r="A15" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="E15" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="F15" s="23" t="s">
+        <v>76</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="A8:F8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F247DBC2-86D7-40D9-BBB1-B4B3735D2E61}">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="3.69140625" style="26" customWidth="1"/>
+    <col min="2" max="2" width="50.69140625" style="27" customWidth="1"/>
+    <col min="3" max="3" width="30.69140625" style="27" customWidth="1"/>
+    <col min="4" max="4" width="3.69140625" style="27" customWidth="1"/>
+    <col min="5" max="16384" width="9.23046875" style="26"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="56.6" x14ac:dyDescent="0.35">
+      <c r="A1" s="80" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1" s="79" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1" s="82" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="70.75" x14ac:dyDescent="0.35">
+      <c r="A2" s="81"/>
+      <c r="B2" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2" s="79"/>
+      <c r="D2" s="83"/>
+    </row>
+    <row r="3" spans="1:4" ht="42.45" x14ac:dyDescent="0.35">
+      <c r="A3" s="81"/>
+      <c r="B3" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="D3" s="84" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="70.75" x14ac:dyDescent="0.35">
+      <c r="A4" s="81"/>
+      <c r="B4" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="C4" s="78" t="s">
+        <v>97</v>
+      </c>
+      <c r="D4" s="85"/>
+    </row>
+    <row r="5" spans="1:4" ht="70.75" x14ac:dyDescent="0.35">
+      <c r="A5" s="81"/>
+      <c r="B5" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="C5" s="78"/>
+      <c r="D5" s="85"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="A1:A5"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="D3:D5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8FE6774-1E3A-4B01-9F79-0CE882F43062}">
+  <dimension ref="A1:B13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="35.84375" style="27" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="70.69140625" style="27" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A1" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1" s="33" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A2" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="28.3" x14ac:dyDescent="0.4">
+      <c r="A3" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A4" s="31" t="s">
+        <v>104</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A5" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="B5" s="28" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A6" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="B6" s="86" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A7" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="B7" s="86"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A8" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="B8" s="28" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A9" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="B9" s="86" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A10" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="B10" s="86"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A11" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="B11" s="28" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A12" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="B12" s="86" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A13" s="29" t="s">
+        <v>118</v>
+      </c>
+      <c r="B13" s="86"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B6:B7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/FinalReport/key_tables.xlsx
+++ b/FinalReport/key_tables.xlsx
@@ -8,23 +8,29 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\g_gna\Documents\TCD\Modules\CS7CS5_Dissertation\FinalReport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D998090-63C1-480B-809E-FF0EC1EA21A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63A78483-27F8-489C-9F64-3AB9C247DD00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="9463" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="9463" firstSheet="10" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="tool_critique" sheetId="8" r:id="rId1"/>
-    <sheet name="improvements" sheetId="9" r:id="rId2"/>
-    <sheet name="avoiding_bad_design" sheetId="10" r:id="rId3"/>
-    <sheet name="MVC" sheetId="11" r:id="rId4"/>
-    <sheet name="env_vars" sheetId="1" r:id="rId5"/>
-    <sheet name="ui_components" sheetId="2" r:id="rId6"/>
-    <sheet name="data" sheetId="3" r:id="rId7"/>
-    <sheet name="sim mw games key ideas" sheetId="4" r:id="rId8"/>
-    <sheet name="pedagogy best practices" sheetId="5" r:id="rId9"/>
-    <sheet name="challenges" sheetId="6" r:id="rId10"/>
-    <sheet name="tool_pros_cons" sheetId="7" r:id="rId11"/>
+    <sheet name="project_timeline" sheetId="14" r:id="rId1"/>
+    <sheet name="gantt_chart" sheetId="13" r:id="rId2"/>
+    <sheet name="tool_critique" sheetId="8" r:id="rId3"/>
+    <sheet name="improvements" sheetId="9" r:id="rId4"/>
+    <sheet name="avoiding_bad_design" sheetId="10" r:id="rId5"/>
+    <sheet name="MVC" sheetId="11" r:id="rId6"/>
+    <sheet name="env_vars" sheetId="1" r:id="rId7"/>
+    <sheet name="ui_components" sheetId="2" r:id="rId8"/>
+    <sheet name="data" sheetId="3" r:id="rId9"/>
+    <sheet name="sim mw games key ideas" sheetId="4" r:id="rId10"/>
+    <sheet name="pedagogy best practices" sheetId="5" r:id="rId11"/>
+    <sheet name="challenges" sheetId="6" r:id="rId12"/>
+    <sheet name="challenges_bridge2college" sheetId="15" r:id="rId13"/>
+    <sheet name="tool_pros_cons" sheetId="7" r:id="rId14"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId15"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -46,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="315">
   <si>
     <t>Carbon Dynamics</t>
   </si>
@@ -1031,12 +1037,129 @@
   <si>
     <t>Monthly changes negligible and takes too long to simluate.</t>
   </si>
+  <si>
+    <t>Dissertation - Project Plan</t>
+  </si>
+  <si>
+    <t>Tasks</t>
+  </si>
+  <si>
+    <t>Start Date</t>
+  </si>
+  <si>
+    <t>Days</t>
+  </si>
+  <si>
+    <t>End Date</t>
+  </si>
+  <si>
+    <t>Exploring possible topics.</t>
+  </si>
+  <si>
+    <t>Finalize topic with a supervisor.</t>
+  </si>
+  <si>
+    <t>Finalizing research and question.</t>
+  </si>
+  <si>
+    <t>Research - Literature review.</t>
+  </si>
+  <si>
+    <t>Finalize mechanisms to model.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Capture model in rules &amp; diagrams. </t>
+  </si>
+  <si>
+    <t>Make UI mock-up.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Make low-fi prototype. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test low-fi prototype. </t>
+  </si>
+  <si>
+    <t>Improve.</t>
+  </si>
+  <si>
+    <t>Develop MVP (high-fi prototype).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test hi-fi prototype. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Refine application. </t>
+  </si>
+  <si>
+    <t>Field experiment.</t>
+  </si>
+  <si>
+    <t>Finish/Refine Written Thesis.</t>
+  </si>
+  <si>
+    <t>Write Dissertation</t>
+  </si>
+  <si>
+    <t>Early Prototype</t>
+  </si>
+  <si>
+    <t>First simulation model with no UI.</t>
+  </si>
+  <si>
+    <t>Evaluation, Research, Update</t>
+  </si>
+  <si>
+    <t>Bridge To College Learning Session.</t>
+  </si>
+  <si>
+    <t>Refine based on feedback.</t>
+  </si>
+  <si>
+    <t>Dissertation - Project Plan v/s Execution Timeline</t>
+  </si>
+  <si>
+    <t>Write final report - draft 1.</t>
+  </si>
+  <si>
+    <t>Refine Report &amp; Submit.</t>
+  </si>
+  <si>
+    <t>COLOUR LEGEND</t>
+  </si>
+  <si>
+    <t>=</t>
+  </si>
+  <si>
+    <t>Research.</t>
+  </si>
+  <si>
+    <t>Actual</t>
+  </si>
+  <si>
+    <t>Dropped</t>
+  </si>
+  <si>
+    <t>Evaluation</t>
+  </si>
+  <si>
+    <t>Plan</t>
+  </si>
+  <si>
+    <t>Focused Development.</t>
+  </si>
+  <si>
+    <t>Timeline, Land, Money Viewer, Plan Viewer, Planner, Timber Income Stream</t>
+  </si>
+  <si>
+    <t>Challenge 1 Features + CO2 Target Setter + CO2 Scale - Money Viewer</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1128,8 +1251,58 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="24">
+  <fills count="29">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1268,8 +1441,38 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -1411,11 +1614,46 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="148">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1610,6 +1848,33 @@
     <xf numFmtId="0" fontId="1" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1673,6 +1938,15 @@
     <xf numFmtId="0" fontId="1" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1682,35 +1956,139 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="17" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="17" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="17" fillId="21" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="17" fillId="22" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="17" fillId="19" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1722,15 +2100,16 @@
   </tableStyles>
   <colors>
     <mruColors>
+      <color rgb="FFFFE5E5"/>
       <color rgb="FFFFCCCC"/>
-      <color rgb="FFFFE5E5"/>
+      <color rgb="FF9966FF"/>
+      <color rgb="FF6666FF"/>
       <color rgb="FFFFDDDD"/>
       <color rgb="FFFFEBFF"/>
       <color rgb="FFE1FFFF"/>
       <color rgb="FFEEDDFF"/>
       <color rgb="FFD5FFEA"/>
       <color rgb="FFFFFFCC"/>
-      <color rgb="FFFFDDFF"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1742,6 +2121,4038 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.20588712962962963"/>
+          <c:y val="0.20038721871926557"/>
+          <c:w val="0.78117768518518516"/>
+          <c:h val="0.7511057425098544"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>project_timeline!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Start Date</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:alpha val="10000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B050">
+                  <a:alpha val="10000"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000036-A717-4D6C-A450-D58745F54D0A}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B050">
+                  <a:alpha val="10000"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000035-A717-4D6C-A450-D58745F54D0A}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B050">
+                  <a:alpha val="10000"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000034-A717-4D6C-A450-D58745F54D0A}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000033-A717-4D6C-A450-D58745F54D0A}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B050">
+                  <a:alpha val="10000"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000032-A717-4D6C-A450-D58745F54D0A}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B050">
+                  <a:alpha val="10000"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000031-A717-4D6C-A450-D58745F54D0A}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B050">
+                  <a:alpha val="10000"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000030-A717-4D6C-A450-D58745F54D0A}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000002F-A717-4D6C-A450-D58745F54D0A}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="9"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000002E-A717-4D6C-A450-D58745F54D0A}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="10"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B050">
+                  <a:alpha val="10000"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000002D-A717-4D6C-A450-D58745F54D0A}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="11"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000">
+                  <a:alpha val="10000"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000002C-A717-4D6C-A450-D58745F54D0A}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="12"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000">
+                  <a:alpha val="10000"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000002B-A717-4D6C-A450-D58745F54D0A}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="13"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000002A-A717-4D6C-A450-D58745F54D0A}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="14"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B050">
+                  <a:alpha val="10000"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000029-A717-4D6C-A450-D58745F54D0A}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="15"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000028-A717-4D6C-A450-D58745F54D0A}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="16"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000027-A717-4D6C-A450-D58745F54D0A}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="17"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFFF00">
+                  <a:alpha val="10000"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001F-A717-4D6C-A450-D58745F54D0A}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="18"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B050">
+                  <a:alpha val="10000"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000026-A717-4D6C-A450-D58745F54D0A}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="19"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000020-A717-4D6C-A450-D58745F54D0A}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="20"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B050">
+                  <a:alpha val="10000"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000021-A717-4D6C-A450-D58745F54D0A}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="21"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B050">
+                  <a:alpha val="10000"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000022-A717-4D6C-A450-D58745F54D0A}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="22"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000023-A717-4D6C-A450-D58745F54D0A}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="23"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000024-A717-4D6C-A450-D58745F54D0A}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="24"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000025-A717-4D6C-A450-D58745F54D0A}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>project_timeline!$A$3:$A$27</c:f>
+              <c:strCache>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>Exploring possible topics.</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Finalize topic with a supervisor.</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Research.</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Finalizing research and question.</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Research - Literature review.</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>First simulation model with no UI.</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Early Prototype</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Evaluation, Research, Update</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Finalize mechanisms to model.</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Capture model in rules &amp; diagrams. </c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Make UI mock-up.</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Make low-fi prototype. </c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Test low-fi prototype. </c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Improve.</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Focused Development.</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Develop MVP (high-fi prototype).</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Test hi-fi prototype. </c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Bridge To College Learning Session.</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Refine based on feedback.</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Refine application. </c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Write final report - draft 1.</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Refine Report &amp; Submit.</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Field experiment.</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Finish/Refine Written Thesis.</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Write Dissertation</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>project_timeline!$B$3:$B$27</c:f>
+              <c:numCache>
+                <c:formatCode>d\-mmm\-yy</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>45178</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45181</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45216</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45250</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45301</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45310</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45327</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45338</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45344</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45355</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45367</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45375</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>45413</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>45420</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>45428</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>45432</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>45455</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>45462</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>45463</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>45467</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>45507</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45498</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45505</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45344</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A717-4D6C-A450-D58745F54D0A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>project_timeline!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Days</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-A717-4D6C-A450-D58745F54D0A}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-A717-4D6C-A450-D58745F54D0A}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-A717-4D6C-A450-D58745F54D0A}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000016-A717-4D6C-A450-D58745F54D0A}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-A717-4D6C-A450-D58745F54D0A}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000A-A717-4D6C-A450-D58745F54D0A}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-A717-4D6C-A450-D58745F54D0A}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000017-A717-4D6C-A450-D58745F54D0A}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000018-A717-4D6C-A450-D58745F54D0A}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="9"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000010-A717-4D6C-A450-D58745F54D0A}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="10"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000011-A717-4D6C-A450-D58745F54D0A}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="11"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000014-A717-4D6C-A450-D58745F54D0A}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="12"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000019-A717-4D6C-A450-D58745F54D0A}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="13"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001A-A717-4D6C-A450-D58745F54D0A}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="14"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000C-A717-4D6C-A450-D58745F54D0A}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="15"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000006-A717-4D6C-A450-D58745F54D0A}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="16"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-A717-4D6C-A450-D58745F54D0A}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="17"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001B-A717-4D6C-A450-D58745F54D0A}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="18"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000E-A717-4D6C-A450-D58745F54D0A}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="19"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000F-A717-4D6C-A450-D58745F54D0A}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="20"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001C-A717-4D6C-A450-D58745F54D0A}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="21"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001D-A717-4D6C-A450-D58745F54D0A}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="22"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001E-A717-4D6C-A450-D58745F54D0A}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="23"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="24"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="7.6428344966255682E-3"/>
+                  <c:y val="1.9433962523088331E-7"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{8A74CA90-A8D0-49C7-A5E0-8E83953E851B}" type="VALUE">
+                      <a:rPr lang="en-US">
+                        <a:solidFill>
+                          <a:sysClr val="windowText" lastClr="000000"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:pPr/>
+                      <a:t>[VALUE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-A717-4D6C-A450-D58745F54D0A}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{38C6E56E-4123-4755-9F76-A961E33E4C04}" type="VALUE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[VALUE]</a:t>
+                    </a:fld>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t> DAYS</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-A717-4D6C-A450-D58745F54D0A}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="bg1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000B-A717-4D6C-A450-D58745F54D0A}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="10"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-9.3411342529623604E-17"/>
+                  <c:y val="1.5003067189548563E-6"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="bg1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000011-A717-4D6C-A450-D58745F54D0A}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="12"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-9.3411333160498154E-17"/>
+                  <c:y val="3.8954674677825365E-7"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000019-A717-4D6C-A450-D58745F54D0A}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="17"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="7.0059810690416826E-3"/>
+                  <c:y val="2.2116002153792051E-5"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:sysClr val="windowText" lastClr="000000"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="8.3561648781900772E-3"/>
+                      <c:h val="3.8817087304998721E-2"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000001B-A717-4D6C-A450-D58745F54D0A}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="22"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.8682268505924721E-16"/>
+                  <c:y val="1.9721699213715574E-7"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="bg1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000001E-A717-4D6C-A450-D58745F54D0A}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>project_timeline!$A$3:$A$27</c:f>
+              <c:strCache>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>Exploring possible topics.</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Finalize topic with a supervisor.</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Research.</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Finalizing research and question.</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Research - Literature review.</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>First simulation model with no UI.</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Early Prototype</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Evaluation, Research, Update</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Finalize mechanisms to model.</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Capture model in rules &amp; diagrams. </c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Make UI mock-up.</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Make low-fi prototype. </c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Test low-fi prototype. </c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Improve.</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Focused Development.</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Develop MVP (high-fi prototype).</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Test hi-fi prototype. </c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Bridge To College Learning Session.</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Refine based on feedback.</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Refine application. </c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Write final report - draft 1.</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Refine Report &amp; Submit.</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Field experiment.</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Finish/Refine Written Thesis.</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Write Dissertation</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>project_timeline!$C$3:$C$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>179</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-A717-4D6C-A450-D58745F54D0A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="10"/>
+        <c:overlap val="100"/>
+        <c:axId val="1397394799"/>
+        <c:axId val="1180324783"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1397394799"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1180324783"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1180324783"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="45524"/>
+          <c:min val="45178"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="t"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="d\-mmm\-yy" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1397394799"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="7"/>
+        <c:minorUnit val="1"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.20588712962962963"/>
+          <c:y val="0.20038721871926557"/>
+          <c:w val="0.78117768518518516"/>
+          <c:h val="0.7511057425098544"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>gantt_chart!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Start Date</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:alpha val="10000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>gantt_chart!$A$3:$A$18</c:f>
+              <c:strCache>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>Exploring possible topics.</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Finalize topic with a supervisor.</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Finalizing research and question.</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Research - Literature review.</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Finalize mechanisms to model.</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Capture model in rules &amp; diagrams. </c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Make UI mock-up.</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Make low-fi prototype. </c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Test low-fi prototype. </c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Improve.</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Develop MVP (high-fi prototype).</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Test hi-fi prototype. </c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Refine application. </c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Field experiment.</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Finish/Refine Written Thesis.</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Write Dissertation</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>gantt_chart!$B$3:$B$18</c:f>
+              <c:numCache>
+                <c:formatCode>d\-mmm\-yy</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>45178</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45181</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45250</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45301</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45344</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45355</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45367</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45375</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45413</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45420</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45432</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45455</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>45467</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>45498</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>45505</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>45344</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8B3F-4E06-B6CA-B4FB48A0404B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>gantt_chart!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Days</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-8B3F-4E06-B6CA-B4FB48A0404B}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-8B3F-4E06-B6CA-B4FB48A0404B}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="15"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000006-8B3F-4E06-B6CA-B4FB48A0404B}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="bg1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-8B3F-4E06-B6CA-B4FB48A0404B}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="bg1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-8B3F-4E06-B6CA-B4FB48A0404B}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>gantt_chart!$A$3:$A$18</c:f>
+              <c:strCache>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>Exploring possible topics.</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Finalize topic with a supervisor.</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Finalizing research and question.</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Research - Literature review.</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Finalize mechanisms to model.</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Capture model in rules &amp; diagrams. </c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Make UI mock-up.</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Make low-fi prototype. </c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Test low-fi prototype. </c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Improve.</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Develop MVP (high-fi prototype).</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Test hi-fi prototype. </c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Refine application. </c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Field experiment.</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Finish/Refine Written Thesis.</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Write Dissertation</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>gantt_chart!$C$3:$C$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>179</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-8B3F-4E06-B6CA-B4FB48A0404B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="10"/>
+        <c:overlap val="100"/>
+        <c:axId val="1397394799"/>
+        <c:axId val="1180324783"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1397394799"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1180324783"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1180324783"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="45534"/>
+          <c:min val="45178"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="t"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="d\-mmm\-yy" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1397394799"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="7"/>
+        <c:minorUnit val="1"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>7776</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>645368</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>54427</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12FD822D-9DE7-4DFE-AE87-A0DA3FBB11DB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>635221</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>167724</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>155059</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>88212</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F4B022E-C18A-408B-87A9-5F583855CA95}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="literature_review"/>
+      <sheetName val="gantt_chart"/>
+      <sheetName val="avoiding_bad_design"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1">
+        <row r="2">
+          <cell r="B2" t="str">
+            <v>Start Date</v>
+          </cell>
+          <cell r="C2" t="str">
+            <v>Days</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>Exploring possible topics.</v>
+          </cell>
+          <cell r="B3">
+            <v>45178</v>
+          </cell>
+          <cell r="C3">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>Finalize topic with a supervisor.</v>
+          </cell>
+          <cell r="B4">
+            <v>45181</v>
+          </cell>
+          <cell r="C4">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>Finalizing research and question.</v>
+          </cell>
+          <cell r="B5">
+            <v>45250</v>
+          </cell>
+          <cell r="C5">
+            <v>20</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>Research - Literature review.</v>
+          </cell>
+          <cell r="B6">
+            <v>45301</v>
+          </cell>
+          <cell r="C6">
+            <v>40</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v>Finalize mechanisms to model.</v>
+          </cell>
+          <cell r="B7">
+            <v>45344</v>
+          </cell>
+          <cell r="C7">
+            <v>10</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8" t="str">
+            <v xml:space="preserve">Capture model in rules &amp; diagrams. </v>
+          </cell>
+          <cell r="B8">
+            <v>45355</v>
+          </cell>
+          <cell r="C8">
+            <v>10</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9" t="str">
+            <v>Make UI mock-up.</v>
+          </cell>
+          <cell r="B9">
+            <v>45367</v>
+          </cell>
+          <cell r="C9">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10" t="str">
+            <v xml:space="preserve">Make low-fi prototype. </v>
+          </cell>
+          <cell r="B10">
+            <v>45375</v>
+          </cell>
+          <cell r="C10">
+            <v>10</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11" t="str">
+            <v xml:space="preserve">Test low-fi prototype. </v>
+          </cell>
+          <cell r="B11">
+            <v>45413</v>
+          </cell>
+          <cell r="C11">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12" t="str">
+            <v>Improve.</v>
+          </cell>
+          <cell r="B12">
+            <v>45420</v>
+          </cell>
+          <cell r="C12">
+            <v>10</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13" t="str">
+            <v>Develop MVP (high-fi prototype).</v>
+          </cell>
+          <cell r="B13">
+            <v>45432</v>
+          </cell>
+          <cell r="C13">
+            <v>20</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14" t="str">
+            <v xml:space="preserve">Test hi-fi prototype. </v>
+          </cell>
+          <cell r="B14">
+            <v>45455</v>
+          </cell>
+          <cell r="C14">
+            <v>10</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15" t="str">
+            <v xml:space="preserve">Refine application. </v>
+          </cell>
+          <cell r="B15">
+            <v>45467</v>
+          </cell>
+          <cell r="C15">
+            <v>30</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16" t="str">
+            <v>Field experiment.</v>
+          </cell>
+          <cell r="B16">
+            <v>45498</v>
+          </cell>
+          <cell r="C16">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17" t="str">
+            <v>Finish/Refine Written Thesis.</v>
+          </cell>
+          <cell r="B17">
+            <v>45505</v>
+          </cell>
+          <cell r="C17">
+            <v>18</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="A18" t="str">
+            <v>Write Dissertation</v>
+          </cell>
+          <cell r="B18">
+            <v>45344</v>
+          </cell>
+          <cell r="C18">
+            <v>179</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2006,352 +6417,683 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9079DD0-448F-48EB-B592-370B7EA5A551}">
-  <dimension ref="A1:G14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B1B8FEE-14B5-4500-8AA4-F83FA5CDC1F9}">
+  <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView topLeftCell="A12" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection sqref="A1:D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="23.921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="7" width="13.69140625" customWidth="1"/>
+    <col min="1" max="1" width="34.23046875" style="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.15234375" style="105" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.15234375" style="105" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.61328125" style="105" customWidth="1"/>
+    <col min="5" max="5" width="2.69140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A1" s="63" t="s">
-        <v>209</v>
-      </c>
-      <c r="B1" s="61" t="s">
-        <v>210</v>
-      </c>
-      <c r="C1" s="61" t="s">
-        <v>211</v>
-      </c>
-      <c r="D1" s="61" t="s">
-        <v>212</v>
-      </c>
-      <c r="E1" s="61" t="s">
-        <v>213</v>
-      </c>
-      <c r="F1" s="61" t="s">
-        <v>227</v>
-      </c>
-      <c r="G1" s="57" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A2" s="61" t="s">
-        <v>229</v>
-      </c>
-      <c r="B2" s="59" t="s">
-        <v>228</v>
-      </c>
-      <c r="C2" s="60" t="s">
-        <v>228</v>
-      </c>
-      <c r="D2" s="60" t="s">
-        <v>228</v>
-      </c>
-      <c r="E2" s="59" t="s">
-        <v>228</v>
-      </c>
-      <c r="F2" s="59" t="s">
-        <v>228</v>
-      </c>
-      <c r="G2" s="60" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A3" s="62" t="s">
-        <v>215</v>
-      </c>
-      <c r="B3" s="59" t="s">
-        <v>228</v>
-      </c>
-      <c r="C3" s="59" t="s">
-        <v>228</v>
-      </c>
-      <c r="D3" s="59" t="s">
-        <v>228</v>
-      </c>
-      <c r="E3" s="59" t="s">
-        <v>228</v>
-      </c>
-      <c r="F3" s="59" t="s">
-        <v>228</v>
-      </c>
-      <c r="G3" s="59" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A4" s="61" t="s">
-        <v>216</v>
-      </c>
-      <c r="B4" s="58" t="s">
-        <v>228</v>
-      </c>
-      <c r="C4" s="58" t="s">
-        <v>228</v>
-      </c>
-      <c r="D4" s="59" t="s">
-        <v>228</v>
-      </c>
-      <c r="E4" s="59" t="s">
-        <v>228</v>
-      </c>
-      <c r="F4" s="58" t="s">
-        <v>228</v>
-      </c>
-      <c r="G4" s="59" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A5" s="61" t="s">
-        <v>217</v>
-      </c>
-      <c r="B5" s="58" t="s">
-        <v>228</v>
-      </c>
-      <c r="C5" s="59" t="s">
-        <v>228</v>
-      </c>
-      <c r="D5" s="59" t="s">
-        <v>228</v>
-      </c>
-      <c r="E5" s="58" t="s">
-        <v>228</v>
-      </c>
-      <c r="F5" s="59" t="s">
-        <v>228</v>
-      </c>
-      <c r="G5" s="59" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A6" s="61" t="s">
-        <v>218</v>
-      </c>
-      <c r="B6" s="59" t="s">
-        <v>228</v>
-      </c>
-      <c r="C6" s="59" t="s">
-        <v>228</v>
-      </c>
-      <c r="D6" s="59" t="s">
-        <v>228</v>
-      </c>
-      <c r="E6" s="59" t="s">
-        <v>228</v>
-      </c>
-      <c r="F6" s="60" t="s">
-        <v>228</v>
-      </c>
-      <c r="G6" s="60" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A7" s="61" t="s">
-        <v>219</v>
-      </c>
-      <c r="B7" s="58" t="s">
-        <v>228</v>
-      </c>
-      <c r="C7" s="58" t="s">
-        <v>228</v>
-      </c>
-      <c r="D7" s="58" t="s">
-        <v>228</v>
-      </c>
-      <c r="E7" s="59" t="s">
-        <v>228</v>
-      </c>
-      <c r="F7" s="59" t="s">
-        <v>228</v>
-      </c>
-      <c r="G7" s="59" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A8" s="61" t="s">
-        <v>220</v>
-      </c>
-      <c r="B8" s="58" t="s">
-        <v>228</v>
-      </c>
-      <c r="C8" s="58" t="s">
-        <v>228</v>
-      </c>
-      <c r="D8" s="59" t="s">
-        <v>228</v>
-      </c>
-      <c r="E8" s="59" t="s">
-        <v>228</v>
-      </c>
-      <c r="F8" s="58" t="s">
-        <v>228</v>
-      </c>
-      <c r="G8" s="59" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A9" s="61" t="s">
-        <v>221</v>
-      </c>
-      <c r="B9" s="59" t="s">
-        <v>228</v>
-      </c>
-      <c r="C9" s="59" t="s">
-        <v>228</v>
-      </c>
-      <c r="D9" s="59" t="s">
-        <v>228</v>
-      </c>
-      <c r="E9" s="58" t="s">
-        <v>228</v>
-      </c>
-      <c r="F9" s="58" t="s">
-        <v>228</v>
-      </c>
-      <c r="G9" s="59" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A10" s="61" t="s">
-        <v>222</v>
-      </c>
-      <c r="B10" s="59" t="s">
-        <v>228</v>
-      </c>
-      <c r="C10" s="58" t="s">
-        <v>228</v>
-      </c>
-      <c r="D10" s="58" t="s">
-        <v>228</v>
-      </c>
-      <c r="E10" s="58" t="s">
-        <v>228</v>
-      </c>
-      <c r="F10" s="58" t="s">
-        <v>228</v>
-      </c>
-      <c r="G10" s="59" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A11" s="61" t="s">
-        <v>223</v>
-      </c>
-      <c r="B11" s="59" t="s">
-        <v>228</v>
-      </c>
-      <c r="C11" s="59" t="s">
-        <v>228</v>
-      </c>
-      <c r="D11" s="59" t="s">
-        <v>228</v>
-      </c>
-      <c r="E11" s="58" t="s">
-        <v>228</v>
-      </c>
-      <c r="F11" s="58" t="s">
-        <v>228</v>
-      </c>
-      <c r="G11" s="59" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A12" s="61" t="s">
-        <v>224</v>
-      </c>
-      <c r="B12" s="58" t="s">
-        <v>228</v>
-      </c>
-      <c r="C12" s="58" t="s">
-        <v>228</v>
-      </c>
-      <c r="D12" s="59" t="s">
-        <v>228</v>
-      </c>
-      <c r="E12" s="59" t="s">
-        <v>228</v>
-      </c>
-      <c r="F12" s="59" t="s">
-        <v>228</v>
-      </c>
-      <c r="G12" s="59" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A13" s="61" t="s">
-        <v>225</v>
-      </c>
-      <c r="B13" s="58" t="s">
-        <v>228</v>
-      </c>
-      <c r="C13" s="59" t="s">
-        <v>228</v>
-      </c>
-      <c r="D13" s="59" t="s">
-        <v>228</v>
-      </c>
-      <c r="E13" s="59" t="s">
-        <v>228</v>
-      </c>
-      <c r="F13" s="59" t="s">
-        <v>228</v>
-      </c>
-      <c r="G13" s="59" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A14" s="61" t="s">
-        <v>226</v>
-      </c>
-      <c r="B14" s="58" t="s">
-        <v>228</v>
-      </c>
-      <c r="C14" s="58" t="s">
-        <v>228</v>
-      </c>
-      <c r="D14" s="59" t="s">
-        <v>228</v>
-      </c>
-      <c r="E14" s="59" t="s">
-        <v>228</v>
-      </c>
-      <c r="F14" s="58" t="s">
-        <v>228</v>
-      </c>
-      <c r="G14" s="59" t="s">
-        <v>228</v>
+    <row r="1" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
+      <c r="A1" s="113" t="s">
+        <v>302</v>
+      </c>
+      <c r="B1" s="114"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="115"/>
+    </row>
+    <row r="2" spans="1:4" s="105" customFormat="1" ht="15.9" x14ac:dyDescent="0.4">
+      <c r="A2" s="116" t="s">
+        <v>277</v>
+      </c>
+      <c r="B2" s="117" t="s">
+        <v>278</v>
+      </c>
+      <c r="C2" s="117" t="s">
+        <v>279</v>
+      </c>
+      <c r="D2" s="118" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="105" customFormat="1" ht="15.9" x14ac:dyDescent="0.4">
+      <c r="A3" s="119" t="s">
+        <v>281</v>
+      </c>
+      <c r="B3" s="120">
+        <v>45178</v>
+      </c>
+      <c r="C3" s="121">
+        <v>3</v>
+      </c>
+      <c r="D3" s="120">
+        <f>B3+C3</f>
+        <v>45181</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="105" customFormat="1" ht="15.9" x14ac:dyDescent="0.4">
+      <c r="A4" s="122" t="s">
+        <v>282</v>
+      </c>
+      <c r="B4" s="123">
+        <v>45181</v>
+      </c>
+      <c r="C4" s="124">
+        <v>6</v>
+      </c>
+      <c r="D4" s="123">
+        <f>B4+C4</f>
+        <v>45187</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="105" customFormat="1" ht="15.9" x14ac:dyDescent="0.4">
+      <c r="A5" s="122" t="s">
+        <v>307</v>
+      </c>
+      <c r="B5" s="123">
+        <v>45216</v>
+      </c>
+      <c r="C5" s="124">
+        <f>(D5-B5)+1</f>
+        <v>255</v>
+      </c>
+      <c r="D5" s="123">
+        <v>45470</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" s="105" customFormat="1" ht="15.9" x14ac:dyDescent="0.4">
+      <c r="A6" s="122" t="s">
+        <v>283</v>
+      </c>
+      <c r="B6" s="123">
+        <v>45250</v>
+      </c>
+      <c r="C6" s="124">
+        <v>20</v>
+      </c>
+      <c r="D6" s="123">
+        <f>B6+C6</f>
+        <v>45270</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.9" x14ac:dyDescent="0.45">
+      <c r="A7" s="125" t="s">
+        <v>284</v>
+      </c>
+      <c r="B7" s="126">
+        <v>45301</v>
+      </c>
+      <c r="C7" s="127">
+        <v>40</v>
+      </c>
+      <c r="D7" s="126">
+        <f>B7+C7</f>
+        <v>45341</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.9" x14ac:dyDescent="0.45">
+      <c r="A8" s="128" t="s">
+        <v>298</v>
+      </c>
+      <c r="B8" s="123">
+        <v>45310</v>
+      </c>
+      <c r="C8" s="124">
+        <f>(D8-B8)+1</f>
+        <v>18</v>
+      </c>
+      <c r="D8" s="123">
+        <v>45327</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.9" x14ac:dyDescent="0.45">
+      <c r="A9" s="128" t="s">
+        <v>297</v>
+      </c>
+      <c r="B9" s="123">
+        <v>45327</v>
+      </c>
+      <c r="C9" s="124">
+        <f t="shared" ref="C9:C10" si="0">(D9-B9)+1</f>
+        <v>11</v>
+      </c>
+      <c r="D9" s="123">
+        <v>45337</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.9" x14ac:dyDescent="0.45">
+      <c r="A10" s="128" t="s">
+        <v>299</v>
+      </c>
+      <c r="B10" s="123">
+        <v>45338</v>
+      </c>
+      <c r="C10" s="124">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="D10" s="123">
+        <v>45427</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.9" x14ac:dyDescent="0.45">
+      <c r="A11" s="125" t="s">
+        <v>285</v>
+      </c>
+      <c r="B11" s="126">
+        <v>45344</v>
+      </c>
+      <c r="C11" s="127">
+        <v>10</v>
+      </c>
+      <c r="D11" s="126">
+        <f t="shared" ref="D11:D27" si="1">B11+C11</f>
+        <v>45354</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15.9" x14ac:dyDescent="0.45">
+      <c r="A12" s="125" t="s">
+        <v>286</v>
+      </c>
+      <c r="B12" s="126">
+        <v>45355</v>
+      </c>
+      <c r="C12" s="127">
+        <v>10</v>
+      </c>
+      <c r="D12" s="126">
+        <f t="shared" si="1"/>
+        <v>45365</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.9" x14ac:dyDescent="0.45">
+      <c r="A13" s="125" t="s">
+        <v>287</v>
+      </c>
+      <c r="B13" s="126">
+        <v>45367</v>
+      </c>
+      <c r="C13" s="127">
+        <v>5</v>
+      </c>
+      <c r="D13" s="126">
+        <f t="shared" si="1"/>
+        <v>45372</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15.9" x14ac:dyDescent="0.45">
+      <c r="A14" s="129" t="s">
+        <v>288</v>
+      </c>
+      <c r="B14" s="130">
+        <v>45375</v>
+      </c>
+      <c r="C14" s="131">
+        <v>10</v>
+      </c>
+      <c r="D14" s="130">
+        <f t="shared" si="1"/>
+        <v>45385</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15.9" x14ac:dyDescent="0.45">
+      <c r="A15" s="129" t="s">
+        <v>289</v>
+      </c>
+      <c r="B15" s="130">
+        <v>45413</v>
+      </c>
+      <c r="C15" s="131">
+        <v>5</v>
+      </c>
+      <c r="D15" s="130">
+        <f t="shared" si="1"/>
+        <v>45418</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15.9" x14ac:dyDescent="0.45">
+      <c r="A16" s="125" t="s">
+        <v>290</v>
+      </c>
+      <c r="B16" s="126">
+        <v>45420</v>
+      </c>
+      <c r="C16" s="127">
+        <v>10</v>
+      </c>
+      <c r="D16" s="126">
+        <f t="shared" si="1"/>
+        <v>45430</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15.9" x14ac:dyDescent="0.45">
+      <c r="A17" s="128" t="s">
+        <v>312</v>
+      </c>
+      <c r="B17" s="123">
+        <v>45428</v>
+      </c>
+      <c r="C17" s="124">
+        <f>(D17-B17)+1</f>
+        <v>34</v>
+      </c>
+      <c r="D17" s="123">
+        <v>45461</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15.9" x14ac:dyDescent="0.45">
+      <c r="A18" s="125" t="s">
+        <v>291</v>
+      </c>
+      <c r="B18" s="126">
+        <v>45432</v>
+      </c>
+      <c r="C18" s="127">
+        <v>20</v>
+      </c>
+      <c r="D18" s="126">
+        <f t="shared" si="1"/>
+        <v>45452</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15.9" x14ac:dyDescent="0.45">
+      <c r="A19" s="125" t="s">
+        <v>292</v>
+      </c>
+      <c r="B19" s="126">
+        <v>45455</v>
+      </c>
+      <c r="C19" s="127">
+        <v>10</v>
+      </c>
+      <c r="D19" s="126">
+        <f t="shared" si="1"/>
+        <v>45465</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15.9" x14ac:dyDescent="0.45">
+      <c r="A20" s="132" t="s">
+        <v>300</v>
+      </c>
+      <c r="B20" s="133">
+        <v>45462</v>
+      </c>
+      <c r="C20" s="134">
+        <f>(D20-B20)+1</f>
+        <v>1</v>
+      </c>
+      <c r="D20" s="133">
+        <v>45462</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15.9" x14ac:dyDescent="0.45">
+      <c r="A21" s="128" t="s">
+        <v>301</v>
+      </c>
+      <c r="B21" s="123">
+        <v>45463</v>
+      </c>
+      <c r="C21" s="124">
+        <f>(D21-B21)+1</f>
+        <v>8</v>
+      </c>
+      <c r="D21" s="123">
+        <v>45470</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15.9" x14ac:dyDescent="0.45">
+      <c r="A22" s="125" t="s">
+        <v>293</v>
+      </c>
+      <c r="B22" s="126">
+        <v>45467</v>
+      </c>
+      <c r="C22" s="127">
+        <v>30</v>
+      </c>
+      <c r="D22" s="126">
+        <f t="shared" si="1"/>
+        <v>45497</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15.9" x14ac:dyDescent="0.45">
+      <c r="A23" s="128" t="s">
+        <v>303</v>
+      </c>
+      <c r="B23" s="123">
+        <v>45471</v>
+      </c>
+      <c r="C23" s="124">
+        <f>(D23-B23)+1</f>
+        <v>35</v>
+      </c>
+      <c r="D23" s="123">
+        <v>45505</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15.9" x14ac:dyDescent="0.45">
+      <c r="A24" s="128" t="s">
+        <v>304</v>
+      </c>
+      <c r="B24" s="123">
+        <v>45507</v>
+      </c>
+      <c r="C24" s="124">
+        <f>(D24-B24)+1</f>
+        <v>10</v>
+      </c>
+      <c r="D24" s="123">
+        <v>45516</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15.9" x14ac:dyDescent="0.45">
+      <c r="A25" s="125" t="s">
+        <v>294</v>
+      </c>
+      <c r="B25" s="126">
+        <v>45498</v>
+      </c>
+      <c r="C25" s="127">
+        <v>5</v>
+      </c>
+      <c r="D25" s="126">
+        <f t="shared" si="1"/>
+        <v>45503</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
+      <c r="A26" s="135" t="s">
+        <v>295</v>
+      </c>
+      <c r="B26" s="126">
+        <v>45505</v>
+      </c>
+      <c r="C26" s="127">
+        <v>18</v>
+      </c>
+      <c r="D26" s="126">
+        <f t="shared" si="1"/>
+        <v>45523</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
+      <c r="A27" s="135" t="s">
+        <v>296</v>
+      </c>
+      <c r="B27" s="126">
+        <v>45344</v>
+      </c>
+      <c r="C27" s="127">
+        <v>179</v>
+      </c>
+      <c r="D27" s="126">
+        <f t="shared" si="1"/>
+        <v>45523</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
+      <c r="B29" s="136" t="s">
+        <v>305</v>
+      </c>
+      <c r="C29" s="137"/>
+      <c r="D29" s="138"/>
+    </row>
+    <row r="30" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
+      <c r="B30" s="139"/>
+      <c r="C30" s="140" t="s">
+        <v>306</v>
+      </c>
+      <c r="D30" s="141" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
+      <c r="B31" s="142"/>
+      <c r="C31" s="140" t="s">
+        <v>306</v>
+      </c>
+      <c r="D31" s="141" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="15.9" x14ac:dyDescent="0.45">
+      <c r="B32" s="143"/>
+      <c r="C32" s="144" t="s">
+        <v>306</v>
+      </c>
+      <c r="D32" s="141" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" ht="15.9" x14ac:dyDescent="0.45">
+      <c r="B33" s="145"/>
+      <c r="C33" s="146" t="s">
+        <v>306</v>
+      </c>
+      <c r="D33" s="147" t="s">
+        <v>309</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B29:D29"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F247DBC2-86D7-40D9-BBB1-B4B3735D2E61}">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="3.69140625" style="26" customWidth="1"/>
+    <col min="2" max="2" width="50.69140625" style="27" customWidth="1"/>
+    <col min="3" max="3" width="30.69140625" style="27" customWidth="1"/>
+    <col min="4" max="4" width="3.69140625" style="27" customWidth="1"/>
+    <col min="5" max="16384" width="9.23046875" style="26"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="56.6" x14ac:dyDescent="0.35">
+      <c r="A1" s="89" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1" s="88" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1" s="91" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="70.75" x14ac:dyDescent="0.35">
+      <c r="A2" s="90"/>
+      <c r="B2" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2" s="88"/>
+      <c r="D2" s="92"/>
+    </row>
+    <row r="3" spans="1:4" ht="42.45" x14ac:dyDescent="0.35">
+      <c r="A3" s="90"/>
+      <c r="B3" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="D3" s="93" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="70.75" x14ac:dyDescent="0.35">
+      <c r="A4" s="90"/>
+      <c r="B4" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="C4" s="87" t="s">
+        <v>97</v>
+      </c>
+      <c r="D4" s="94"/>
+    </row>
+    <row r="5" spans="1:4" ht="70.75" x14ac:dyDescent="0.35">
+      <c r="A5" s="90"/>
+      <c r="B5" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="C5" s="87"/>
+      <c r="D5" s="94"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="A1:A5"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="D3:D5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8FE6774-1E3A-4B01-9F79-0CE882F43062}">
+  <dimension ref="A1:B13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="35.84375" style="27" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="70.69140625" style="27" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A1" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1" s="33" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A2" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="28.3" x14ac:dyDescent="0.4">
+      <c r="A3" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A4" s="31" t="s">
+        <v>104</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A5" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="B5" s="28" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A6" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="B6" s="95" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A7" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="B7" s="95"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A8" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="B8" s="28" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A9" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="B9" s="95" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A10" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="B10" s="95"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A11" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="B11" s="28" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A12" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="B12" s="95" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A13" s="29" t="s">
+        <v>118</v>
+      </c>
+      <c r="B13" s="95"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B6:B7"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D47BAC5F-10D1-4E9A-81F4-B6DA49B47F0B}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection sqref="A1:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.4"/>
@@ -2467,7 +7209,58 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2C3F88A-4160-4E60-896F-B8A73EA077EA}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="3.3046875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.53515625" customWidth="1"/>
+    <col min="3" max="3" width="36.07421875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1" s="38"/>
+      <c r="B1" s="36" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1" s="36" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="64.75" x14ac:dyDescent="0.4">
+      <c r="A2" s="50" t="s">
+        <v>146</v>
+      </c>
+      <c r="B2" s="67" t="s">
+        <v>124</v>
+      </c>
+      <c r="C2" s="67" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="64.75" x14ac:dyDescent="0.4">
+      <c r="A3" s="49" t="s">
+        <v>147</v>
+      </c>
+      <c r="B3" s="66" t="s">
+        <v>143</v>
+      </c>
+      <c r="C3" s="43" t="s">
+        <v>314</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16E372F1-BAA7-4FDD-A770-A93F85875E6A}">
   <dimension ref="A1:N45"/>
   <sheetViews>
@@ -2495,10 +7288,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="90" t="s">
+      <c r="A1" s="96" t="s">
         <v>161</v>
       </c>
-      <c r="B1" s="92"/>
+      <c r="B1" s="98"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="53" t="s">
@@ -2509,7 +7302,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="28.3" x14ac:dyDescent="0.35">
-      <c r="A3" s="91" t="s">
+      <c r="A3" s="97" t="s">
         <v>153</v>
       </c>
       <c r="B3" s="55" t="s">
@@ -2517,13 +7310,13 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="28.3" x14ac:dyDescent="0.35">
-      <c r="A4" s="91"/>
+      <c r="A4" s="97"/>
       <c r="B4" s="55" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="28.3" x14ac:dyDescent="0.35">
-      <c r="A5" s="91"/>
+      <c r="A5" s="97"/>
       <c r="B5" s="55" t="s">
         <v>156</v>
       </c>
@@ -2553,10 +7346,10 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="D9" s="90" t="s">
+      <c r="D9" s="96" t="s">
         <v>164</v>
       </c>
-      <c r="E9" s="92"/>
+      <c r="E9" s="98"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D10" s="53" t="s">
@@ -2570,7 +7363,7 @@
       <c r="D11" s="55" t="s">
         <v>165</v>
       </c>
-      <c r="E11" s="91" t="s">
+      <c r="E11" s="97" t="s">
         <v>167</v>
       </c>
     </row>
@@ -2578,7 +7371,7 @@
       <c r="D12" s="55" t="s">
         <v>169</v>
       </c>
-      <c r="E12" s="91"/>
+      <c r="E12" s="97"/>
     </row>
     <row r="13" spans="1:5" ht="28.3" x14ac:dyDescent="0.35">
       <c r="D13" s="55" t="s">
@@ -2600,7 +7393,7 @@
       <c r="D15" s="55" t="s">
         <v>172</v>
       </c>
-      <c r="E15" s="91" t="s">
+      <c r="E15" s="97" t="s">
         <v>174</v>
       </c>
     </row>
@@ -2608,13 +7401,13 @@
       <c r="D16" s="55" t="s">
         <v>173</v>
       </c>
-      <c r="E16" s="91"/>
+      <c r="E16" s="97"/>
     </row>
     <row r="17" spans="7:11" x14ac:dyDescent="0.35">
-      <c r="G17" s="90" t="s">
+      <c r="G17" s="96" t="s">
         <v>175</v>
       </c>
-      <c r="H17" s="90"/>
+      <c r="H17" s="96"/>
     </row>
     <row r="18" spans="7:11" x14ac:dyDescent="0.35">
       <c r="G18" s="53" t="s">
@@ -2636,7 +7429,7 @@
       <c r="G20" s="55" t="s">
         <v>165</v>
       </c>
-      <c r="H20" s="91" t="s">
+      <c r="H20" s="97" t="s">
         <v>180</v>
       </c>
     </row>
@@ -2644,19 +7437,19 @@
       <c r="G21" s="55" t="s">
         <v>176</v>
       </c>
-      <c r="H21" s="91"/>
+      <c r="H21" s="97"/>
     </row>
     <row r="22" spans="7:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="G22" s="55" t="s">
         <v>177</v>
       </c>
-      <c r="H22" s="91"/>
+      <c r="H22" s="97"/>
     </row>
     <row r="23" spans="7:11" x14ac:dyDescent="0.35">
       <c r="G23" s="55" t="s">
         <v>183</v>
       </c>
-      <c r="H23" s="91" t="s">
+      <c r="H23" s="97" t="s">
         <v>181</v>
       </c>
     </row>
@@ -2664,19 +7457,19 @@
       <c r="G24" s="55" t="s">
         <v>178</v>
       </c>
-      <c r="H24" s="91"/>
+      <c r="H24" s="97"/>
     </row>
     <row r="25" spans="7:11" ht="28.3" x14ac:dyDescent="0.35">
       <c r="G25" s="55" t="s">
         <v>179</v>
       </c>
-      <c r="H25" s="91"/>
+      <c r="H25" s="97"/>
     </row>
     <row r="26" spans="7:11" x14ac:dyDescent="0.35">
-      <c r="J26" s="90" t="s">
+      <c r="J26" s="96" t="s">
         <v>185</v>
       </c>
-      <c r="K26" s="90"/>
+      <c r="K26" s="96"/>
     </row>
     <row r="27" spans="7:11" x14ac:dyDescent="0.35">
       <c r="J27" s="53" t="s">
@@ -2698,7 +7491,7 @@
       <c r="J29" s="55" t="s">
         <v>187</v>
       </c>
-      <c r="K29" s="91" t="s">
+      <c r="K29" s="97" t="s">
         <v>194</v>
       </c>
     </row>
@@ -2706,13 +7499,13 @@
       <c r="J30" s="55" t="s">
         <v>189</v>
       </c>
-      <c r="K30" s="91"/>
+      <c r="K30" s="97"/>
     </row>
     <row r="31" spans="7:11" x14ac:dyDescent="0.35">
       <c r="J31" s="55" t="s">
         <v>186</v>
       </c>
-      <c r="K31" s="91" t="s">
+      <c r="K31" s="97" t="s">
         <v>196</v>
       </c>
     </row>
@@ -2720,31 +7513,31 @@
       <c r="J32" s="55" t="s">
         <v>190</v>
       </c>
-      <c r="K32" s="91"/>
+      <c r="K32" s="97"/>
     </row>
     <row r="33" spans="10:14" ht="42.45" x14ac:dyDescent="0.35">
       <c r="J33" s="55" t="s">
         <v>188</v>
       </c>
-      <c r="K33" s="91"/>
+      <c r="K33" s="97"/>
     </row>
     <row r="34" spans="10:14" ht="42.45" x14ac:dyDescent="0.35">
       <c r="J34" s="55" t="s">
         <v>191</v>
       </c>
-      <c r="K34" s="91"/>
+      <c r="K34" s="97"/>
     </row>
     <row r="35" spans="10:14" ht="56.6" x14ac:dyDescent="0.35">
       <c r="J35" s="55" t="s">
         <v>192</v>
       </c>
-      <c r="K35" s="91"/>
+      <c r="K35" s="97"/>
     </row>
     <row r="36" spans="10:14" x14ac:dyDescent="0.35">
-      <c r="M36" s="90" t="s">
+      <c r="M36" s="96" t="s">
         <v>197</v>
       </c>
-      <c r="N36" s="90"/>
+      <c r="N36" s="96"/>
     </row>
     <row r="37" spans="10:14" x14ac:dyDescent="0.35">
       <c r="M37" s="53" t="s">
@@ -2766,7 +7559,7 @@
       <c r="M39" s="55" t="s">
         <v>204</v>
       </c>
-      <c r="N39" s="91" t="s">
+      <c r="N39" s="97" t="s">
         <v>201</v>
       </c>
     </row>
@@ -2774,13 +7567,13 @@
       <c r="M40" s="55" t="s">
         <v>203</v>
       </c>
-      <c r="N40" s="91"/>
+      <c r="N40" s="97"/>
     </row>
     <row r="41" spans="10:14" ht="70.75" x14ac:dyDescent="0.35">
       <c r="M41" s="55" t="s">
         <v>205</v>
       </c>
-      <c r="N41" s="91" t="s">
+      <c r="N41" s="97" t="s">
         <v>202</v>
       </c>
     </row>
@@ -2788,13 +7581,13 @@
       <c r="M42" s="55" t="s">
         <v>206</v>
       </c>
-      <c r="N42" s="91"/>
+      <c r="N42" s="97"/>
     </row>
     <row r="43" spans="10:14" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="M43" s="55" t="s">
         <v>199</v>
       </c>
-      <c r="N43" s="87" t="s">
+      <c r="N43" s="99" t="s">
         <v>208</v>
       </c>
     </row>
@@ -2802,16 +7595,23 @@
       <c r="M44" s="55" t="s">
         <v>200</v>
       </c>
-      <c r="N44" s="88"/>
+      <c r="N44" s="100"/>
     </row>
     <row r="45" spans="10:14" ht="28.3" x14ac:dyDescent="0.35">
       <c r="M45" s="55" t="s">
         <v>207</v>
       </c>
-      <c r="N45" s="89"/>
+      <c r="N45" s="101"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="N43:N45"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="N39:N40"/>
+    <mergeCell ref="N41:N42"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="K31:K35"/>
+    <mergeCell ref="K29:K30"/>
     <mergeCell ref="G17:H17"/>
     <mergeCell ref="H23:H25"/>
     <mergeCell ref="H20:H22"/>
@@ -2820,23 +7620,645 @@
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="E15:E16"/>
     <mergeCell ref="E11:E12"/>
-    <mergeCell ref="N43:N45"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="N39:N40"/>
-    <mergeCell ref="N41:N42"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="K31:K35"/>
-    <mergeCell ref="K29:K30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7794583-3269-4502-9EFF-DAD570850403}">
+  <dimension ref="A1:D18"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" zoomScale="94" zoomScaleNormal="67" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="30.15234375" style="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.61328125" style="105" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.69140625" style="105" customWidth="1"/>
+    <col min="4" max="4" width="10.69140625" style="105" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A1" s="102" t="s">
+        <v>276</v>
+      </c>
+      <c r="B1" s="102"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="102"/>
+    </row>
+    <row r="2" spans="1:4" s="105" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="103" t="s">
+        <v>277</v>
+      </c>
+      <c r="B2" s="104" t="s">
+        <v>278</v>
+      </c>
+      <c r="C2" s="104" t="s">
+        <v>279</v>
+      </c>
+      <c r="D2" s="104" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="105" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="106" t="s">
+        <v>281</v>
+      </c>
+      <c r="B3" s="107">
+        <v>45178</v>
+      </c>
+      <c r="C3" s="105">
+        <v>3</v>
+      </c>
+      <c r="D3" s="107">
+        <f>B3+C3</f>
+        <v>45181</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="105" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="106" t="s">
+        <v>282</v>
+      </c>
+      <c r="B4" s="107">
+        <v>45181</v>
+      </c>
+      <c r="C4" s="105">
+        <v>6</v>
+      </c>
+      <c r="D4" s="107">
+        <f>B4+C4</f>
+        <v>45187</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="105" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="106" t="s">
+        <v>283</v>
+      </c>
+      <c r="B5" s="107">
+        <v>45250</v>
+      </c>
+      <c r="C5" s="105">
+        <v>20</v>
+      </c>
+      <c r="D5" s="107">
+        <f>B5+C5</f>
+        <v>45270</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A6" s="108" t="s">
+        <v>284</v>
+      </c>
+      <c r="B6" s="107">
+        <v>45301</v>
+      </c>
+      <c r="C6" s="105">
+        <v>40</v>
+      </c>
+      <c r="D6" s="107">
+        <f>B6+C6</f>
+        <v>45341</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A7" s="109" t="s">
+        <v>285</v>
+      </c>
+      <c r="B7" s="107">
+        <v>45344</v>
+      </c>
+      <c r="C7" s="105">
+        <v>10</v>
+      </c>
+      <c r="D7" s="107">
+        <f t="shared" ref="D7:D18" si="0">B7+C7</f>
+        <v>45354</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A8" s="109" t="s">
+        <v>286</v>
+      </c>
+      <c r="B8" s="107">
+        <v>45355</v>
+      </c>
+      <c r="C8" s="105">
+        <v>10</v>
+      </c>
+      <c r="D8" s="107">
+        <f t="shared" si="0"/>
+        <v>45365</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A9" s="109" t="s">
+        <v>287</v>
+      </c>
+      <c r="B9" s="107">
+        <v>45367</v>
+      </c>
+      <c r="C9" s="105">
+        <v>5</v>
+      </c>
+      <c r="D9" s="107">
+        <f t="shared" si="0"/>
+        <v>45372</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A10" s="109" t="s">
+        <v>288</v>
+      </c>
+      <c r="B10" s="107">
+        <v>45375</v>
+      </c>
+      <c r="C10" s="105">
+        <v>10</v>
+      </c>
+      <c r="D10" s="107">
+        <f t="shared" si="0"/>
+        <v>45385</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A11" s="109" t="s">
+        <v>289</v>
+      </c>
+      <c r="B11" s="107">
+        <v>45413</v>
+      </c>
+      <c r="C11" s="105">
+        <v>5</v>
+      </c>
+      <c r="D11" s="107">
+        <f t="shared" si="0"/>
+        <v>45418</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A12" s="109" t="s">
+        <v>290</v>
+      </c>
+      <c r="B12" s="107">
+        <v>45420</v>
+      </c>
+      <c r="C12" s="105">
+        <v>10</v>
+      </c>
+      <c r="D12" s="107">
+        <f t="shared" si="0"/>
+        <v>45430</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A13" s="109" t="s">
+        <v>291</v>
+      </c>
+      <c r="B13" s="107">
+        <v>45432</v>
+      </c>
+      <c r="C13" s="105">
+        <v>20</v>
+      </c>
+      <c r="D13" s="107">
+        <f t="shared" si="0"/>
+        <v>45452</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A14" s="109" t="s">
+        <v>292</v>
+      </c>
+      <c r="B14" s="107">
+        <v>45455</v>
+      </c>
+      <c r="C14" s="105">
+        <v>10</v>
+      </c>
+      <c r="D14" s="107">
+        <f t="shared" si="0"/>
+        <v>45465</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A15" s="109" t="s">
+        <v>293</v>
+      </c>
+      <c r="B15" s="107">
+        <v>45467</v>
+      </c>
+      <c r="C15" s="105">
+        <v>30</v>
+      </c>
+      <c r="D15" s="107">
+        <f t="shared" si="0"/>
+        <v>45497</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A16" s="110" t="s">
+        <v>294</v>
+      </c>
+      <c r="B16" s="111">
+        <v>45498</v>
+      </c>
+      <c r="C16" s="112">
+        <v>5</v>
+      </c>
+      <c r="D16" s="111">
+        <f t="shared" si="0"/>
+        <v>45503</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A17" s="106" t="s">
+        <v>295</v>
+      </c>
+      <c r="B17" s="107">
+        <v>45505</v>
+      </c>
+      <c r="C17" s="105">
+        <v>18</v>
+      </c>
+      <c r="D17" s="107">
+        <f t="shared" si="0"/>
+        <v>45523</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A18" s="106" t="s">
+        <v>296</v>
+      </c>
+      <c r="B18" s="107">
+        <v>45344</v>
+      </c>
+      <c r="C18" s="105">
+        <v>179</v>
+      </c>
+      <c r="D18" s="107">
+        <f t="shared" si="0"/>
+        <v>45523</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9079DD0-448F-48EB-B592-370B7EA5A551}">
+  <dimension ref="A1:G14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="23.921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="7" width="13.69140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A1" s="63" t="s">
+        <v>209</v>
+      </c>
+      <c r="B1" s="61" t="s">
+        <v>210</v>
+      </c>
+      <c r="C1" s="61" t="s">
+        <v>211</v>
+      </c>
+      <c r="D1" s="61" t="s">
+        <v>212</v>
+      </c>
+      <c r="E1" s="61" t="s">
+        <v>213</v>
+      </c>
+      <c r="F1" s="61" t="s">
+        <v>227</v>
+      </c>
+      <c r="G1" s="57" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A2" s="61" t="s">
+        <v>229</v>
+      </c>
+      <c r="B2" s="59" t="s">
+        <v>228</v>
+      </c>
+      <c r="C2" s="60" t="s">
+        <v>228</v>
+      </c>
+      <c r="D2" s="60" t="s">
+        <v>228</v>
+      </c>
+      <c r="E2" s="59" t="s">
+        <v>228</v>
+      </c>
+      <c r="F2" s="59" t="s">
+        <v>228</v>
+      </c>
+      <c r="G2" s="60" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A3" s="62" t="s">
+        <v>215</v>
+      </c>
+      <c r="B3" s="59" t="s">
+        <v>228</v>
+      </c>
+      <c r="C3" s="59" t="s">
+        <v>228</v>
+      </c>
+      <c r="D3" s="59" t="s">
+        <v>228</v>
+      </c>
+      <c r="E3" s="59" t="s">
+        <v>228</v>
+      </c>
+      <c r="F3" s="59" t="s">
+        <v>228</v>
+      </c>
+      <c r="G3" s="59" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A4" s="61" t="s">
+        <v>216</v>
+      </c>
+      <c r="B4" s="58" t="s">
+        <v>228</v>
+      </c>
+      <c r="C4" s="58" t="s">
+        <v>228</v>
+      </c>
+      <c r="D4" s="59" t="s">
+        <v>228</v>
+      </c>
+      <c r="E4" s="59" t="s">
+        <v>228</v>
+      </c>
+      <c r="F4" s="58" t="s">
+        <v>228</v>
+      </c>
+      <c r="G4" s="59" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A5" s="61" t="s">
+        <v>217</v>
+      </c>
+      <c r="B5" s="58" t="s">
+        <v>228</v>
+      </c>
+      <c r="C5" s="59" t="s">
+        <v>228</v>
+      </c>
+      <c r="D5" s="59" t="s">
+        <v>228</v>
+      </c>
+      <c r="E5" s="58" t="s">
+        <v>228</v>
+      </c>
+      <c r="F5" s="59" t="s">
+        <v>228</v>
+      </c>
+      <c r="G5" s="59" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A6" s="61" t="s">
+        <v>218</v>
+      </c>
+      <c r="B6" s="59" t="s">
+        <v>228</v>
+      </c>
+      <c r="C6" s="59" t="s">
+        <v>228</v>
+      </c>
+      <c r="D6" s="59" t="s">
+        <v>228</v>
+      </c>
+      <c r="E6" s="59" t="s">
+        <v>228</v>
+      </c>
+      <c r="F6" s="60" t="s">
+        <v>228</v>
+      </c>
+      <c r="G6" s="60" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A7" s="61" t="s">
+        <v>219</v>
+      </c>
+      <c r="B7" s="58" t="s">
+        <v>228</v>
+      </c>
+      <c r="C7" s="58" t="s">
+        <v>228</v>
+      </c>
+      <c r="D7" s="58" t="s">
+        <v>228</v>
+      </c>
+      <c r="E7" s="59" t="s">
+        <v>228</v>
+      </c>
+      <c r="F7" s="59" t="s">
+        <v>228</v>
+      </c>
+      <c r="G7" s="59" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A8" s="61" t="s">
+        <v>220</v>
+      </c>
+      <c r="B8" s="58" t="s">
+        <v>228</v>
+      </c>
+      <c r="C8" s="58" t="s">
+        <v>228</v>
+      </c>
+      <c r="D8" s="59" t="s">
+        <v>228</v>
+      </c>
+      <c r="E8" s="59" t="s">
+        <v>228</v>
+      </c>
+      <c r="F8" s="58" t="s">
+        <v>228</v>
+      </c>
+      <c r="G8" s="59" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A9" s="61" t="s">
+        <v>221</v>
+      </c>
+      <c r="B9" s="59" t="s">
+        <v>228</v>
+      </c>
+      <c r="C9" s="59" t="s">
+        <v>228</v>
+      </c>
+      <c r="D9" s="59" t="s">
+        <v>228</v>
+      </c>
+      <c r="E9" s="58" t="s">
+        <v>228</v>
+      </c>
+      <c r="F9" s="58" t="s">
+        <v>228</v>
+      </c>
+      <c r="G9" s="59" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A10" s="61" t="s">
+        <v>222</v>
+      </c>
+      <c r="B10" s="59" t="s">
+        <v>228</v>
+      </c>
+      <c r="C10" s="58" t="s">
+        <v>228</v>
+      </c>
+      <c r="D10" s="58" t="s">
+        <v>228</v>
+      </c>
+      <c r="E10" s="58" t="s">
+        <v>228</v>
+      </c>
+      <c r="F10" s="58" t="s">
+        <v>228</v>
+      </c>
+      <c r="G10" s="59" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A11" s="61" t="s">
+        <v>223</v>
+      </c>
+      <c r="B11" s="59" t="s">
+        <v>228</v>
+      </c>
+      <c r="C11" s="59" t="s">
+        <v>228</v>
+      </c>
+      <c r="D11" s="59" t="s">
+        <v>228</v>
+      </c>
+      <c r="E11" s="58" t="s">
+        <v>228</v>
+      </c>
+      <c r="F11" s="58" t="s">
+        <v>228</v>
+      </c>
+      <c r="G11" s="59" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A12" s="61" t="s">
+        <v>224</v>
+      </c>
+      <c r="B12" s="58" t="s">
+        <v>228</v>
+      </c>
+      <c r="C12" s="58" t="s">
+        <v>228</v>
+      </c>
+      <c r="D12" s="59" t="s">
+        <v>228</v>
+      </c>
+      <c r="E12" s="59" t="s">
+        <v>228</v>
+      </c>
+      <c r="F12" s="59" t="s">
+        <v>228</v>
+      </c>
+      <c r="G12" s="59" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A13" s="61" t="s">
+        <v>225</v>
+      </c>
+      <c r="B13" s="58" t="s">
+        <v>228</v>
+      </c>
+      <c r="C13" s="59" t="s">
+        <v>228</v>
+      </c>
+      <c r="D13" s="59" t="s">
+        <v>228</v>
+      </c>
+      <c r="E13" s="59" t="s">
+        <v>228</v>
+      </c>
+      <c r="F13" s="59" t="s">
+        <v>228</v>
+      </c>
+      <c r="G13" s="59" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A14" s="61" t="s">
+        <v>226</v>
+      </c>
+      <c r="B14" s="58" t="s">
+        <v>228</v>
+      </c>
+      <c r="C14" s="58" t="s">
+        <v>228</v>
+      </c>
+      <c r="D14" s="59" t="s">
+        <v>228</v>
+      </c>
+      <c r="E14" s="59" t="s">
+        <v>228</v>
+      </c>
+      <c r="F14" s="58" t="s">
+        <v>228</v>
+      </c>
+      <c r="G14" s="59" t="s">
+        <v>228</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC5DB068-8AA7-4FE8-8963-0826FF0DCDF5}">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
@@ -2920,7 +8342,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54A282B8-5F70-4443-94ED-DE00DED0E1C7}">
   <dimension ref="A1:C5"/>
   <sheetViews>
@@ -2936,55 +8358,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="73" t="s">
         <v>243</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="94" t="s">
+      <c r="B1" s="73"/>
+      <c r="C1" s="68" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="42.45" x14ac:dyDescent="0.4">
-      <c r="A2" s="95" t="s">
+      <c r="A2" s="69" t="s">
         <v>245</v>
       </c>
-      <c r="B2" s="96" t="s">
+      <c r="B2" s="70" t="s">
         <v>246</v>
       </c>
-      <c r="C2" s="97" t="s">
+      <c r="C2" s="71" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="28.3" x14ac:dyDescent="0.4">
-      <c r="A3" s="95" t="s">
+      <c r="A3" s="69" t="s">
         <v>247</v>
       </c>
-      <c r="B3" s="96" t="s">
+      <c r="B3" s="70" t="s">
         <v>248</v>
       </c>
-      <c r="C3" s="97" t="s">
+      <c r="C3" s="71" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="28.3" x14ac:dyDescent="0.4">
-      <c r="A4" s="95" t="s">
+      <c r="A4" s="69" t="s">
         <v>250</v>
       </c>
-      <c r="B4" s="96" t="s">
+      <c r="B4" s="70" t="s">
         <v>251</v>
       </c>
-      <c r="C4" s="97" t="s">
+      <c r="C4" s="71" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="42.45" x14ac:dyDescent="0.4">
-      <c r="A5" s="95" t="s">
+      <c r="A5" s="69" t="s">
         <v>253</v>
       </c>
-      <c r="B5" s="96" t="s">
+      <c r="B5" s="70" t="s">
         <v>254</v>
       </c>
-      <c r="C5" s="97" t="s">
+      <c r="C5" s="71" t="s">
         <v>255</v>
       </c>
     </row>
@@ -2996,7 +8418,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFEDE31C-5D73-499B-9C3D-AD3FA55FC42C}">
   <dimension ref="A1:C5"/>
   <sheetViews>
@@ -3015,7 +8437,7 @@
       <c r="A1" s="34" t="s">
         <v>257</v>
       </c>
-      <c r="B1" s="98" t="s">
+      <c r="B1" s="72" t="s">
         <v>258</v>
       </c>
       <c r="C1" s="32" t="s">
@@ -3026,7 +8448,7 @@
       <c r="A2" s="65" t="s">
         <v>261</v>
       </c>
-      <c r="B2" s="99" t="s">
+      <c r="B2" s="74" t="s">
         <v>264</v>
       </c>
       <c r="C2" s="64" t="s">
@@ -3037,7 +8459,7 @@
       <c r="A3" s="65" t="s">
         <v>260</v>
       </c>
-      <c r="B3" s="99"/>
+      <c r="B3" s="74"/>
       <c r="C3" s="64" t="s">
         <v>266</v>
       </c>
@@ -3046,7 +8468,7 @@
       <c r="A4" s="65" t="s">
         <v>262</v>
       </c>
-      <c r="B4" s="99" t="s">
+      <c r="B4" s="74" t="s">
         <v>265</v>
       </c>
       <c r="C4" s="64" t="s">
@@ -3057,7 +8479,7 @@
       <c r="A5" s="65" t="s">
         <v>263</v>
       </c>
-      <c r="B5" s="99"/>
+      <c r="B5" s="74"/>
       <c r="C5" s="64" t="s">
         <v>268</v>
       </c>
@@ -3071,7 +8493,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I8"/>
   <sheetViews>
@@ -3090,19 +8512,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="67"/>
+      <c r="B1" s="76"/>
       <c r="C1" s="12" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="84.9" x14ac:dyDescent="0.4">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="69"/>
+      <c r="B2" s="78"/>
       <c r="C2" s="13" t="s">
         <v>13</v>
       </c>
@@ -3110,8 +8532,8 @@
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A3" s="68"/>
-      <c r="B3" s="69"/>
+      <c r="A3" s="77"/>
+      <c r="B3" s="78"/>
       <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
@@ -3119,8 +8541,8 @@
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" ht="118.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="70"/>
-      <c r="B4" s="71"/>
+      <c r="A4" s="79"/>
+      <c r="B4" s="80"/>
       <c r="C4" s="3" t="s">
         <v>11</v>
       </c>
@@ -3148,19 +8570,19 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A7" s="72" t="s">
+      <c r="A7" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="73"/>
+      <c r="B7" s="82"/>
       <c r="C7" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="42.45" x14ac:dyDescent="0.4">
-      <c r="A8" s="74" t="s">
+      <c r="A8" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="75"/>
+      <c r="B8" s="84"/>
       <c r="C8" s="5" t="s">
         <v>4</v>
       </c>
@@ -3177,7 +8599,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F60BA77A-0FF7-4A09-AAA8-E53725F430B2}">
   <dimension ref="A1:C11"/>
   <sheetViews>
@@ -3299,7 +8721,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5009B86D-BF46-461E-BF16-B020EE8D75CF}">
   <dimension ref="A1:S15"/>
   <sheetViews>
@@ -3375,12 +8797,12 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A4" s="76"/>
-      <c r="B4" s="76"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
+      <c r="A4" s="85"/>
+      <c r="B4" s="85"/>
+      <c r="C4" s="85"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="85"/>
+      <c r="F4" s="85"/>
       <c r="G4" s="25"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
@@ -3444,12 +8866,12 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A8" s="76"/>
-      <c r="B8" s="76"/>
-      <c r="C8" s="76"/>
-      <c r="D8" s="76"/>
-      <c r="E8" s="76"/>
-      <c r="F8" s="76"/>
+      <c r="A8" s="85"/>
+      <c r="B8" s="85"/>
+      <c r="C8" s="85"/>
+      <c r="D8" s="85"/>
+      <c r="E8" s="85"/>
+      <c r="F8" s="85"/>
       <c r="G8" s="25"/>
     </row>
     <row r="9" spans="1:7" ht="23.15" x14ac:dyDescent="0.4">
@@ -3513,12 +8935,12 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A12" s="77"/>
-      <c r="B12" s="77"/>
-      <c r="C12" s="77"/>
-      <c r="D12" s="77"/>
-      <c r="E12" s="77"/>
-      <c r="F12" s="77"/>
+      <c r="A12" s="86"/>
+      <c r="B12" s="86"/>
+      <c r="C12" s="86"/>
+      <c r="D12" s="86"/>
+      <c r="E12" s="86"/>
+      <c r="F12" s="86"/>
     </row>
     <row r="13" spans="1:7" ht="23.15" x14ac:dyDescent="0.4">
       <c r="A13" s="22" t="s">
@@ -3589,208 +9011,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F247DBC2-86D7-40D9-BBB1-B4B3735D2E61}">
-  <dimension ref="A1:D5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="3.69140625" style="26" customWidth="1"/>
-    <col min="2" max="2" width="50.69140625" style="27" customWidth="1"/>
-    <col min="3" max="3" width="30.69140625" style="27" customWidth="1"/>
-    <col min="4" max="4" width="3.69140625" style="27" customWidth="1"/>
-    <col min="5" max="16384" width="9.23046875" style="26"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="56.6" x14ac:dyDescent="0.35">
-      <c r="A1" s="80" t="s">
-        <v>88</v>
-      </c>
-      <c r="B1" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="C1" s="79" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1" s="82" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="70.75" x14ac:dyDescent="0.35">
-      <c r="A2" s="81"/>
-      <c r="B2" s="28" t="s">
-        <v>91</v>
-      </c>
-      <c r="C2" s="79"/>
-      <c r="D2" s="83"/>
-    </row>
-    <row r="3" spans="1:4" ht="42.45" x14ac:dyDescent="0.35">
-      <c r="A3" s="81"/>
-      <c r="B3" s="28" t="s">
-        <v>92</v>
-      </c>
-      <c r="C3" s="30" t="s">
-        <v>96</v>
-      </c>
-      <c r="D3" s="84" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="70.75" x14ac:dyDescent="0.35">
-      <c r="A4" s="81"/>
-      <c r="B4" s="28" t="s">
-        <v>93</v>
-      </c>
-      <c r="C4" s="78" t="s">
-        <v>97</v>
-      </c>
-      <c r="D4" s="85"/>
-    </row>
-    <row r="5" spans="1:4" ht="70.75" x14ac:dyDescent="0.35">
-      <c r="A5" s="81"/>
-      <c r="B5" s="28" t="s">
-        <v>94</v>
-      </c>
-      <c r="C5" s="78"/>
-      <c r="D5" s="85"/>
-    </row>
-  </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="A1:A5"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="D3:D5"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8FE6774-1E3A-4B01-9F79-0CE882F43062}">
-  <dimension ref="A1:B13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="1" width="35.84375" style="27" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="70.69140625" style="27" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A1" s="32" t="s">
-        <v>100</v>
-      </c>
-      <c r="B1" s="33" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A2" s="31" t="s">
-        <v>102</v>
-      </c>
-      <c r="B2" s="28" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="28.3" x14ac:dyDescent="0.4">
-      <c r="A3" s="31" t="s">
-        <v>103</v>
-      </c>
-      <c r="B3" s="28" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A4" s="31" t="s">
-        <v>104</v>
-      </c>
-      <c r="B4" s="28" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A5" s="34" t="s">
-        <v>101</v>
-      </c>
-      <c r="B5" s="28" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A6" s="29" t="s">
-        <v>117</v>
-      </c>
-      <c r="B6" s="86" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A7" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="B7" s="86"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A8" s="29" t="s">
-        <v>105</v>
-      </c>
-      <c r="B8" s="28" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A9" s="29" t="s">
-        <v>106</v>
-      </c>
-      <c r="B9" s="86" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A10" s="29" t="s">
-        <v>119</v>
-      </c>
-      <c r="B10" s="86"/>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A11" s="29" t="s">
-        <v>107</v>
-      </c>
-      <c r="B11" s="28" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A12" s="29" t="s">
-        <v>120</v>
-      </c>
-      <c r="B12" s="86" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A13" s="29" t="s">
-        <v>118</v>
-      </c>
-      <c r="B13" s="86"/>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B6:B7"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/FinalReport/key_tables.xlsx
+++ b/FinalReport/key_tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\g_gna\Documents\TCD\Modules\CS7CS5_Dissertation\FinalReport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63A78483-27F8-489C-9F64-3AB9C247DD00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1E2CE92-ACE5-42A9-95E9-05A4518F51A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="9463" firstSheet="10" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="9463" firstSheet="6" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="project_timeline" sheetId="14" r:id="rId1"/>
@@ -28,9 +28,6 @@
     <sheet name="challenges_bridge2college" sheetId="15" r:id="rId13"/>
     <sheet name="tool_pros_cons" sheetId="7" r:id="rId14"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId15"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -136,9 +133,6 @@
     <t>Norman's Model</t>
   </si>
   <si>
-    <t>Task and Core Language Mappings</t>
-  </si>
-  <si>
     <t>Jacob Nielsen's Usability Heuristics</t>
   </si>
   <si>
@@ -163,12 +157,6 @@
     <t>(vii) System state evaluation.</t>
   </si>
   <si>
-    <t>(i) Articulation: User maps their goals to actions.</t>
-  </si>
-  <si>
-    <t>(iii) Presentation: System presents updated state.</t>
-  </si>
-  <si>
     <t>(i) Use simple language with no irrelevant information.</t>
   </si>
   <si>
@@ -182,12 +170,6 @@
   </si>
   <si>
     <t xml:space="preserve">(x) Ensure help is readily available. </t>
-  </si>
-  <si>
-    <t>(iv) Observation: Users update mental model based on presented changes.</t>
-  </si>
-  <si>
-    <t>(ii) Performance: System interprets user actions correctly and responds appropriately.</t>
   </si>
   <si>
     <t>(iii) Minimize memory load.</t>
@@ -1154,12 +1136,111 @@
   <si>
     <t>Challenge 1 Features + CO2 Target Setter + CO2 Scale - Money Viewer</t>
   </si>
+  <si>
+    <t>Task-Core Language Mapping</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">(i) </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>Articulation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>: User maps their goals to actions.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">(ii) </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>Performance</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>: System interprets user actions correctly and responds appropriately.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">(iii) </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>Presentation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>: System presents updated state.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">(iv) </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>Observation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>: Users update mental model based on presented changes.</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1300,6 +1381,21 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Cambria"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="29">
@@ -1653,7 +1749,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="148">
+  <cellXfs count="154">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1700,18 +1796,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1869,96 +1953,6 @@
     <xf numFmtId="0" fontId="7" fillId="23" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1989,15 +1983,6 @@
     <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="28" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2057,15 +2042,6 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="21" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="27" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2089,6 +2065,144 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3399,6 +3513,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000005F-6E58-4BD0-8B45-7D028DF1E155}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="24"/>
@@ -3417,6 +3536,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000061-6E58-4BD0-8B45-7D028DF1E155}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:dLbl>
@@ -3499,47 +3623,6 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="6"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                  <a:spAutoFit/>
-                </a:bodyPr>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="bg1"/>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="ctr"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000B-A717-4D6C-A450-D58745F54D0A}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
               <c:idx val="10"/>
               <c:layout>
                 <c:manualLayout>
@@ -3547,32 +3630,6 @@
                   <c:y val="1.5003067189548563E-6"/>
                 </c:manualLayout>
               </c:layout>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                  <a:spAutoFit/>
-                </a:bodyPr>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="bg1"/>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
               <c:dLblPos val="ctr"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -3672,32 +3729,6 @@
                   <c:y val="1.9721699213715574E-7"/>
                 </c:manualLayout>
               </c:layout>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                  <a:spAutoFit/>
-                </a:bodyPr>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="bg1"/>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
               <c:dLblPos val="ctr"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -5950,211 +5981,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="literature_review"/>
-      <sheetName val="gantt_chart"/>
-      <sheetName val="avoiding_bad_design"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1">
-        <row r="2">
-          <cell r="B2" t="str">
-            <v>Start Date</v>
-          </cell>
-          <cell r="C2" t="str">
-            <v>Days</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3" t="str">
-            <v>Exploring possible topics.</v>
-          </cell>
-          <cell r="B3">
-            <v>45178</v>
-          </cell>
-          <cell r="C3">
-            <v>3</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>Finalize topic with a supervisor.</v>
-          </cell>
-          <cell r="B4">
-            <v>45181</v>
-          </cell>
-          <cell r="C4">
-            <v>6</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5" t="str">
-            <v>Finalizing research and question.</v>
-          </cell>
-          <cell r="B5">
-            <v>45250</v>
-          </cell>
-          <cell r="C5">
-            <v>20</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6" t="str">
-            <v>Research - Literature review.</v>
-          </cell>
-          <cell r="B6">
-            <v>45301</v>
-          </cell>
-          <cell r="C6">
-            <v>40</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7" t="str">
-            <v>Finalize mechanisms to model.</v>
-          </cell>
-          <cell r="B7">
-            <v>45344</v>
-          </cell>
-          <cell r="C7">
-            <v>10</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8" t="str">
-            <v xml:space="preserve">Capture model in rules &amp; diagrams. </v>
-          </cell>
-          <cell r="B8">
-            <v>45355</v>
-          </cell>
-          <cell r="C8">
-            <v>10</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9" t="str">
-            <v>Make UI mock-up.</v>
-          </cell>
-          <cell r="B9">
-            <v>45367</v>
-          </cell>
-          <cell r="C9">
-            <v>5</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10" t="str">
-            <v xml:space="preserve">Make low-fi prototype. </v>
-          </cell>
-          <cell r="B10">
-            <v>45375</v>
-          </cell>
-          <cell r="C10">
-            <v>10</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11" t="str">
-            <v xml:space="preserve">Test low-fi prototype. </v>
-          </cell>
-          <cell r="B11">
-            <v>45413</v>
-          </cell>
-          <cell r="C11">
-            <v>5</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12" t="str">
-            <v>Improve.</v>
-          </cell>
-          <cell r="B12">
-            <v>45420</v>
-          </cell>
-          <cell r="C12">
-            <v>10</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="A13" t="str">
-            <v>Develop MVP (high-fi prototype).</v>
-          </cell>
-          <cell r="B13">
-            <v>45432</v>
-          </cell>
-          <cell r="C13">
-            <v>20</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="A14" t="str">
-            <v xml:space="preserve">Test hi-fi prototype. </v>
-          </cell>
-          <cell r="B14">
-            <v>45455</v>
-          </cell>
-          <cell r="C14">
-            <v>10</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="A15" t="str">
-            <v xml:space="preserve">Refine application. </v>
-          </cell>
-          <cell r="B15">
-            <v>45467</v>
-          </cell>
-          <cell r="C15">
-            <v>30</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="A16" t="str">
-            <v>Field experiment.</v>
-          </cell>
-          <cell r="B16">
-            <v>45498</v>
-          </cell>
-          <cell r="C16">
-            <v>5</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="A17" t="str">
-            <v>Finish/Refine Written Thesis.</v>
-          </cell>
-          <cell r="B17">
-            <v>45505</v>
-          </cell>
-          <cell r="C17">
-            <v>18</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="A18" t="str">
-            <v>Write Dissertation</v>
-          </cell>
-          <cell r="B18">
-            <v>45344</v>
-          </cell>
-          <cell r="C18">
-            <v>179</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -6426,451 +6252,451 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="34.23046875" style="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.15234375" style="105" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.15234375" style="105" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.61328125" style="105" customWidth="1"/>
+    <col min="1" max="1" width="34.23046875" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.15234375" style="71" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.15234375" style="71" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.61328125" style="71" customWidth="1"/>
     <col min="5" max="5" width="2.69140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
-      <c r="A1" s="113" t="s">
-        <v>302</v>
-      </c>
-      <c r="B1" s="114"/>
-      <c r="C1" s="114"/>
-      <c r="D1" s="115"/>
-    </row>
-    <row r="2" spans="1:4" s="105" customFormat="1" ht="15.9" x14ac:dyDescent="0.4">
-      <c r="A2" s="116" t="s">
-        <v>277</v>
-      </c>
-      <c r="B2" s="117" t="s">
-        <v>278</v>
-      </c>
-      <c r="C2" s="117" t="s">
-        <v>279</v>
-      </c>
-      <c r="D2" s="118" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" s="105" customFormat="1" ht="15.9" x14ac:dyDescent="0.4">
-      <c r="A3" s="119" t="s">
-        <v>281</v>
-      </c>
-      <c r="B3" s="120">
+      <c r="A1" s="108" t="s">
+        <v>297</v>
+      </c>
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="110"/>
+    </row>
+    <row r="2" spans="1:4" s="71" customFormat="1" ht="15.9" x14ac:dyDescent="0.4">
+      <c r="A2" s="79" t="s">
+        <v>272</v>
+      </c>
+      <c r="B2" s="80" t="s">
+        <v>273</v>
+      </c>
+      <c r="C2" s="80" t="s">
+        <v>274</v>
+      </c>
+      <c r="D2" s="81" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="71" customFormat="1" ht="15.9" x14ac:dyDescent="0.4">
+      <c r="A3" s="82" t="s">
+        <v>276</v>
+      </c>
+      <c r="B3" s="83">
         <v>45178</v>
       </c>
-      <c r="C3" s="121">
+      <c r="C3" s="84">
         <v>3</v>
       </c>
-      <c r="D3" s="120">
+      <c r="D3" s="83">
         <f>B3+C3</f>
         <v>45181</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="105" customFormat="1" ht="15.9" x14ac:dyDescent="0.4">
-      <c r="A4" s="122" t="s">
-        <v>282</v>
-      </c>
-      <c r="B4" s="123">
+    <row r="4" spans="1:4" s="71" customFormat="1" ht="15.9" x14ac:dyDescent="0.4">
+      <c r="A4" s="85" t="s">
+        <v>277</v>
+      </c>
+      <c r="B4" s="86">
         <v>45181</v>
       </c>
-      <c r="C4" s="124">
+      <c r="C4" s="87">
         <v>6</v>
       </c>
-      <c r="D4" s="123">
+      <c r="D4" s="86">
         <f>B4+C4</f>
         <v>45187</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="105" customFormat="1" ht="15.9" x14ac:dyDescent="0.4">
-      <c r="A5" s="122" t="s">
-        <v>307</v>
-      </c>
-      <c r="B5" s="123">
+    <row r="5" spans="1:4" s="71" customFormat="1" ht="15.9" x14ac:dyDescent="0.4">
+      <c r="A5" s="85" t="s">
+        <v>302</v>
+      </c>
+      <c r="B5" s="86">
         <v>45216</v>
       </c>
-      <c r="C5" s="124">
+      <c r="C5" s="87">
         <f>(D5-B5)+1</f>
         <v>255</v>
       </c>
-      <c r="D5" s="123">
+      <c r="D5" s="86">
         <v>45470</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="105" customFormat="1" ht="15.9" x14ac:dyDescent="0.4">
-      <c r="A6" s="122" t="s">
-        <v>283</v>
-      </c>
-      <c r="B6" s="123">
+    <row r="6" spans="1:4" s="71" customFormat="1" ht="15.9" x14ac:dyDescent="0.4">
+      <c r="A6" s="85" t="s">
+        <v>278</v>
+      </c>
+      <c r="B6" s="86">
         <v>45250</v>
       </c>
-      <c r="C6" s="124">
+      <c r="C6" s="87">
         <v>20</v>
       </c>
-      <c r="D6" s="123">
+      <c r="D6" s="86">
         <f>B6+C6</f>
         <v>45270</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.9" x14ac:dyDescent="0.45">
-      <c r="A7" s="125" t="s">
-        <v>284</v>
-      </c>
-      <c r="B7" s="126">
+      <c r="A7" s="88" t="s">
+        <v>279</v>
+      </c>
+      <c r="B7" s="89">
         <v>45301</v>
       </c>
-      <c r="C7" s="127">
+      <c r="C7" s="90">
         <v>40</v>
       </c>
-      <c r="D7" s="126">
+      <c r="D7" s="89">
         <f>B7+C7</f>
         <v>45341</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.9" x14ac:dyDescent="0.45">
-      <c r="A8" s="128" t="s">
-        <v>298</v>
-      </c>
-      <c r="B8" s="123">
+      <c r="A8" s="91" t="s">
+        <v>293</v>
+      </c>
+      <c r="B8" s="86">
         <v>45310</v>
       </c>
-      <c r="C8" s="124">
+      <c r="C8" s="87">
         <f>(D8-B8)+1</f>
         <v>18</v>
       </c>
-      <c r="D8" s="123">
+      <c r="D8" s="86">
         <v>45327</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.9" x14ac:dyDescent="0.45">
-      <c r="A9" s="128" t="s">
-        <v>297</v>
-      </c>
-      <c r="B9" s="123">
+      <c r="A9" s="91" t="s">
+        <v>292</v>
+      </c>
+      <c r="B9" s="86">
         <v>45327</v>
       </c>
-      <c r="C9" s="124">
+      <c r="C9" s="87">
         <f t="shared" ref="C9:C10" si="0">(D9-B9)+1</f>
         <v>11</v>
       </c>
-      <c r="D9" s="123">
+      <c r="D9" s="86">
         <v>45337</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.9" x14ac:dyDescent="0.45">
-      <c r="A10" s="128" t="s">
-        <v>299</v>
-      </c>
-      <c r="B10" s="123">
+      <c r="A10" s="91" t="s">
+        <v>294</v>
+      </c>
+      <c r="B10" s="86">
         <v>45338</v>
       </c>
-      <c r="C10" s="124">
+      <c r="C10" s="87">
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
-      <c r="D10" s="123">
+      <c r="D10" s="86">
         <v>45427</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.9" x14ac:dyDescent="0.45">
-      <c r="A11" s="125" t="s">
-        <v>285</v>
-      </c>
-      <c r="B11" s="126">
+      <c r="A11" s="88" t="s">
+        <v>280</v>
+      </c>
+      <c r="B11" s="89">
         <v>45344</v>
       </c>
-      <c r="C11" s="127">
+      <c r="C11" s="90">
         <v>10</v>
       </c>
-      <c r="D11" s="126">
+      <c r="D11" s="89">
         <f t="shared" ref="D11:D27" si="1">B11+C11</f>
         <v>45354</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15.9" x14ac:dyDescent="0.45">
-      <c r="A12" s="125" t="s">
-        <v>286</v>
-      </c>
-      <c r="B12" s="126">
+      <c r="A12" s="88" t="s">
+        <v>281</v>
+      </c>
+      <c r="B12" s="89">
         <v>45355</v>
       </c>
-      <c r="C12" s="127">
+      <c r="C12" s="90">
         <v>10</v>
       </c>
-      <c r="D12" s="126">
+      <c r="D12" s="89">
         <f t="shared" si="1"/>
         <v>45365</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15.9" x14ac:dyDescent="0.45">
-      <c r="A13" s="125" t="s">
-        <v>287</v>
-      </c>
-      <c r="B13" s="126">
+      <c r="A13" s="88" t="s">
+        <v>282</v>
+      </c>
+      <c r="B13" s="89">
         <v>45367</v>
       </c>
-      <c r="C13" s="127">
+      <c r="C13" s="90">
         <v>5</v>
       </c>
-      <c r="D13" s="126">
+      <c r="D13" s="89">
         <f t="shared" si="1"/>
         <v>45372</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15.9" x14ac:dyDescent="0.45">
-      <c r="A14" s="129" t="s">
-        <v>288</v>
-      </c>
-      <c r="B14" s="130">
+      <c r="A14" s="92" t="s">
+        <v>283</v>
+      </c>
+      <c r="B14" s="93">
         <v>45375</v>
       </c>
-      <c r="C14" s="131">
+      <c r="C14" s="94">
         <v>10</v>
       </c>
-      <c r="D14" s="130">
+      <c r="D14" s="93">
         <f t="shared" si="1"/>
         <v>45385</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15.9" x14ac:dyDescent="0.45">
-      <c r="A15" s="129" t="s">
-        <v>289</v>
-      </c>
-      <c r="B15" s="130">
+      <c r="A15" s="92" t="s">
+        <v>284</v>
+      </c>
+      <c r="B15" s="93">
         <v>45413</v>
       </c>
-      <c r="C15" s="131">
+      <c r="C15" s="94">
         <v>5</v>
       </c>
-      <c r="D15" s="130">
+      <c r="D15" s="93">
         <f t="shared" si="1"/>
         <v>45418</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15.9" x14ac:dyDescent="0.45">
-      <c r="A16" s="125" t="s">
-        <v>290</v>
-      </c>
-      <c r="B16" s="126">
+      <c r="A16" s="88" t="s">
+        <v>285</v>
+      </c>
+      <c r="B16" s="89">
         <v>45420</v>
       </c>
-      <c r="C16" s="127">
+      <c r="C16" s="90">
         <v>10</v>
       </c>
-      <c r="D16" s="126">
+      <c r="D16" s="89">
         <f t="shared" si="1"/>
         <v>45430</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15.9" x14ac:dyDescent="0.45">
-      <c r="A17" s="128" t="s">
-        <v>312</v>
-      </c>
-      <c r="B17" s="123">
+      <c r="A17" s="91" t="s">
+        <v>307</v>
+      </c>
+      <c r="B17" s="86">
         <v>45428</v>
       </c>
-      <c r="C17" s="124">
+      <c r="C17" s="87">
         <f>(D17-B17)+1</f>
         <v>34</v>
       </c>
-      <c r="D17" s="123">
+      <c r="D17" s="86">
         <v>45461</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15.9" x14ac:dyDescent="0.45">
-      <c r="A18" s="125" t="s">
-        <v>291</v>
-      </c>
-      <c r="B18" s="126">
+      <c r="A18" s="88" t="s">
+        <v>286</v>
+      </c>
+      <c r="B18" s="89">
         <v>45432</v>
       </c>
-      <c r="C18" s="127">
+      <c r="C18" s="90">
         <v>20</v>
       </c>
-      <c r="D18" s="126">
+      <c r="D18" s="89">
         <f t="shared" si="1"/>
         <v>45452</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15.9" x14ac:dyDescent="0.45">
-      <c r="A19" s="125" t="s">
-        <v>292</v>
-      </c>
-      <c r="B19" s="126">
+      <c r="A19" s="88" t="s">
+        <v>287</v>
+      </c>
+      <c r="B19" s="89">
         <v>45455</v>
       </c>
-      <c r="C19" s="127">
+      <c r="C19" s="90">
         <v>10</v>
       </c>
-      <c r="D19" s="126">
+      <c r="D19" s="89">
         <f t="shared" si="1"/>
         <v>45465</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15.9" x14ac:dyDescent="0.45">
-      <c r="A20" s="132" t="s">
-        <v>300</v>
-      </c>
-      <c r="B20" s="133">
+      <c r="A20" s="95" t="s">
+        <v>295</v>
+      </c>
+      <c r="B20" s="96">
         <v>45462</v>
       </c>
-      <c r="C20" s="134">
+      <c r="C20" s="97">
         <f>(D20-B20)+1</f>
         <v>1</v>
       </c>
-      <c r="D20" s="133">
+      <c r="D20" s="96">
         <v>45462</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15.9" x14ac:dyDescent="0.45">
-      <c r="A21" s="128" t="s">
-        <v>301</v>
-      </c>
-      <c r="B21" s="123">
+      <c r="A21" s="91" t="s">
+        <v>296</v>
+      </c>
+      <c r="B21" s="86">
         <v>45463</v>
       </c>
-      <c r="C21" s="124">
+      <c r="C21" s="87">
         <f>(D21-B21)+1</f>
         <v>8</v>
       </c>
-      <c r="D21" s="123">
+      <c r="D21" s="86">
         <v>45470</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15.9" x14ac:dyDescent="0.45">
-      <c r="A22" s="125" t="s">
-        <v>293</v>
-      </c>
-      <c r="B22" s="126">
+      <c r="A22" s="88" t="s">
+        <v>288</v>
+      </c>
+      <c r="B22" s="89">
         <v>45467</v>
       </c>
-      <c r="C22" s="127">
+      <c r="C22" s="90">
         <v>30</v>
       </c>
-      <c r="D22" s="126">
+      <c r="D22" s="89">
         <f t="shared" si="1"/>
         <v>45497</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="15.9" x14ac:dyDescent="0.45">
-      <c r="A23" s="128" t="s">
-        <v>303</v>
-      </c>
-      <c r="B23" s="123">
+      <c r="A23" s="91" t="s">
+        <v>298</v>
+      </c>
+      <c r="B23" s="86">
         <v>45471</v>
       </c>
-      <c r="C23" s="124">
+      <c r="C23" s="87">
         <f>(D23-B23)+1</f>
         <v>35</v>
       </c>
-      <c r="D23" s="123">
+      <c r="D23" s="86">
         <v>45505</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="15.9" x14ac:dyDescent="0.45">
-      <c r="A24" s="128" t="s">
-        <v>304</v>
-      </c>
-      <c r="B24" s="123">
+      <c r="A24" s="91" t="s">
+        <v>299</v>
+      </c>
+      <c r="B24" s="86">
         <v>45507</v>
       </c>
-      <c r="C24" s="124">
+      <c r="C24" s="87">
         <f>(D24-B24)+1</f>
         <v>10</v>
       </c>
-      <c r="D24" s="123">
+      <c r="D24" s="86">
         <v>45516</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="15.9" x14ac:dyDescent="0.45">
-      <c r="A25" s="125" t="s">
-        <v>294</v>
-      </c>
-      <c r="B25" s="126">
+      <c r="A25" s="88" t="s">
+        <v>289</v>
+      </c>
+      <c r="B25" s="89">
         <v>45498</v>
       </c>
-      <c r="C25" s="127">
+      <c r="C25" s="90">
         <v>5</v>
       </c>
-      <c r="D25" s="126">
+      <c r="D25" s="89">
         <f t="shared" si="1"/>
         <v>45503</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
-      <c r="A26" s="135" t="s">
-        <v>295</v>
-      </c>
-      <c r="B26" s="126">
+      <c r="A26" s="98" t="s">
+        <v>290</v>
+      </c>
+      <c r="B26" s="89">
         <v>45505</v>
       </c>
-      <c r="C26" s="127">
+      <c r="C26" s="90">
         <v>18</v>
       </c>
-      <c r="D26" s="126">
+      <c r="D26" s="89">
         <f t="shared" si="1"/>
         <v>45523</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
-      <c r="A27" s="135" t="s">
-        <v>296</v>
-      </c>
-      <c r="B27" s="126">
+      <c r="A27" s="98" t="s">
+        <v>291</v>
+      </c>
+      <c r="B27" s="89">
         <v>45344</v>
       </c>
-      <c r="C27" s="127">
+      <c r="C27" s="90">
         <v>179</v>
       </c>
-      <c r="D27" s="126">
+      <c r="D27" s="89">
         <f t="shared" si="1"/>
         <v>45523</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
-      <c r="B29" s="136" t="s">
+      <c r="B29" s="111" t="s">
+        <v>300</v>
+      </c>
+      <c r="C29" s="112"/>
+      <c r="D29" s="113"/>
+    </row>
+    <row r="30" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
+      <c r="B30" s="99"/>
+      <c r="C30" s="100" t="s">
+        <v>301</v>
+      </c>
+      <c r="D30" s="101" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
+      <c r="B31" s="102"/>
+      <c r="C31" s="100" t="s">
+        <v>301</v>
+      </c>
+      <c r="D31" s="101" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="15.9" x14ac:dyDescent="0.45">
+      <c r="B32" s="103"/>
+      <c r="C32" s="104" t="s">
+        <v>301</v>
+      </c>
+      <c r="D32" s="101" t="s">
         <v>305</v>
       </c>
-      <c r="C29" s="137"/>
-      <c r="D29" s="138"/>
-    </row>
-    <row r="30" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
-      <c r="B30" s="139"/>
-      <c r="C30" s="140" t="s">
-        <v>306</v>
-      </c>
-      <c r="D30" s="141" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
-      <c r="B31" s="142"/>
-      <c r="C31" s="140" t="s">
-        <v>306</v>
-      </c>
-      <c r="D31" s="141" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="15.9" x14ac:dyDescent="0.45">
-      <c r="B32" s="143"/>
-      <c r="C32" s="144" t="s">
-        <v>306</v>
-      </c>
-      <c r="D32" s="141" t="s">
-        <v>310</v>
-      </c>
     </row>
     <row r="33" spans="2:4" ht="15.9" x14ac:dyDescent="0.45">
-      <c r="B33" s="145"/>
-      <c r="C33" s="146" t="s">
-        <v>306</v>
-      </c>
-      <c r="D33" s="147" t="s">
-        <v>309</v>
+      <c r="B33" s="105"/>
+      <c r="C33" s="106" t="s">
+        <v>301</v>
+      </c>
+      <c r="D33" s="107" t="s">
+        <v>304</v>
       </c>
     </row>
   </sheetData>
@@ -6894,64 +6720,64 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.69140625" style="26" customWidth="1"/>
-    <col min="2" max="2" width="50.69140625" style="27" customWidth="1"/>
-    <col min="3" max="3" width="30.69140625" style="27" customWidth="1"/>
-    <col min="4" max="4" width="3.69140625" style="27" customWidth="1"/>
-    <col min="5" max="16384" width="9.23046875" style="26"/>
+    <col min="1" max="1" width="3.69140625" style="22" customWidth="1"/>
+    <col min="2" max="2" width="50.69140625" style="23" customWidth="1"/>
+    <col min="3" max="3" width="30.69140625" style="23" customWidth="1"/>
+    <col min="4" max="4" width="3.69140625" style="23" customWidth="1"/>
+    <col min="5" max="16384" width="9.23046875" style="22"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="56.6" x14ac:dyDescent="0.35">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="131" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="C1" s="130" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1" s="133" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="70.75" x14ac:dyDescent="0.35">
+      <c r="A2" s="132"/>
+      <c r="B2" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" s="130"/>
+      <c r="D2" s="134"/>
+    </row>
+    <row r="3" spans="1:4" ht="42.45" x14ac:dyDescent="0.35">
+      <c r="A3" s="132"/>
+      <c r="B3" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="D3" s="135" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="70.75" x14ac:dyDescent="0.35">
+      <c r="A4" s="132"/>
+      <c r="B4" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="C1" s="88" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1" s="91" t="s">
+      <c r="C4" s="129" t="s">
+        <v>92</v>
+      </c>
+      <c r="D4" s="136"/>
+    </row>
+    <row r="5" spans="1:4" ht="70.75" x14ac:dyDescent="0.35">
+      <c r="A5" s="132"/>
+      <c r="B5" s="24" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="70.75" x14ac:dyDescent="0.35">
-      <c r="A2" s="90"/>
-      <c r="B2" s="28" t="s">
-        <v>91</v>
-      </c>
-      <c r="C2" s="88"/>
-      <c r="D2" s="92"/>
-    </row>
-    <row r="3" spans="1:4" ht="42.45" x14ac:dyDescent="0.35">
-      <c r="A3" s="90"/>
-      <c r="B3" s="28" t="s">
-        <v>92</v>
-      </c>
-      <c r="C3" s="30" t="s">
-        <v>96</v>
-      </c>
-      <c r="D3" s="93" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="70.75" x14ac:dyDescent="0.35">
-      <c r="A4" s="90"/>
-      <c r="B4" s="28" t="s">
-        <v>93</v>
-      </c>
-      <c r="C4" s="87" t="s">
-        <v>97</v>
-      </c>
-      <c r="D4" s="94"/>
-    </row>
-    <row r="5" spans="1:4" ht="70.75" x14ac:dyDescent="0.35">
-      <c r="A5" s="90"/>
-      <c r="B5" s="28" t="s">
-        <v>94</v>
-      </c>
-      <c r="C5" s="87"/>
-      <c r="D5" s="94"/>
+      <c r="C5" s="129"/>
+      <c r="D5" s="136"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -6976,107 +6802,107 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="35.84375" style="27" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="70.69140625" style="27" customWidth="1"/>
+    <col min="1" max="1" width="35.84375" style="23" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="70.69140625" style="23" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A2" s="27" t="s">
+        <v>97</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="28.3" x14ac:dyDescent="0.4">
+      <c r="A3" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A4" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A5" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A6" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="B6" s="137" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A7" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="B7" s="137"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A8" s="25" t="s">
         <v>100</v>
       </c>
-      <c r="B1" s="33" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A2" s="31" t="s">
+      <c r="B8" s="24" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A9" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="B9" s="137" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A10" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="B10" s="137"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A11" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="B2" s="28" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="28.3" x14ac:dyDescent="0.4">
-      <c r="A3" s="31" t="s">
-        <v>103</v>
-      </c>
-      <c r="B3" s="28" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A4" s="31" t="s">
-        <v>104</v>
-      </c>
-      <c r="B4" s="28" t="s">
+      <c r="B11" s="24" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A5" s="34" t="s">
-        <v>101</v>
-      </c>
-      <c r="B5" s="28" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A12" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="B12" s="137" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A6" s="29" t="s">
-        <v>117</v>
-      </c>
-      <c r="B6" s="95" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A7" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="B7" s="95"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A8" s="29" t="s">
-        <v>105</v>
-      </c>
-      <c r="B8" s="28" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A13" s="25" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A9" s="29" t="s">
-        <v>106</v>
-      </c>
-      <c r="B9" s="95" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A10" s="29" t="s">
-        <v>119</v>
-      </c>
-      <c r="B10" s="95"/>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A11" s="29" t="s">
-        <v>107</v>
-      </c>
-      <c r="B11" s="28" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A12" s="29" t="s">
-        <v>120</v>
-      </c>
-      <c r="B12" s="95" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A13" s="29" t="s">
-        <v>118</v>
-      </c>
-      <c r="B13" s="95"/>
+      <c r="B13" s="137"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -7098,110 +6924,110 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="3.3046875" style="39" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="30.69140625" style="27" customWidth="1"/>
-    <col min="5" max="5" width="30.69140625" style="35" customWidth="1"/>
-    <col min="6" max="16384" width="9.23046875" style="35"/>
+    <col min="1" max="1" width="3.3046875" style="35" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="30.69140625" style="23" customWidth="1"/>
+    <col min="5" max="5" width="30.69140625" style="31" customWidth="1"/>
+    <col min="6" max="16384" width="9.23046875" style="31"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A1" s="38"/>
-      <c r="B1" s="36" t="s">
+      <c r="A1" s="34"/>
+      <c r="B1" s="32" t="s">
+        <v>117</v>
+      </c>
+      <c r="C1" s="32" t="s">
+        <v>118</v>
+      </c>
+      <c r="D1" s="32" t="s">
+        <v>128</v>
+      </c>
+      <c r="E1" s="33" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="113.15" x14ac:dyDescent="0.4">
+      <c r="A2" s="46" t="s">
+        <v>141</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="E2" s="25" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="240.45" x14ac:dyDescent="0.4">
+      <c r="A3" s="45" t="s">
+        <v>142</v>
+      </c>
+      <c r="B3" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="C3" s="39" t="s">
+        <v>124</v>
+      </c>
+      <c r="D3" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="E3" s="27" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="99" x14ac:dyDescent="0.4">
+      <c r="A4" s="44" t="s">
+        <v>143</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="C4" s="36" t="s">
+        <v>125</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="E4" s="24" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="183.9" x14ac:dyDescent="0.4">
+      <c r="A5" s="43" t="s">
+        <v>144</v>
+      </c>
+      <c r="B5" s="37" t="s">
+        <v>121</v>
+      </c>
+      <c r="C5" s="38" t="s">
+        <v>132</v>
+      </c>
+      <c r="D5" s="37" t="s">
+        <v>139</v>
+      </c>
+      <c r="E5" s="37" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="169.75" x14ac:dyDescent="0.4">
+      <c r="A6" s="42" t="s">
+        <v>145</v>
+      </c>
+      <c r="B6" s="40" t="s">
         <v>122</v>
       </c>
-      <c r="C1" s="36" t="s">
-        <v>123</v>
-      </c>
-      <c r="D1" s="36" t="s">
-        <v>133</v>
-      </c>
-      <c r="E1" s="37" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="113.15" x14ac:dyDescent="0.4">
-      <c r="A2" s="50" t="s">
-        <v>146</v>
-      </c>
-      <c r="B2" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="C2" s="29" t="s">
-        <v>131</v>
-      </c>
-      <c r="D2" s="29" t="s">
-        <v>141</v>
-      </c>
-      <c r="E2" s="29" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="240.45" x14ac:dyDescent="0.4">
-      <c r="A3" s="49" t="s">
-        <v>147</v>
-      </c>
-      <c r="B3" s="31" t="s">
-        <v>143</v>
-      </c>
-      <c r="C3" s="43" t="s">
-        <v>129</v>
-      </c>
-      <c r="D3" s="31" t="s">
+      <c r="C6" s="41" t="s">
+        <v>127</v>
+      </c>
+      <c r="D6" s="40" t="s">
+        <v>140</v>
+      </c>
+      <c r="E6" s="40" t="s">
         <v>135</v>
-      </c>
-      <c r="E3" s="31" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="99" x14ac:dyDescent="0.4">
-      <c r="A4" s="48" t="s">
-        <v>148</v>
-      </c>
-      <c r="B4" s="28" t="s">
-        <v>125</v>
-      </c>
-      <c r="C4" s="40" t="s">
-        <v>130</v>
-      </c>
-      <c r="D4" s="28" t="s">
-        <v>134</v>
-      </c>
-      <c r="E4" s="28" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="183.9" x14ac:dyDescent="0.4">
-      <c r="A5" s="47" t="s">
-        <v>149</v>
-      </c>
-      <c r="B5" s="41" t="s">
-        <v>126</v>
-      </c>
-      <c r="C5" s="42" t="s">
-        <v>137</v>
-      </c>
-      <c r="D5" s="41" t="s">
-        <v>144</v>
-      </c>
-      <c r="E5" s="41" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="169.75" x14ac:dyDescent="0.4">
-      <c r="A6" s="46" t="s">
-        <v>150</v>
-      </c>
-      <c r="B6" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="C6" s="45" t="s">
-        <v>132</v>
-      </c>
-      <c r="D6" s="44" t="s">
-        <v>145</v>
-      </c>
-      <c r="E6" s="44" t="s">
-        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -7213,7 +7039,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2C3F88A-4160-4E60-896F-B8A73EA077EA}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:C3"/>
     </sheetView>
   </sheetViews>
@@ -7225,34 +7051,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A1" s="38"/>
-      <c r="B1" s="36" t="s">
-        <v>122</v>
-      </c>
-      <c r="C1" s="36" t="s">
-        <v>123</v>
+      <c r="A1" s="34"/>
+      <c r="B1" s="32" t="s">
+        <v>117</v>
+      </c>
+      <c r="C1" s="32" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="64.75" x14ac:dyDescent="0.4">
-      <c r="A2" s="50" t="s">
-        <v>146</v>
-      </c>
-      <c r="B2" s="67" t="s">
-        <v>124</v>
-      </c>
-      <c r="C2" s="67" t="s">
-        <v>313</v>
+      <c r="A2" s="46" t="s">
+        <v>141</v>
+      </c>
+      <c r="B2" s="63" t="s">
+        <v>119</v>
+      </c>
+      <c r="C2" s="63" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="64.75" x14ac:dyDescent="0.4">
-      <c r="A3" s="49" t="s">
-        <v>147</v>
-      </c>
-      <c r="B3" s="66" t="s">
-        <v>143</v>
-      </c>
-      <c r="C3" s="43" t="s">
-        <v>314</v>
+      <c r="A3" s="45" t="s">
+        <v>142</v>
+      </c>
+      <c r="B3" s="62" t="s">
+        <v>138</v>
+      </c>
+      <c r="C3" s="39" t="s">
+        <v>309</v>
       </c>
     </row>
   </sheetData>
@@ -7270,348 +7096,341 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.69140625" style="51" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="45.69140625" style="51" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="2.69140625" style="26" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="40.69140625" style="56" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="30.69140625" style="56" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="2.69140625" style="26" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="50.69140625" style="56" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="20.69140625" style="56" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="2.69140625" style="26" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="30.69140625" style="56" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="40.69140625" style="56" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="2.69140625" style="26" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="50.69140625" style="56" customWidth="1"/>
-    <col min="14" max="14" width="20.69140625" style="56" customWidth="1"/>
-    <col min="15" max="16384" width="9.23046875" style="26"/>
+    <col min="1" max="1" width="25.69140625" style="47" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="45.69140625" style="47" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="2.69140625" style="22" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="40.69140625" style="52" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="30.69140625" style="52" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="2.69140625" style="22" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="50.69140625" style="52" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="20.69140625" style="52" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="2.69140625" style="22" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="30.69140625" style="52" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="40.69140625" style="52" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="2.69140625" style="22" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="50.69140625" style="52" customWidth="1"/>
+    <col min="14" max="14" width="20.69140625" style="52" customWidth="1"/>
+    <col min="15" max="16384" width="9.23046875" style="22"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="141" t="s">
+        <v>156</v>
+      </c>
+      <c r="B1" s="143"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="49" t="s">
+        <v>146</v>
+      </c>
+      <c r="B2" s="50" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="28.3" x14ac:dyDescent="0.35">
+      <c r="A3" s="142" t="s">
+        <v>148</v>
+      </c>
+      <c r="B3" s="51" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="28.3" x14ac:dyDescent="0.35">
+      <c r="A4" s="142"/>
+      <c r="B4" s="51" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="28.3" x14ac:dyDescent="0.35">
+      <c r="A5" s="142"/>
+      <c r="B5" s="51" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="28.3" x14ac:dyDescent="0.35">
+      <c r="A6" s="48" t="s">
+        <v>155</v>
+      </c>
+      <c r="B6" s="51" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="56.6" x14ac:dyDescent="0.35">
+      <c r="A7" s="48" t="s">
+        <v>158</v>
+      </c>
+      <c r="B7" s="51" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="70.75" x14ac:dyDescent="0.35">
+      <c r="A8" s="48" t="s">
+        <v>149</v>
+      </c>
+      <c r="B8" s="51" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D9" s="141" t="s">
+        <v>159</v>
+      </c>
+      <c r="E9" s="143"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D10" s="49" t="s">
+        <v>146</v>
+      </c>
+      <c r="E10" s="50" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D11" s="51" t="s">
+        <v>160</v>
+      </c>
+      <c r="E11" s="142" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D12" s="51" t="s">
+        <v>164</v>
+      </c>
+      <c r="E12" s="142"/>
+    </row>
+    <row r="13" spans="1:5" ht="28.3" x14ac:dyDescent="0.35">
+      <c r="D13" s="51" t="s">
         <v>161</v>
       </c>
-      <c r="B1" s="98"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="53" t="s">
-        <v>151</v>
-      </c>
-      <c r="B2" s="54" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="28.3" x14ac:dyDescent="0.35">
-      <c r="A3" s="97" t="s">
-        <v>153</v>
-      </c>
-      <c r="B3" s="55" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="28.3" x14ac:dyDescent="0.35">
-      <c r="A4" s="97"/>
-      <c r="B4" s="55" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="28.3" x14ac:dyDescent="0.35">
-      <c r="A5" s="97"/>
-      <c r="B5" s="55" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="28.3" x14ac:dyDescent="0.35">
-      <c r="A6" s="52" t="s">
+      <c r="E13" s="51" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="28.3" x14ac:dyDescent="0.35">
+      <c r="D14" s="51" t="s">
+        <v>166</v>
+      </c>
+      <c r="E14" s="51" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="42.45" x14ac:dyDescent="0.35">
+      <c r="D15" s="51" t="s">
+        <v>167</v>
+      </c>
+      <c r="E15" s="142" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="70.75" x14ac:dyDescent="0.35">
+      <c r="D16" s="51" t="s">
+        <v>168</v>
+      </c>
+      <c r="E16" s="142"/>
+    </row>
+    <row r="17" spans="7:11" x14ac:dyDescent="0.35">
+      <c r="G17" s="141" t="s">
+        <v>170</v>
+      </c>
+      <c r="H17" s="141"/>
+    </row>
+    <row r="18" spans="7:11" x14ac:dyDescent="0.35">
+      <c r="G18" s="49" t="s">
+        <v>146</v>
+      </c>
+      <c r="H18" s="50" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="19" spans="7:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G19" s="51" t="s">
+        <v>179</v>
+      </c>
+      <c r="H19" s="51" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="20" spans="7:11" x14ac:dyDescent="0.35">
+      <c r="G20" s="51" t="s">
         <v>160</v>
       </c>
-      <c r="B6" s="55" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="56.6" x14ac:dyDescent="0.35">
-      <c r="A7" s="52" t="s">
-        <v>163</v>
-      </c>
-      <c r="B7" s="55" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="70.75" x14ac:dyDescent="0.35">
-      <c r="A8" s="52" t="s">
-        <v>154</v>
-      </c>
-      <c r="B8" s="55" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="D9" s="96" t="s">
-        <v>164</v>
-      </c>
-      <c r="E9" s="98"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="D10" s="53" t="s">
-        <v>151</v>
-      </c>
-      <c r="E10" s="54" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="D11" s="55" t="s">
-        <v>165</v>
-      </c>
-      <c r="E11" s="97" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="D12" s="55" t="s">
-        <v>169</v>
-      </c>
-      <c r="E12" s="97"/>
-    </row>
-    <row r="13" spans="1:5" ht="28.3" x14ac:dyDescent="0.35">
-      <c r="D13" s="55" t="s">
-        <v>166</v>
-      </c>
-      <c r="E13" s="55" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="28.3" x14ac:dyDescent="0.35">
-      <c r="D14" s="55" t="s">
+      <c r="H20" s="142" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="21" spans="7:11" x14ac:dyDescent="0.35">
+      <c r="G21" s="51" t="s">
         <v>171</v>
       </c>
-      <c r="E14" s="55" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="42.45" x14ac:dyDescent="0.35">
-      <c r="D15" s="55" t="s">
+      <c r="H21" s="142"/>
+    </row>
+    <row r="22" spans="7:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G22" s="51" t="s">
         <v>172</v>
       </c>
-      <c r="E15" s="97" t="s">
+      <c r="H22" s="142"/>
+    </row>
+    <row r="23" spans="7:11" x14ac:dyDescent="0.35">
+      <c r="G23" s="51" t="s">
+        <v>178</v>
+      </c>
+      <c r="H23" s="142" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="24" spans="7:11" x14ac:dyDescent="0.35">
+      <c r="G24" s="51" t="s">
+        <v>173</v>
+      </c>
+      <c r="H24" s="142"/>
+    </row>
+    <row r="25" spans="7:11" ht="28.3" x14ac:dyDescent="0.35">
+      <c r="G25" s="51" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" ht="70.75" x14ac:dyDescent="0.35">
-      <c r="D16" s="55" t="s">
-        <v>173</v>
-      </c>
-      <c r="E16" s="97"/>
-    </row>
-    <row r="17" spans="7:11" x14ac:dyDescent="0.35">
-      <c r="G17" s="96" t="s">
-        <v>175</v>
-      </c>
-      <c r="H17" s="96"/>
-    </row>
-    <row r="18" spans="7:11" x14ac:dyDescent="0.35">
-      <c r="G18" s="53" t="s">
-        <v>151</v>
-      </c>
-      <c r="H18" s="54" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="19" spans="7:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="G19" s="55" t="s">
+      <c r="H25" s="142"/>
+    </row>
+    <row r="26" spans="7:11" x14ac:dyDescent="0.35">
+      <c r="J26" s="141" t="s">
+        <v>180</v>
+      </c>
+      <c r="K26" s="141"/>
+    </row>
+    <row r="27" spans="7:11" x14ac:dyDescent="0.35">
+      <c r="J27" s="49" t="s">
+        <v>146</v>
+      </c>
+      <c r="K27" s="50" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="28" spans="7:11" x14ac:dyDescent="0.35">
+      <c r="J28" s="51" t="s">
+        <v>188</v>
+      </c>
+      <c r="K28" s="51" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="29" spans="7:11" x14ac:dyDescent="0.35">
+      <c r="J29" s="51" t="s">
+        <v>182</v>
+      </c>
+      <c r="K29" s="142" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="30" spans="7:11" ht="28.3" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J30" s="51" t="s">
         <v>184</v>
       </c>
-      <c r="H19" s="55" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="20" spans="7:11" x14ac:dyDescent="0.35">
-      <c r="G20" s="55" t="s">
-        <v>165</v>
-      </c>
-      <c r="H20" s="97" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="21" spans="7:11" x14ac:dyDescent="0.35">
-      <c r="G21" s="55" t="s">
-        <v>176</v>
-      </c>
-      <c r="H21" s="97"/>
-    </row>
-    <row r="22" spans="7:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="G22" s="55" t="s">
+      <c r="K30" s="142"/>
+    </row>
+    <row r="31" spans="7:11" x14ac:dyDescent="0.35">
+      <c r="J31" s="51" t="s">
+        <v>181</v>
+      </c>
+      <c r="K31" s="142" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="32" spans="7:11" ht="42.45" x14ac:dyDescent="0.35">
+      <c r="J32" s="51" t="s">
+        <v>185</v>
+      </c>
+      <c r="K32" s="142"/>
+    </row>
+    <row r="33" spans="10:14" ht="42.45" x14ac:dyDescent="0.35">
+      <c r="J33" s="51" t="s">
+        <v>183</v>
+      </c>
+      <c r="K33" s="142"/>
+    </row>
+    <row r="34" spans="10:14" ht="42.45" x14ac:dyDescent="0.35">
+      <c r="J34" s="51" t="s">
+        <v>186</v>
+      </c>
+      <c r="K34" s="142"/>
+    </row>
+    <row r="35" spans="10:14" ht="56.6" x14ac:dyDescent="0.35">
+      <c r="J35" s="51" t="s">
+        <v>187</v>
+      </c>
+      <c r="K35" s="142"/>
+    </row>
+    <row r="36" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="M36" s="141" t="s">
+        <v>192</v>
+      </c>
+      <c r="N36" s="141"/>
+    </row>
+    <row r="37" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="M37" s="49" t="s">
+        <v>146</v>
+      </c>
+      <c r="N37" s="50" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="38" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="M38" s="51" t="s">
+        <v>193</v>
+      </c>
+      <c r="N38" s="51" t="s">
         <v>177</v>
       </c>
-      <c r="H22" s="97"/>
-    </row>
-    <row r="23" spans="7:11" x14ac:dyDescent="0.35">
-      <c r="G23" s="55" t="s">
-        <v>183</v>
-      </c>
-      <c r="H23" s="97" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="24" spans="7:11" x14ac:dyDescent="0.35">
-      <c r="G24" s="55" t="s">
-        <v>178</v>
-      </c>
-      <c r="H24" s="97"/>
-    </row>
-    <row r="25" spans="7:11" ht="28.3" x14ac:dyDescent="0.35">
-      <c r="G25" s="55" t="s">
-        <v>179</v>
-      </c>
-      <c r="H25" s="97"/>
-    </row>
-    <row r="26" spans="7:11" x14ac:dyDescent="0.35">
-      <c r="J26" s="96" t="s">
-        <v>185</v>
-      </c>
-      <c r="K26" s="96"/>
-    </row>
-    <row r="27" spans="7:11" x14ac:dyDescent="0.35">
-      <c r="J27" s="53" t="s">
-        <v>151</v>
-      </c>
-      <c r="K27" s="54" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="28" spans="7:11" x14ac:dyDescent="0.35">
-      <c r="J28" s="55" t="s">
-        <v>193</v>
-      </c>
-      <c r="K28" s="55" t="s">
+    </row>
+    <row r="39" spans="10:14" ht="28.3" x14ac:dyDescent="0.35">
+      <c r="M39" s="51" t="s">
+        <v>199</v>
+      </c>
+      <c r="N39" s="142" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="40" spans="10:14" ht="42.45" x14ac:dyDescent="0.35">
+      <c r="M40" s="51" t="s">
+        <v>198</v>
+      </c>
+      <c r="N40" s="142"/>
+    </row>
+    <row r="41" spans="10:14" ht="70.75" x14ac:dyDescent="0.35">
+      <c r="M41" s="51" t="s">
+        <v>200</v>
+      </c>
+      <c r="N41" s="142" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="42" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="M42" s="51" t="s">
+        <v>201</v>
+      </c>
+      <c r="N42" s="142"/>
+    </row>
+    <row r="43" spans="10:14" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M43" s="51" t="s">
+        <v>194</v>
+      </c>
+      <c r="N43" s="138" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="44" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="M44" s="51" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="29" spans="7:11" x14ac:dyDescent="0.35">
-      <c r="J29" s="55" t="s">
-        <v>187</v>
-      </c>
-      <c r="K29" s="97" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="30" spans="7:11" ht="28.3" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="J30" s="55" t="s">
-        <v>189</v>
-      </c>
-      <c r="K30" s="97"/>
-    </row>
-    <row r="31" spans="7:11" x14ac:dyDescent="0.35">
-      <c r="J31" s="55" t="s">
-        <v>186</v>
-      </c>
-      <c r="K31" s="97" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="32" spans="7:11" ht="42.45" x14ac:dyDescent="0.35">
-      <c r="J32" s="55" t="s">
-        <v>190</v>
-      </c>
-      <c r="K32" s="97"/>
-    </row>
-    <row r="33" spans="10:14" ht="42.45" x14ac:dyDescent="0.35">
-      <c r="J33" s="55" t="s">
-        <v>188</v>
-      </c>
-      <c r="K33" s="97"/>
-    </row>
-    <row r="34" spans="10:14" ht="42.45" x14ac:dyDescent="0.35">
-      <c r="J34" s="55" t="s">
-        <v>191</v>
-      </c>
-      <c r="K34" s="97"/>
-    </row>
-    <row r="35" spans="10:14" ht="56.6" x14ac:dyDescent="0.35">
-      <c r="J35" s="55" t="s">
-        <v>192</v>
-      </c>
-      <c r="K35" s="97"/>
-    </row>
-    <row r="36" spans="10:14" x14ac:dyDescent="0.35">
-      <c r="M36" s="96" t="s">
-        <v>197</v>
-      </c>
-      <c r="N36" s="96"/>
-    </row>
-    <row r="37" spans="10:14" x14ac:dyDescent="0.35">
-      <c r="M37" s="53" t="s">
-        <v>151</v>
-      </c>
-      <c r="N37" s="54" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="38" spans="10:14" x14ac:dyDescent="0.35">
-      <c r="M38" s="55" t="s">
-        <v>198</v>
-      </c>
-      <c r="N38" s="55" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="39" spans="10:14" ht="28.3" x14ac:dyDescent="0.35">
-      <c r="M39" s="55" t="s">
-        <v>204</v>
-      </c>
-      <c r="N39" s="97" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="40" spans="10:14" ht="42.45" x14ac:dyDescent="0.35">
-      <c r="M40" s="55" t="s">
-        <v>203</v>
-      </c>
-      <c r="N40" s="97"/>
-    </row>
-    <row r="41" spans="10:14" ht="70.75" x14ac:dyDescent="0.35">
-      <c r="M41" s="55" t="s">
-        <v>205</v>
-      </c>
-      <c r="N41" s="97" t="s">
+      <c r="N44" s="139"/>
+    </row>
+    <row r="45" spans="10:14" ht="28.3" x14ac:dyDescent="0.35">
+      <c r="M45" s="51" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="42" spans="10:14" x14ac:dyDescent="0.35">
-      <c r="M42" s="55" t="s">
-        <v>206</v>
-      </c>
-      <c r="N42" s="97"/>
-    </row>
-    <row r="43" spans="10:14" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="M43" s="55" t="s">
-        <v>199</v>
-      </c>
-      <c r="N43" s="99" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="44" spans="10:14" x14ac:dyDescent="0.35">
-      <c r="M44" s="55" t="s">
-        <v>200</v>
-      </c>
-      <c r="N44" s="100"/>
-    </row>
-    <row r="45" spans="10:14" ht="28.3" x14ac:dyDescent="0.35">
-      <c r="M45" s="55" t="s">
-        <v>207</v>
-      </c>
-      <c r="N45" s="101"/>
+      <c r="N45" s="140"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="N43:N45"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="N39:N40"/>
-    <mergeCell ref="N41:N42"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="K31:K35"/>
-    <mergeCell ref="K29:K30"/>
     <mergeCell ref="G17:H17"/>
     <mergeCell ref="H23:H25"/>
     <mergeCell ref="H20:H22"/>
@@ -7620,6 +7439,13 @@
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="E15:E16"/>
     <mergeCell ref="E11:E12"/>
+    <mergeCell ref="N43:N45"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="N39:N40"/>
+    <mergeCell ref="N41:N42"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="K31:K35"/>
+    <mergeCell ref="K29:K30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7635,270 +7461,270 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="30.15234375" style="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.61328125" style="105" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.69140625" style="105" customWidth="1"/>
-    <col min="4" max="4" width="10.69140625" style="105" customWidth="1"/>
+    <col min="1" max="1" width="30.15234375" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.61328125" style="71" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.69140625" style="71" customWidth="1"/>
+    <col min="4" max="4" width="10.69140625" style="71" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A1" s="102" t="s">
+      <c r="A1" s="114" t="s">
+        <v>271</v>
+      </c>
+      <c r="B1" s="114"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+    </row>
+    <row r="2" spans="1:4" s="71" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="69" t="s">
+        <v>272</v>
+      </c>
+      <c r="B2" s="70" t="s">
+        <v>273</v>
+      </c>
+      <c r="C2" s="70" t="s">
+        <v>274</v>
+      </c>
+      <c r="D2" s="70" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="71" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="72" t="s">
         <v>276</v>
       </c>
-      <c r="B1" s="102"/>
-      <c r="C1" s="102"/>
-      <c r="D1" s="102"/>
-    </row>
-    <row r="2" spans="1:4" s="105" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="103" t="s">
-        <v>277</v>
-      </c>
-      <c r="B2" s="104" t="s">
-        <v>278</v>
-      </c>
-      <c r="C2" s="104" t="s">
-        <v>279</v>
-      </c>
-      <c r="D2" s="104" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" s="105" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="106" t="s">
-        <v>281</v>
-      </c>
-      <c r="B3" s="107">
+      <c r="B3" s="73">
         <v>45178</v>
       </c>
-      <c r="C3" s="105">
+      <c r="C3" s="71">
         <v>3</v>
       </c>
-      <c r="D3" s="107">
+      <c r="D3" s="73">
         <f>B3+C3</f>
         <v>45181</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="105" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="106" t="s">
-        <v>282</v>
-      </c>
-      <c r="B4" s="107">
+    <row r="4" spans="1:4" s="71" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="72" t="s">
+        <v>277</v>
+      </c>
+      <c r="B4" s="73">
         <v>45181</v>
       </c>
-      <c r="C4" s="105">
+      <c r="C4" s="71">
         <v>6</v>
       </c>
-      <c r="D4" s="107">
+      <c r="D4" s="73">
         <f>B4+C4</f>
         <v>45187</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="105" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="106" t="s">
-        <v>283</v>
-      </c>
-      <c r="B5" s="107">
+    <row r="5" spans="1:4" s="71" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="72" t="s">
+        <v>278</v>
+      </c>
+      <c r="B5" s="73">
         <v>45250</v>
       </c>
-      <c r="C5" s="105">
+      <c r="C5" s="71">
         <v>20</v>
       </c>
-      <c r="D5" s="107">
+      <c r="D5" s="73">
         <f>B5+C5</f>
         <v>45270</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A6" s="108" t="s">
-        <v>284</v>
-      </c>
-      <c r="B6" s="107">
+      <c r="A6" s="74" t="s">
+        <v>279</v>
+      </c>
+      <c r="B6" s="73">
         <v>45301</v>
       </c>
-      <c r="C6" s="105">
+      <c r="C6" s="71">
         <v>40</v>
       </c>
-      <c r="D6" s="107">
+      <c r="D6" s="73">
         <f>B6+C6</f>
         <v>45341</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A7" s="109" t="s">
-        <v>285</v>
-      </c>
-      <c r="B7" s="107">
+      <c r="A7" s="75" t="s">
+        <v>280</v>
+      </c>
+      <c r="B7" s="73">
         <v>45344</v>
       </c>
-      <c r="C7" s="105">
+      <c r="C7" s="71">
         <v>10</v>
       </c>
-      <c r="D7" s="107">
+      <c r="D7" s="73">
         <f t="shared" ref="D7:D18" si="0">B7+C7</f>
         <v>45354</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A8" s="109" t="s">
-        <v>286</v>
-      </c>
-      <c r="B8" s="107">
+      <c r="A8" s="75" t="s">
+        <v>281</v>
+      </c>
+      <c r="B8" s="73">
         <v>45355</v>
       </c>
-      <c r="C8" s="105">
+      <c r="C8" s="71">
         <v>10</v>
       </c>
-      <c r="D8" s="107">
+      <c r="D8" s="73">
         <f t="shared" si="0"/>
         <v>45365</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A9" s="109" t="s">
-        <v>287</v>
-      </c>
-      <c r="B9" s="107">
+      <c r="A9" s="75" t="s">
+        <v>282</v>
+      </c>
+      <c r="B9" s="73">
         <v>45367</v>
       </c>
-      <c r="C9" s="105">
+      <c r="C9" s="71">
         <v>5</v>
       </c>
-      <c r="D9" s="107">
+      <c r="D9" s="73">
         <f t="shared" si="0"/>
         <v>45372</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A10" s="109" t="s">
-        <v>288</v>
-      </c>
-      <c r="B10" s="107">
+      <c r="A10" s="75" t="s">
+        <v>283</v>
+      </c>
+      <c r="B10" s="73">
         <v>45375</v>
       </c>
-      <c r="C10" s="105">
+      <c r="C10" s="71">
         <v>10</v>
       </c>
-      <c r="D10" s="107">
+      <c r="D10" s="73">
         <f t="shared" si="0"/>
         <v>45385</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A11" s="109" t="s">
-        <v>289</v>
-      </c>
-      <c r="B11" s="107">
+      <c r="A11" s="75" t="s">
+        <v>284</v>
+      </c>
+      <c r="B11" s="73">
         <v>45413</v>
       </c>
-      <c r="C11" s="105">
+      <c r="C11" s="71">
         <v>5</v>
       </c>
-      <c r="D11" s="107">
+      <c r="D11" s="73">
         <f t="shared" si="0"/>
         <v>45418</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A12" s="109" t="s">
-        <v>290</v>
-      </c>
-      <c r="B12" s="107">
+      <c r="A12" s="75" t="s">
+        <v>285</v>
+      </c>
+      <c r="B12" s="73">
         <v>45420</v>
       </c>
-      <c r="C12" s="105">
+      <c r="C12" s="71">
         <v>10</v>
       </c>
-      <c r="D12" s="107">
+      <c r="D12" s="73">
         <f t="shared" si="0"/>
         <v>45430</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A13" s="109" t="s">
-        <v>291</v>
-      </c>
-      <c r="B13" s="107">
+      <c r="A13" s="75" t="s">
+        <v>286</v>
+      </c>
+      <c r="B13" s="73">
         <v>45432</v>
       </c>
-      <c r="C13" s="105">
+      <c r="C13" s="71">
         <v>20</v>
       </c>
-      <c r="D13" s="107">
+      <c r="D13" s="73">
         <f t="shared" si="0"/>
         <v>45452</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A14" s="109" t="s">
-        <v>292</v>
-      </c>
-      <c r="B14" s="107">
+      <c r="A14" s="75" t="s">
+        <v>287</v>
+      </c>
+      <c r="B14" s="73">
         <v>45455</v>
       </c>
-      <c r="C14" s="105">
+      <c r="C14" s="71">
         <v>10</v>
       </c>
-      <c r="D14" s="107">
+      <c r="D14" s="73">
         <f t="shared" si="0"/>
         <v>45465</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A15" s="109" t="s">
-        <v>293</v>
-      </c>
-      <c r="B15" s="107">
+      <c r="A15" s="75" t="s">
+        <v>288</v>
+      </c>
+      <c r="B15" s="73">
         <v>45467</v>
       </c>
-      <c r="C15" s="105">
+      <c r="C15" s="71">
         <v>30</v>
       </c>
-      <c r="D15" s="107">
+      <c r="D15" s="73">
         <f t="shared" si="0"/>
         <v>45497</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A16" s="110" t="s">
-        <v>294</v>
-      </c>
-      <c r="B16" s="111">
+      <c r="A16" s="76" t="s">
+        <v>289</v>
+      </c>
+      <c r="B16" s="77">
         <v>45498</v>
       </c>
-      <c r="C16" s="112">
+      <c r="C16" s="78">
         <v>5</v>
       </c>
-      <c r="D16" s="111">
+      <c r="D16" s="77">
         <f t="shared" si="0"/>
         <v>45503</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A17" s="106" t="s">
-        <v>295</v>
-      </c>
-      <c r="B17" s="107">
+      <c r="A17" s="72" t="s">
+        <v>290</v>
+      </c>
+      <c r="B17" s="73">
         <v>45505</v>
       </c>
-      <c r="C17" s="105">
+      <c r="C17" s="71">
         <v>18</v>
       </c>
-      <c r="D17" s="107">
+      <c r="D17" s="73">
         <f t="shared" si="0"/>
         <v>45523</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A18" s="106" t="s">
-        <v>296</v>
-      </c>
-      <c r="B18" s="107">
+      <c r="A18" s="72" t="s">
+        <v>291</v>
+      </c>
+      <c r="B18" s="73">
         <v>45344</v>
       </c>
-      <c r="C18" s="105">
+      <c r="C18" s="71">
         <v>179</v>
       </c>
-      <c r="D18" s="107">
+      <c r="D18" s="73">
         <f t="shared" si="0"/>
         <v>45523</v>
       </c>
@@ -7928,325 +7754,325 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="59" t="s">
+        <v>204</v>
+      </c>
+      <c r="B1" s="57" t="s">
+        <v>205</v>
+      </c>
+      <c r="C1" s="57" t="s">
+        <v>206</v>
+      </c>
+      <c r="D1" s="57" t="s">
+        <v>207</v>
+      </c>
+      <c r="E1" s="57" t="s">
+        <v>208</v>
+      </c>
+      <c r="F1" s="57" t="s">
+        <v>222</v>
+      </c>
+      <c r="G1" s="53" t="s">
         <v>209</v>
       </c>
-      <c r="B1" s="61" t="s">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A2" s="57" t="s">
+        <v>224</v>
+      </c>
+      <c r="B2" s="55" t="s">
+        <v>223</v>
+      </c>
+      <c r="C2" s="56" t="s">
+        <v>223</v>
+      </c>
+      <c r="D2" s="56" t="s">
+        <v>223</v>
+      </c>
+      <c r="E2" s="55" t="s">
+        <v>223</v>
+      </c>
+      <c r="F2" s="55" t="s">
+        <v>223</v>
+      </c>
+      <c r="G2" s="56" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A3" s="58" t="s">
         <v>210</v>
       </c>
-      <c r="C1" s="61" t="s">
+      <c r="B3" s="55" t="s">
+        <v>223</v>
+      </c>
+      <c r="C3" s="55" t="s">
+        <v>223</v>
+      </c>
+      <c r="D3" s="55" t="s">
+        <v>223</v>
+      </c>
+      <c r="E3" s="55" t="s">
+        <v>223</v>
+      </c>
+      <c r="F3" s="55" t="s">
+        <v>223</v>
+      </c>
+      <c r="G3" s="55" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A4" s="57" t="s">
         <v>211</v>
       </c>
-      <c r="D1" s="61" t="s">
+      <c r="B4" s="54" t="s">
+        <v>223</v>
+      </c>
+      <c r="C4" s="54" t="s">
+        <v>223</v>
+      </c>
+      <c r="D4" s="55" t="s">
+        <v>223</v>
+      </c>
+      <c r="E4" s="55" t="s">
+        <v>223</v>
+      </c>
+      <c r="F4" s="54" t="s">
+        <v>223</v>
+      </c>
+      <c r="G4" s="55" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A5" s="57" t="s">
         <v>212</v>
       </c>
-      <c r="E1" s="61" t="s">
+      <c r="B5" s="54" t="s">
+        <v>223</v>
+      </c>
+      <c r="C5" s="55" t="s">
+        <v>223</v>
+      </c>
+      <c r="D5" s="55" t="s">
+        <v>223</v>
+      </c>
+      <c r="E5" s="54" t="s">
+        <v>223</v>
+      </c>
+      <c r="F5" s="55" t="s">
+        <v>223</v>
+      </c>
+      <c r="G5" s="55" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A6" s="57" t="s">
         <v>213</v>
       </c>
-      <c r="F1" s="61" t="s">
-        <v>227</v>
-      </c>
-      <c r="G1" s="57" t="s">
+      <c r="B6" s="55" t="s">
+        <v>223</v>
+      </c>
+      <c r="C6" s="55" t="s">
+        <v>223</v>
+      </c>
+      <c r="D6" s="55" t="s">
+        <v>223</v>
+      </c>
+      <c r="E6" s="55" t="s">
+        <v>223</v>
+      </c>
+      <c r="F6" s="56" t="s">
+        <v>223</v>
+      </c>
+      <c r="G6" s="56" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A7" s="57" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A2" s="61" t="s">
-        <v>229</v>
-      </c>
-      <c r="B2" s="59" t="s">
-        <v>228</v>
-      </c>
-      <c r="C2" s="60" t="s">
-        <v>228</v>
-      </c>
-      <c r="D2" s="60" t="s">
-        <v>228</v>
-      </c>
-      <c r="E2" s="59" t="s">
-        <v>228</v>
-      </c>
-      <c r="F2" s="59" t="s">
-        <v>228</v>
-      </c>
-      <c r="G2" s="60" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A3" s="62" t="s">
+      <c r="B7" s="54" t="s">
+        <v>223</v>
+      </c>
+      <c r="C7" s="54" t="s">
+        <v>223</v>
+      </c>
+      <c r="D7" s="54" t="s">
+        <v>223</v>
+      </c>
+      <c r="E7" s="55" t="s">
+        <v>223</v>
+      </c>
+      <c r="F7" s="55" t="s">
+        <v>223</v>
+      </c>
+      <c r="G7" s="55" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A8" s="57" t="s">
         <v>215</v>
       </c>
-      <c r="B3" s="59" t="s">
-        <v>228</v>
-      </c>
-      <c r="C3" s="59" t="s">
-        <v>228</v>
-      </c>
-      <c r="D3" s="59" t="s">
-        <v>228</v>
-      </c>
-      <c r="E3" s="59" t="s">
-        <v>228</v>
-      </c>
-      <c r="F3" s="59" t="s">
-        <v>228</v>
-      </c>
-      <c r="G3" s="59" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A4" s="61" t="s">
+      <c r="B8" s="54" t="s">
+        <v>223</v>
+      </c>
+      <c r="C8" s="54" t="s">
+        <v>223</v>
+      </c>
+      <c r="D8" s="55" t="s">
+        <v>223</v>
+      </c>
+      <c r="E8" s="55" t="s">
+        <v>223</v>
+      </c>
+      <c r="F8" s="54" t="s">
+        <v>223</v>
+      </c>
+      <c r="G8" s="55" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A9" s="57" t="s">
         <v>216</v>
       </c>
-      <c r="B4" s="58" t="s">
-        <v>228</v>
-      </c>
-      <c r="C4" s="58" t="s">
-        <v>228</v>
-      </c>
-      <c r="D4" s="59" t="s">
-        <v>228</v>
-      </c>
-      <c r="E4" s="59" t="s">
-        <v>228</v>
-      </c>
-      <c r="F4" s="58" t="s">
-        <v>228</v>
-      </c>
-      <c r="G4" s="59" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A5" s="61" t="s">
+      <c r="B9" s="55" t="s">
+        <v>223</v>
+      </c>
+      <c r="C9" s="55" t="s">
+        <v>223</v>
+      </c>
+      <c r="D9" s="55" t="s">
+        <v>223</v>
+      </c>
+      <c r="E9" s="54" t="s">
+        <v>223</v>
+      </c>
+      <c r="F9" s="54" t="s">
+        <v>223</v>
+      </c>
+      <c r="G9" s="55" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A10" s="57" t="s">
         <v>217</v>
       </c>
-      <c r="B5" s="58" t="s">
-        <v>228</v>
-      </c>
-      <c r="C5" s="59" t="s">
-        <v>228</v>
-      </c>
-      <c r="D5" s="59" t="s">
-        <v>228</v>
-      </c>
-      <c r="E5" s="58" t="s">
-        <v>228</v>
-      </c>
-      <c r="F5" s="59" t="s">
-        <v>228</v>
-      </c>
-      <c r="G5" s="59" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A6" s="61" t="s">
+      <c r="B10" s="55" t="s">
+        <v>223</v>
+      </c>
+      <c r="C10" s="54" t="s">
+        <v>223</v>
+      </c>
+      <c r="D10" s="54" t="s">
+        <v>223</v>
+      </c>
+      <c r="E10" s="54" t="s">
+        <v>223</v>
+      </c>
+      <c r="F10" s="54" t="s">
+        <v>223</v>
+      </c>
+      <c r="G10" s="55" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A11" s="57" t="s">
         <v>218</v>
       </c>
-      <c r="B6" s="59" t="s">
-        <v>228</v>
-      </c>
-      <c r="C6" s="59" t="s">
-        <v>228</v>
-      </c>
-      <c r="D6" s="59" t="s">
-        <v>228</v>
-      </c>
-      <c r="E6" s="59" t="s">
-        <v>228</v>
-      </c>
-      <c r="F6" s="60" t="s">
-        <v>228</v>
-      </c>
-      <c r="G6" s="60" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A7" s="61" t="s">
+      <c r="B11" s="55" t="s">
+        <v>223</v>
+      </c>
+      <c r="C11" s="55" t="s">
+        <v>223</v>
+      </c>
+      <c r="D11" s="55" t="s">
+        <v>223</v>
+      </c>
+      <c r="E11" s="54" t="s">
+        <v>223</v>
+      </c>
+      <c r="F11" s="54" t="s">
+        <v>223</v>
+      </c>
+      <c r="G11" s="55" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A12" s="57" t="s">
         <v>219</v>
       </c>
-      <c r="B7" s="58" t="s">
-        <v>228</v>
-      </c>
-      <c r="C7" s="58" t="s">
-        <v>228</v>
-      </c>
-      <c r="D7" s="58" t="s">
-        <v>228</v>
-      </c>
-      <c r="E7" s="59" t="s">
-        <v>228</v>
-      </c>
-      <c r="F7" s="59" t="s">
-        <v>228</v>
-      </c>
-      <c r="G7" s="59" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A8" s="61" t="s">
+      <c r="B12" s="54" t="s">
+        <v>223</v>
+      </c>
+      <c r="C12" s="54" t="s">
+        <v>223</v>
+      </c>
+      <c r="D12" s="55" t="s">
+        <v>223</v>
+      </c>
+      <c r="E12" s="55" t="s">
+        <v>223</v>
+      </c>
+      <c r="F12" s="55" t="s">
+        <v>223</v>
+      </c>
+      <c r="G12" s="55" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A13" s="57" t="s">
         <v>220</v>
       </c>
-      <c r="B8" s="58" t="s">
-        <v>228</v>
-      </c>
-      <c r="C8" s="58" t="s">
-        <v>228</v>
-      </c>
-      <c r="D8" s="59" t="s">
-        <v>228</v>
-      </c>
-      <c r="E8" s="59" t="s">
-        <v>228</v>
-      </c>
-      <c r="F8" s="58" t="s">
-        <v>228</v>
-      </c>
-      <c r="G8" s="59" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A9" s="61" t="s">
+      <c r="B13" s="54" t="s">
+        <v>223</v>
+      </c>
+      <c r="C13" s="55" t="s">
+        <v>223</v>
+      </c>
+      <c r="D13" s="55" t="s">
+        <v>223</v>
+      </c>
+      <c r="E13" s="55" t="s">
+        <v>223</v>
+      </c>
+      <c r="F13" s="55" t="s">
+        <v>223</v>
+      </c>
+      <c r="G13" s="55" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A14" s="57" t="s">
         <v>221</v>
       </c>
-      <c r="B9" s="59" t="s">
-        <v>228</v>
-      </c>
-      <c r="C9" s="59" t="s">
-        <v>228</v>
-      </c>
-      <c r="D9" s="59" t="s">
-        <v>228</v>
-      </c>
-      <c r="E9" s="58" t="s">
-        <v>228</v>
-      </c>
-      <c r="F9" s="58" t="s">
-        <v>228</v>
-      </c>
-      <c r="G9" s="59" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A10" s="61" t="s">
-        <v>222</v>
-      </c>
-      <c r="B10" s="59" t="s">
-        <v>228</v>
-      </c>
-      <c r="C10" s="58" t="s">
-        <v>228</v>
-      </c>
-      <c r="D10" s="58" t="s">
-        <v>228</v>
-      </c>
-      <c r="E10" s="58" t="s">
-        <v>228</v>
-      </c>
-      <c r="F10" s="58" t="s">
-        <v>228</v>
-      </c>
-      <c r="G10" s="59" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A11" s="61" t="s">
+      <c r="B14" s="54" t="s">
         <v>223</v>
       </c>
-      <c r="B11" s="59" t="s">
-        <v>228</v>
-      </c>
-      <c r="C11" s="59" t="s">
-        <v>228</v>
-      </c>
-      <c r="D11" s="59" t="s">
-        <v>228</v>
-      </c>
-      <c r="E11" s="58" t="s">
-        <v>228</v>
-      </c>
-      <c r="F11" s="58" t="s">
-        <v>228</v>
-      </c>
-      <c r="G11" s="59" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A12" s="61" t="s">
-        <v>224</v>
-      </c>
-      <c r="B12" s="58" t="s">
-        <v>228</v>
-      </c>
-      <c r="C12" s="58" t="s">
-        <v>228</v>
-      </c>
-      <c r="D12" s="59" t="s">
-        <v>228</v>
-      </c>
-      <c r="E12" s="59" t="s">
-        <v>228</v>
-      </c>
-      <c r="F12" s="59" t="s">
-        <v>228</v>
-      </c>
-      <c r="G12" s="59" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A13" s="61" t="s">
-        <v>225</v>
-      </c>
-      <c r="B13" s="58" t="s">
-        <v>228</v>
-      </c>
-      <c r="C13" s="59" t="s">
-        <v>228</v>
-      </c>
-      <c r="D13" s="59" t="s">
-        <v>228</v>
-      </c>
-      <c r="E13" s="59" t="s">
-        <v>228</v>
-      </c>
-      <c r="F13" s="59" t="s">
-        <v>228</v>
-      </c>
-      <c r="G13" s="59" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A14" s="61" t="s">
-        <v>226</v>
-      </c>
-      <c r="B14" s="58" t="s">
-        <v>228</v>
-      </c>
-      <c r="C14" s="58" t="s">
-        <v>228</v>
-      </c>
-      <c r="D14" s="59" t="s">
-        <v>228</v>
-      </c>
-      <c r="E14" s="59" t="s">
-        <v>228</v>
-      </c>
-      <c r="F14" s="58" t="s">
-        <v>228</v>
-      </c>
-      <c r="G14" s="59" t="s">
-        <v>228</v>
+      <c r="C14" s="54" t="s">
+        <v>223</v>
+      </c>
+      <c r="D14" s="55" t="s">
+        <v>223</v>
+      </c>
+      <c r="E14" s="55" t="s">
+        <v>223</v>
+      </c>
+      <c r="F14" s="54" t="s">
+        <v>223</v>
+      </c>
+      <c r="G14" s="55" t="s">
+        <v>223</v>
       </c>
     </row>
   </sheetData>
@@ -8266,75 +8092,75 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="B1" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C1" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="F1" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="G1" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="H1" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="B2" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C2" t="s">
+        <v>230</v>
+      </c>
+      <c r="F2" t="s">
         <v>235</v>
       </c>
-      <c r="F2" t="s">
-        <v>240</v>
-      </c>
       <c r="G2" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="H2" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="B3" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="C3" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="B4" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="C4" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="B5" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="C5" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
     </row>
   </sheetData>
@@ -8352,62 +8178,62 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="11.84375" style="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.765625" style="20" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="73" style="20" customWidth="1"/>
+    <col min="1" max="1" width="11.84375" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.765625" style="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="73" style="16" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="115" t="s">
+        <v>238</v>
+      </c>
+      <c r="B1" s="115"/>
+      <c r="C1" s="64" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="42.45" x14ac:dyDescent="0.4">
+      <c r="A2" s="65" t="s">
+        <v>240</v>
+      </c>
+      <c r="B2" s="66" t="s">
+        <v>241</v>
+      </c>
+      <c r="C2" s="67" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="28.3" x14ac:dyDescent="0.4">
+      <c r="A3" s="65" t="s">
+        <v>242</v>
+      </c>
+      <c r="B3" s="66" t="s">
         <v>243</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="68" t="s">
+      <c r="C3" s="67" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="42.45" x14ac:dyDescent="0.4">
-      <c r="A2" s="69" t="s">
+    <row r="4" spans="1:3" ht="28.3" x14ac:dyDescent="0.4">
+      <c r="A4" s="65" t="s">
         <v>245</v>
       </c>
-      <c r="B2" s="70" t="s">
+      <c r="B4" s="66" t="s">
         <v>246</v>
       </c>
-      <c r="C2" s="71" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="28.3" x14ac:dyDescent="0.4">
-      <c r="A3" s="69" t="s">
+      <c r="C4" s="67" t="s">
         <v>247</v>
       </c>
-      <c r="B3" s="70" t="s">
+    </row>
+    <row r="5" spans="1:3" ht="42.45" x14ac:dyDescent="0.4">
+      <c r="A5" s="65" t="s">
         <v>248</v>
       </c>
-      <c r="C3" s="71" t="s">
+      <c r="B5" s="66" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="28.3" x14ac:dyDescent="0.4">
-      <c r="A4" s="69" t="s">
+      <c r="C5" s="67" t="s">
         <v>250</v>
-      </c>
-      <c r="B4" s="70" t="s">
-        <v>251</v>
-      </c>
-      <c r="C4" s="71" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="42.45" x14ac:dyDescent="0.4">
-      <c r="A5" s="69" t="s">
-        <v>253</v>
-      </c>
-      <c r="B5" s="70" t="s">
-        <v>254</v>
-      </c>
-      <c r="C5" s="71" t="s">
-        <v>255</v>
       </c>
     </row>
   </sheetData>
@@ -8428,60 +8254,60 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="30.69140625" style="20" customWidth="1"/>
-    <col min="2" max="2" width="16.84375" style="20" customWidth="1"/>
-    <col min="3" max="3" width="30.69140625" style="20" customWidth="1"/>
+    <col min="1" max="1" width="30.69140625" style="16" customWidth="1"/>
+    <col min="2" max="2" width="16.84375" style="16" customWidth="1"/>
+    <col min="3" max="3" width="30.69140625" style="16" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="30" t="s">
+        <v>252</v>
+      </c>
+      <c r="B1" s="68" t="s">
+        <v>253</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2" s="61" t="s">
+        <v>256</v>
+      </c>
+      <c r="B2" s="116" t="s">
+        <v>259</v>
+      </c>
+      <c r="C2" s="60" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3" s="61" t="s">
+        <v>255</v>
+      </c>
+      <c r="B3" s="116"/>
+      <c r="C3" s="60" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4" s="61" t="s">
         <v>257</v>
       </c>
-      <c r="B1" s="72" t="s">
+      <c r="B4" s="116" t="s">
+        <v>260</v>
+      </c>
+      <c r="C4" s="60" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="28.3" x14ac:dyDescent="0.4">
+      <c r="A5" s="61" t="s">
         <v>258</v>
       </c>
-      <c r="C1" s="32" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A2" s="65" t="s">
-        <v>261</v>
-      </c>
-      <c r="B2" s="74" t="s">
-        <v>264</v>
-      </c>
-      <c r="C2" s="64" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A3" s="65" t="s">
-        <v>260</v>
-      </c>
-      <c r="B3" s="74"/>
-      <c r="C3" s="64" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A4" s="65" t="s">
-        <v>262</v>
-      </c>
-      <c r="B4" s="74" t="s">
-        <v>265</v>
-      </c>
-      <c r="C4" s="64" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="28.3" x14ac:dyDescent="0.4">
-      <c r="A5" s="65" t="s">
+      <c r="B5" s="116"/>
+      <c r="C5" s="60" t="s">
         <v>263</v>
-      </c>
-      <c r="B5" s="74"/>
-      <c r="C5" s="64" t="s">
-        <v>268</v>
       </c>
     </row>
   </sheetData>
@@ -8512,19 +8338,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="117" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="76"/>
+      <c r="B1" s="118"/>
       <c r="C1" s="12" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="84.9" x14ac:dyDescent="0.4">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="119" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="78"/>
+      <c r="B2" s="120"/>
       <c r="C2" s="13" t="s">
         <v>13</v>
       </c>
@@ -8532,8 +8358,8 @@
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A3" s="77"/>
-      <c r="B3" s="78"/>
+      <c r="A3" s="119"/>
+      <c r="B3" s="120"/>
       <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
@@ -8541,8 +8367,8 @@
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" ht="118.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="79"/>
-      <c r="B4" s="80"/>
+      <c r="A4" s="121"/>
+      <c r="B4" s="122"/>
       <c r="C4" s="3" t="s">
         <v>11</v>
       </c>
@@ -8570,19 +8396,19 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A7" s="81" t="s">
+      <c r="A7" s="123" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="82"/>
+      <c r="B7" s="124"/>
       <c r="C7" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="42.45" x14ac:dyDescent="0.4">
-      <c r="A8" s="83" t="s">
+      <c r="A8" s="125" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="84"/>
+      <c r="B8" s="126"/>
       <c r="C8" s="5" t="s">
         <v>4</v>
       </c>
@@ -8603,120 +8429,130 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F60BA77A-0FF7-4A09-AAA8-E53725F430B2}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="30.4609375" style="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="40.69140625" style="14" customWidth="1"/>
+    <col min="1" max="1" width="20" style="14" customWidth="1"/>
+    <col min="2" max="2" width="23.53515625" style="14" customWidth="1"/>
+    <col min="3" max="3" width="39.3046875" style="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="144" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="145" t="s">
+        <v>310</v>
+      </c>
+      <c r="C1" s="146" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="18" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2" s="147" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="28.3" x14ac:dyDescent="0.4">
-      <c r="A2" s="19" t="s">
+      <c r="B2" s="148" t="s">
+        <v>311</v>
+      </c>
+      <c r="C2" s="147" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3" s="147" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B3" s="149"/>
+      <c r="C3" s="147" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4" s="150" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="148" t="s">
+        <v>312</v>
+      </c>
+      <c r="C4" s="147" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A5" s="151"/>
+      <c r="B5" s="152"/>
+      <c r="C5" s="147" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A6" s="147" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="152"/>
+      <c r="C6" s="147" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="19" t="s">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A7" s="147" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="148" t="s">
+        <v>313</v>
+      </c>
+      <c r="C7" s="147" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="148" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="149"/>
+      <c r="C8" s="147" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="149"/>
+      <c r="B9" s="148" t="s">
+        <v>314</v>
+      </c>
+      <c r="C9" s="147" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A10" s="150" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="152"/>
+      <c r="C10" s="147" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="28.3" x14ac:dyDescent="0.4">
-      <c r="A3" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="19" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="28.3" x14ac:dyDescent="0.4">
-      <c r="A4" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="28.3" x14ac:dyDescent="0.4">
-      <c r="A5" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" s="19" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A6" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="19"/>
-      <c r="C6" s="19" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A11" s="153"/>
+      <c r="B11" s="149"/>
+      <c r="C11" s="147" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A7" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="19"/>
-      <c r="C7" s="19" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A8" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="19"/>
-      <c r="C8" s="19" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A9" s="19"/>
-      <c r="B9" s="19"/>
-      <c r="C9" s="19" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A10" s="19"/>
-      <c r="B10" s="19"/>
-      <c r="C10" s="19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A11" s="19"/>
-      <c r="B11" s="19"/>
-      <c r="C11" s="19" t="s">
-        <v>32</v>
-      </c>
-    </row>
   </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B9:B11"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -8731,275 +8567,275 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="12.69140625" style="21" customWidth="1"/>
-    <col min="2" max="8" width="12.69140625" style="20" customWidth="1"/>
-    <col min="9" max="19" width="20.69140625" style="20" customWidth="1"/>
+    <col min="1" max="1" width="12.69140625" style="17" customWidth="1"/>
+    <col min="2" max="8" width="12.69140625" style="16" customWidth="1"/>
+    <col min="9" max="19" width="20.69140625" style="16" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="23.15" x14ac:dyDescent="0.4">
+      <c r="A2" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="F2" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="23" t="s">
+    </row>
+    <row r="3" spans="1:7" ht="23.15" x14ac:dyDescent="0.4">
+      <c r="A3" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A4" s="127"/>
+      <c r="B4" s="127"/>
+      <c r="C4" s="127"/>
+      <c r="D4" s="127"/>
+      <c r="E4" s="127"/>
+      <c r="F4" s="127"/>
+      <c r="G4" s="21"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A5" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="46.3" x14ac:dyDescent="0.4">
+      <c r="A6" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="23.15" x14ac:dyDescent="0.4">
+      <c r="A7" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A8" s="127"/>
+      <c r="B8" s="127"/>
+      <c r="C8" s="127"/>
+      <c r="D8" s="127"/>
+      <c r="E8" s="127"/>
+      <c r="F8" s="127"/>
+      <c r="G8" s="21"/>
+    </row>
+    <row r="9" spans="1:7" ht="23.15" x14ac:dyDescent="0.4">
+      <c r="A9" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="46.3" x14ac:dyDescent="0.4">
+      <c r="A10" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="F10" s="19" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="23.15" x14ac:dyDescent="0.4">
+      <c r="A11" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A12" s="128"/>
+      <c r="B12" s="128"/>
+      <c r="C12" s="128"/>
+      <c r="D12" s="128"/>
+      <c r="E12" s="128"/>
+      <c r="F12" s="128"/>
+    </row>
+    <row r="13" spans="1:7" ht="23.15" x14ac:dyDescent="0.4">
+      <c r="A13" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C13" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="D1" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="E1" s="23" t="s">
+      <c r="E13" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="F1" s="23" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="23.15" x14ac:dyDescent="0.4">
-      <c r="A2" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="B2" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="C2" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="D2" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="F2" s="23" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="23.15" x14ac:dyDescent="0.4">
-      <c r="A3" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="B3" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="C3" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="D3" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="E3" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="F3" s="23" t="s">
+      <c r="F13" s="19" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="46.3" x14ac:dyDescent="0.4">
+      <c r="A14" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="F14" s="19" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="23.15" x14ac:dyDescent="0.4">
+      <c r="A15" s="18" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A4" s="85"/>
-      <c r="B4" s="85"/>
-      <c r="C4" s="85"/>
-      <c r="D4" s="85"/>
-      <c r="E4" s="85"/>
-      <c r="F4" s="85"/>
-      <c r="G4" s="25"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A5" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="B5" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="C5" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="D5" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="E5" s="23" t="s">
-        <v>81</v>
-      </c>
-      <c r="F5" s="23" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="46.3" x14ac:dyDescent="0.4">
-      <c r="A6" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="B6" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="C6" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="D6" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="E6" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="F6" s="23" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="23.15" x14ac:dyDescent="0.4">
-      <c r="A7" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="B7" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="C7" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="D7" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="E7" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="F7" s="23" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A8" s="85"/>
-      <c r="B8" s="85"/>
-      <c r="C8" s="85"/>
-      <c r="D8" s="85"/>
-      <c r="E8" s="85"/>
-      <c r="F8" s="85"/>
-      <c r="G8" s="25"/>
-    </row>
-    <row r="9" spans="1:7" ht="23.15" x14ac:dyDescent="0.4">
-      <c r="A9" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="B9" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="C9" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="D9" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="E9" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="F9" s="23" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="46.3" x14ac:dyDescent="0.4">
-      <c r="A10" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="B10" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="C10" s="23" t="s">
+      <c r="B15" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="D10" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="E10" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="F10" s="23" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="23.15" x14ac:dyDescent="0.4">
-      <c r="A11" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="B11" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="C11" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="D11" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="E11" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="F11" s="23" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A12" s="86"/>
-      <c r="B12" s="86"/>
-      <c r="C12" s="86"/>
-      <c r="D12" s="86"/>
-      <c r="E12" s="86"/>
-      <c r="F12" s="86"/>
-    </row>
-    <row r="13" spans="1:7" ht="23.15" x14ac:dyDescent="0.4">
-      <c r="A13" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="B13" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="C13" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="D13" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="E13" s="23" t="s">
+      <c r="C15" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="F13" s="23" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="46.3" x14ac:dyDescent="0.4">
-      <c r="A14" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="B14" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="C14" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="D14" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="E14" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="F14" s="23" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="23.15" x14ac:dyDescent="0.4">
-      <c r="A15" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="B15" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="C15" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="D15" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="E15" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="F15" s="23" t="s">
-        <v>76</v>
+      <c r="D15" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="F15" s="19" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/FinalReport/key_tables.xlsx
+++ b/FinalReport/key_tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\g_gna\Documents\TCD\Modules\CS7CS5_Dissertation\FinalReport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1E2CE92-ACE5-42A9-95E9-05A4518F51A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2A23F83-4FD3-4DEE-86EF-FC74068DAF59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="9463" firstSheet="6" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="9463" firstSheet="10" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="project_timeline" sheetId="14" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="316">
   <si>
     <t>Carbon Dynamics</t>
   </si>
@@ -1234,6 +1234,9 @@
       </rPr>
       <t>: Users update mental model based on presented changes.</t>
     </r>
+  </si>
+  <si>
+    <t>Challenge</t>
   </si>
 </sst>
 </file>
@@ -1749,7 +1752,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="154">
+  <cellXfs count="157">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2066,6 +2069,18 @@
     <xf numFmtId="0" fontId="17" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="28" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2123,6 +2138,24 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2156,6 +2189,15 @@
     <xf numFmtId="0" fontId="1" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2165,44 +2207,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6260,12 +6270,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="112" t="s">
         <v>297</v>
       </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="110"/>
+      <c r="B1" s="113"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="114"/>
     </row>
     <row r="2" spans="1:4" s="71" customFormat="1" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A2" s="79" t="s">
@@ -6657,11 +6667,11 @@
       </c>
     </row>
     <row r="29" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
-      <c r="B29" s="111" t="s">
+      <c r="B29" s="115" t="s">
         <v>300</v>
       </c>
-      <c r="C29" s="112"/>
-      <c r="D29" s="113"/>
+      <c r="C29" s="116"/>
+      <c r="D29" s="117"/>
     </row>
     <row r="30" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
       <c r="B30" s="99"/>
@@ -6728,56 +6738,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="56.6" x14ac:dyDescent="0.35">
-      <c r="A1" s="131" t="s">
+      <c r="A1" s="141" t="s">
         <v>83</v>
       </c>
       <c r="B1" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="C1" s="130" t="s">
+      <c r="C1" s="140" t="s">
         <v>90</v>
       </c>
-      <c r="D1" s="133" t="s">
+      <c r="D1" s="143" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="70.75" x14ac:dyDescent="0.35">
-      <c r="A2" s="132"/>
+      <c r="A2" s="142"/>
       <c r="B2" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="C2" s="130"/>
-      <c r="D2" s="134"/>
+      <c r="C2" s="140"/>
+      <c r="D2" s="144"/>
     </row>
     <row r="3" spans="1:4" ht="42.45" x14ac:dyDescent="0.35">
-      <c r="A3" s="132"/>
+      <c r="A3" s="142"/>
       <c r="B3" s="24" t="s">
         <v>87</v>
       </c>
       <c r="C3" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="D3" s="135" t="s">
+      <c r="D3" s="145" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="70.75" x14ac:dyDescent="0.35">
-      <c r="A4" s="132"/>
+      <c r="A4" s="142"/>
       <c r="B4" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="C4" s="129" t="s">
+      <c r="C4" s="139" t="s">
         <v>92</v>
       </c>
-      <c r="D4" s="136"/>
+      <c r="D4" s="146"/>
     </row>
     <row r="5" spans="1:4" ht="70.75" x14ac:dyDescent="0.35">
-      <c r="A5" s="132"/>
+      <c r="A5" s="142"/>
       <c r="B5" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="C5" s="129"/>
-      <c r="D5" s="136"/>
+      <c r="C5" s="139"/>
+      <c r="D5" s="146"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -6850,7 +6860,7 @@
       <c r="A6" s="25" t="s">
         <v>112</v>
       </c>
-      <c r="B6" s="137" t="s">
+      <c r="B6" s="147" t="s">
         <v>107</v>
       </c>
     </row>
@@ -6858,7 +6868,7 @@
       <c r="A7" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="B7" s="137"/>
+      <c r="B7" s="147"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8" s="25" t="s">
@@ -6872,7 +6882,7 @@
       <c r="A9" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="B9" s="137" t="s">
+      <c r="B9" s="147" t="s">
         <v>109</v>
       </c>
     </row>
@@ -6880,7 +6890,7 @@
       <c r="A10" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="B10" s="137"/>
+      <c r="B10" s="147"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A11" s="25" t="s">
@@ -6894,7 +6904,7 @@
       <c r="A12" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="B12" s="137" t="s">
+      <c r="B12" s="147" t="s">
         <v>111</v>
       </c>
     </row>
@@ -6902,7 +6912,7 @@
       <c r="A13" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="B13" s="137"/>
+      <c r="B13" s="147"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -6918,8 +6928,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D47BAC5F-10D1-4E9A-81F4-B6DA49B47F0B}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection sqref="A1:C3"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.4"/>
@@ -7039,19 +7049,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2C3F88A-4160-4E60-896F-B8A73EA077EA}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="3.3046875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.53515625" customWidth="1"/>
-    <col min="3" max="3" width="36.07421875" customWidth="1"/>
+    <col min="1" max="1" width="10" style="154" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.84375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.15234375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A1" s="34"/>
+      <c r="A1" s="32" t="s">
+        <v>315</v>
+      </c>
       <c r="B1" s="32" t="s">
         <v>117</v>
       </c>
@@ -7059,9 +7071,9 @@
         <v>118</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="64.75" x14ac:dyDescent="0.4">
-      <c r="A2" s="46" t="s">
-        <v>141</v>
+    <row r="2" spans="1:3" ht="28.3" x14ac:dyDescent="0.4">
+      <c r="A2" s="155">
+        <v>1</v>
       </c>
       <c r="B2" s="63" t="s">
         <v>119</v>
@@ -7070,9 +7082,9 @@
         <v>308</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="64.75" x14ac:dyDescent="0.4">
-      <c r="A3" s="45" t="s">
-        <v>142</v>
+    <row r="3" spans="1:3" ht="28.3" x14ac:dyDescent="0.4">
+      <c r="A3" s="156">
+        <v>2</v>
       </c>
       <c r="B3" s="62" t="s">
         <v>138</v>
@@ -7114,10 +7126,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="141" t="s">
+      <c r="A1" s="148" t="s">
         <v>156</v>
       </c>
-      <c r="B1" s="143"/>
+      <c r="B1" s="150"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="49" t="s">
@@ -7128,7 +7140,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="28.3" x14ac:dyDescent="0.35">
-      <c r="A3" s="142" t="s">
+      <c r="A3" s="149" t="s">
         <v>148</v>
       </c>
       <c r="B3" s="51" t="s">
@@ -7136,13 +7148,13 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="28.3" x14ac:dyDescent="0.35">
-      <c r="A4" s="142"/>
+      <c r="A4" s="149"/>
       <c r="B4" s="51" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="28.3" x14ac:dyDescent="0.35">
-      <c r="A5" s="142"/>
+      <c r="A5" s="149"/>
       <c r="B5" s="51" t="s">
         <v>151</v>
       </c>
@@ -7172,10 +7184,10 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="D9" s="141" t="s">
+      <c r="D9" s="148" t="s">
         <v>159</v>
       </c>
-      <c r="E9" s="143"/>
+      <c r="E9" s="150"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D10" s="49" t="s">
@@ -7189,7 +7201,7 @@
       <c r="D11" s="51" t="s">
         <v>160</v>
       </c>
-      <c r="E11" s="142" t="s">
+      <c r="E11" s="149" t="s">
         <v>162</v>
       </c>
     </row>
@@ -7197,7 +7209,7 @@
       <c r="D12" s="51" t="s">
         <v>164</v>
       </c>
-      <c r="E12" s="142"/>
+      <c r="E12" s="149"/>
     </row>
     <row r="13" spans="1:5" ht="28.3" x14ac:dyDescent="0.35">
       <c r="D13" s="51" t="s">
@@ -7219,7 +7231,7 @@
       <c r="D15" s="51" t="s">
         <v>167</v>
       </c>
-      <c r="E15" s="142" t="s">
+      <c r="E15" s="149" t="s">
         <v>169</v>
       </c>
     </row>
@@ -7227,13 +7239,13 @@
       <c r="D16" s="51" t="s">
         <v>168</v>
       </c>
-      <c r="E16" s="142"/>
+      <c r="E16" s="149"/>
     </row>
     <row r="17" spans="7:11" x14ac:dyDescent="0.35">
-      <c r="G17" s="141" t="s">
+      <c r="G17" s="148" t="s">
         <v>170</v>
       </c>
-      <c r="H17" s="141"/>
+      <c r="H17" s="148"/>
     </row>
     <row r="18" spans="7:11" x14ac:dyDescent="0.35">
       <c r="G18" s="49" t="s">
@@ -7255,7 +7267,7 @@
       <c r="G20" s="51" t="s">
         <v>160</v>
       </c>
-      <c r="H20" s="142" t="s">
+      <c r="H20" s="149" t="s">
         <v>175</v>
       </c>
     </row>
@@ -7263,19 +7275,19 @@
       <c r="G21" s="51" t="s">
         <v>171</v>
       </c>
-      <c r="H21" s="142"/>
+      <c r="H21" s="149"/>
     </row>
     <row r="22" spans="7:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="G22" s="51" t="s">
         <v>172</v>
       </c>
-      <c r="H22" s="142"/>
+      <c r="H22" s="149"/>
     </row>
     <row r="23" spans="7:11" x14ac:dyDescent="0.35">
       <c r="G23" s="51" t="s">
         <v>178</v>
       </c>
-      <c r="H23" s="142" t="s">
+      <c r="H23" s="149" t="s">
         <v>176</v>
       </c>
     </row>
@@ -7283,19 +7295,19 @@
       <c r="G24" s="51" t="s">
         <v>173</v>
       </c>
-      <c r="H24" s="142"/>
+      <c r="H24" s="149"/>
     </row>
     <row r="25" spans="7:11" ht="28.3" x14ac:dyDescent="0.35">
       <c r="G25" s="51" t="s">
         <v>174</v>
       </c>
-      <c r="H25" s="142"/>
+      <c r="H25" s="149"/>
     </row>
     <row r="26" spans="7:11" x14ac:dyDescent="0.35">
-      <c r="J26" s="141" t="s">
+      <c r="J26" s="148" t="s">
         <v>180</v>
       </c>
-      <c r="K26" s="141"/>
+      <c r="K26" s="148"/>
     </row>
     <row r="27" spans="7:11" x14ac:dyDescent="0.35">
       <c r="J27" s="49" t="s">
@@ -7317,7 +7329,7 @@
       <c r="J29" s="51" t="s">
         <v>182</v>
       </c>
-      <c r="K29" s="142" t="s">
+      <c r="K29" s="149" t="s">
         <v>189</v>
       </c>
     </row>
@@ -7325,13 +7337,13 @@
       <c r="J30" s="51" t="s">
         <v>184</v>
       </c>
-      <c r="K30" s="142"/>
+      <c r="K30" s="149"/>
     </row>
     <row r="31" spans="7:11" x14ac:dyDescent="0.35">
       <c r="J31" s="51" t="s">
         <v>181</v>
       </c>
-      <c r="K31" s="142" t="s">
+      <c r="K31" s="149" t="s">
         <v>191</v>
       </c>
     </row>
@@ -7339,31 +7351,31 @@
       <c r="J32" s="51" t="s">
         <v>185</v>
       </c>
-      <c r="K32" s="142"/>
+      <c r="K32" s="149"/>
     </row>
     <row r="33" spans="10:14" ht="42.45" x14ac:dyDescent="0.35">
       <c r="J33" s="51" t="s">
         <v>183</v>
       </c>
-      <c r="K33" s="142"/>
+      <c r="K33" s="149"/>
     </row>
     <row r="34" spans="10:14" ht="42.45" x14ac:dyDescent="0.35">
       <c r="J34" s="51" t="s">
         <v>186</v>
       </c>
-      <c r="K34" s="142"/>
+      <c r="K34" s="149"/>
     </row>
     <row r="35" spans="10:14" ht="56.6" x14ac:dyDescent="0.35">
       <c r="J35" s="51" t="s">
         <v>187</v>
       </c>
-      <c r="K35" s="142"/>
+      <c r="K35" s="149"/>
     </row>
     <row r="36" spans="10:14" x14ac:dyDescent="0.35">
-      <c r="M36" s="141" t="s">
+      <c r="M36" s="148" t="s">
         <v>192</v>
       </c>
-      <c r="N36" s="141"/>
+      <c r="N36" s="148"/>
     </row>
     <row r="37" spans="10:14" x14ac:dyDescent="0.35">
       <c r="M37" s="49" t="s">
@@ -7385,7 +7397,7 @@
       <c r="M39" s="51" t="s">
         <v>199</v>
       </c>
-      <c r="N39" s="142" t="s">
+      <c r="N39" s="149" t="s">
         <v>196</v>
       </c>
     </row>
@@ -7393,13 +7405,13 @@
       <c r="M40" s="51" t="s">
         <v>198</v>
       </c>
-      <c r="N40" s="142"/>
+      <c r="N40" s="149"/>
     </row>
     <row r="41" spans="10:14" ht="70.75" x14ac:dyDescent="0.35">
       <c r="M41" s="51" t="s">
         <v>200</v>
       </c>
-      <c r="N41" s="142" t="s">
+      <c r="N41" s="149" t="s">
         <v>197</v>
       </c>
     </row>
@@ -7407,13 +7419,13 @@
       <c r="M42" s="51" t="s">
         <v>201</v>
       </c>
-      <c r="N42" s="142"/>
+      <c r="N42" s="149"/>
     </row>
     <row r="43" spans="10:14" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="M43" s="51" t="s">
         <v>194</v>
       </c>
-      <c r="N43" s="138" t="s">
+      <c r="N43" s="151" t="s">
         <v>203</v>
       </c>
     </row>
@@ -7421,16 +7433,23 @@
       <c r="M44" s="51" t="s">
         <v>195</v>
       </c>
-      <c r="N44" s="139"/>
+      <c r="N44" s="152"/>
     </row>
     <row r="45" spans="10:14" ht="28.3" x14ac:dyDescent="0.35">
       <c r="M45" s="51" t="s">
         <v>202</v>
       </c>
-      <c r="N45" s="140"/>
+      <c r="N45" s="153"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="N43:N45"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="N39:N40"/>
+    <mergeCell ref="N41:N42"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="K31:K35"/>
+    <mergeCell ref="K29:K30"/>
     <mergeCell ref="G17:H17"/>
     <mergeCell ref="H23:H25"/>
     <mergeCell ref="H20:H22"/>
@@ -7439,13 +7458,6 @@
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="E15:E16"/>
     <mergeCell ref="E11:E12"/>
-    <mergeCell ref="N43:N45"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="N39:N40"/>
-    <mergeCell ref="N41:N42"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="K31:K35"/>
-    <mergeCell ref="K29:K30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7468,12 +7480,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A1" s="114" t="s">
+      <c r="A1" s="118" t="s">
         <v>271</v>
       </c>
-      <c r="B1" s="114"/>
-      <c r="C1" s="114"/>
-      <c r="D1" s="114"/>
+      <c r="B1" s="118"/>
+      <c r="C1" s="118"/>
+      <c r="D1" s="118"/>
     </row>
     <row r="2" spans="1:4" s="71" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="69" t="s">
@@ -8184,10 +8196,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A1" s="115" t="s">
+      <c r="A1" s="119" t="s">
         <v>238</v>
       </c>
-      <c r="B1" s="115"/>
+      <c r="B1" s="119"/>
       <c r="C1" s="64" t="s">
         <v>239</v>
       </c>
@@ -8274,7 +8286,7 @@
       <c r="A2" s="61" t="s">
         <v>256</v>
       </c>
-      <c r="B2" s="116" t="s">
+      <c r="B2" s="120" t="s">
         <v>259</v>
       </c>
       <c r="C2" s="60" t="s">
@@ -8285,7 +8297,7 @@
       <c r="A3" s="61" t="s">
         <v>255</v>
       </c>
-      <c r="B3" s="116"/>
+      <c r="B3" s="120"/>
       <c r="C3" s="60" t="s">
         <v>261</v>
       </c>
@@ -8294,7 +8306,7 @@
       <c r="A4" s="61" t="s">
         <v>257</v>
       </c>
-      <c r="B4" s="116" t="s">
+      <c r="B4" s="120" t="s">
         <v>260</v>
       </c>
       <c r="C4" s="60" t="s">
@@ -8305,7 +8317,7 @@
       <c r="A5" s="61" t="s">
         <v>258</v>
       </c>
-      <c r="B5" s="116"/>
+      <c r="B5" s="120"/>
       <c r="C5" s="60" t="s">
         <v>263</v>
       </c>
@@ -8338,19 +8350,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A1" s="117" t="s">
+      <c r="A1" s="121" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="118"/>
+      <c r="B1" s="122"/>
       <c r="C1" s="12" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="84.9" x14ac:dyDescent="0.4">
-      <c r="A2" s="119" t="s">
+      <c r="A2" s="123" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="120"/>
+      <c r="B2" s="124"/>
       <c r="C2" s="13" t="s">
         <v>13</v>
       </c>
@@ -8358,8 +8370,8 @@
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A3" s="119"/>
-      <c r="B3" s="120"/>
+      <c r="A3" s="123"/>
+      <c r="B3" s="124"/>
       <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
@@ -8367,8 +8379,8 @@
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" ht="118.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="121"/>
-      <c r="B4" s="122"/>
+      <c r="A4" s="125"/>
+      <c r="B4" s="126"/>
       <c r="C4" s="3" t="s">
         <v>11</v>
       </c>
@@ -8396,19 +8408,19 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A7" s="123" t="s">
+      <c r="A7" s="127" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="124"/>
+      <c r="B7" s="128"/>
       <c r="C7" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="42.45" x14ac:dyDescent="0.4">
-      <c r="A8" s="125" t="s">
+      <c r="A8" s="129" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="126"/>
+      <c r="B8" s="130"/>
       <c r="C8" s="5" t="s">
         <v>4</v>
       </c>
@@ -8429,7 +8441,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F60BA77A-0FF7-4A09-AAA8-E53725F430B2}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:C11"/>
     </sheetView>
   </sheetViews>
@@ -8441,105 +8453,105 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="144" t="s">
+      <c r="A1" s="108" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="145" t="s">
+      <c r="B1" s="109" t="s">
         <v>310</v>
       </c>
-      <c r="C1" s="146" t="s">
+      <c r="C1" s="110" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A2" s="147" t="s">
+      <c r="A2" s="111" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="148" t="s">
+      <c r="B2" s="133" t="s">
         <v>311</v>
       </c>
-      <c r="C2" s="147" t="s">
+      <c r="C2" s="111" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A3" s="147" t="s">
+      <c r="A3" s="111" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="149"/>
-      <c r="C3" s="147" t="s">
+      <c r="B3" s="134"/>
+      <c r="C3" s="111" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A4" s="150" t="s">
+      <c r="A4" s="131" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="148" t="s">
+      <c r="B4" s="133" t="s">
         <v>312</v>
       </c>
-      <c r="C4" s="147" t="s">
+      <c r="C4" s="111" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A5" s="151"/>
-      <c r="B5" s="152"/>
-      <c r="C5" s="147" t="s">
+      <c r="A5" s="135"/>
+      <c r="B5" s="136"/>
+      <c r="C5" s="111" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A6" s="147" t="s">
+      <c r="A6" s="111" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="152"/>
-      <c r="C6" s="147" t="s">
+      <c r="B6" s="136"/>
+      <c r="C6" s="111" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A7" s="147" t="s">
+    <row r="7" spans="1:3" ht="23.15" x14ac:dyDescent="0.4">
+      <c r="A7" s="111" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="148" t="s">
+      <c r="B7" s="133" t="s">
         <v>313</v>
       </c>
-      <c r="C7" s="147" t="s">
+      <c r="C7" s="111" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="148" t="s">
+      <c r="A8" s="133" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="149"/>
-      <c r="C8" s="147" t="s">
+      <c r="B8" s="134"/>
+      <c r="C8" s="111" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="149"/>
-      <c r="B9" s="148" t="s">
+      <c r="A9" s="134"/>
+      <c r="B9" s="133" t="s">
         <v>314</v>
       </c>
-      <c r="C9" s="147" t="s">
+      <c r="C9" s="111" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A10" s="150" t="s">
+      <c r="A10" s="131" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="152"/>
-      <c r="C10" s="147" t="s">
+      <c r="B10" s="136"/>
+      <c r="C10" s="111" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A11" s="153"/>
-      <c r="B11" s="149"/>
-      <c r="C11" s="147" t="s">
+      <c r="A11" s="132"/>
+      <c r="B11" s="134"/>
+      <c r="C11" s="111" t="s">
         <v>29</v>
       </c>
     </row>
@@ -8633,12 +8645,12 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A4" s="127"/>
-      <c r="B4" s="127"/>
-      <c r="C4" s="127"/>
-      <c r="D4" s="127"/>
-      <c r="E4" s="127"/>
-      <c r="F4" s="127"/>
+      <c r="A4" s="137"/>
+      <c r="B4" s="137"/>
+      <c r="C4" s="137"/>
+      <c r="D4" s="137"/>
+      <c r="E4" s="137"/>
+      <c r="F4" s="137"/>
       <c r="G4" s="21"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
@@ -8702,12 +8714,12 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A8" s="127"/>
-      <c r="B8" s="127"/>
-      <c r="C8" s="127"/>
-      <c r="D8" s="127"/>
-      <c r="E8" s="127"/>
-      <c r="F8" s="127"/>
+      <c r="A8" s="137"/>
+      <c r="B8" s="137"/>
+      <c r="C8" s="137"/>
+      <c r="D8" s="137"/>
+      <c r="E8" s="137"/>
+      <c r="F8" s="137"/>
       <c r="G8" s="21"/>
     </row>
     <row r="9" spans="1:7" ht="23.15" x14ac:dyDescent="0.4">
@@ -8771,12 +8783,12 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A12" s="128"/>
-      <c r="B12" s="128"/>
-      <c r="C12" s="128"/>
-      <c r="D12" s="128"/>
-      <c r="E12" s="128"/>
-      <c r="F12" s="128"/>
+      <c r="A12" s="138"/>
+      <c r="B12" s="138"/>
+      <c r="C12" s="138"/>
+      <c r="D12" s="138"/>
+      <c r="E12" s="138"/>
+      <c r="F12" s="138"/>
     </row>
     <row r="13" spans="1:7" ht="23.15" x14ac:dyDescent="0.4">
       <c r="A13" s="18" t="s">

--- a/FinalReport/key_tables.xlsx
+++ b/FinalReport/key_tables.xlsx
@@ -8,25 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\g_gna\Documents\TCD\Modules\CS7CS5_Dissertation\FinalReport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2A23F83-4FD3-4DEE-86EF-FC74068DAF59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{462EA136-83FF-4C8B-A0B1-0929DA013896}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="9463" firstSheet="10" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="9463" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="project_timeline" sheetId="14" r:id="rId1"/>
     <sheet name="gantt_chart" sheetId="13" r:id="rId2"/>
     <sheet name="tool_critique" sheetId="8" r:id="rId3"/>
-    <sheet name="improvements" sheetId="9" r:id="rId4"/>
-    <sheet name="avoiding_bad_design" sheetId="10" r:id="rId5"/>
-    <sheet name="MVC" sheetId="11" r:id="rId6"/>
-    <sheet name="env_vars" sheetId="1" r:id="rId7"/>
-    <sheet name="ui_components" sheetId="2" r:id="rId8"/>
-    <sheet name="data" sheetId="3" r:id="rId9"/>
-    <sheet name="sim mw games key ideas" sheetId="4" r:id="rId10"/>
-    <sheet name="pedagogy best practices" sheetId="5" r:id="rId11"/>
-    <sheet name="challenges" sheetId="6" r:id="rId12"/>
-    <sheet name="challenges_bridge2college" sheetId="15" r:id="rId13"/>
-    <sheet name="tool_pros_cons" sheetId="7" r:id="rId14"/>
+    <sheet name="avoiding_bad_design" sheetId="10" r:id="rId4"/>
+    <sheet name="MVC" sheetId="11" r:id="rId5"/>
+    <sheet name="env_vars" sheetId="1" r:id="rId6"/>
+    <sheet name="ui_components" sheetId="2" r:id="rId7"/>
+    <sheet name="data" sheetId="3" r:id="rId8"/>
+    <sheet name="sim mw games key ideas" sheetId="4" r:id="rId9"/>
+    <sheet name="pedagogy best practices" sheetId="5" r:id="rId10"/>
+    <sheet name="challenges" sheetId="6" r:id="rId11"/>
+    <sheet name="challenges_bridge2college" sheetId="15" r:id="rId12"/>
+    <sheet name="tool_pros_cons" sheetId="7" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -49,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="296">
   <si>
     <t>Carbon Dynamics</t>
   </si>
@@ -690,9 +689,6 @@
   </si>
   <si>
     <t>Atmospheric CO2 levels is not a modelled indcator.</t>
-  </si>
-  <si>
-    <t>No big cons.</t>
   </si>
   <si>
     <t>Multiple economic drivers of exploitation.</t>
@@ -882,45 +878,6 @@
     <t>REALISTIC</t>
   </si>
   <si>
-    <t>Previously</t>
-  </si>
-  <si>
-    <t>Now</t>
-  </si>
-  <si>
-    <t>Reason</t>
-  </si>
-  <si>
-    <t>Simulation model and UI components in a single file.</t>
-  </si>
-  <si>
-    <t>Simluation model components clearly separated from UI components and pages.</t>
-  </si>
-  <si>
-    <t>Modularity. Maleability.</t>
-  </si>
-  <si>
-    <t>Functions defined within constructor.</t>
-  </si>
-  <si>
-    <t>All functions added to prototype outside constructor.</t>
-  </si>
-  <si>
-    <t>Memory efficient.</t>
-  </si>
-  <si>
-    <t>Future</t>
-  </si>
-  <si>
-    <t>Most planner page UI elements in single ActionManager component.</t>
-  </si>
-  <si>
-    <t>Split up into smaller components.</t>
-  </si>
-  <si>
-    <t>Modularity. Flexibility.</t>
-  </si>
-  <si>
     <t>PROBLEM</t>
   </si>
   <si>
@@ -1000,24 +957,6 @@
   </si>
   <si>
     <t>Bridge between Model and View.</t>
-  </si>
-  <si>
-    <t>Temperature and water were considered as factors.</t>
-  </si>
-  <si>
-    <t>Only CO2 is considered as a changing growth factor. Others assumed to be at ideal level.</t>
-  </si>
-  <si>
-    <t>Modelling all factors out of scope so picked on most relavent to the Climate Change awareness objective of the tool. Also, temperature rises on global scale seem insignificant because it is the average of multiple extreme local temperature. A global rise in temperature of just 3 degrees can have disastrous climate consequences locally. Thus, showing global average temperatures may be misleading.</t>
-  </si>
-  <si>
-    <t>Time unit was month.</t>
-  </si>
-  <si>
-    <t>Time unit is year.</t>
-  </si>
-  <si>
-    <t>Monthly changes negligible and takes too long to simluate.</t>
   </si>
   <si>
     <t>Dissertation - Project Plan</t>
@@ -2081,137 +2020,137 @@
     <xf numFmtId="0" fontId="5" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -6256,7 +6195,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B1B8FEE-14B5-4500-8AA4-F83FA5CDC1F9}">
   <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="130" zoomScaleNormal="70" zoomScalePageLayoutView="157" workbookViewId="0">
       <selection sqref="A1:D27"/>
     </sheetView>
   </sheetViews>
@@ -6270,30 +6209,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
-      <c r="A1" s="112" t="s">
-        <v>297</v>
-      </c>
-      <c r="B1" s="113"/>
-      <c r="C1" s="113"/>
-      <c r="D1" s="114"/>
+      <c r="A1" s="115" t="s">
+        <v>277</v>
+      </c>
+      <c r="B1" s="116"/>
+      <c r="C1" s="116"/>
+      <c r="D1" s="117"/>
     </row>
     <row r="2" spans="1:4" s="71" customFormat="1" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A2" s="79" t="s">
-        <v>272</v>
+        <v>252</v>
       </c>
       <c r="B2" s="80" t="s">
-        <v>273</v>
+        <v>253</v>
       </c>
       <c r="C2" s="80" t="s">
-        <v>274</v>
+        <v>254</v>
       </c>
       <c r="D2" s="81" t="s">
-        <v>275</v>
+        <v>255</v>
       </c>
     </row>
     <row r="3" spans="1:4" s="71" customFormat="1" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A3" s="82" t="s">
-        <v>276</v>
+        <v>256</v>
       </c>
       <c r="B3" s="83">
         <v>45178</v>
@@ -6308,7 +6247,7 @@
     </row>
     <row r="4" spans="1:4" s="71" customFormat="1" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A4" s="85" t="s">
-        <v>277</v>
+        <v>257</v>
       </c>
       <c r="B4" s="86">
         <v>45181</v>
@@ -6323,7 +6262,7 @@
     </row>
     <row r="5" spans="1:4" s="71" customFormat="1" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A5" s="85" t="s">
-        <v>302</v>
+        <v>282</v>
       </c>
       <c r="B5" s="86">
         <v>45216</v>
@@ -6338,7 +6277,7 @@
     </row>
     <row r="6" spans="1:4" s="71" customFormat="1" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A6" s="85" t="s">
-        <v>278</v>
+        <v>258</v>
       </c>
       <c r="B6" s="86">
         <v>45250</v>
@@ -6353,7 +6292,7 @@
     </row>
     <row r="7" spans="1:4" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A7" s="88" t="s">
-        <v>279</v>
+        <v>259</v>
       </c>
       <c r="B7" s="89">
         <v>45301</v>
@@ -6368,7 +6307,7 @@
     </row>
     <row r="8" spans="1:4" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A8" s="91" t="s">
-        <v>293</v>
+        <v>273</v>
       </c>
       <c r="B8" s="86">
         <v>45310</v>
@@ -6383,7 +6322,7 @@
     </row>
     <row r="9" spans="1:4" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A9" s="91" t="s">
-        <v>292</v>
+        <v>272</v>
       </c>
       <c r="B9" s="86">
         <v>45327</v>
@@ -6398,7 +6337,7 @@
     </row>
     <row r="10" spans="1:4" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A10" s="91" t="s">
-        <v>294</v>
+        <v>274</v>
       </c>
       <c r="B10" s="86">
         <v>45338</v>
@@ -6413,7 +6352,7 @@
     </row>
     <row r="11" spans="1:4" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A11" s="88" t="s">
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="B11" s="89">
         <v>45344</v>
@@ -6428,7 +6367,7 @@
     </row>
     <row r="12" spans="1:4" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A12" s="88" t="s">
-        <v>281</v>
+        <v>261</v>
       </c>
       <c r="B12" s="89">
         <v>45355</v>
@@ -6443,7 +6382,7 @@
     </row>
     <row r="13" spans="1:4" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A13" s="88" t="s">
-        <v>282</v>
+        <v>262</v>
       </c>
       <c r="B13" s="89">
         <v>45367</v>
@@ -6458,7 +6397,7 @@
     </row>
     <row r="14" spans="1:4" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A14" s="92" t="s">
-        <v>283</v>
+        <v>263</v>
       </c>
       <c r="B14" s="93">
         <v>45375</v>
@@ -6473,7 +6412,7 @@
     </row>
     <row r="15" spans="1:4" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A15" s="92" t="s">
-        <v>284</v>
+        <v>264</v>
       </c>
       <c r="B15" s="93">
         <v>45413</v>
@@ -6488,7 +6427,7 @@
     </row>
     <row r="16" spans="1:4" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A16" s="88" t="s">
-        <v>285</v>
+        <v>265</v>
       </c>
       <c r="B16" s="89">
         <v>45420</v>
@@ -6503,7 +6442,7 @@
     </row>
     <row r="17" spans="1:4" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A17" s="91" t="s">
-        <v>307</v>
+        <v>287</v>
       </c>
       <c r="B17" s="86">
         <v>45428</v>
@@ -6518,7 +6457,7 @@
     </row>
     <row r="18" spans="1:4" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A18" s="88" t="s">
-        <v>286</v>
+        <v>266</v>
       </c>
       <c r="B18" s="89">
         <v>45432</v>
@@ -6533,7 +6472,7 @@
     </row>
     <row r="19" spans="1:4" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A19" s="88" t="s">
-        <v>287</v>
+        <v>267</v>
       </c>
       <c r="B19" s="89">
         <v>45455</v>
@@ -6548,7 +6487,7 @@
     </row>
     <row r="20" spans="1:4" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A20" s="95" t="s">
-        <v>295</v>
+        <v>275</v>
       </c>
       <c r="B20" s="96">
         <v>45462</v>
@@ -6563,7 +6502,7 @@
     </row>
     <row r="21" spans="1:4" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A21" s="91" t="s">
-        <v>296</v>
+        <v>276</v>
       </c>
       <c r="B21" s="86">
         <v>45463</v>
@@ -6578,7 +6517,7 @@
     </row>
     <row r="22" spans="1:4" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A22" s="88" t="s">
-        <v>288</v>
+        <v>268</v>
       </c>
       <c r="B22" s="89">
         <v>45467</v>
@@ -6593,7 +6532,7 @@
     </row>
     <row r="23" spans="1:4" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A23" s="91" t="s">
-        <v>298</v>
+        <v>278</v>
       </c>
       <c r="B23" s="86">
         <v>45471</v>
@@ -6608,7 +6547,7 @@
     </row>
     <row r="24" spans="1:4" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A24" s="91" t="s">
-        <v>299</v>
+        <v>279</v>
       </c>
       <c r="B24" s="86">
         <v>45507</v>
@@ -6623,7 +6562,7 @@
     </row>
     <row r="25" spans="1:4" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A25" s="88" t="s">
-        <v>289</v>
+        <v>269</v>
       </c>
       <c r="B25" s="89">
         <v>45498</v>
@@ -6638,7 +6577,7 @@
     </row>
     <row r="26" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A26" s="98" t="s">
-        <v>290</v>
+        <v>270</v>
       </c>
       <c r="B26" s="89">
         <v>45505</v>
@@ -6653,7 +6592,7 @@
     </row>
     <row r="27" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A27" s="98" t="s">
-        <v>291</v>
+        <v>271</v>
       </c>
       <c r="B27" s="89">
         <v>45344</v>
@@ -6667,46 +6606,46 @@
       </c>
     </row>
     <row r="29" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
-      <c r="B29" s="115" t="s">
-        <v>300</v>
-      </c>
-      <c r="C29" s="116"/>
-      <c r="D29" s="117"/>
+      <c r="B29" s="118" t="s">
+        <v>280</v>
+      </c>
+      <c r="C29" s="119"/>
+      <c r="D29" s="120"/>
     </row>
     <row r="30" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
       <c r="B30" s="99"/>
       <c r="C30" s="100" t="s">
-        <v>301</v>
+        <v>281</v>
       </c>
       <c r="D30" s="101" t="s">
-        <v>303</v>
+        <v>283</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
       <c r="B31" s="102"/>
       <c r="C31" s="100" t="s">
-        <v>301</v>
+        <v>281</v>
       </c>
       <c r="D31" s="101" t="s">
-        <v>306</v>
+        <v>286</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="15.9" x14ac:dyDescent="0.45">
       <c r="B32" s="103"/>
       <c r="C32" s="104" t="s">
-        <v>301</v>
+        <v>281</v>
       </c>
       <c r="D32" s="101" t="s">
-        <v>305</v>
+        <v>285</v>
       </c>
     </row>
     <row r="33" spans="2:4" ht="15.9" x14ac:dyDescent="0.45">
       <c r="B33" s="105"/>
       <c r="C33" s="106" t="s">
-        <v>301</v>
+        <v>281</v>
       </c>
       <c r="D33" s="107" t="s">
-        <v>304</v>
+        <v>284</v>
       </c>
     </row>
   </sheetData>
@@ -6715,94 +6654,12 @@
     <mergeCell ref="B29:D29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="61" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F247DBC2-86D7-40D9-BBB1-B4B3735D2E61}">
-  <dimension ref="A1:D5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="3.69140625" style="22" customWidth="1"/>
-    <col min="2" max="2" width="50.69140625" style="23" customWidth="1"/>
-    <col min="3" max="3" width="30.69140625" style="23" customWidth="1"/>
-    <col min="4" max="4" width="3.69140625" style="23" customWidth="1"/>
-    <col min="5" max="16384" width="9.23046875" style="22"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="56.6" x14ac:dyDescent="0.35">
-      <c r="A1" s="141" t="s">
-        <v>83</v>
-      </c>
-      <c r="B1" s="24" t="s">
-        <v>93</v>
-      </c>
-      <c r="C1" s="140" t="s">
-        <v>90</v>
-      </c>
-      <c r="D1" s="143" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="70.75" x14ac:dyDescent="0.35">
-      <c r="A2" s="142"/>
-      <c r="B2" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="C2" s="140"/>
-      <c r="D2" s="144"/>
-    </row>
-    <row r="3" spans="1:4" ht="42.45" x14ac:dyDescent="0.35">
-      <c r="A3" s="142"/>
-      <c r="B3" s="24" t="s">
-        <v>87</v>
-      </c>
-      <c r="C3" s="26" t="s">
-        <v>91</v>
-      </c>
-      <c r="D3" s="145" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="70.75" x14ac:dyDescent="0.35">
-      <c r="A4" s="142"/>
-      <c r="B4" s="24" t="s">
-        <v>88</v>
-      </c>
-      <c r="C4" s="139" t="s">
-        <v>92</v>
-      </c>
-      <c r="D4" s="146"/>
-    </row>
-    <row r="5" spans="1:4" ht="70.75" x14ac:dyDescent="0.35">
-      <c r="A5" s="142"/>
-      <c r="B5" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="C5" s="139"/>
-      <c r="D5" s="146"/>
-    </row>
-  </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="A1:A5"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="D3:D5"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8FE6774-1E3A-4B01-9F79-0CE882F43062}">
   <dimension ref="A1:B13"/>
   <sheetViews>
@@ -6860,7 +6717,7 @@
       <c r="A6" s="25" t="s">
         <v>112</v>
       </c>
-      <c r="B6" s="147" t="s">
+      <c r="B6" s="150" t="s">
         <v>107</v>
       </c>
     </row>
@@ -6868,7 +6725,7 @@
       <c r="A7" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="B7" s="147"/>
+      <c r="B7" s="150"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8" s="25" t="s">
@@ -6882,7 +6739,7 @@
       <c r="A9" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="B9" s="147" t="s">
+      <c r="B9" s="150" t="s">
         <v>109</v>
       </c>
     </row>
@@ -6890,7 +6747,7 @@
       <c r="A10" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="B10" s="147"/>
+      <c r="B10" s="150"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A11" s="25" t="s">
@@ -6904,7 +6761,7 @@
       <c r="A12" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="B12" s="147" t="s">
+      <c r="B12" s="150" t="s">
         <v>111</v>
       </c>
     </row>
@@ -6912,7 +6769,7 @@
       <c r="A13" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="B13" s="147"/>
+      <c r="B13" s="150"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -6924,7 +6781,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D47BAC5F-10D1-4E9A-81F4-B6DA49B47F0B}">
   <dimension ref="A1:E6"/>
   <sheetViews>
@@ -7045,24 +6902,24 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2C3F88A-4160-4E60-896F-B8A73EA077EA}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="10" style="154" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10" style="112" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="37.84375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="39.15234375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" s="32" t="s">
-        <v>315</v>
+        <v>295</v>
       </c>
       <c r="B1" s="32" t="s">
         <v>117</v>
@@ -7072,25 +6929,25 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="28.3" x14ac:dyDescent="0.4">
-      <c r="A2" s="155">
+      <c r="A2" s="113">
         <v>1</v>
       </c>
       <c r="B2" s="63" t="s">
         <v>119</v>
       </c>
       <c r="C2" s="63" t="s">
-        <v>308</v>
+        <v>288</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="28.3" x14ac:dyDescent="0.4">
-      <c r="A3" s="156">
+      <c r="A3" s="114">
         <v>2</v>
       </c>
       <c r="B3" s="62" t="s">
         <v>138</v>
       </c>
       <c r="C3" s="39" t="s">
-        <v>309</v>
+        <v>289</v>
       </c>
     </row>
   </sheetData>
@@ -7098,38 +6955,38 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16E372F1-BAA7-4FDD-A770-A93F85875E6A}">
   <dimension ref="A1:N45"/>
   <sheetViews>
-    <sheetView topLeftCell="M40" workbookViewId="0">
-      <selection activeCell="N43" sqref="N43:N45"/>
+    <sheetView topLeftCell="H8" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N33" sqref="N33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.69140625" style="47" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="45.69140625" style="47" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="2.69140625" style="22" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="40.69140625" style="52" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="30.69140625" style="52" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="2.69140625" style="22" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="50.69140625" style="52" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="20.69140625" style="52" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="2.69140625" style="22" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="30.69140625" style="52" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="40.69140625" style="52" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="2.69140625" style="22" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="30.4609375" style="47" customWidth="1"/>
+    <col min="2" max="2" width="63.921875" style="47" customWidth="1"/>
+    <col min="3" max="3" width="2.69140625" style="22" customWidth="1"/>
+    <col min="4" max="4" width="45.69140625" style="52" customWidth="1"/>
+    <col min="5" max="5" width="41.765625" style="52" customWidth="1"/>
+    <col min="6" max="6" width="2.69140625" style="22" customWidth="1"/>
+    <col min="7" max="7" width="46.765625" style="52" customWidth="1"/>
+    <col min="8" max="8" width="27.921875" style="52" customWidth="1"/>
+    <col min="9" max="9" width="2.69140625" style="22" customWidth="1"/>
+    <col min="10" max="10" width="47.3828125" style="52" customWidth="1"/>
+    <col min="11" max="11" width="54.3828125" style="52" customWidth="1"/>
+    <col min="12" max="12" width="2.69140625" style="22" customWidth="1"/>
     <col min="13" max="13" width="50.69140625" style="52" customWidth="1"/>
     <col min="14" max="14" width="20.69140625" style="52" customWidth="1"/>
     <col min="15" max="16384" width="9.23046875" style="22"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="148" t="s">
+      <c r="A1" s="154" t="s">
         <v>156</v>
       </c>
-      <c r="B1" s="150"/>
+      <c r="B1" s="156"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="49" t="s">
@@ -7139,22 +6996,22 @@
         <v>147</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="28.3" x14ac:dyDescent="0.35">
-      <c r="A3" s="149" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="155" t="s">
         <v>148</v>
       </c>
       <c r="B3" s="51" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="28.3" x14ac:dyDescent="0.35">
-      <c r="A4" s="149"/>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="155"/>
       <c r="B4" s="51" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="28.3" x14ac:dyDescent="0.35">
-      <c r="A5" s="149"/>
+      <c r="A5" s="155"/>
       <c r="B5" s="51" t="s">
         <v>151</v>
       </c>
@@ -7167,7 +7024,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="56.6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" ht="42.45" x14ac:dyDescent="0.35">
       <c r="A7" s="48" t="s">
         <v>158</v>
       </c>
@@ -7175,7 +7032,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="70.75" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" ht="56.6" x14ac:dyDescent="0.35">
       <c r="A8" s="48" t="s">
         <v>149</v>
       </c>
@@ -7184,10 +7041,10 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="D9" s="148" t="s">
+      <c r="D9" s="154" t="s">
         <v>159</v>
       </c>
-      <c r="E9" s="150"/>
+      <c r="E9" s="156"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D10" s="49" t="s">
@@ -7201,7 +7058,7 @@
       <c r="D11" s="51" t="s">
         <v>160</v>
       </c>
-      <c r="E11" s="149" t="s">
+      <c r="E11" s="155" t="s">
         <v>162</v>
       </c>
     </row>
@@ -7209,9 +7066,9 @@
       <c r="D12" s="51" t="s">
         <v>164</v>
       </c>
-      <c r="E12" s="149"/>
-    </row>
-    <row r="13" spans="1:5" ht="28.3" x14ac:dyDescent="0.35">
+      <c r="E12" s="155"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D13" s="51" t="s">
         <v>161</v>
       </c>
@@ -7231,7 +7088,7 @@
       <c r="D15" s="51" t="s">
         <v>167</v>
       </c>
-      <c r="E15" s="149" t="s">
+      <c r="E15" s="155" t="s">
         <v>169</v>
       </c>
     </row>
@@ -7239,13 +7096,13 @@
       <c r="D16" s="51" t="s">
         <v>168</v>
       </c>
-      <c r="E16" s="149"/>
+      <c r="E16" s="155"/>
     </row>
     <row r="17" spans="7:11" x14ac:dyDescent="0.35">
-      <c r="G17" s="148" t="s">
+      <c r="G17" s="154" t="s">
         <v>170</v>
       </c>
-      <c r="H17" s="148"/>
+      <c r="H17" s="154"/>
     </row>
     <row r="18" spans="7:11" x14ac:dyDescent="0.35">
       <c r="G18" s="49" t="s">
@@ -7255,39 +7112,37 @@
         <v>147</v>
       </c>
     </row>
-    <row r="19" spans="7:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="7:11" ht="28.3" x14ac:dyDescent="0.35">
       <c r="G19" s="51" t="s">
-        <v>179</v>
-      </c>
-      <c r="H19" s="51" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="20" spans="7:11" x14ac:dyDescent="0.35">
+        <v>178</v>
+      </c>
+      <c r="H19" s="151" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="20" spans="7:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="G20" s="51" t="s">
         <v>160</v>
       </c>
-      <c r="H20" s="149" t="s">
-        <v>175</v>
-      </c>
+      <c r="H20" s="152"/>
     </row>
     <row r="21" spans="7:11" x14ac:dyDescent="0.35">
       <c r="G21" s="51" t="s">
         <v>171</v>
       </c>
-      <c r="H21" s="149"/>
+      <c r="H21" s="152"/>
     </row>
     <row r="22" spans="7:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="G22" s="51" t="s">
         <v>172</v>
       </c>
-      <c r="H22" s="149"/>
+      <c r="H22" s="153"/>
     </row>
     <row r="23" spans="7:11" x14ac:dyDescent="0.35">
       <c r="G23" s="51" t="s">
-        <v>178</v>
-      </c>
-      <c r="H23" s="149" t="s">
+        <v>177</v>
+      </c>
+      <c r="H23" s="155" t="s">
         <v>176</v>
       </c>
     </row>
@@ -7295,19 +7150,19 @@
       <c r="G24" s="51" t="s">
         <v>173</v>
       </c>
-      <c r="H24" s="149"/>
+      <c r="H24" s="155"/>
     </row>
     <row r="25" spans="7:11" ht="28.3" x14ac:dyDescent="0.35">
       <c r="G25" s="51" t="s">
         <v>174</v>
       </c>
-      <c r="H25" s="149"/>
+      <c r="H25" s="155"/>
     </row>
     <row r="26" spans="7:11" x14ac:dyDescent="0.35">
-      <c r="J26" s="148" t="s">
-        <v>180</v>
-      </c>
-      <c r="K26" s="148"/>
+      <c r="J26" s="154" t="s">
+        <v>179</v>
+      </c>
+      <c r="K26" s="154"/>
     </row>
     <row r="27" spans="7:11" x14ac:dyDescent="0.35">
       <c r="J27" s="49" t="s">
@@ -7319,63 +7174,63 @@
     </row>
     <row r="28" spans="7:11" x14ac:dyDescent="0.35">
       <c r="J28" s="51" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K28" s="51" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="29" spans="7:11" x14ac:dyDescent="0.35">
       <c r="J29" s="51" t="s">
-        <v>182</v>
-      </c>
-      <c r="K29" s="149" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="30" spans="7:11" ht="28.3" customHeight="1" x14ac:dyDescent="0.35">
+        <v>181</v>
+      </c>
+      <c r="K29" s="155" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="30" spans="7:11" x14ac:dyDescent="0.35">
       <c r="J30" s="51" t="s">
-        <v>184</v>
-      </c>
-      <c r="K30" s="149"/>
+        <v>183</v>
+      </c>
+      <c r="K30" s="155"/>
     </row>
     <row r="31" spans="7:11" x14ac:dyDescent="0.35">
       <c r="J31" s="51" t="s">
-        <v>181</v>
-      </c>
-      <c r="K31" s="149" t="s">
+        <v>180</v>
+      </c>
+      <c r="K31" s="155" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="32" spans="7:11" ht="28.3" x14ac:dyDescent="0.35">
+      <c r="J32" s="51" t="s">
+        <v>184</v>
+      </c>
+      <c r="K32" s="155"/>
+    </row>
+    <row r="33" spans="10:14" ht="28.3" x14ac:dyDescent="0.35">
+      <c r="J33" s="51" t="s">
+        <v>182</v>
+      </c>
+      <c r="K33" s="155"/>
+    </row>
+    <row r="34" spans="10:14" ht="28.3" x14ac:dyDescent="0.35">
+      <c r="J34" s="51" t="s">
+        <v>185</v>
+      </c>
+      <c r="K34" s="155"/>
+    </row>
+    <row r="35" spans="10:14" ht="42.45" x14ac:dyDescent="0.35">
+      <c r="J35" s="51" t="s">
+        <v>186</v>
+      </c>
+      <c r="K35" s="155"/>
+    </row>
+    <row r="36" spans="10:14" x14ac:dyDescent="0.35">
+      <c r="M36" s="154" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="32" spans="7:11" ht="42.45" x14ac:dyDescent="0.35">
-      <c r="J32" s="51" t="s">
-        <v>185</v>
-      </c>
-      <c r="K32" s="149"/>
-    </row>
-    <row r="33" spans="10:14" ht="42.45" x14ac:dyDescent="0.35">
-      <c r="J33" s="51" t="s">
-        <v>183</v>
-      </c>
-      <c r="K33" s="149"/>
-    </row>
-    <row r="34" spans="10:14" ht="42.45" x14ac:dyDescent="0.35">
-      <c r="J34" s="51" t="s">
-        <v>186</v>
-      </c>
-      <c r="K34" s="149"/>
-    </row>
-    <row r="35" spans="10:14" ht="56.6" x14ac:dyDescent="0.35">
-      <c r="J35" s="51" t="s">
-        <v>187</v>
-      </c>
-      <c r="K35" s="149"/>
-    </row>
-    <row r="36" spans="10:14" x14ac:dyDescent="0.35">
-      <c r="M36" s="148" t="s">
-        <v>192</v>
-      </c>
-      <c r="N36" s="148"/>
+      <c r="N36" s="154"/>
     </row>
     <row r="37" spans="10:14" x14ac:dyDescent="0.35">
       <c r="M37" s="49" t="s">
@@ -7385,79 +7240,77 @@
         <v>147</v>
       </c>
     </row>
-    <row r="38" spans="10:14" x14ac:dyDescent="0.35">
+    <row r="38" spans="10:14" ht="14.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="M38" s="51" t="s">
-        <v>193</v>
-      </c>
-      <c r="N38" s="51" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="39" spans="10:14" ht="28.3" x14ac:dyDescent="0.35">
+        <v>192</v>
+      </c>
+      <c r="N38" s="151" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="39" spans="10:14" ht="28.3" customHeight="1" x14ac:dyDescent="0.35">
       <c r="M39" s="51" t="s">
-        <v>199</v>
-      </c>
-      <c r="N39" s="149" t="s">
-        <v>196</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="N39" s="152"/>
     </row>
     <row r="40" spans="10:14" ht="42.45" x14ac:dyDescent="0.35">
       <c r="M40" s="51" t="s">
-        <v>198</v>
-      </c>
-      <c r="N40" s="149"/>
+        <v>197</v>
+      </c>
+      <c r="N40" s="153"/>
     </row>
     <row r="41" spans="10:14" ht="70.75" x14ac:dyDescent="0.35">
       <c r="M41" s="51" t="s">
-        <v>200</v>
-      </c>
-      <c r="N41" s="149" t="s">
-        <v>197</v>
+        <v>199</v>
+      </c>
+      <c r="N41" s="155" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="42" spans="10:14" x14ac:dyDescent="0.35">
       <c r="M42" s="51" t="s">
-        <v>201</v>
-      </c>
-      <c r="N42" s="149"/>
+        <v>200</v>
+      </c>
+      <c r="N42" s="155"/>
     </row>
     <row r="43" spans="10:14" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="M43" s="51" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="N43" s="151" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="44" spans="10:14" x14ac:dyDescent="0.35">
       <c r="M44" s="51" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="N44" s="152"/>
     </row>
     <row r="45" spans="10:14" ht="28.3" x14ac:dyDescent="0.35">
       <c r="M45" s="51" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="N45" s="153"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="N43:N45"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="N39:N40"/>
-    <mergeCell ref="N41:N42"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="K31:K35"/>
-    <mergeCell ref="K29:K30"/>
     <mergeCell ref="G17:H17"/>
     <mergeCell ref="H23:H25"/>
-    <mergeCell ref="H20:H22"/>
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="E15:E16"/>
     <mergeCell ref="E11:E12"/>
+    <mergeCell ref="H19:H22"/>
+    <mergeCell ref="N43:N45"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="N41:N42"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="K31:K35"/>
+    <mergeCell ref="K29:K30"/>
+    <mergeCell ref="N38:N40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7467,7 +7320,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7794583-3269-4502-9EFF-DAD570850403}">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="94" zoomScaleNormal="67" workbookViewId="0">
+    <sheetView zoomScale="94" zoomScaleNormal="67" workbookViewId="0">
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
@@ -7480,30 +7333,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A1" s="118" t="s">
-        <v>271</v>
-      </c>
-      <c r="B1" s="118"/>
-      <c r="C1" s="118"/>
-      <c r="D1" s="118"/>
+      <c r="A1" s="121" t="s">
+        <v>251</v>
+      </c>
+      <c r="B1" s="121"/>
+      <c r="C1" s="121"/>
+      <c r="D1" s="121"/>
     </row>
     <row r="2" spans="1:4" s="71" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="69" t="s">
-        <v>272</v>
+        <v>252</v>
       </c>
       <c r="B2" s="70" t="s">
-        <v>273</v>
+        <v>253</v>
       </c>
       <c r="C2" s="70" t="s">
-        <v>274</v>
+        <v>254</v>
       </c>
       <c r="D2" s="70" t="s">
-        <v>275</v>
+        <v>255</v>
       </c>
     </row>
     <row r="3" spans="1:4" s="71" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A3" s="72" t="s">
-        <v>276</v>
+        <v>256</v>
       </c>
       <c r="B3" s="73">
         <v>45178</v>
@@ -7518,7 +7371,7 @@
     </row>
     <row r="4" spans="1:4" s="71" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A4" s="72" t="s">
-        <v>277</v>
+        <v>257</v>
       </c>
       <c r="B4" s="73">
         <v>45181</v>
@@ -7533,7 +7386,7 @@
     </row>
     <row r="5" spans="1:4" s="71" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A5" s="72" t="s">
-        <v>278</v>
+        <v>258</v>
       </c>
       <c r="B5" s="73">
         <v>45250</v>
@@ -7548,7 +7401,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" s="74" t="s">
-        <v>279</v>
+        <v>259</v>
       </c>
       <c r="B6" s="73">
         <v>45301</v>
@@ -7563,7 +7416,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7" s="75" t="s">
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="B7" s="73">
         <v>45344</v>
@@ -7578,7 +7431,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8" s="75" t="s">
-        <v>281</v>
+        <v>261</v>
       </c>
       <c r="B8" s="73">
         <v>45355</v>
@@ -7593,7 +7446,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A9" s="75" t="s">
-        <v>282</v>
+        <v>262</v>
       </c>
       <c r="B9" s="73">
         <v>45367</v>
@@ -7608,7 +7461,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A10" s="75" t="s">
-        <v>283</v>
+        <v>263</v>
       </c>
       <c r="B10" s="73">
         <v>45375</v>
@@ -7623,7 +7476,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A11" s="75" t="s">
-        <v>284</v>
+        <v>264</v>
       </c>
       <c r="B11" s="73">
         <v>45413</v>
@@ -7638,7 +7491,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A12" s="75" t="s">
-        <v>285</v>
+        <v>265</v>
       </c>
       <c r="B12" s="73">
         <v>45420</v>
@@ -7653,7 +7506,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A13" s="75" t="s">
-        <v>286</v>
+        <v>266</v>
       </c>
       <c r="B13" s="73">
         <v>45432</v>
@@ -7668,7 +7521,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A14" s="75" t="s">
-        <v>287</v>
+        <v>267</v>
       </c>
       <c r="B14" s="73">
         <v>45455</v>
@@ -7683,7 +7536,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A15" s="75" t="s">
-        <v>288</v>
+        <v>268</v>
       </c>
       <c r="B15" s="73">
         <v>45467</v>
@@ -7698,7 +7551,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A16" s="76" t="s">
-        <v>289</v>
+        <v>269</v>
       </c>
       <c r="B16" s="77">
         <v>45498</v>
@@ -7713,7 +7566,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A17" s="72" t="s">
-        <v>290</v>
+        <v>270</v>
       </c>
       <c r="B17" s="73">
         <v>45505</v>
@@ -7728,7 +7581,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A18" s="72" t="s">
-        <v>291</v>
+        <v>271</v>
       </c>
       <c r="B18" s="73">
         <v>45344</v>
@@ -7767,324 +7620,324 @@
   <sheetData>
     <row r="1" spans="1:7" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A1" s="59" t="s">
+        <v>203</v>
+      </c>
+      <c r="B1" s="57" t="s">
         <v>204</v>
       </c>
-      <c r="B1" s="57" t="s">
+      <c r="C1" s="57" t="s">
         <v>205</v>
       </c>
-      <c r="C1" s="57" t="s">
+      <c r="D1" s="57" t="s">
         <v>206</v>
       </c>
-      <c r="D1" s="57" t="s">
+      <c r="E1" s="57" t="s">
         <v>207</v>
       </c>
-      <c r="E1" s="57" t="s">
+      <c r="F1" s="57" t="s">
+        <v>221</v>
+      </c>
+      <c r="G1" s="53" t="s">
         <v>208</v>
-      </c>
-      <c r="F1" s="57" t="s">
-        <v>222</v>
-      </c>
-      <c r="G1" s="53" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" s="57" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B2" s="55" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C2" s="56" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D2" s="56" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E2" s="55" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F2" s="55" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G2" s="56" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="58" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B3" s="55" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C3" s="55" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D3" s="55" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E3" s="55" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F3" s="55" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G3" s="55" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="57" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B4" s="54" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C4" s="54" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D4" s="55" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E4" s="55" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F4" s="54" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G4" s="55" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" s="57" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B5" s="54" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C5" s="55" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D5" s="55" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E5" s="54" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F5" s="55" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G5" s="55" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" s="57" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B6" s="55" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C6" s="55" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D6" s="55" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E6" s="55" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F6" s="56" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G6" s="56" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" s="57" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B7" s="54" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C7" s="54" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D7" s="54" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E7" s="55" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F7" s="55" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G7" s="55" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" s="57" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B8" s="54" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C8" s="54" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D8" s="55" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E8" s="55" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F8" s="54" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G8" s="55" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" s="57" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B9" s="55" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C9" s="55" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D9" s="55" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E9" s="54" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F9" s="54" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G9" s="55" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" s="57" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B10" s="55" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C10" s="54" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D10" s="54" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E10" s="54" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F10" s="54" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G10" s="55" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" s="57" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B11" s="55" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C11" s="55" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D11" s="55" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E11" s="54" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F11" s="54" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G11" s="55" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12" s="57" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B12" s="54" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C12" s="54" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D12" s="55" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E12" s="55" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F12" s="55" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G12" s="55" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13" s="57" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B13" s="54" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C13" s="55" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D13" s="55" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E13" s="55" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F13" s="55" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G13" s="55" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14" s="57" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B14" s="54" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C14" s="54" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D14" s="55" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E14" s="55" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F14" s="54" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G14" s="55" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
   </sheetData>
@@ -8093,94 +7946,6 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC5DB068-8AA7-4FE8-8963-0826FF0DCDF5}">
-  <dimension ref="A1:H5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
-        <v>225</v>
-      </c>
-      <c r="B1" t="s">
-        <v>226</v>
-      </c>
-      <c r="C1" t="s">
-        <v>227</v>
-      </c>
-      <c r="F1" t="s">
-        <v>226</v>
-      </c>
-      <c r="G1" t="s">
-        <v>234</v>
-      </c>
-      <c r="H1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
-        <v>228</v>
-      </c>
-      <c r="B2" t="s">
-        <v>229</v>
-      </c>
-      <c r="C2" t="s">
-        <v>230</v>
-      </c>
-      <c r="F2" t="s">
-        <v>235</v>
-      </c>
-      <c r="G2" t="s">
-        <v>236</v>
-      </c>
-      <c r="H2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
-        <v>231</v>
-      </c>
-      <c r="B3" t="s">
-        <v>232</v>
-      </c>
-      <c r="C3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
-        <v>265</v>
-      </c>
-      <c r="B4" t="s">
-        <v>266</v>
-      </c>
-      <c r="C4" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
-        <v>268</v>
-      </c>
-      <c r="B5" t="s">
-        <v>269</v>
-      </c>
-      <c r="C5" t="s">
-        <v>270</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54A282B8-5F70-4443-94ED-DE00DED0E1C7}">
   <dimension ref="A1:C5"/>
   <sheetViews>
@@ -8196,56 +7961,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A1" s="119" t="s">
-        <v>238</v>
-      </c>
-      <c r="B1" s="119"/>
+      <c r="A1" s="122" t="s">
+        <v>224</v>
+      </c>
+      <c r="B1" s="122"/>
       <c r="C1" s="64" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="42.45" x14ac:dyDescent="0.4">
       <c r="A2" s="65" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
       <c r="B2" s="66" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="C2" s="67" t="s">
-        <v>251</v>
+        <v>237</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="28.3" x14ac:dyDescent="0.4">
       <c r="A3" s="65" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="B3" s="66" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
       <c r="C3" s="67" t="s">
-        <v>244</v>
+        <v>230</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="28.3" x14ac:dyDescent="0.4">
       <c r="A4" s="65" t="s">
-        <v>245</v>
+        <v>231</v>
       </c>
       <c r="B4" s="66" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="C4" s="67" t="s">
-        <v>247</v>
+        <v>233</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="42.45" x14ac:dyDescent="0.4">
       <c r="A5" s="65" t="s">
-        <v>248</v>
+        <v>234</v>
       </c>
       <c r="B5" s="66" t="s">
-        <v>249</v>
+        <v>235</v>
       </c>
       <c r="C5" s="67" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
     </row>
   </sheetData>
@@ -8256,7 +8021,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFEDE31C-5D73-499B-9C3D-AD3FA55FC42C}">
   <dimension ref="A1:C5"/>
   <sheetViews>
@@ -8273,53 +8038,53 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" s="30" t="s">
-        <v>252</v>
+        <v>238</v>
       </c>
       <c r="B1" s="68" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
       <c r="C1" s="28" t="s">
-        <v>254</v>
+        <v>240</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" s="61" t="s">
-        <v>256</v>
-      </c>
-      <c r="B2" s="120" t="s">
-        <v>259</v>
+        <v>242</v>
+      </c>
+      <c r="B2" s="123" t="s">
+        <v>245</v>
       </c>
       <c r="C2" s="60" t="s">
-        <v>264</v>
+        <v>250</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" s="61" t="s">
-        <v>255</v>
-      </c>
-      <c r="B3" s="120"/>
+        <v>241</v>
+      </c>
+      <c r="B3" s="123"/>
       <c r="C3" s="60" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" s="61" t="s">
-        <v>257</v>
-      </c>
-      <c r="B4" s="120" t="s">
-        <v>260</v>
+        <v>243</v>
+      </c>
+      <c r="B4" s="123" t="s">
+        <v>246</v>
       </c>
       <c r="C4" s="60" t="s">
-        <v>262</v>
+        <v>248</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="28.3" x14ac:dyDescent="0.4">
       <c r="A5" s="61" t="s">
-        <v>258</v>
-      </c>
-      <c r="B5" s="120"/>
+        <v>244</v>
+      </c>
+      <c r="B5" s="123"/>
       <c r="C5" s="60" t="s">
-        <v>263</v>
+        <v>249</v>
       </c>
     </row>
   </sheetData>
@@ -8331,7 +8096,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I8"/>
   <sheetViews>
@@ -8350,19 +8115,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A1" s="121" t="s">
+      <c r="A1" s="124" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="122"/>
+      <c r="B1" s="125"/>
       <c r="C1" s="12" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="84.9" x14ac:dyDescent="0.4">
-      <c r="A2" s="123" t="s">
+      <c r="A2" s="126" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="124"/>
+      <c r="B2" s="127"/>
       <c r="C2" s="13" t="s">
         <v>13</v>
       </c>
@@ -8370,8 +8135,8 @@
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A3" s="123"/>
-      <c r="B3" s="124"/>
+      <c r="A3" s="126"/>
+      <c r="B3" s="127"/>
       <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
@@ -8379,8 +8144,8 @@
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" ht="118.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="125"/>
-      <c r="B4" s="126"/>
+      <c r="A4" s="128"/>
+      <c r="B4" s="129"/>
       <c r="C4" s="3" t="s">
         <v>11</v>
       </c>
@@ -8408,19 +8173,19 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A7" s="127" t="s">
+      <c r="A7" s="130" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="128"/>
+      <c r="B7" s="131"/>
       <c r="C7" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="42.45" x14ac:dyDescent="0.4">
-      <c r="A8" s="129" t="s">
+      <c r="A8" s="132" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="130"/>
+      <c r="B8" s="133"/>
       <c r="C8" s="5" t="s">
         <v>4</v>
       </c>
@@ -8437,7 +8202,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F60BA77A-0FF7-4A09-AAA8-E53725F430B2}">
   <dimension ref="A1:C11"/>
   <sheetViews>
@@ -8457,7 +8222,7 @@
         <v>16</v>
       </c>
       <c r="B1" s="109" t="s">
-        <v>310</v>
+        <v>290</v>
       </c>
       <c r="C1" s="110" t="s">
         <v>17</v>
@@ -8467,8 +8232,8 @@
       <c r="A2" s="111" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="133" t="s">
-        <v>311</v>
+      <c r="B2" s="136" t="s">
+        <v>291</v>
       </c>
       <c r="C2" s="111" t="s">
         <v>25</v>
@@ -8478,25 +8243,25 @@
       <c r="A3" s="111" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="134"/>
+      <c r="B3" s="137"/>
       <c r="C3" s="111" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A4" s="131" t="s">
+      <c r="A4" s="134" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="133" t="s">
-        <v>312</v>
+      <c r="B4" s="136" t="s">
+        <v>292</v>
       </c>
       <c r="C4" s="111" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A5" s="135"/>
-      <c r="B5" s="136"/>
+      <c r="A5" s="138"/>
+      <c r="B5" s="139"/>
       <c r="C5" s="111" t="s">
         <v>32</v>
       </c>
@@ -8505,7 +8270,7 @@
       <c r="A6" s="111" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="136"/>
+      <c r="B6" s="139"/>
       <c r="C6" s="111" t="s">
         <v>26</v>
       </c>
@@ -8514,43 +8279,43 @@
       <c r="A7" s="111" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="133" t="s">
-        <v>313</v>
+      <c r="B7" s="136" t="s">
+        <v>293</v>
       </c>
       <c r="C7" s="111" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="133" t="s">
+      <c r="A8" s="136" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="134"/>
+      <c r="B8" s="137"/>
       <c r="C8" s="111" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="134"/>
-      <c r="B9" s="133" t="s">
-        <v>314</v>
+      <c r="A9" s="137"/>
+      <c r="B9" s="136" t="s">
+        <v>294</v>
       </c>
       <c r="C9" s="111" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A10" s="131" t="s">
+      <c r="A10" s="134" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="136"/>
+      <c r="B10" s="139"/>
       <c r="C10" s="111" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A11" s="132"/>
-      <c r="B11" s="134"/>
+      <c r="A11" s="135"/>
+      <c r="B11" s="137"/>
       <c r="C11" s="111" t="s">
         <v>29</v>
       </c>
@@ -8569,7 +8334,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5009B86D-BF46-461E-BF16-B020EE8D75CF}">
   <dimension ref="A1:S15"/>
   <sheetViews>
@@ -8645,12 +8410,12 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A4" s="137"/>
-      <c r="B4" s="137"/>
-      <c r="C4" s="137"/>
-      <c r="D4" s="137"/>
-      <c r="E4" s="137"/>
-      <c r="F4" s="137"/>
+      <c r="A4" s="140"/>
+      <c r="B4" s="140"/>
+      <c r="C4" s="140"/>
+      <c r="D4" s="140"/>
+      <c r="E4" s="140"/>
+      <c r="F4" s="140"/>
       <c r="G4" s="21"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
@@ -8714,12 +8479,12 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A8" s="137"/>
-      <c r="B8" s="137"/>
-      <c r="C8" s="137"/>
-      <c r="D8" s="137"/>
-      <c r="E8" s="137"/>
-      <c r="F8" s="137"/>
+      <c r="A8" s="140"/>
+      <c r="B8" s="140"/>
+      <c r="C8" s="140"/>
+      <c r="D8" s="140"/>
+      <c r="E8" s="140"/>
+      <c r="F8" s="140"/>
       <c r="G8" s="21"/>
     </row>
     <row r="9" spans="1:7" ht="23.15" x14ac:dyDescent="0.4">
@@ -8783,12 +8548,12 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A12" s="138"/>
-      <c r="B12" s="138"/>
-      <c r="C12" s="138"/>
-      <c r="D12" s="138"/>
-      <c r="E12" s="138"/>
-      <c r="F12" s="138"/>
+      <c r="A12" s="141"/>
+      <c r="B12" s="141"/>
+      <c r="C12" s="141"/>
+      <c r="D12" s="141"/>
+      <c r="E12" s="141"/>
+      <c r="F12" s="141"/>
     </row>
     <row r="13" spans="1:7" ht="23.15" x14ac:dyDescent="0.4">
       <c r="A13" s="18" t="s">
@@ -8859,4 +8624,86 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F247DBC2-86D7-40D9-BBB1-B4B3735D2E61}">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="3.69140625" style="22" customWidth="1"/>
+    <col min="2" max="2" width="50.69140625" style="23" customWidth="1"/>
+    <col min="3" max="3" width="30.69140625" style="23" customWidth="1"/>
+    <col min="4" max="4" width="3.69140625" style="23" customWidth="1"/>
+    <col min="5" max="16384" width="9.23046875" style="22"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="56.6" x14ac:dyDescent="0.35">
+      <c r="A1" s="144" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="C1" s="143" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1" s="146" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="70.75" x14ac:dyDescent="0.35">
+      <c r="A2" s="145"/>
+      <c r="B2" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" s="143"/>
+      <c r="D2" s="147"/>
+    </row>
+    <row r="3" spans="1:4" ht="42.45" x14ac:dyDescent="0.35">
+      <c r="A3" s="145"/>
+      <c r="B3" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="D3" s="148" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="70.75" x14ac:dyDescent="0.35">
+      <c r="A4" s="145"/>
+      <c r="B4" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="C4" s="142" t="s">
+        <v>92</v>
+      </c>
+      <c r="D4" s="149"/>
+    </row>
+    <row r="5" spans="1:4" ht="70.75" x14ac:dyDescent="0.35">
+      <c r="A5" s="145"/>
+      <c r="B5" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="C5" s="142"/>
+      <c r="D5" s="149"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="A1:A5"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="D3:D5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/FinalReport/key_tables.xlsx
+++ b/FinalReport/key_tables.xlsx
@@ -8,24 +8,29 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\g_gna\Documents\TCD\Modules\CS7CS5_Dissertation\FinalReport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{462EA136-83FF-4C8B-A0B1-0929DA013896}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71D916E6-D2B1-4A12-A893-A4DB4FBF4FED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="9463" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="9463" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="project_timeline" sheetId="14" r:id="rId1"/>
-    <sheet name="gantt_chart" sheetId="13" r:id="rId2"/>
-    <sheet name="tool_critique" sheetId="8" r:id="rId3"/>
-    <sheet name="avoiding_bad_design" sheetId="10" r:id="rId4"/>
-    <sheet name="MVC" sheetId="11" r:id="rId5"/>
-    <sheet name="env_vars" sheetId="1" r:id="rId6"/>
-    <sheet name="ui_components" sheetId="2" r:id="rId7"/>
-    <sheet name="data" sheetId="3" r:id="rId8"/>
-    <sheet name="sim mw games key ideas" sheetId="4" r:id="rId9"/>
-    <sheet name="pedagogy best practices" sheetId="5" r:id="rId10"/>
-    <sheet name="challenges" sheetId="6" r:id="rId11"/>
-    <sheet name="challenges_bridge2college" sheetId="15" r:id="rId12"/>
-    <sheet name="tool_pros_cons" sheetId="7" r:id="rId13"/>
+    <sheet name="carbon_dist" sheetId="23" r:id="rId1"/>
+    <sheet name="tree_adjacency" sheetId="21" r:id="rId2"/>
+    <sheet name="age_composition" sheetId="20" r:id="rId3"/>
+    <sheet name="tolerance" sheetId="18" r:id="rId4"/>
+    <sheet name="env_scale" sheetId="17" r:id="rId5"/>
+    <sheet name="project_timeline" sheetId="14" r:id="rId6"/>
+    <sheet name="gantt_chart" sheetId="13" r:id="rId7"/>
+    <sheet name="tool_critique" sheetId="8" r:id="rId8"/>
+    <sheet name="avoiding_bad_design" sheetId="10" r:id="rId9"/>
+    <sheet name="MVC" sheetId="11" r:id="rId10"/>
+    <sheet name="env_vars" sheetId="1" r:id="rId11"/>
+    <sheet name="ui_components" sheetId="2" r:id="rId12"/>
+    <sheet name="data" sheetId="3" r:id="rId13"/>
+    <sheet name="sim mw games key ideas" sheetId="4" r:id="rId14"/>
+    <sheet name="pedagogy best practices" sheetId="5" r:id="rId15"/>
+    <sheet name="challenges" sheetId="6" r:id="rId16"/>
+    <sheet name="challenges_bridge2college" sheetId="15" r:id="rId17"/>
+    <sheet name="tool_pros_cons" sheetId="7" r:id="rId18"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -48,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="399">
   <si>
     <t>Carbon Dynamics</t>
   </si>
@@ -1177,12 +1182,321 @@
   <si>
     <t>Challenge</t>
   </si>
+  <si>
+    <t>CO2 Atmospheric Concentration (PPM) →</t>
+  </si>
+  <si>
+    <t>&lt;</t>
+  </si>
+  <si>
+    <t>to</t>
+  </si>
+  <si>
+    <t>&gt;=</t>
+  </si>
+  <si>
+    <t>Base Values From 2023</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>Change in CO2 Concentration PPM →</t>
+  </si>
+  <si>
+    <t>CO2 (PPM) →</t>
+  </si>
+  <si>
+    <t>https://climate.copernicus.eu/global-climate-highlights-2023</t>
+  </si>
+  <si>
+    <t>Approx. Avg. Global Temp. Change (°C) →</t>
+  </si>
+  <si>
+    <t>Avg. Global Temp. (°C) →</t>
+  </si>
+  <si>
+    <t>https://www.climate.gov/news-features/understanding-climate/climate-change-atmospheric-carbon-dioxide</t>
+  </si>
+  <si>
+    <t>Approx. Avg. Global Temp. (°C) →</t>
+  </si>
+  <si>
+    <t>Avg. Temp. Ireland (°C) →</t>
+  </si>
+  <si>
+    <t>https://www.met.ie/annual-climate-statement-for-2023</t>
+  </si>
+  <si>
+    <t>Approx. Avg. Temperature Ireland (°C) →</t>
+  </si>
+  <si>
+    <t>Max. Temp. Ireland (°C) →</t>
+  </si>
+  <si>
+    <t>https://www.gov.ie/en/press-release/ea1f7-met-eireann-data-shows-2023-is-the-warmest-year-on-record-and-a-year-of-firsts-for-ireland/</t>
+  </si>
+  <si>
+    <t>Approx. Max Temperature Ireland (°C) →</t>
+  </si>
+  <si>
+    <t>Photosynthesis Efficiency →</t>
+  </si>
+  <si>
+    <t>CO2 (PPM) (16 May 2024) →</t>
+  </si>
+  <si>
+    <t>https://www.co2.earth/daily-co2</t>
+  </si>
+  <si>
+    <t>Human Life →</t>
+  </si>
+  <si>
+    <t>Color Scale (Increasing Optimality) →</t>
+  </si>
+  <si>
+    <t>Impossible</t>
+  </si>
+  <si>
+    <t>Very Bad</t>
+  </si>
+  <si>
+    <t>Bad</t>
+  </si>
+  <si>
+    <t>Ok</t>
+  </si>
+  <si>
+    <t>Good</t>
+  </si>
+  <si>
+    <t>Best</t>
+  </si>
+  <si>
+    <t>Availability</t>
+  </si>
+  <si>
+    <t>Stress</t>
+  </si>
+  <si>
+    <t>Premature</t>
+  </si>
+  <si>
+    <t>Mature</t>
+  </si>
+  <si>
+    <t>&lt; 200</t>
+  </si>
+  <si>
+    <t>&lt; 430</t>
+  </si>
+  <si>
+    <t>&lt; 700</t>
+  </si>
+  <si>
+    <t>&lt; 1200</t>
+  </si>
+  <si>
+    <t>&lt; 1800</t>
+  </si>
+  <si>
+    <t>&gt;= 1800</t>
+  </si>
+  <si>
+    <t>TREE AGE MAPPING</t>
+  </si>
+  <si>
+    <t>Life Stage</t>
+  </si>
+  <si>
+    <t>Real Forest</t>
+  </si>
+  <si>
+    <t>Deciduous</t>
+  </si>
+  <si>
+    <t>Coniferous</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Seedling</t>
+  </si>
+  <si>
+    <t>Sapling</t>
+  </si>
+  <si>
+    <t>Old Growth</t>
+  </si>
+  <si>
+    <t>Senescent</t>
+  </si>
+  <si>
+    <t>TREE AGE COMPOSITION</t>
+  </si>
+  <si>
+    <t>Mean %</t>
+  </si>
+  <si>
+    <t>Approx. Round</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>Dead</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total </t>
+  </si>
+  <si>
+    <t>x-2 y+2</t>
+  </si>
+  <si>
+    <t>x-1 y+2</t>
+  </si>
+  <si>
+    <t>x y+2</t>
+  </si>
+  <si>
+    <t>x+1 y+2</t>
+  </si>
+  <si>
+    <t>x+2 y+2</t>
+  </si>
+  <si>
+    <t>x-2 y+1</t>
+  </si>
+  <si>
+    <t>x-1 y+1</t>
+  </si>
+  <si>
+    <t>x y+1</t>
+  </si>
+  <si>
+    <t>x+1 y+1</t>
+  </si>
+  <si>
+    <t>x+2 y+1</t>
+  </si>
+  <si>
+    <t>x-2 y</t>
+  </si>
+  <si>
+    <t>x-1 y</t>
+  </si>
+  <si>
+    <t>x y</t>
+  </si>
+  <si>
+    <t>x+1 y</t>
+  </si>
+  <si>
+    <t>x+2 y</t>
+  </si>
+  <si>
+    <t>x-2 y-1</t>
+  </si>
+  <si>
+    <t>x-1 y-1</t>
+  </si>
+  <si>
+    <t>x y-1</t>
+  </si>
+  <si>
+    <t>x+1 y-1</t>
+  </si>
+  <si>
+    <t>x+2 y-1</t>
+  </si>
+  <si>
+    <t>x-2 y-2</t>
+  </si>
+  <si>
+    <t>x-1 y-2</t>
+  </si>
+  <si>
+    <t>x y-2</t>
+  </si>
+  <si>
+    <t>x+1 y -2</t>
+  </si>
+  <si>
+    <t>x+2 y-2</t>
+  </si>
+  <si>
+    <t>COLOR</t>
+  </si>
+  <si>
+    <t>POSITION MEANING</t>
+  </si>
+  <si>
+    <t>Parent tree.</t>
+  </si>
+  <si>
+    <t>Possible adjacent position where a seedling may spawn only if the parent is a deciduous tree.</t>
+  </si>
+  <si>
+    <t>Possible adjacent position where a seedling may spawn if the parent is either a deciduous or coniferous tree.</t>
+  </si>
+  <si>
+    <t>Reservoir :</t>
+  </si>
+  <si>
+    <t>Fossil Fuels</t>
+  </si>
+  <si>
+    <t>Soil</t>
+  </si>
+  <si>
+    <t>Vegetation</t>
+  </si>
+  <si>
+    <t>Lumber</t>
+  </si>
+  <si>
+    <t>Earth GtC :</t>
+  </si>
+  <si>
+    <t>Scaled GtC :</t>
+  </si>
+  <si>
+    <t>Added perYear:</t>
+  </si>
+  <si>
+    <t>35% of decaying matter.</t>
+  </si>
+  <si>
+    <t>65% of decaying matter + 3% of C in the soil.</t>
+  </si>
+  <si>
+    <t>Based on plant growth.</t>
+  </si>
+  <si>
+    <t>50% of chopped tree mass.</t>
+  </si>
+  <si>
+    <t>Removed per Year:</t>
+  </si>
+  <si>
+    <t>15% of decaying matter + 100% of burned matter.</t>
+  </si>
+  <si>
+    <t>Starting gC:</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="41" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1339,8 +1653,145 @@
       <name val="Cambria"/>
       <family val="1"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="8"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="29">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1506,6 +1957,66 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBDD7EE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFAFAF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF66FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFECCBBA"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1688,10 +2199,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="157">
+  <cellXfs count="286">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2153,8 +2665,386 @@
     <xf numFmtId="0" fontId="1" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="22" fillId="11" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="22" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="22" fillId="11" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="22" fillId="11" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="22" fillId="11" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="22" fillId="11" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="22" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="fill" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="22" fillId="11" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="31" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="32" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="22" fillId="14" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="16" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="16" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="16" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="15" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="15" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="14" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="30" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="30" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="30" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="32" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="32" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="32" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="29" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="29" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="32" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="32" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="32" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="30" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="30" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="30" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="14" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="31" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="31" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="31" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="16" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="16" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="33" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="34" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="35" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="33" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="13" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="19" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="36" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="37" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="37" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="11" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="19" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="36" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="38" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="38" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="12" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="13" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="12" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -6192,474 +7082,848 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B1B8FEE-14B5-4500-8AA4-F83FA5CDC1F9}">
-  <dimension ref="A1:D33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EA826C7-E1AE-4709-8899-98455918858A}">
+  <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="130" zoomScaleNormal="70" zoomScalePageLayoutView="157" workbookViewId="0">
-      <selection sqref="A1:D27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="5" width="12.69140625" style="285" customWidth="1"/>
+    <col min="6" max="6" width="12.69140625" style="212" customWidth="1"/>
+    <col min="7" max="16384" width="9.23046875" style="212"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="269" t="s">
+        <v>384</v>
+      </c>
+      <c r="B1" s="270" t="s">
+        <v>385</v>
+      </c>
+      <c r="C1" s="271" t="s">
+        <v>386</v>
+      </c>
+      <c r="D1" s="272" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="273" t="s">
+        <v>387</v>
+      </c>
+      <c r="F1" s="274" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="269" t="s">
+        <v>389</v>
+      </c>
+      <c r="B2" s="275">
+        <v>10000</v>
+      </c>
+      <c r="C2" s="65">
+        <v>2300</v>
+      </c>
+      <c r="D2" s="113">
+        <v>800</v>
+      </c>
+      <c r="E2" s="114">
+        <v>550</v>
+      </c>
+      <c r="F2" s="276">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="269" t="s">
+        <v>390</v>
+      </c>
+      <c r="B3" s="275">
+        <f>D3*(10000/800)</f>
+        <v>6250</v>
+      </c>
+      <c r="C3" s="65">
+        <f>D3*(2300/800)</f>
+        <v>1437.5</v>
+      </c>
+      <c r="D3" s="113">
+        <v>500</v>
+      </c>
+      <c r="E3" s="114">
+        <f>D3*(550/800)</f>
+        <v>343.75</v>
+      </c>
+      <c r="F3" s="276">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="70.75" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="269" t="s">
+        <v>391</v>
+      </c>
+      <c r="B4" s="277">
+        <v>0</v>
+      </c>
+      <c r="C4" s="65" t="s">
+        <v>392</v>
+      </c>
+      <c r="D4" s="113" t="s">
+        <v>393</v>
+      </c>
+      <c r="E4" s="114" t="s">
+        <v>394</v>
+      </c>
+      <c r="F4" s="276" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="84.9" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="269" t="s">
+        <v>396</v>
+      </c>
+      <c r="B5" s="275" t="s">
+        <v>394</v>
+      </c>
+      <c r="C5" s="278">
+        <v>0.03</v>
+      </c>
+      <c r="D5" s="113" t="s">
+        <v>394</v>
+      </c>
+      <c r="E5" s="114" t="s">
+        <v>397</v>
+      </c>
+      <c r="F5" s="276">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="279"/>
+      <c r="B6" s="280"/>
+      <c r="C6" s="280"/>
+      <c r="D6" s="280"/>
+      <c r="E6" s="280"/>
+      <c r="F6" s="280"/>
+    </row>
+    <row r="7" spans="1:6" s="284" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="269" t="s">
+        <v>398</v>
+      </c>
+      <c r="B7" s="281">
+        <f>B3*1000000000000000</f>
+        <v>6.25E+18</v>
+      </c>
+      <c r="C7" s="282">
+        <f xml:space="preserve"> (C3*0*1000000000000000)+(D3*0*1000000000000000)+(E3*0*1000000000000000)</f>
+        <v>0</v>
+      </c>
+      <c r="D7" s="283">
+        <f xml:space="preserve"> (C3*1*1000000000000000)+(D3*1*1000000000000000)+(E3*1*1000000000000000)-C7-E7</f>
+        <v>2.28125E+18</v>
+      </c>
+      <c r="E7" s="114">
+        <v>0</v>
+      </c>
+      <c r="F7" s="276">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFEDE31C-5D73-499B-9C3D-AD3FA55FC42C}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="34.23046875" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.15234375" style="71" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.15234375" style="71" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.61328125" style="71" customWidth="1"/>
-    <col min="5" max="5" width="2.69140625" customWidth="1"/>
+    <col min="1" max="1" width="30.69140625" style="16" customWidth="1"/>
+    <col min="2" max="2" width="16.84375" style="16" customWidth="1"/>
+    <col min="3" max="3" width="30.69140625" style="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
-      <c r="A1" s="115" t="s">
-        <v>277</v>
-      </c>
-      <c r="B1" s="116"/>
-      <c r="C1" s="116"/>
-      <c r="D1" s="117"/>
-    </row>
-    <row r="2" spans="1:4" s="71" customFormat="1" ht="15.9" x14ac:dyDescent="0.4">
-      <c r="A2" s="79" t="s">
-        <v>252</v>
-      </c>
-      <c r="B2" s="80" t="s">
-        <v>253</v>
-      </c>
-      <c r="C2" s="80" t="s">
-        <v>254</v>
-      </c>
-      <c r="D2" s="81" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" s="71" customFormat="1" ht="15.9" x14ac:dyDescent="0.4">
-      <c r="A3" s="82" t="s">
-        <v>256</v>
-      </c>
-      <c r="B3" s="83">
-        <v>45178</v>
-      </c>
-      <c r="C3" s="84">
-        <v>3</v>
-      </c>
-      <c r="D3" s="83">
-        <f>B3+C3</f>
-        <v>45181</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" s="71" customFormat="1" ht="15.9" x14ac:dyDescent="0.4">
-      <c r="A4" s="85" t="s">
-        <v>257</v>
-      </c>
-      <c r="B4" s="86">
-        <v>45181</v>
-      </c>
-      <c r="C4" s="87">
-        <v>6</v>
-      </c>
-      <c r="D4" s="86">
-        <f>B4+C4</f>
-        <v>45187</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" s="71" customFormat="1" ht="15.9" x14ac:dyDescent="0.4">
-      <c r="A5" s="85" t="s">
-        <v>282</v>
-      </c>
-      <c r="B5" s="86">
-        <v>45216</v>
-      </c>
-      <c r="C5" s="87">
-        <f>(D5-B5)+1</f>
-        <v>255</v>
-      </c>
-      <c r="D5" s="86">
-        <v>45470</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" s="71" customFormat="1" ht="15.9" x14ac:dyDescent="0.4">
-      <c r="A6" s="85" t="s">
-        <v>258</v>
-      </c>
-      <c r="B6" s="86">
-        <v>45250</v>
-      </c>
-      <c r="C6" s="87">
-        <v>20</v>
-      </c>
-      <c r="D6" s="86">
-        <f>B6+C6</f>
-        <v>45270</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="15.9" x14ac:dyDescent="0.45">
-      <c r="A7" s="88" t="s">
-        <v>259</v>
-      </c>
-      <c r="B7" s="89">
-        <v>45301</v>
-      </c>
-      <c r="C7" s="90">
-        <v>40</v>
-      </c>
-      <c r="D7" s="89">
-        <f>B7+C7</f>
-        <v>45341</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="15.9" x14ac:dyDescent="0.45">
-      <c r="A8" s="91" t="s">
-        <v>273</v>
-      </c>
-      <c r="B8" s="86">
-        <v>45310</v>
-      </c>
-      <c r="C8" s="87">
-        <f>(D8-B8)+1</f>
-        <v>18</v>
-      </c>
-      <c r="D8" s="86">
-        <v>45327</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="15.9" x14ac:dyDescent="0.45">
-      <c r="A9" s="91" t="s">
-        <v>272</v>
-      </c>
-      <c r="B9" s="86">
-        <v>45327</v>
-      </c>
-      <c r="C9" s="87">
-        <f t="shared" ref="C9:C10" si="0">(D9-B9)+1</f>
-        <v>11</v>
-      </c>
-      <c r="D9" s="86">
-        <v>45337</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="15.9" x14ac:dyDescent="0.45">
-      <c r="A10" s="91" t="s">
-        <v>274</v>
-      </c>
-      <c r="B10" s="86">
-        <v>45338</v>
-      </c>
-      <c r="C10" s="87">
-        <f t="shared" si="0"/>
-        <v>90</v>
-      </c>
-      <c r="D10" s="86">
-        <v>45427</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="15.9" x14ac:dyDescent="0.45">
-      <c r="A11" s="88" t="s">
-        <v>260</v>
-      </c>
-      <c r="B11" s="89">
-        <v>45344</v>
-      </c>
-      <c r="C11" s="90">
-        <v>10</v>
-      </c>
-      <c r="D11" s="89">
-        <f t="shared" ref="D11:D27" si="1">B11+C11</f>
-        <v>45354</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="15.9" x14ac:dyDescent="0.45">
-      <c r="A12" s="88" t="s">
-        <v>261</v>
-      </c>
-      <c r="B12" s="89">
-        <v>45355</v>
-      </c>
-      <c r="C12" s="90">
-        <v>10</v>
-      </c>
-      <c r="D12" s="89">
-        <f t="shared" si="1"/>
-        <v>45365</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="15.9" x14ac:dyDescent="0.45">
-      <c r="A13" s="88" t="s">
-        <v>262</v>
-      </c>
-      <c r="B13" s="89">
-        <v>45367</v>
-      </c>
-      <c r="C13" s="90">
-        <v>5</v>
-      </c>
-      <c r="D13" s="89">
-        <f t="shared" si="1"/>
-        <v>45372</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="15.9" x14ac:dyDescent="0.45">
-      <c r="A14" s="92" t="s">
-        <v>263</v>
-      </c>
-      <c r="B14" s="93">
-        <v>45375</v>
-      </c>
-      <c r="C14" s="94">
-        <v>10</v>
-      </c>
-      <c r="D14" s="93">
-        <f t="shared" si="1"/>
-        <v>45385</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="15.9" x14ac:dyDescent="0.45">
-      <c r="A15" s="92" t="s">
-        <v>264</v>
-      </c>
-      <c r="B15" s="93">
-        <v>45413</v>
-      </c>
-      <c r="C15" s="94">
-        <v>5</v>
-      </c>
-      <c r="D15" s="93">
-        <f t="shared" si="1"/>
-        <v>45418</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="15.9" x14ac:dyDescent="0.45">
-      <c r="A16" s="88" t="s">
-        <v>265</v>
-      </c>
-      <c r="B16" s="89">
-        <v>45420</v>
-      </c>
-      <c r="C16" s="90">
-        <v>10</v>
-      </c>
-      <c r="D16" s="89">
-        <f t="shared" si="1"/>
-        <v>45430</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="15.9" x14ac:dyDescent="0.45">
-      <c r="A17" s="91" t="s">
-        <v>287</v>
-      </c>
-      <c r="B17" s="86">
-        <v>45428</v>
-      </c>
-      <c r="C17" s="87">
-        <f>(D17-B17)+1</f>
-        <v>34</v>
-      </c>
-      <c r="D17" s="86">
-        <v>45461</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="15.9" x14ac:dyDescent="0.45">
-      <c r="A18" s="88" t="s">
-        <v>266</v>
-      </c>
-      <c r="B18" s="89">
-        <v>45432</v>
-      </c>
-      <c r="C18" s="90">
-        <v>20</v>
-      </c>
-      <c r="D18" s="89">
-        <f t="shared" si="1"/>
-        <v>45452</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="15.9" x14ac:dyDescent="0.45">
-      <c r="A19" s="88" t="s">
-        <v>267</v>
-      </c>
-      <c r="B19" s="89">
-        <v>45455</v>
-      </c>
-      <c r="C19" s="90">
-        <v>10</v>
-      </c>
-      <c r="D19" s="89">
-        <f t="shared" si="1"/>
-        <v>45465</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="15.9" x14ac:dyDescent="0.45">
-      <c r="A20" s="95" t="s">
-        <v>275</v>
-      </c>
-      <c r="B20" s="96">
-        <v>45462</v>
-      </c>
-      <c r="C20" s="97">
-        <f>(D20-B20)+1</f>
-        <v>1</v>
-      </c>
-      <c r="D20" s="96">
-        <v>45462</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="15.9" x14ac:dyDescent="0.45">
-      <c r="A21" s="91" t="s">
-        <v>276</v>
-      </c>
-      <c r="B21" s="86">
-        <v>45463</v>
-      </c>
-      <c r="C21" s="87">
-        <f>(D21-B21)+1</f>
-        <v>8</v>
-      </c>
-      <c r="D21" s="86">
-        <v>45470</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="15.9" x14ac:dyDescent="0.45">
-      <c r="A22" s="88" t="s">
-        <v>268</v>
-      </c>
-      <c r="B22" s="89">
-        <v>45467</v>
-      </c>
-      <c r="C22" s="90">
-        <v>30</v>
-      </c>
-      <c r="D22" s="89">
-        <f t="shared" si="1"/>
-        <v>45497</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="15.9" x14ac:dyDescent="0.45">
-      <c r="A23" s="91" t="s">
-        <v>278</v>
-      </c>
-      <c r="B23" s="86">
-        <v>45471</v>
-      </c>
-      <c r="C23" s="87">
-        <f>(D23-B23)+1</f>
-        <v>35</v>
-      </c>
-      <c r="D23" s="86">
-        <v>45505</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="15.9" x14ac:dyDescent="0.45">
-      <c r="A24" s="91" t="s">
-        <v>279</v>
-      </c>
-      <c r="B24" s="86">
-        <v>45507</v>
-      </c>
-      <c r="C24" s="87">
-        <f>(D24-B24)+1</f>
-        <v>10</v>
-      </c>
-      <c r="D24" s="86">
-        <v>45516</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="15.9" x14ac:dyDescent="0.45">
-      <c r="A25" s="88" t="s">
-        <v>269</v>
-      </c>
-      <c r="B25" s="89">
-        <v>45498</v>
-      </c>
-      <c r="C25" s="90">
-        <v>5</v>
-      </c>
-      <c r="D25" s="89">
-        <f t="shared" si="1"/>
-        <v>45503</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
-      <c r="A26" s="98" t="s">
-        <v>270</v>
-      </c>
-      <c r="B26" s="89">
-        <v>45505</v>
-      </c>
-      <c r="C26" s="90">
-        <v>18</v>
-      </c>
-      <c r="D26" s="89">
-        <f t="shared" si="1"/>
-        <v>45523</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
-      <c r="A27" s="98" t="s">
-        <v>271</v>
-      </c>
-      <c r="B27" s="89">
-        <v>45344</v>
-      </c>
-      <c r="C27" s="90">
-        <v>179</v>
-      </c>
-      <c r="D27" s="89">
-        <f t="shared" si="1"/>
-        <v>45523</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
-      <c r="B29" s="118" t="s">
-        <v>280</v>
-      </c>
-      <c r="C29" s="119"/>
-      <c r="D29" s="120"/>
-    </row>
-    <row r="30" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
-      <c r="B30" s="99"/>
-      <c r="C30" s="100" t="s">
-        <v>281</v>
-      </c>
-      <c r="D30" s="101" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
-      <c r="B31" s="102"/>
-      <c r="C31" s="100" t="s">
-        <v>281</v>
-      </c>
-      <c r="D31" s="101" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="15.9" x14ac:dyDescent="0.45">
-      <c r="B32" s="103"/>
-      <c r="C32" s="104" t="s">
-        <v>281</v>
-      </c>
-      <c r="D32" s="101" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4" ht="15.9" x14ac:dyDescent="0.45">
-      <c r="B33" s="105"/>
-      <c r="C33" s="106" t="s">
-        <v>281</v>
-      </c>
-      <c r="D33" s="107" t="s">
-        <v>284</v>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1" s="30" t="s">
+        <v>238</v>
+      </c>
+      <c r="B1" s="68" t="s">
+        <v>239</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2" s="61" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2" s="123" t="s">
+        <v>245</v>
+      </c>
+      <c r="C2" s="60" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3" s="61" t="s">
+        <v>241</v>
+      </c>
+      <c r="B3" s="123"/>
+      <c r="C3" s="60" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4" s="61" t="s">
+        <v>243</v>
+      </c>
+      <c r="B4" s="123" t="s">
+        <v>246</v>
+      </c>
+      <c r="C4" s="60" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="28.3" x14ac:dyDescent="0.4">
+      <c r="A5" s="61" t="s">
+        <v>244</v>
+      </c>
+      <c r="B5" s="123"/>
+      <c r="C5" s="60" t="s">
+        <v>249</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B2:B3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="61" orientation="landscape" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="21.53515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41.61328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="15.69140625" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A1" s="124" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="125"/>
+      <c r="C1" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="84.9" x14ac:dyDescent="0.4">
+      <c r="A2" s="126" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="127"/>
+      <c r="C2" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A3" s="126"/>
+      <c r="B3" s="127"/>
+      <c r="C3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="1:9" ht="118.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="128"/>
+      <c r="B4" s="129"/>
+      <c r="C4" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="42.45" x14ac:dyDescent="0.4">
+      <c r="A6" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A7" s="130" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="131"/>
+      <c r="C7" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="42.45" x14ac:dyDescent="0.4">
+      <c r="A8" s="132" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="133"/>
+      <c r="C8" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B4"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F60BA77A-0FF7-4A09-AAA8-E53725F430B2}">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="20" style="14" customWidth="1"/>
+    <col min="2" max="2" width="23.53515625" style="14" customWidth="1"/>
+    <col min="3" max="3" width="39.3046875" style="14" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="108" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="109" t="s">
+        <v>290</v>
+      </c>
+      <c r="C1" s="110" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2" s="111" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="136" t="s">
+        <v>291</v>
+      </c>
+      <c r="C2" s="111" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3" s="111" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="137"/>
+      <c r="C3" s="111" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4" s="134" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="136" t="s">
+        <v>292</v>
+      </c>
+      <c r="C4" s="111" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A5" s="138"/>
+      <c r="B5" s="139"/>
+      <c r="C5" s="111" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A6" s="111" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="139"/>
+      <c r="C6" s="111" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="23.15" x14ac:dyDescent="0.4">
+      <c r="A7" s="111" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="136" t="s">
+        <v>293</v>
+      </c>
+      <c r="C7" s="111" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="136" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="137"/>
+      <c r="C8" s="111" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="137"/>
+      <c r="B9" s="136" t="s">
+        <v>294</v>
+      </c>
+      <c r="C9" s="111" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A10" s="134" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="139"/>
+      <c r="C10" s="111" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A11" s="135"/>
+      <c r="B11" s="137"/>
+      <c r="C11" s="111" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B9:B11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5009B86D-BF46-461E-BF16-B020EE8D75CF}">
+  <dimension ref="A1:S15"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="12.69140625" style="17" customWidth="1"/>
+    <col min="2" max="8" width="12.69140625" style="16" customWidth="1"/>
+    <col min="9" max="19" width="20.69140625" style="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A1" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="23.15" x14ac:dyDescent="0.4">
+      <c r="A2" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="23.15" x14ac:dyDescent="0.4">
+      <c r="A3" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A4" s="140"/>
+      <c r="B4" s="140"/>
+      <c r="C4" s="140"/>
+      <c r="D4" s="140"/>
+      <c r="E4" s="140"/>
+      <c r="F4" s="140"/>
+      <c r="G4" s="21"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A5" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="46.3" x14ac:dyDescent="0.4">
+      <c r="A6" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="23.15" x14ac:dyDescent="0.4">
+      <c r="A7" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A8" s="140"/>
+      <c r="B8" s="140"/>
+      <c r="C8" s="140"/>
+      <c r="D8" s="140"/>
+      <c r="E8" s="140"/>
+      <c r="F8" s="140"/>
+      <c r="G8" s="21"/>
+    </row>
+    <row r="9" spans="1:7" ht="23.15" x14ac:dyDescent="0.4">
+      <c r="A9" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="46.3" x14ac:dyDescent="0.4">
+      <c r="A10" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="F10" s="19" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="23.15" x14ac:dyDescent="0.4">
+      <c r="A11" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A12" s="141"/>
+      <c r="B12" s="141"/>
+      <c r="C12" s="141"/>
+      <c r="D12" s="141"/>
+      <c r="E12" s="141"/>
+      <c r="F12" s="141"/>
+    </row>
+    <row r="13" spans="1:7" ht="23.15" x14ac:dyDescent="0.4">
+      <c r="A13" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="F13" s="19" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="46.3" x14ac:dyDescent="0.4">
+      <c r="A14" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="F14" s="19" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="23.15" x14ac:dyDescent="0.4">
+      <c r="A15" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="F15" s="19" t="s">
+        <v>71</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="A8:F8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F247DBC2-86D7-40D9-BBB1-B4B3735D2E61}">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="3.69140625" style="22" customWidth="1"/>
+    <col min="2" max="2" width="50.69140625" style="23" customWidth="1"/>
+    <col min="3" max="3" width="30.69140625" style="23" customWidth="1"/>
+    <col min="4" max="4" width="3.69140625" style="23" customWidth="1"/>
+    <col min="5" max="16384" width="9.23046875" style="22"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="56.6" x14ac:dyDescent="0.35">
+      <c r="A1" s="144" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="C1" s="143" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1" s="146" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="70.75" x14ac:dyDescent="0.35">
+      <c r="A2" s="145"/>
+      <c r="B2" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" s="143"/>
+      <c r="D2" s="147"/>
+    </row>
+    <row r="3" spans="1:4" ht="42.45" x14ac:dyDescent="0.35">
+      <c r="A3" s="145"/>
+      <c r="B3" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="D3" s="148" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="70.75" x14ac:dyDescent="0.35">
+      <c r="A4" s="145"/>
+      <c r="B4" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="C4" s="142" t="s">
+        <v>92</v>
+      </c>
+      <c r="D4" s="149"/>
+    </row>
+    <row r="5" spans="1:4" ht="70.75" x14ac:dyDescent="0.35">
+      <c r="A5" s="145"/>
+      <c r="B5" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="C5" s="142"/>
+      <c r="D5" s="149"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="A1:A5"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="D3:D5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8FE6774-1E3A-4B01-9F79-0CE882F43062}">
   <dimension ref="A1:B13"/>
   <sheetViews>
@@ -6781,7 +8045,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D47BAC5F-10D1-4E9A-81F4-B6DA49B47F0B}">
   <dimension ref="A1:E6"/>
   <sheetViews>
@@ -6902,7 +8166,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2C3F88A-4160-4E60-896F-B8A73EA077EA}">
   <dimension ref="A1:C3"/>
   <sheetViews>
@@ -6955,12 +8219,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16E372F1-BAA7-4FDD-A770-A93F85875E6A}">
   <dimension ref="A1:N45"/>
   <sheetViews>
-    <sheetView topLeftCell="H8" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N33" sqref="N33"/>
+    <sheetView topLeftCell="G17" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -7317,6 +8581,1860 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{758CFD3C-5B57-4EBB-9276-E489C781C1FD}">
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="8" max="8" width="50.69140625" style="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1" s="258" t="s">
+        <v>354</v>
+      </c>
+      <c r="B1" s="258" t="s">
+        <v>355</v>
+      </c>
+      <c r="C1" s="259" t="s">
+        <v>356</v>
+      </c>
+      <c r="D1" s="258" t="s">
+        <v>357</v>
+      </c>
+      <c r="E1" s="260" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A2" s="258" t="s">
+        <v>359</v>
+      </c>
+      <c r="B2" s="261" t="s">
+        <v>360</v>
+      </c>
+      <c r="C2" s="261" t="s">
+        <v>361</v>
+      </c>
+      <c r="D2" s="261" t="s">
+        <v>362</v>
+      </c>
+      <c r="E2" s="258" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A3" s="258" t="s">
+        <v>364</v>
+      </c>
+      <c r="B3" s="261" t="s">
+        <v>365</v>
+      </c>
+      <c r="C3" s="262" t="s">
+        <v>366</v>
+      </c>
+      <c r="D3" s="261" t="s">
+        <v>367</v>
+      </c>
+      <c r="E3" s="259" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A4" s="258" t="s">
+        <v>369</v>
+      </c>
+      <c r="B4" s="261" t="s">
+        <v>370</v>
+      </c>
+      <c r="C4" s="261" t="s">
+        <v>371</v>
+      </c>
+      <c r="D4" s="261" t="s">
+        <v>372</v>
+      </c>
+      <c r="E4" s="258" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A5" s="260" t="s">
+        <v>374</v>
+      </c>
+      <c r="B5" s="258" t="s">
+        <v>375</v>
+      </c>
+      <c r="C5" s="259" t="s">
+        <v>376</v>
+      </c>
+      <c r="D5" s="258" t="s">
+        <v>377</v>
+      </c>
+      <c r="E5" s="258" t="s">
+        <v>378</v>
+      </c>
+      <c r="G5" s="263" t="s">
+        <v>379</v>
+      </c>
+      <c r="H5" s="264" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="G6" s="265"/>
+      <c r="H6" s="266" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="28.75" x14ac:dyDescent="0.4">
+      <c r="G7" s="267"/>
+      <c r="H7" s="266" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="28.75" x14ac:dyDescent="0.4">
+      <c r="G8" s="268"/>
+      <c r="H8" s="266" t="s">
+        <v>383</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{150D452A-87A4-4E70-B49C-F096813CBA3A}">
+  <dimension ref="A1:I21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:G21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="12.69140625" style="215" customWidth="1"/>
+    <col min="2" max="9" width="8.69140625" style="215" customWidth="1"/>
+    <col min="10" max="10" width="9.23046875" style="166"/>
+    <col min="11" max="11" width="12.69140625" style="166" customWidth="1"/>
+    <col min="12" max="13" width="10.69140625" style="166" customWidth="1"/>
+    <col min="14" max="16384" width="9.23046875" style="166"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1" s="239" t="s">
+        <v>336</v>
+      </c>
+      <c r="B1" s="239"/>
+      <c r="C1" s="239"/>
+      <c r="D1" s="239"/>
+      <c r="E1" s="239"/>
+      <c r="F1" s="239"/>
+      <c r="G1" s="239"/>
+      <c r="H1" s="239"/>
+      <c r="I1" s="239"/>
+    </row>
+    <row r="2" spans="1:9" ht="14.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="240" t="s">
+        <v>337</v>
+      </c>
+      <c r="B2" s="241" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" s="241"/>
+      <c r="D2" s="241"/>
+      <c r="E2" s="241"/>
+      <c r="F2" s="242" t="s">
+        <v>338</v>
+      </c>
+      <c r="G2" s="242"/>
+      <c r="H2" s="242"/>
+      <c r="I2" s="242"/>
+    </row>
+    <row r="3" spans="1:9" ht="14.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="240"/>
+      <c r="B3" s="243" t="s">
+        <v>339</v>
+      </c>
+      <c r="C3" s="243"/>
+      <c r="D3" s="244" t="s">
+        <v>340</v>
+      </c>
+      <c r="E3" s="244"/>
+      <c r="F3" s="243" t="s">
+        <v>339</v>
+      </c>
+      <c r="G3" s="243"/>
+      <c r="H3" s="244" t="s">
+        <v>340</v>
+      </c>
+      <c r="I3" s="244"/>
+    </row>
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="240"/>
+      <c r="B4" s="245" t="s">
+        <v>341</v>
+      </c>
+      <c r="C4" s="245" t="s">
+        <v>342</v>
+      </c>
+      <c r="D4" s="246" t="s">
+        <v>341</v>
+      </c>
+      <c r="E4" s="246" t="s">
+        <v>342</v>
+      </c>
+      <c r="F4" s="245" t="s">
+        <v>341</v>
+      </c>
+      <c r="G4" s="245" t="s">
+        <v>342</v>
+      </c>
+      <c r="H4" s="246" t="s">
+        <v>341</v>
+      </c>
+      <c r="I4" s="246" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" s="247" t="s">
+        <v>343</v>
+      </c>
+      <c r="B5" s="248">
+        <v>0</v>
+      </c>
+      <c r="C5" s="248">
+        <v>3</v>
+      </c>
+      <c r="D5" s="249">
+        <v>0</v>
+      </c>
+      <c r="E5" s="249">
+        <v>4</v>
+      </c>
+      <c r="F5" s="248">
+        <v>0</v>
+      </c>
+      <c r="G5" s="248">
+        <v>15</v>
+      </c>
+      <c r="H5" s="249">
+        <v>0</v>
+      </c>
+      <c r="I5" s="249">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" s="247" t="s">
+        <v>344</v>
+      </c>
+      <c r="B6" s="248">
+        <v>3</v>
+      </c>
+      <c r="C6" s="248">
+        <v>21</v>
+      </c>
+      <c r="D6" s="249">
+        <v>4</v>
+      </c>
+      <c r="E6" s="249">
+        <v>26</v>
+      </c>
+      <c r="F6" s="248">
+        <f>G5</f>
+        <v>15</v>
+      </c>
+      <c r="G6" s="248">
+        <v>30</v>
+      </c>
+      <c r="H6" s="249">
+        <f>I5</f>
+        <v>50</v>
+      </c>
+      <c r="I6" s="249">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" s="247" t="s">
+        <v>329</v>
+      </c>
+      <c r="B7" s="248">
+        <v>21</v>
+      </c>
+      <c r="C7" s="248">
+        <v>47</v>
+      </c>
+      <c r="D7" s="249">
+        <v>26</v>
+      </c>
+      <c r="E7" s="249">
+        <v>60</v>
+      </c>
+      <c r="F7" s="248">
+        <f>G6</f>
+        <v>30</v>
+      </c>
+      <c r="G7" s="248">
+        <f>ROUND((((C7-$B$7)*($G$8-$F$7))/($C$8-$B$7))+$F$7,0)</f>
+        <v>100</v>
+      </c>
+      <c r="H7" s="249">
+        <f t="shared" ref="H7:H9" si="0">I6</f>
+        <v>100</v>
+      </c>
+      <c r="I7" s="249">
+        <f>ROUND((((E7-$D$7)*($G$8-$H$7))/($E$8-$D$7))+$H$7,0)</f>
+        <v>133</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8" s="247" t="s">
+        <v>345</v>
+      </c>
+      <c r="B8" s="248">
+        <v>47</v>
+      </c>
+      <c r="C8" s="248">
+        <v>70</v>
+      </c>
+      <c r="D8" s="249">
+        <v>60</v>
+      </c>
+      <c r="E8" s="249">
+        <v>90</v>
+      </c>
+      <c r="F8" s="248">
+        <f>G7</f>
+        <v>100</v>
+      </c>
+      <c r="G8" s="248">
+        <v>162</v>
+      </c>
+      <c r="H8" s="249">
+        <f t="shared" si="0"/>
+        <v>133</v>
+      </c>
+      <c r="I8" s="249">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9" s="247" t="s">
+        <v>346</v>
+      </c>
+      <c r="B9" s="248">
+        <v>70</v>
+      </c>
+      <c r="C9" s="248">
+        <v>80</v>
+      </c>
+      <c r="D9" s="249">
+        <v>90</v>
+      </c>
+      <c r="E9" s="249">
+        <v>100</v>
+      </c>
+      <c r="F9" s="248">
+        <f>G8</f>
+        <v>162</v>
+      </c>
+      <c r="G9" s="248">
+        <v>212</v>
+      </c>
+      <c r="H9" s="249">
+        <f t="shared" si="0"/>
+        <v>525</v>
+      </c>
+      <c r="I9" s="249">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11" s="250" t="s">
+        <v>347</v>
+      </c>
+      <c r="B11" s="250"/>
+      <c r="C11" s="250"/>
+      <c r="D11" s="250"/>
+      <c r="E11" s="250"/>
+      <c r="F11" s="250"/>
+      <c r="G11" s="250"/>
+      <c r="H11" s="166"/>
+      <c r="I11" s="166"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A12" s="235" t="s">
+        <v>337</v>
+      </c>
+      <c r="B12" s="242" t="s">
+        <v>338</v>
+      </c>
+      <c r="C12" s="242"/>
+      <c r="D12" s="242"/>
+      <c r="E12" s="242"/>
+      <c r="F12" s="242"/>
+      <c r="G12" s="242"/>
+      <c r="H12" s="166"/>
+      <c r="I12" s="166"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A13" s="235"/>
+      <c r="B13" s="243" t="s">
+        <v>339</v>
+      </c>
+      <c r="C13" s="243"/>
+      <c r="D13" s="244" t="s">
+        <v>340</v>
+      </c>
+      <c r="E13" s="244"/>
+      <c r="F13" s="251" t="s">
+        <v>348</v>
+      </c>
+      <c r="G13" s="252" t="s">
+        <v>349</v>
+      </c>
+      <c r="H13" s="166"/>
+      <c r="I13" s="166"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A14" s="235"/>
+      <c r="B14" s="245" t="s">
+        <v>350</v>
+      </c>
+      <c r="C14" s="245" t="s">
+        <v>351</v>
+      </c>
+      <c r="D14" s="246" t="s">
+        <v>350</v>
+      </c>
+      <c r="E14" s="246" t="s">
+        <v>351</v>
+      </c>
+      <c r="F14" s="251"/>
+      <c r="G14" s="252"/>
+      <c r="H14" s="166"/>
+      <c r="I14" s="166"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A15" s="237" t="s">
+        <v>343</v>
+      </c>
+      <c r="B15" s="248">
+        <v>65</v>
+      </c>
+      <c r="C15" s="253">
+        <f t="shared" ref="C15:C20" si="1">(B15/$B$21)*100</f>
+        <v>11.504424778761061</v>
+      </c>
+      <c r="D15" s="249">
+        <v>115</v>
+      </c>
+      <c r="E15" s="254">
+        <f t="shared" ref="E15:E20" si="2">(D15/$D$21)*100</f>
+        <v>13.053348467650396</v>
+      </c>
+      <c r="F15" s="255">
+        <f>AVERAGE(C15,E15)</f>
+        <v>12.278886623205729</v>
+      </c>
+      <c r="G15" s="256">
+        <v>15</v>
+      </c>
+      <c r="H15" s="166"/>
+      <c r="I15" s="166"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A16" s="237" t="s">
+        <v>344</v>
+      </c>
+      <c r="B16" s="248">
+        <v>25</v>
+      </c>
+      <c r="C16" s="253">
+        <f t="shared" si="1"/>
+        <v>4.4247787610619467</v>
+      </c>
+      <c r="D16" s="249">
+        <v>45</v>
+      </c>
+      <c r="E16" s="254">
+        <f t="shared" si="2"/>
+        <v>5.1078320090805898</v>
+      </c>
+      <c r="F16" s="255">
+        <f t="shared" ref="F16:F20" si="3">AVERAGE(C16,E16)</f>
+        <v>4.7663053850712682</v>
+      </c>
+      <c r="G16" s="257"/>
+      <c r="H16" s="166"/>
+      <c r="I16" s="166"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A17" s="237" t="s">
+        <v>329</v>
+      </c>
+      <c r="B17" s="248">
+        <v>220</v>
+      </c>
+      <c r="C17" s="253">
+        <f t="shared" si="1"/>
+        <v>38.938053097345133</v>
+      </c>
+      <c r="D17" s="249">
+        <v>241</v>
+      </c>
+      <c r="E17" s="254">
+        <f t="shared" si="2"/>
+        <v>27.355278093076052</v>
+      </c>
+      <c r="F17" s="255">
+        <f t="shared" si="3"/>
+        <v>33.146665595210592</v>
+      </c>
+      <c r="G17" s="255">
+        <v>35</v>
+      </c>
+      <c r="H17" s="166"/>
+      <c r="I17" s="166"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A18" s="237" t="s">
+        <v>345</v>
+      </c>
+      <c r="B18" s="248">
+        <v>95</v>
+      </c>
+      <c r="C18" s="253">
+        <f t="shared" si="1"/>
+        <v>16.814159292035399</v>
+      </c>
+      <c r="D18" s="249">
+        <v>160</v>
+      </c>
+      <c r="E18" s="254">
+        <f t="shared" si="2"/>
+        <v>18.161180476730987</v>
+      </c>
+      <c r="F18" s="255">
+        <f t="shared" si="3"/>
+        <v>17.487669884383195</v>
+      </c>
+      <c r="G18" s="256">
+        <v>20</v>
+      </c>
+      <c r="H18" s="166"/>
+      <c r="I18" s="166"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A19" s="237" t="s">
+        <v>346</v>
+      </c>
+      <c r="B19" s="248">
+        <v>5</v>
+      </c>
+      <c r="C19" s="253">
+        <f t="shared" si="1"/>
+        <v>0.88495575221238942</v>
+      </c>
+      <c r="D19" s="249">
+        <v>10</v>
+      </c>
+      <c r="E19" s="254">
+        <f t="shared" si="2"/>
+        <v>1.1350737797956867</v>
+      </c>
+      <c r="F19" s="255">
+        <f t="shared" si="3"/>
+        <v>1.0100147660040379</v>
+      </c>
+      <c r="G19" s="257"/>
+      <c r="H19" s="166"/>
+      <c r="I19" s="166"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A20" s="237" t="s">
+        <v>352</v>
+      </c>
+      <c r="B20" s="248">
+        <v>155</v>
+      </c>
+      <c r="C20" s="253">
+        <f t="shared" si="1"/>
+        <v>27.43362831858407</v>
+      </c>
+      <c r="D20" s="249">
+        <v>310</v>
+      </c>
+      <c r="E20" s="254">
+        <f t="shared" si="2"/>
+        <v>35.187287173666284</v>
+      </c>
+      <c r="F20" s="255">
+        <f t="shared" si="3"/>
+        <v>31.310457746125177</v>
+      </c>
+      <c r="G20" s="255">
+        <v>30</v>
+      </c>
+      <c r="H20" s="166"/>
+      <c r="I20" s="166"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A21" s="237" t="s">
+        <v>353</v>
+      </c>
+      <c r="B21" s="248">
+        <f t="shared" ref="B21:G21" si="4">SUM(B15:B20)</f>
+        <v>565</v>
+      </c>
+      <c r="C21" s="253">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="D21" s="249">
+        <f t="shared" si="4"/>
+        <v>881</v>
+      </c>
+      <c r="E21" s="254">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="F21" s="255">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="G21" s="255">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="17">
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="A11:G11"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D58B115A-4B1A-42E1-A60C-F69C6014155D}">
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="3" width="12.69140625" style="215" customWidth="1"/>
+    <col min="4" max="16384" width="9.23046875" style="166"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="234" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" s="234"/>
+      <c r="C1" s="234"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="235" t="s">
+        <v>326</v>
+      </c>
+      <c r="B2" s="235" t="s">
+        <v>327</v>
+      </c>
+      <c r="C2" s="235"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="235"/>
+      <c r="B3" s="236" t="s">
+        <v>328</v>
+      </c>
+      <c r="C3" s="236" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="237" t="s">
+        <v>330</v>
+      </c>
+      <c r="B4" s="237">
+        <v>1</v>
+      </c>
+      <c r="C4" s="237">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="237" t="s">
+        <v>331</v>
+      </c>
+      <c r="B5" s="237">
+        <f>B4/100</f>
+        <v>0.01</v>
+      </c>
+      <c r="C5" s="237">
+        <f>C4/1000</f>
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="237" t="s">
+        <v>332</v>
+      </c>
+      <c r="B6" s="237">
+        <f>B5/100</f>
+        <v>1E-4</v>
+      </c>
+      <c r="C6" s="237">
+        <f>C5/100</f>
+        <v>1.0000000000000001E-5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="237" t="s">
+        <v>333</v>
+      </c>
+      <c r="B7" s="237">
+        <v>0</v>
+      </c>
+      <c r="C7" s="237">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="237" t="s">
+        <v>334</v>
+      </c>
+      <c r="B8" s="237">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C8" s="237">
+        <v>5.0000000000000002E-5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="237" t="s">
+        <v>335</v>
+      </c>
+      <c r="B9" s="238">
+        <v>0.1</v>
+      </c>
+      <c r="C9" s="238">
+        <v>0.01</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80A2160C-3579-4283-B5AB-EB58A323AAC0}">
+  <dimension ref="A1:Z10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="36.3828125" style="232" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="2" style="215" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.4609375" style="215" customWidth="1"/>
+    <col min="4" max="4" width="3.84375" style="215" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2.3828125" style="233" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.4609375" style="215" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.84375" style="215" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="2.3828125" style="215" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.4609375" style="215" customWidth="1"/>
+    <col min="10" max="10" width="3.84375" style="215" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="2.3828125" style="233" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="3.84375" style="215" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="2.3828125" style="233" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="4.84375" style="215" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="2.3828125" style="233" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="4.84375" style="215" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7.3828125" style="233" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="4.84375" style="215" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.4609375" style="215" customWidth="1"/>
+    <col min="23" max="23" width="12.4609375" style="233" customWidth="1"/>
+    <col min="24" max="24" width="6.3828125" style="215" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.23046875" style="215" customWidth="1"/>
+    <col min="26" max="26" width="12.921875" style="215" customWidth="1"/>
+    <col min="27" max="27" width="6.3828125" style="166" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="13.69140625" style="166" customWidth="1"/>
+    <col min="30" max="30" width="6.3828125" style="166" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.23046875" style="166"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A1" s="157" t="s">
+        <v>296</v>
+      </c>
+      <c r="B1" s="158" t="s">
+        <v>297</v>
+      </c>
+      <c r="C1" s="159">
+        <v>200</v>
+      </c>
+      <c r="D1" s="158">
+        <v>150</v>
+      </c>
+      <c r="E1" s="160" t="s">
+        <v>298</v>
+      </c>
+      <c r="F1" s="161">
+        <v>350</v>
+      </c>
+      <c r="G1" s="158">
+        <v>350</v>
+      </c>
+      <c r="H1" s="160" t="s">
+        <v>298</v>
+      </c>
+      <c r="I1" s="161">
+        <v>430</v>
+      </c>
+      <c r="J1" s="158">
+        <v>430</v>
+      </c>
+      <c r="K1" s="160" t="s">
+        <v>298</v>
+      </c>
+      <c r="L1" s="161">
+        <v>700</v>
+      </c>
+      <c r="M1" s="158">
+        <v>700</v>
+      </c>
+      <c r="N1" s="160" t="s">
+        <v>298</v>
+      </c>
+      <c r="O1" s="161">
+        <v>1200</v>
+      </c>
+      <c r="P1" s="158">
+        <v>1200</v>
+      </c>
+      <c r="Q1" s="160" t="s">
+        <v>298</v>
+      </c>
+      <c r="R1" s="161">
+        <v>1800</v>
+      </c>
+      <c r="S1" s="162" t="s">
+        <v>299</v>
+      </c>
+      <c r="T1" s="161">
+        <v>1800</v>
+      </c>
+      <c r="U1" s="163"/>
+      <c r="V1" s="164" t="s">
+        <v>300</v>
+      </c>
+      <c r="W1" s="164"/>
+      <c r="X1" s="164"/>
+      <c r="Y1" s="165" t="s">
+        <v>301</v>
+      </c>
+      <c r="Z1" s="166"/>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A2" s="157" t="s">
+        <v>302</v>
+      </c>
+      <c r="B2" s="167" t="s">
+        <v>297</v>
+      </c>
+      <c r="C2" s="168">
+        <f>C1-$X$2</f>
+        <v>-219.3</v>
+      </c>
+      <c r="D2" s="169">
+        <f>((D1-$X$2)+(F1-$X$2))/2</f>
+        <v>-169.3</v>
+      </c>
+      <c r="E2" s="169"/>
+      <c r="F2" s="170"/>
+      <c r="G2" s="170">
+        <f t="shared" ref="G2" si="0">((G1-$X$2)+(I1-$X$2))/2</f>
+        <v>-29.300000000000011</v>
+      </c>
+      <c r="H2" s="171"/>
+      <c r="I2" s="172"/>
+      <c r="J2" s="170">
+        <f t="shared" ref="J2" si="1">((J1-$X$2)+(L1-$X$2))/2</f>
+        <v>145.69999999999999</v>
+      </c>
+      <c r="K2" s="171"/>
+      <c r="L2" s="172"/>
+      <c r="M2" s="169">
+        <f t="shared" ref="M2" si="2">((M1-$X$2)+(O1-$X$2))/2</f>
+        <v>530.70000000000005</v>
+      </c>
+      <c r="N2" s="169"/>
+      <c r="O2" s="170"/>
+      <c r="P2" s="169">
+        <f t="shared" ref="P2" si="3">((P1-$X$2)+(R1-$X$2))/2</f>
+        <v>1080.7</v>
+      </c>
+      <c r="Q2" s="169"/>
+      <c r="R2" s="170"/>
+      <c r="S2" s="162" t="s">
+        <v>299</v>
+      </c>
+      <c r="T2" s="173">
+        <f>T1-$X$2</f>
+        <v>1380.7</v>
+      </c>
+      <c r="U2" s="163"/>
+      <c r="V2" s="174" t="s">
+        <v>303</v>
+      </c>
+      <c r="W2" s="174"/>
+      <c r="X2" s="175">
+        <v>419.3</v>
+      </c>
+      <c r="Y2" s="176" t="s">
+        <v>304</v>
+      </c>
+      <c r="Z2" s="166"/>
+    </row>
+    <row r="3" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="157" t="s">
+        <v>305</v>
+      </c>
+      <c r="B3" s="167" t="s">
+        <v>297</v>
+      </c>
+      <c r="C3" s="168">
+        <f>0.01*C2</f>
+        <v>-2.1930000000000001</v>
+      </c>
+      <c r="D3" s="170">
+        <f t="shared" ref="D3" si="4">0.01*D2</f>
+        <v>-1.6930000000000001</v>
+      </c>
+      <c r="E3" s="171"/>
+      <c r="F3" s="172"/>
+      <c r="G3" s="170">
+        <f t="shared" ref="G3" si="5">0.01*G2</f>
+        <v>-0.29300000000000009</v>
+      </c>
+      <c r="H3" s="171"/>
+      <c r="I3" s="172"/>
+      <c r="J3" s="170">
+        <f t="shared" ref="J3" si="6">0.01*J2</f>
+        <v>1.4569999999999999</v>
+      </c>
+      <c r="K3" s="171"/>
+      <c r="L3" s="172"/>
+      <c r="M3" s="170">
+        <f t="shared" ref="M3" si="7">0.01*M2</f>
+        <v>5.3070000000000004</v>
+      </c>
+      <c r="N3" s="171"/>
+      <c r="O3" s="172"/>
+      <c r="P3" s="170">
+        <f t="shared" ref="P3" si="8">0.01*P2</f>
+        <v>10.807</v>
+      </c>
+      <c r="Q3" s="171"/>
+      <c r="R3" s="172"/>
+      <c r="S3" s="158" t="s">
+        <v>299</v>
+      </c>
+      <c r="T3" s="177">
+        <f>0.01*T2</f>
+        <v>13.807</v>
+      </c>
+      <c r="U3" s="163"/>
+      <c r="V3" s="174" t="s">
+        <v>306</v>
+      </c>
+      <c r="W3" s="174"/>
+      <c r="X3" s="175">
+        <v>14.98</v>
+      </c>
+      <c r="Y3" s="176" t="s">
+        <v>307</v>
+      </c>
+      <c r="Z3" s="166"/>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A4" s="157" t="s">
+        <v>308</v>
+      </c>
+      <c r="B4" s="158" t="s">
+        <v>297</v>
+      </c>
+      <c r="C4" s="177">
+        <f>$X$3 + C3</f>
+        <v>12.787000000000001</v>
+      </c>
+      <c r="D4" s="169">
+        <f>$X$3 + D3</f>
+        <v>13.287000000000001</v>
+      </c>
+      <c r="E4" s="169"/>
+      <c r="F4" s="169"/>
+      <c r="G4" s="170">
+        <f t="shared" ref="G4" si="9">$X$3 + G3</f>
+        <v>14.687000000000001</v>
+      </c>
+      <c r="H4" s="171"/>
+      <c r="I4" s="172"/>
+      <c r="J4" s="170">
+        <f t="shared" ref="J4" si="10">$X$3 + J3</f>
+        <v>16.437000000000001</v>
+      </c>
+      <c r="K4" s="171"/>
+      <c r="L4" s="172"/>
+      <c r="M4" s="169">
+        <f t="shared" ref="M4" si="11">$X$3 + M3</f>
+        <v>20.286999999999999</v>
+      </c>
+      <c r="N4" s="169"/>
+      <c r="O4" s="169"/>
+      <c r="P4" s="169">
+        <f t="shared" ref="P4" si="12">$X$3 + P3</f>
+        <v>25.786999999999999</v>
+      </c>
+      <c r="Q4" s="169"/>
+      <c r="R4" s="169"/>
+      <c r="S4" s="158" t="s">
+        <v>299</v>
+      </c>
+      <c r="T4" s="177">
+        <f>$X$3 + T3</f>
+        <v>28.786999999999999</v>
+      </c>
+      <c r="U4" s="163"/>
+      <c r="V4" s="174" t="s">
+        <v>309</v>
+      </c>
+      <c r="W4" s="174"/>
+      <c r="X4" s="175">
+        <v>11.2</v>
+      </c>
+      <c r="Y4" s="176" t="s">
+        <v>310</v>
+      </c>
+      <c r="Z4" s="166"/>
+    </row>
+    <row r="5" spans="1:26" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="157" t="s">
+        <v>311</v>
+      </c>
+      <c r="B5" s="167" t="s">
+        <v>297</v>
+      </c>
+      <c r="C5" s="168">
+        <f>$X$4+C3</f>
+        <v>9.0069999999999997</v>
+      </c>
+      <c r="D5" s="170">
+        <f>$X$4+D3</f>
+        <v>9.5069999999999997</v>
+      </c>
+      <c r="E5" s="171"/>
+      <c r="F5" s="172"/>
+      <c r="G5" s="170">
+        <f t="shared" ref="G5" si="13">$X$4+G3</f>
+        <v>10.907</v>
+      </c>
+      <c r="H5" s="171"/>
+      <c r="I5" s="172"/>
+      <c r="J5" s="170">
+        <f t="shared" ref="J5" si="14">$X$4+J3</f>
+        <v>12.657</v>
+      </c>
+      <c r="K5" s="171"/>
+      <c r="L5" s="172"/>
+      <c r="M5" s="170">
+        <f t="shared" ref="M5" si="15">$X$4+M3</f>
+        <v>16.506999999999998</v>
+      </c>
+      <c r="N5" s="171"/>
+      <c r="O5" s="172"/>
+      <c r="P5" s="170">
+        <f t="shared" ref="P5" si="16">$X$4+P3</f>
+        <v>22.006999999999998</v>
+      </c>
+      <c r="Q5" s="171"/>
+      <c r="R5" s="172"/>
+      <c r="S5" s="158" t="s">
+        <v>299</v>
+      </c>
+      <c r="T5" s="177">
+        <f>X4+T3</f>
+        <v>25.006999999999998</v>
+      </c>
+      <c r="U5" s="163"/>
+      <c r="V5" s="174" t="s">
+        <v>312</v>
+      </c>
+      <c r="W5" s="174"/>
+      <c r="X5" s="175">
+        <v>29.1</v>
+      </c>
+      <c r="Y5" s="176" t="s">
+        <v>313</v>
+      </c>
+      <c r="Z5" s="166"/>
+    </row>
+    <row r="6" spans="1:26" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="157" t="s">
+        <v>314</v>
+      </c>
+      <c r="B6" s="167" t="s">
+        <v>297</v>
+      </c>
+      <c r="C6" s="168">
+        <f>X5+C3</f>
+        <v>26.907</v>
+      </c>
+      <c r="D6" s="170">
+        <f>$X$5+D3</f>
+        <v>27.407</v>
+      </c>
+      <c r="E6" s="171"/>
+      <c r="F6" s="172"/>
+      <c r="G6" s="170">
+        <f t="shared" ref="G6" si="17">$X$5+G3</f>
+        <v>28.807000000000002</v>
+      </c>
+      <c r="H6" s="171"/>
+      <c r="I6" s="172"/>
+      <c r="J6" s="170">
+        <f t="shared" ref="J6" si="18">$X$5+J3</f>
+        <v>30.557000000000002</v>
+      </c>
+      <c r="K6" s="171"/>
+      <c r="L6" s="172"/>
+      <c r="M6" s="170">
+        <f t="shared" ref="M6" si="19">$X$5+M3</f>
+        <v>34.407000000000004</v>
+      </c>
+      <c r="N6" s="171"/>
+      <c r="O6" s="172"/>
+      <c r="P6" s="170">
+        <f t="shared" ref="P6" si="20">$X$5+P3</f>
+        <v>39.907000000000004</v>
+      </c>
+      <c r="Q6" s="171"/>
+      <c r="R6" s="172"/>
+      <c r="S6" s="158" t="s">
+        <v>299</v>
+      </c>
+      <c r="T6" s="177">
+        <f>X5+T3</f>
+        <v>42.907000000000004</v>
+      </c>
+      <c r="U6" s="163"/>
+      <c r="V6" s="178"/>
+      <c r="W6" s="178"/>
+      <c r="X6" s="163"/>
+      <c r="Y6" s="163"/>
+      <c r="Z6" s="166"/>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A7" s="179" t="s">
+        <v>315</v>
+      </c>
+      <c r="B7" s="180"/>
+      <c r="C7" s="180"/>
+      <c r="D7" s="181"/>
+      <c r="E7" s="181"/>
+      <c r="F7" s="181"/>
+      <c r="G7" s="182"/>
+      <c r="H7" s="183"/>
+      <c r="I7" s="184"/>
+      <c r="J7" s="185"/>
+      <c r="K7" s="186"/>
+      <c r="L7" s="187"/>
+      <c r="M7" s="188"/>
+      <c r="N7" s="188"/>
+      <c r="O7" s="188"/>
+      <c r="P7" s="189"/>
+      <c r="Q7" s="189"/>
+      <c r="R7" s="189"/>
+      <c r="S7" s="190"/>
+      <c r="T7" s="190"/>
+      <c r="U7" s="163"/>
+      <c r="V7" s="191" t="s">
+        <v>316</v>
+      </c>
+      <c r="W7" s="191"/>
+      <c r="X7" s="192">
+        <v>426.95</v>
+      </c>
+      <c r="Y7" s="176" t="s">
+        <v>317</v>
+      </c>
+      <c r="Z7" s="166"/>
+    </row>
+    <row r="8" spans="1:26" s="212" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="179" t="s">
+        <v>318</v>
+      </c>
+      <c r="B8" s="193"/>
+      <c r="C8" s="194"/>
+      <c r="D8" s="195"/>
+      <c r="E8" s="196"/>
+      <c r="F8" s="197"/>
+      <c r="G8" s="198"/>
+      <c r="H8" s="199"/>
+      <c r="I8" s="200"/>
+      <c r="J8" s="201"/>
+      <c r="K8" s="202"/>
+      <c r="L8" s="203"/>
+      <c r="M8" s="204"/>
+      <c r="N8" s="205"/>
+      <c r="O8" s="206"/>
+      <c r="P8" s="207"/>
+      <c r="Q8" s="208"/>
+      <c r="R8" s="209"/>
+      <c r="S8" s="193"/>
+      <c r="T8" s="194"/>
+      <c r="U8" s="210"/>
+      <c r="V8" s="211"/>
+      <c r="W8" s="211"/>
+      <c r="X8" s="210"/>
+      <c r="Y8" s="210"/>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A9" s="213"/>
+      <c r="B9" s="178"/>
+      <c r="C9" s="178"/>
+      <c r="D9" s="178"/>
+      <c r="E9" s="214"/>
+      <c r="F9" s="178"/>
+      <c r="G9" s="178"/>
+      <c r="H9" s="178"/>
+      <c r="I9" s="178"/>
+      <c r="J9" s="178"/>
+      <c r="K9" s="214"/>
+      <c r="L9" s="178"/>
+      <c r="M9" s="178"/>
+      <c r="N9" s="214"/>
+      <c r="O9" s="178"/>
+      <c r="P9" s="178"/>
+      <c r="Q9" s="214"/>
+      <c r="R9" s="178"/>
+      <c r="S9" s="178"/>
+      <c r="T9" s="214"/>
+      <c r="U9" s="178"/>
+      <c r="V9" s="178"/>
+      <c r="W9" s="214"/>
+      <c r="X9" s="178"/>
+      <c r="Y9" s="178"/>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A10" s="157" t="s">
+        <v>319</v>
+      </c>
+      <c r="B10" s="216" t="s">
+        <v>320</v>
+      </c>
+      <c r="C10" s="217"/>
+      <c r="D10" s="218" t="s">
+        <v>321</v>
+      </c>
+      <c r="E10" s="219"/>
+      <c r="F10" s="220"/>
+      <c r="G10" s="221" t="s">
+        <v>322</v>
+      </c>
+      <c r="H10" s="222"/>
+      <c r="I10" s="223"/>
+      <c r="J10" s="224" t="s">
+        <v>323</v>
+      </c>
+      <c r="K10" s="225"/>
+      <c r="L10" s="226"/>
+      <c r="M10" s="227" t="s">
+        <v>324</v>
+      </c>
+      <c r="N10" s="228"/>
+      <c r="O10" s="229"/>
+      <c r="P10" s="230" t="s">
+        <v>325</v>
+      </c>
+      <c r="Q10" s="231"/>
+      <c r="R10" s="163"/>
+      <c r="S10" s="163"/>
+      <c r="T10" s="163"/>
+      <c r="U10" s="166"/>
+      <c r="V10" s="166"/>
+      <c r="W10" s="166"/>
+      <c r="X10" s="166"/>
+      <c r="Y10" s="166"/>
+      <c r="Z10" s="166"/>
+    </row>
+  </sheetData>
+  <mergeCells count="51">
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="M10:O10"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="P7:R7"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="M8:O8"/>
+    <mergeCell ref="P8:R8"/>
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="P6:R6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="M7:O7"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="M5:O5"/>
+    <mergeCell ref="P5:R5"/>
+    <mergeCell ref="V5:W5"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="M4:O4"/>
+    <mergeCell ref="P4:R4"/>
+    <mergeCell ref="V4:W4"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="V3:W3"/>
+    <mergeCell ref="V1:X1"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="V2:W2"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="Y2" r:id="rId1" xr:uid="{7F98B370-961B-4565-B2C8-0F4406014C4B}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B1B8FEE-14B5-4500-8AA4-F83FA5CDC1F9}">
+  <dimension ref="A1:D33"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="70" zoomScalePageLayoutView="157" workbookViewId="0">
+      <selection sqref="A1:D27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="34.23046875" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.15234375" style="71" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.15234375" style="71" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.61328125" style="71" customWidth="1"/>
+    <col min="5" max="5" width="2.69140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
+      <c r="A1" s="115" t="s">
+        <v>277</v>
+      </c>
+      <c r="B1" s="116"/>
+      <c r="C1" s="116"/>
+      <c r="D1" s="117"/>
+    </row>
+    <row r="2" spans="1:4" s="71" customFormat="1" ht="15.9" x14ac:dyDescent="0.4">
+      <c r="A2" s="79" t="s">
+        <v>252</v>
+      </c>
+      <c r="B2" s="80" t="s">
+        <v>253</v>
+      </c>
+      <c r="C2" s="80" t="s">
+        <v>254</v>
+      </c>
+      <c r="D2" s="81" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="71" customFormat="1" ht="15.9" x14ac:dyDescent="0.4">
+      <c r="A3" s="82" t="s">
+        <v>256</v>
+      </c>
+      <c r="B3" s="83">
+        <v>45178</v>
+      </c>
+      <c r="C3" s="84">
+        <v>3</v>
+      </c>
+      <c r="D3" s="83">
+        <f>B3+C3</f>
+        <v>45181</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="71" customFormat="1" ht="15.9" x14ac:dyDescent="0.4">
+      <c r="A4" s="85" t="s">
+        <v>257</v>
+      </c>
+      <c r="B4" s="86">
+        <v>45181</v>
+      </c>
+      <c r="C4" s="87">
+        <v>6</v>
+      </c>
+      <c r="D4" s="86">
+        <f>B4+C4</f>
+        <v>45187</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="71" customFormat="1" ht="15.9" x14ac:dyDescent="0.4">
+      <c r="A5" s="85" t="s">
+        <v>282</v>
+      </c>
+      <c r="B5" s="86">
+        <v>45216</v>
+      </c>
+      <c r="C5" s="87">
+        <f>(D5-B5)+1</f>
+        <v>255</v>
+      </c>
+      <c r="D5" s="86">
+        <v>45470</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" s="71" customFormat="1" ht="15.9" x14ac:dyDescent="0.4">
+      <c r="A6" s="85" t="s">
+        <v>258</v>
+      </c>
+      <c r="B6" s="86">
+        <v>45250</v>
+      </c>
+      <c r="C6" s="87">
+        <v>20</v>
+      </c>
+      <c r="D6" s="86">
+        <f>B6+C6</f>
+        <v>45270</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.9" x14ac:dyDescent="0.45">
+      <c r="A7" s="88" t="s">
+        <v>259</v>
+      </c>
+      <c r="B7" s="89">
+        <v>45301</v>
+      </c>
+      <c r="C7" s="90">
+        <v>40</v>
+      </c>
+      <c r="D7" s="89">
+        <f>B7+C7</f>
+        <v>45341</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.9" x14ac:dyDescent="0.45">
+      <c r="A8" s="91" t="s">
+        <v>273</v>
+      </c>
+      <c r="B8" s="86">
+        <v>45310</v>
+      </c>
+      <c r="C8" s="87">
+        <f>(D8-B8)+1</f>
+        <v>18</v>
+      </c>
+      <c r="D8" s="86">
+        <v>45327</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.9" x14ac:dyDescent="0.45">
+      <c r="A9" s="91" t="s">
+        <v>272</v>
+      </c>
+      <c r="B9" s="86">
+        <v>45327</v>
+      </c>
+      <c r="C9" s="87">
+        <f t="shared" ref="C9:C10" si="0">(D9-B9)+1</f>
+        <v>11</v>
+      </c>
+      <c r="D9" s="86">
+        <v>45337</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.9" x14ac:dyDescent="0.45">
+      <c r="A10" s="91" t="s">
+        <v>274</v>
+      </c>
+      <c r="B10" s="86">
+        <v>45338</v>
+      </c>
+      <c r="C10" s="87">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="D10" s="86">
+        <v>45427</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.9" x14ac:dyDescent="0.45">
+      <c r="A11" s="88" t="s">
+        <v>260</v>
+      </c>
+      <c r="B11" s="89">
+        <v>45344</v>
+      </c>
+      <c r="C11" s="90">
+        <v>10</v>
+      </c>
+      <c r="D11" s="89">
+        <f t="shared" ref="D11:D27" si="1">B11+C11</f>
+        <v>45354</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15.9" x14ac:dyDescent="0.45">
+      <c r="A12" s="88" t="s">
+        <v>261</v>
+      </c>
+      <c r="B12" s="89">
+        <v>45355</v>
+      </c>
+      <c r="C12" s="90">
+        <v>10</v>
+      </c>
+      <c r="D12" s="89">
+        <f t="shared" si="1"/>
+        <v>45365</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.9" x14ac:dyDescent="0.45">
+      <c r="A13" s="88" t="s">
+        <v>262</v>
+      </c>
+      <c r="B13" s="89">
+        <v>45367</v>
+      </c>
+      <c r="C13" s="90">
+        <v>5</v>
+      </c>
+      <c r="D13" s="89">
+        <f t="shared" si="1"/>
+        <v>45372</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15.9" x14ac:dyDescent="0.45">
+      <c r="A14" s="92" t="s">
+        <v>263</v>
+      </c>
+      <c r="B14" s="93">
+        <v>45375</v>
+      </c>
+      <c r="C14" s="94">
+        <v>10</v>
+      </c>
+      <c r="D14" s="93">
+        <f t="shared" si="1"/>
+        <v>45385</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15.9" x14ac:dyDescent="0.45">
+      <c r="A15" s="92" t="s">
+        <v>264</v>
+      </c>
+      <c r="B15" s="93">
+        <v>45413</v>
+      </c>
+      <c r="C15" s="94">
+        <v>5</v>
+      </c>
+      <c r="D15" s="93">
+        <f t="shared" si="1"/>
+        <v>45418</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15.9" x14ac:dyDescent="0.45">
+      <c r="A16" s="88" t="s">
+        <v>265</v>
+      </c>
+      <c r="B16" s="89">
+        <v>45420</v>
+      </c>
+      <c r="C16" s="90">
+        <v>10</v>
+      </c>
+      <c r="D16" s="89">
+        <f t="shared" si="1"/>
+        <v>45430</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15.9" x14ac:dyDescent="0.45">
+      <c r="A17" s="91" t="s">
+        <v>287</v>
+      </c>
+      <c r="B17" s="86">
+        <v>45428</v>
+      </c>
+      <c r="C17" s="87">
+        <f>(D17-B17)+1</f>
+        <v>34</v>
+      </c>
+      <c r="D17" s="86">
+        <v>45461</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15.9" x14ac:dyDescent="0.45">
+      <c r="A18" s="88" t="s">
+        <v>266</v>
+      </c>
+      <c r="B18" s="89">
+        <v>45432</v>
+      </c>
+      <c r="C18" s="90">
+        <v>20</v>
+      </c>
+      <c r="D18" s="89">
+        <f t="shared" si="1"/>
+        <v>45452</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15.9" x14ac:dyDescent="0.45">
+      <c r="A19" s="88" t="s">
+        <v>267</v>
+      </c>
+      <c r="B19" s="89">
+        <v>45455</v>
+      </c>
+      <c r="C19" s="90">
+        <v>10</v>
+      </c>
+      <c r="D19" s="89">
+        <f t="shared" si="1"/>
+        <v>45465</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15.9" x14ac:dyDescent="0.45">
+      <c r="A20" s="95" t="s">
+        <v>275</v>
+      </c>
+      <c r="B20" s="96">
+        <v>45462</v>
+      </c>
+      <c r="C20" s="97">
+        <f>(D20-B20)+1</f>
+        <v>1</v>
+      </c>
+      <c r="D20" s="96">
+        <v>45462</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15.9" x14ac:dyDescent="0.45">
+      <c r="A21" s="91" t="s">
+        <v>276</v>
+      </c>
+      <c r="B21" s="86">
+        <v>45463</v>
+      </c>
+      <c r="C21" s="87">
+        <f>(D21-B21)+1</f>
+        <v>8</v>
+      </c>
+      <c r="D21" s="86">
+        <v>45470</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15.9" x14ac:dyDescent="0.45">
+      <c r="A22" s="88" t="s">
+        <v>268</v>
+      </c>
+      <c r="B22" s="89">
+        <v>45467</v>
+      </c>
+      <c r="C22" s="90">
+        <v>30</v>
+      </c>
+      <c r="D22" s="89">
+        <f t="shared" si="1"/>
+        <v>45497</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15.9" x14ac:dyDescent="0.45">
+      <c r="A23" s="91" t="s">
+        <v>278</v>
+      </c>
+      <c r="B23" s="86">
+        <v>45471</v>
+      </c>
+      <c r="C23" s="87">
+        <f>(D23-B23)+1</f>
+        <v>35</v>
+      </c>
+      <c r="D23" s="86">
+        <v>45505</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15.9" x14ac:dyDescent="0.45">
+      <c r="A24" s="91" t="s">
+        <v>279</v>
+      </c>
+      <c r="B24" s="86">
+        <v>45507</v>
+      </c>
+      <c r="C24" s="87">
+        <f>(D24-B24)+1</f>
+        <v>10</v>
+      </c>
+      <c r="D24" s="86">
+        <v>45516</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15.9" x14ac:dyDescent="0.45">
+      <c r="A25" s="88" t="s">
+        <v>269</v>
+      </c>
+      <c r="B25" s="89">
+        <v>45498</v>
+      </c>
+      <c r="C25" s="90">
+        <v>5</v>
+      </c>
+      <c r="D25" s="89">
+        <f t="shared" si="1"/>
+        <v>45503</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
+      <c r="A26" s="98" t="s">
+        <v>270</v>
+      </c>
+      <c r="B26" s="89">
+        <v>45505</v>
+      </c>
+      <c r="C26" s="90">
+        <v>18</v>
+      </c>
+      <c r="D26" s="89">
+        <f t="shared" si="1"/>
+        <v>45523</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
+      <c r="A27" s="98" t="s">
+        <v>271</v>
+      </c>
+      <c r="B27" s="89">
+        <v>45344</v>
+      </c>
+      <c r="C27" s="90">
+        <v>179</v>
+      </c>
+      <c r="D27" s="89">
+        <f t="shared" si="1"/>
+        <v>45523</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
+      <c r="B29" s="118" t="s">
+        <v>280</v>
+      </c>
+      <c r="C29" s="119"/>
+      <c r="D29" s="120"/>
+    </row>
+    <row r="30" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
+      <c r="B30" s="99"/>
+      <c r="C30" s="100" t="s">
+        <v>281</v>
+      </c>
+      <c r="D30" s="101" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="15.9" x14ac:dyDescent="0.4">
+      <c r="B31" s="102"/>
+      <c r="C31" s="100" t="s">
+        <v>281</v>
+      </c>
+      <c r="D31" s="101" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="15.9" x14ac:dyDescent="0.45">
+      <c r="B32" s="103"/>
+      <c r="C32" s="104" t="s">
+        <v>281</v>
+      </c>
+      <c r="D32" s="101" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" ht="15.9" x14ac:dyDescent="0.45">
+      <c r="B33" s="105"/>
+      <c r="C33" s="106" t="s">
+        <v>281</v>
+      </c>
+      <c r="D33" s="107" t="s">
+        <v>284</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B29:D29"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="61" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7794583-3269-4502-9EFF-DAD570850403}">
   <dimension ref="A1:D18"/>
   <sheetViews>
@@ -7604,7 +10722,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9079DD0-448F-48EB-B592-370B7EA5A551}">
   <dimension ref="A1:G14"/>
   <sheetViews>
@@ -7945,11 +11063,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54A282B8-5F70-4443-94ED-DE00DED0E1C7}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -8019,691 +11137,4 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFEDE31C-5D73-499B-9C3D-AD3FA55FC42C}">
-  <dimension ref="A1:C5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="1" width="30.69140625" style="16" customWidth="1"/>
-    <col min="2" max="2" width="16.84375" style="16" customWidth="1"/>
-    <col min="3" max="3" width="30.69140625" style="16" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A1" s="30" t="s">
-        <v>238</v>
-      </c>
-      <c r="B1" s="68" t="s">
-        <v>239</v>
-      </c>
-      <c r="C1" s="28" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A2" s="61" t="s">
-        <v>242</v>
-      </c>
-      <c r="B2" s="123" t="s">
-        <v>245</v>
-      </c>
-      <c r="C2" s="60" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A3" s="61" t="s">
-        <v>241</v>
-      </c>
-      <c r="B3" s="123"/>
-      <c r="C3" s="60" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A4" s="61" t="s">
-        <v>243</v>
-      </c>
-      <c r="B4" s="123" t="s">
-        <v>246</v>
-      </c>
-      <c r="C4" s="60" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="28.3" x14ac:dyDescent="0.4">
-      <c r="A5" s="61" t="s">
-        <v>244</v>
-      </c>
-      <c r="B5" s="123"/>
-      <c r="C5" s="60" t="s">
-        <v>249</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B2:B3"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="1" width="21.53515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="41.61328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="15.69140625" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A1" s="124" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="125"/>
-      <c r="C1" s="12" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="84.9" x14ac:dyDescent="0.4">
-      <c r="A2" s="126" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="127"/>
-      <c r="C2" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A3" s="126"/>
-      <c r="B3" s="127"/>
-      <c r="C3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="1:9" ht="118.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="128"/>
-      <c r="B4" s="129"/>
-      <c r="C4" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A5" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="42.45" x14ac:dyDescent="0.4">
-      <c r="A6" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A7" s="130" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="131"/>
-      <c r="C7" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="42.45" x14ac:dyDescent="0.4">
-      <c r="A8" s="132" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="133"/>
-      <c r="C8" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B4"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F60BA77A-0FF7-4A09-AAA8-E53725F430B2}">
-  <dimension ref="A1:C11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="1" width="20" style="14" customWidth="1"/>
-    <col min="2" max="2" width="23.53515625" style="14" customWidth="1"/>
-    <col min="3" max="3" width="39.3046875" style="14" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="108" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="109" t="s">
-        <v>290</v>
-      </c>
-      <c r="C1" s="110" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A2" s="111" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="136" t="s">
-        <v>291</v>
-      </c>
-      <c r="C2" s="111" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A3" s="111" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="137"/>
-      <c r="C3" s="111" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A4" s="134" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="136" t="s">
-        <v>292</v>
-      </c>
-      <c r="C4" s="111" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A5" s="138"/>
-      <c r="B5" s="139"/>
-      <c r="C5" s="111" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A6" s="111" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="139"/>
-      <c r="C6" s="111" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="23.15" x14ac:dyDescent="0.4">
-      <c r="A7" s="111" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="136" t="s">
-        <v>293</v>
-      </c>
-      <c r="C7" s="111" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="136" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="137"/>
-      <c r="C8" s="111" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="137"/>
-      <c r="B9" s="136" t="s">
-        <v>294</v>
-      </c>
-      <c r="C9" s="111" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A10" s="134" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="139"/>
-      <c r="C10" s="111" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A11" s="135"/>
-      <c r="B11" s="137"/>
-      <c r="C11" s="111" t="s">
-        <v>29</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B9:B11"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5009B86D-BF46-461E-BF16-B020EE8D75CF}">
-  <dimension ref="A1:S15"/>
-  <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="1" width="12.69140625" style="17" customWidth="1"/>
-    <col min="2" max="8" width="12.69140625" style="16" customWidth="1"/>
-    <col min="9" max="19" width="20.69140625" style="16" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A1" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="B1" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="C1" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="E1" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="F1" s="19" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="23.15" x14ac:dyDescent="0.4">
-      <c r="A2" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="B2" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="D2" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="E2" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="23.15" x14ac:dyDescent="0.4">
-      <c r="A3" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="B3" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="C3" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="D3" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="E3" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="F3" s="19" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A4" s="140"/>
-      <c r="B4" s="140"/>
-      <c r="C4" s="140"/>
-      <c r="D4" s="140"/>
-      <c r="E4" s="140"/>
-      <c r="F4" s="140"/>
-      <c r="G4" s="21"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A5" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="B5" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="C5" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="D5" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="E5" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="F5" s="19" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="46.3" x14ac:dyDescent="0.4">
-      <c r="A6" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="B6" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="D6" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="E6" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="F6" s="19" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="23.15" x14ac:dyDescent="0.4">
-      <c r="A7" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="B7" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="C7" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="D7" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="E7" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="F7" s="19" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A8" s="140"/>
-      <c r="B8" s="140"/>
-      <c r="C8" s="140"/>
-      <c r="D8" s="140"/>
-      <c r="E8" s="140"/>
-      <c r="F8" s="140"/>
-      <c r="G8" s="21"/>
-    </row>
-    <row r="9" spans="1:7" ht="23.15" x14ac:dyDescent="0.4">
-      <c r="A9" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="B9" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="D9" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="E9" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="F9" s="19" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="46.3" x14ac:dyDescent="0.4">
-      <c r="A10" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="B10" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="C10" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="D10" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="E10" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="F10" s="19" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="23.15" x14ac:dyDescent="0.4">
-      <c r="A11" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="B11" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="C11" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="D11" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="E11" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="F11" s="19" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A12" s="141"/>
-      <c r="B12" s="141"/>
-      <c r="C12" s="141"/>
-      <c r="D12" s="141"/>
-      <c r="E12" s="141"/>
-      <c r="F12" s="141"/>
-    </row>
-    <row r="13" spans="1:7" ht="23.15" x14ac:dyDescent="0.4">
-      <c r="A13" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="B13" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="C13" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="D13" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="E13" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="F13" s="19" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="46.3" x14ac:dyDescent="0.4">
-      <c r="A14" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="B14" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="C14" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="D14" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="E14" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="F14" s="19" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="23.15" x14ac:dyDescent="0.4">
-      <c r="A15" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="B15" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="C15" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="D15" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="E15" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="F15" s="19" t="s">
-        <v>71</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="A8:F8"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F247DBC2-86D7-40D9-BBB1-B4B3735D2E61}">
-  <dimension ref="A1:D5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="3.69140625" style="22" customWidth="1"/>
-    <col min="2" max="2" width="50.69140625" style="23" customWidth="1"/>
-    <col min="3" max="3" width="30.69140625" style="23" customWidth="1"/>
-    <col min="4" max="4" width="3.69140625" style="23" customWidth="1"/>
-    <col min="5" max="16384" width="9.23046875" style="22"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="56.6" x14ac:dyDescent="0.35">
-      <c r="A1" s="144" t="s">
-        <v>83</v>
-      </c>
-      <c r="B1" s="24" t="s">
-        <v>93</v>
-      </c>
-      <c r="C1" s="143" t="s">
-        <v>90</v>
-      </c>
-      <c r="D1" s="146" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="70.75" x14ac:dyDescent="0.35">
-      <c r="A2" s="145"/>
-      <c r="B2" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="C2" s="143"/>
-      <c r="D2" s="147"/>
-    </row>
-    <row r="3" spans="1:4" ht="42.45" x14ac:dyDescent="0.35">
-      <c r="A3" s="145"/>
-      <c r="B3" s="24" t="s">
-        <v>87</v>
-      </c>
-      <c r="C3" s="26" t="s">
-        <v>91</v>
-      </c>
-      <c r="D3" s="148" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="70.75" x14ac:dyDescent="0.35">
-      <c r="A4" s="145"/>
-      <c r="B4" s="24" t="s">
-        <v>88</v>
-      </c>
-      <c r="C4" s="142" t="s">
-        <v>92</v>
-      </c>
-      <c r="D4" s="149"/>
-    </row>
-    <row r="5" spans="1:4" ht="70.75" x14ac:dyDescent="0.35">
-      <c r="A5" s="145"/>
-      <c r="B5" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="C5" s="142"/>
-      <c r="D5" s="149"/>
-    </row>
-  </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="A1:A5"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="D3:D5"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>